--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="643">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1447,255 +1447,144 @@
     <t>Enumerado por personaje</t>
   </si>
   <si>
-    <t>V-001</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>Personaje 1</t>
-  </si>
-  <si>
     <t>Indeterminado</t>
   </si>
   <si>
     <t>Voz de seleccion</t>
   </si>
   <si>
-    <t>V-002</t>
-  </si>
-  <si>
     <t>Voz de que algo ha salido bien</t>
   </si>
   <si>
-    <t>V-003</t>
-  </si>
-  <si>
     <t>Voz de que algo ha salido bien 2</t>
   </si>
   <si>
-    <t>V-004</t>
-  </si>
-  <si>
     <t>Voz de que algo ha salido mal</t>
   </si>
   <si>
     <t>1.5</t>
   </si>
   <si>
-    <t>V-005</t>
-  </si>
-  <si>
     <t>Voz de que algo ha salido mal 2</t>
   </si>
   <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>V-006</t>
-  </si>
-  <si>
     <t>Voz emitida cuando haya un choque</t>
   </si>
   <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>V-007</t>
-  </si>
-  <si>
     <t>Victoria</t>
   </si>
   <si>
     <t>1.8</t>
   </si>
   <si>
-    <t>V-008</t>
-  </si>
-  <si>
     <t>Derrota</t>
   </si>
   <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>V-009</t>
-  </si>
-  <si>
     <t>Acelerón</t>
   </si>
   <si>
     <t>2.1</t>
   </si>
   <si>
-    <t>V-010</t>
-  </si>
-  <si>
     <t>Personaje 2</t>
   </si>
   <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>V-011</t>
-  </si>
-  <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>V-012</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>V-013</t>
-  </si>
-  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>V-014</t>
-  </si>
-  <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>V-015</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
-    <t>V-016</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>V-017</t>
-  </si>
-  <si>
     <t>2.9</t>
   </si>
   <si>
-    <t>V-018</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>V-019</t>
-  </si>
-  <si>
     <t>Personaje 3</t>
   </si>
   <si>
     <t>3.2</t>
   </si>
   <si>
-    <t>V-020</t>
-  </si>
-  <si>
     <t>3.3</t>
   </si>
   <si>
-    <t>V-021</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>V-022</t>
-  </si>
-  <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>V-023</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
-    <t>V-024</t>
-  </si>
-  <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>V-025</t>
-  </si>
-  <si>
     <t>3.8</t>
   </si>
   <si>
-    <t>V-026</t>
-  </si>
-  <si>
     <t>3.9</t>
   </si>
   <si>
-    <t>V-027</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
-    <t>V-028</t>
-  </si>
-  <si>
     <t>Personaje 4</t>
   </si>
   <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>V-029</t>
-  </si>
-  <si>
     <t>4.3</t>
   </si>
   <si>
-    <t>V-030</t>
-  </si>
-  <si>
     <t>4.4</t>
   </si>
   <si>
-    <t>V-031</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>V-032</t>
-  </si>
-  <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>V-033</t>
-  </si>
-  <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>V-034</t>
-  </si>
-  <si>
     <t>4.8</t>
   </si>
   <si>
-    <t>V-035</t>
-  </si>
-  <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>V-036</t>
-  </si>
-  <si>
     <t>Sonidos generales de todos los niveles</t>
   </si>
   <si>
@@ -1937,6 +1826,261 @@
   </si>
   <si>
     <t>Musica de fondo del nivel 1</t>
+  </si>
+  <si>
+    <t>V-210 V-215</t>
+  </si>
+  <si>
+    <t>V-220 V-225</t>
+  </si>
+  <si>
+    <t>V-230 V-235</t>
+  </si>
+  <si>
+    <t>V-240 V-245</t>
+  </si>
+  <si>
+    <t>V-250 V-255</t>
+  </si>
+  <si>
+    <t>V-260 V-265</t>
+  </si>
+  <si>
+    <t>V-270 V-275</t>
+  </si>
+  <si>
+    <t>V-280 V-285</t>
+  </si>
+  <si>
+    <t>V-290 V-295</t>
+  </si>
+  <si>
+    <t>V-310 V-315</t>
+  </si>
+  <si>
+    <t>V-320 V-325</t>
+  </si>
+  <si>
+    <t>V-330 V-335</t>
+  </si>
+  <si>
+    <t>V-340 V-345</t>
+  </si>
+  <si>
+    <t>V-350 V-355</t>
+  </si>
+  <si>
+    <t>V-360 V-365</t>
+  </si>
+  <si>
+    <t>V-370 V-375</t>
+  </si>
+  <si>
+    <t>V-380 V-385</t>
+  </si>
+  <si>
+    <t>V-390 V-395</t>
+  </si>
+  <si>
+    <t>V-410 V-415</t>
+  </si>
+  <si>
+    <t>V-420 V-425</t>
+  </si>
+  <si>
+    <t>V-430 V-435</t>
+  </si>
+  <si>
+    <t>V-440 V-445</t>
+  </si>
+  <si>
+    <t>V-450 V-455</t>
+  </si>
+  <si>
+    <t>V-460 V-465</t>
+  </si>
+  <si>
+    <t>V-470 V-475</t>
+  </si>
+  <si>
+    <t>V-480 V-485</t>
+  </si>
+  <si>
+    <t>V-490 V-495</t>
+  </si>
+  <si>
+    <t>Punk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-110 </t>
+  </si>
+  <si>
+    <t>V-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-120 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-121 </t>
+  </si>
+  <si>
+    <t>V-122</t>
+  </si>
+  <si>
+    <t>V-125</t>
+  </si>
+  <si>
+    <t>V-126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-131 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-135 </t>
+  </si>
+  <si>
+    <t>V-136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-140 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-141 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-145 </t>
+  </si>
+  <si>
+    <t>V-146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-151 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-155 </t>
+  </si>
+  <si>
+    <t>V-156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-161 </t>
+  </si>
+  <si>
+    <t>V-165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-170 </t>
+  </si>
+  <si>
+    <t>V-175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-180 </t>
+  </si>
+  <si>
+    <t>V-185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-190 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-191 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-192 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-195 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-196 </t>
+  </si>
+  <si>
+    <t>V-197</t>
+  </si>
+  <si>
+    <t>Voz de selección (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.2</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.1</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Victoria (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Derrota (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Acelerón 1</t>
+  </si>
+  <si>
+    <t>Acelerón 2</t>
+  </si>
+  <si>
+    <t>Acelerón (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Acelerón 1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Acelerón 2 (INGLÉS)</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2597,12 +2741,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2963,21 +3200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2991,9 +3213,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3010,6 +3229,47 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3917,27 +4177,27 @@
         <v>15</v>
       </c>
       <c r="C7" s="17">
-        <f>Personajes!E42</f>
+        <f>Personajes!E65</f>
         <v>0</v>
       </c>
       <c r="D7" s="17">
-        <f>Personajes!F42</f>
+        <f>Personajes!F65</f>
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <f>Personajes!G42</f>
+        <f>Personajes!G65</f>
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <f>Personajes!H42</f>
+        <f>Personajes!H65</f>
         <v>0</v>
       </c>
       <c r="G7" s="17">
-        <f>Personajes!I42</f>
+        <f>Personajes!I65</f>
         <v>0</v>
       </c>
       <c r="H7" s="17">
-        <f>Personajes!J42</f>
+        <f>Personajes!J65</f>
         <v>36</v>
       </c>
       <c r="I7" s="18">
@@ -4049,7 +4309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -4070,7 +4330,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -4148,7 +4408,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -4166,14 +4426,14 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="126" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="134" t="s">
-        <v>592</v>
+      <c r="D5" s="129" t="s">
+        <v>555</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -4190,10 +4450,10 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="56" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="P5" s="56" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4535,82 +4795,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128" t="s">
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="127" t="s">
+      <c r="M3" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="128" t="s">
+      <c r="N3" s="148" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
@@ -4620,15 +4880,15 @@
       <c r="E4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -6696,79 +6956,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="146" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127" t="s">
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="127" t="s">
+      <c r="M3" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="127" t="s">
+      <c r="N3" s="147" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -6784,12 +7044,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -8380,7 +8640,7 @@
       <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="2:17" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="126" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="54">
@@ -8389,7 +8649,7 @@
       <c r="D5" s="55">
         <v>2.31481481481481E-4</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="129" t="s">
         <v>286</v>
       </c>
       <c r="F5" s="57" t="s">
@@ -8418,7 +8678,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="127" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="60">
@@ -8427,7 +8687,7 @@
       <c r="D6" s="61">
         <v>4.6296296296296298E-4</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="130" t="s">
         <v>293</v>
       </c>
       <c r="F6" s="63" t="s">
@@ -8794,82 +9054,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="146" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130" t="s">
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="127" t="s">
+      <c r="G3" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="127" t="s">
+      <c r="H3" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="127" t="s">
+      <c r="M3" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="128" t="s">
+      <c r="N3" s="148" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="97" t="s">
         <v>31</v>
       </c>
@@ -8879,15 +9139,15 @@
       <c r="E4" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="130"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="128"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -10190,79 +10450,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="146" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="147" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="147" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127" t="s">
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="147" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="127" t="s">
+      <c r="M3" s="147" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="127" t="s">
+      <c r="N3" s="147" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="128"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="127"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -10278,12 +10538,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -11401,13 +11661,13 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="126" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="134" t="s">
+      <c r="D5" s="129" t="s">
         <v>293</v>
       </c>
       <c r="E5" s="57" t="s">
@@ -11436,13 +11696,13 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="127" t="s">
         <v>292</v>
       </c>
       <c r="C6" s="100" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="135" t="s">
         <v>416</v>
       </c>
       <c r="E6" s="64"/>
@@ -11469,13 +11729,13 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="127" t="s">
         <v>419</v>
       </c>
       <c r="C7" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="135" t="s">
         <v>421</v>
       </c>
       <c r="E7" s="64"/>
@@ -11502,13 +11762,13 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="127" t="s">
         <v>423</v>
       </c>
       <c r="C8" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="130" t="s">
         <v>424</v>
       </c>
       <c r="E8" s="64"/>
@@ -11535,13 +11795,13 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="133" t="s">
-        <v>442</v>
+      <c r="B9" s="128" t="s">
+        <v>437</v>
       </c>
       <c r="C9" s="114" t="s">
         <v>426</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="136" t="s">
         <v>427</v>
       </c>
       <c r="E9" s="102"/>
@@ -11819,10 +12079,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK44"/>
+  <dimension ref="A1:AMK67"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -11830,15 +12090,15 @@
     <col min="1" max="1" width="5.85546875" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="32" customWidth="1"/>
     <col min="5" max="9" width="2" style="32" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="32" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" style="32" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="32" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" style="32" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="32" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" style="32" customWidth="1"/>
-    <col min="16" max="16" width="31.7109375" style="32" customWidth="1"/>
+    <col min="16" max="16" width="43.140625" style="32" customWidth="1"/>
     <col min="17" max="1025" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
@@ -11887,7 +12147,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="14.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
         <v>412</v>
@@ -11920,7 +12180,7 @@
       <c r="O3" s="45"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="99" t="s">
         <v>430</v>
       </c>
@@ -11931,7 +12191,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
+      <c r="J4" s="145"/>
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
@@ -11939,79 +12199,77 @@
       <c r="O4" s="48"/>
       <c r="P4" s="53"/>
     </row>
-    <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="138" t="s">
+    <row r="5" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="132" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="59"/>
-      <c r="D5" s="136" t="s">
-        <v>431</v>
+      <c r="D5" s="143" t="s">
+        <v>586</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
-      <c r="J5" s="59" t="s">
+      <c r="J5" s="142" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="58" t="s">
+      <c r="K5" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L5" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M5" s="138" t="s">
         <v>432</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="N5" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O5" s="59"/>
+      <c r="P5" s="151" t="s">
         <v>433</v>
       </c>
-      <c r="M5" s="58" t="s">
-        <v>434</v>
-      </c>
-      <c r="N5" s="58" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="139" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="137" t="s">
-        <v>436</v>
-      </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+    </row>
+    <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="141"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="144" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
       <c r="J6" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L6" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M6" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L6" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N6" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="139" t="s">
-        <v>419</v>
+      <c r="O6" s="142"/>
+      <c r="P6" s="142" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="133" t="s">
+        <v>292</v>
       </c>
       <c r="C7" s="65"/>
-      <c r="D7" s="137" t="s">
-        <v>438</v>
+      <c r="D7" s="135" t="s">
+        <v>588</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -12021,30 +12279,28 @@
       <c r="J7" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L7" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M7" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L7" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M7" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N7" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="65" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="139" t="s">
-        <v>423</v>
-      </c>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="133"/>
       <c r="C8" s="65"/>
-      <c r="D8" s="137" t="s">
-        <v>440</v>
+      <c r="D8" s="135" t="s">
+        <v>589</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -12054,30 +12310,28 @@
       <c r="J8" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L8" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M8" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L8" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M8" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N8" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="139" t="s">
-        <v>442</v>
-      </c>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="133"/>
       <c r="C9" s="65"/>
-      <c r="D9" s="137" t="s">
-        <v>443</v>
+      <c r="D9" s="135" t="s">
+        <v>590</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -12087,30 +12341,28 @@
       <c r="J9" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M9" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L9" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N9" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="139" t="s">
-        <v>445</v>
-      </c>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="133"/>
       <c r="C10" s="65"/>
-      <c r="D10" s="137" t="s">
-        <v>446</v>
+      <c r="D10" s="135" t="s">
+        <v>591</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -12120,30 +12372,28 @@
       <c r="J10" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M10" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L10" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M10" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N10" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="65" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="139" t="s">
-        <v>448</v>
-      </c>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="133"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="137" t="s">
-        <v>449</v>
+      <c r="D11" s="135" t="s">
+        <v>592</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -12153,30 +12403,30 @@
       <c r="J11" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="64" t="s">
+      <c r="K11" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L11" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M11" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L11" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M11" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N11" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="65" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="139" t="s">
-        <v>451</v>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="133" t="s">
+        <v>419</v>
       </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="137" t="s">
-        <v>452</v>
+      <c r="D12" s="135" t="s">
+        <v>593</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -12186,30 +12436,28 @@
       <c r="J12" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L12" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M12" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L12" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M12" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N12" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O12" s="65"/>
       <c r="P12" s="65" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="139" t="s">
-        <v>454</v>
-      </c>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="133"/>
       <c r="C13" s="65"/>
-      <c r="D13" s="137" t="s">
-        <v>455</v>
+      <c r="D13" s="135" t="s">
+        <v>594</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -12219,30 +12467,28 @@
       <c r="J13" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="64" t="s">
+      <c r="K13" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L13" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M13" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L13" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="M13" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N13" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="139" t="s">
-        <v>457</v>
-      </c>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="133"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="137" t="s">
-        <v>458</v>
+      <c r="D14" s="135" t="s">
+        <v>595</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -12252,30 +12498,28 @@
       <c r="J14" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="64" t="s">
+      <c r="K14" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L14" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M14" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L14" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M14" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N14" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="139" t="s">
-        <v>460</v>
-      </c>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="133"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="137" t="s">
-        <v>461</v>
+      <c r="D15" s="135" t="s">
+        <v>596</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -12285,30 +12529,30 @@
       <c r="J15" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K15" s="64" t="s">
+      <c r="K15" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L15" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M15" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L15" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M15" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N15" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="139" t="s">
-        <v>462</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="133" t="s">
+        <v>423</v>
       </c>
       <c r="C16" s="65"/>
-      <c r="D16" s="137" t="s">
-        <v>463</v>
+      <c r="D16" s="135" t="s">
+        <v>597</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -12318,30 +12562,28 @@
       <c r="J16" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K16" s="64" t="s">
+      <c r="K16" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L16" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M16" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L16" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M16" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N16" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="139" t="s">
-        <v>464</v>
-      </c>
+        <v>621</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="133"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="137" t="s">
-        <v>465</v>
+      <c r="D17" s="135" t="s">
+        <v>598</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -12351,30 +12593,28 @@
       <c r="J17" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K17" s="64" t="s">
+      <c r="K17" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L17" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M17" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L17" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M17" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N17" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="139" t="s">
-        <v>466</v>
-      </c>
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="133"/>
       <c r="C18" s="65"/>
-      <c r="D18" s="137" t="s">
-        <v>467</v>
+      <c r="D18" s="135" t="s">
+        <v>599</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -12384,30 +12624,28 @@
       <c r="J18" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="64" t="s">
+      <c r="K18" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L18" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M18" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L18" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M18" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N18" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="139" t="s">
-        <v>468</v>
-      </c>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="133"/>
       <c r="C19" s="65"/>
-      <c r="D19" s="137" t="s">
-        <v>469</v>
+      <c r="D19" s="135" t="s">
+        <v>600</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -12417,30 +12655,30 @@
       <c r="J19" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K19" s="64" t="s">
+      <c r="K19" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L19" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M19" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L19" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M19" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N19" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="139" t="s">
-        <v>470</v>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="133" t="s">
+        <v>437</v>
       </c>
       <c r="C20" s="65"/>
-      <c r="D20" s="137" t="s">
-        <v>471</v>
+      <c r="D20" s="135" t="s">
+        <v>601</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -12450,30 +12688,28 @@
       <c r="J20" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="64" t="s">
+      <c r="K20" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L20" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M20" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L20" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M20" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N20" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="139" t="s">
-        <v>472</v>
-      </c>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="133"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="137" t="s">
-        <v>473</v>
+      <c r="D21" s="135" t="s">
+        <v>602</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -12483,30 +12719,28 @@
       <c r="J21" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="64" t="s">
+      <c r="K21" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L21" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M21" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L21" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M21" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N21" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="139" t="s">
-        <v>474</v>
-      </c>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="133"/>
       <c r="C22" s="65"/>
-      <c r="D22" s="137" t="s">
-        <v>475</v>
+      <c r="D22" s="135" t="s">
+        <v>603</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -12516,30 +12750,28 @@
       <c r="J22" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K22" s="64" t="s">
+      <c r="K22" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L22" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M22" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L22" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="M22" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N22" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="139" t="s">
-        <v>476</v>
-      </c>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="133"/>
       <c r="C23" s="65"/>
-      <c r="D23" s="137" t="s">
-        <v>477</v>
+      <c r="D23" s="135" t="s">
+        <v>604</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -12549,30 +12781,30 @@
       <c r="J23" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="64" t="s">
+      <c r="K23" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L23" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M23" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L23" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M23" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="139" t="s">
-        <v>479</v>
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="133" t="s">
+        <v>439</v>
       </c>
       <c r="C24" s="65"/>
-      <c r="D24" s="137" t="s">
-        <v>480</v>
+      <c r="D24" s="135" t="s">
+        <v>605</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -12582,30 +12814,28 @@
       <c r="J24" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K24" s="64" t="s">
+      <c r="K24" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L24" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M24" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L24" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M24" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N24" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="139" t="s">
-        <v>481</v>
-      </c>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="133"/>
       <c r="C25" s="65"/>
-      <c r="D25" s="137" t="s">
-        <v>482</v>
+      <c r="D25" s="135" t="s">
+        <v>606</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -12615,30 +12845,28 @@
       <c r="J25" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K25" s="64" t="s">
+      <c r="K25" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L25" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M25" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L25" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M25" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N25" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="65" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="139" t="s">
-        <v>483</v>
-      </c>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="133"/>
       <c r="C26" s="65"/>
-      <c r="D26" s="137" t="s">
-        <v>484</v>
+      <c r="D26" s="135" t="s">
+        <v>607</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -12648,30 +12876,30 @@
       <c r="J26" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="64" t="s">
+      <c r="K26" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L26" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M26" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L26" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M26" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N26" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="133" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="139" t="s">
-        <v>485</v>
-      </c>
       <c r="C27" s="65"/>
-      <c r="D27" s="137" t="s">
-        <v>486</v>
+      <c r="D27" s="135" t="s">
+        <v>608</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -12681,30 +12909,28 @@
       <c r="J27" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K27" s="64" t="s">
+      <c r="K27" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L27" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M27" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L27" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M27" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N27" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O27" s="65"/>
       <c r="P27" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="139" t="s">
-        <v>487</v>
-      </c>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="133"/>
       <c r="C28" s="65"/>
-      <c r="D28" s="137" t="s">
-        <v>488</v>
+      <c r="D28" s="135" t="s">
+        <v>609</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -12714,30 +12940,30 @@
       <c r="J28" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K28" s="64" t="s">
+      <c r="K28" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L28" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M28" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L28" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M28" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N28" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="139" t="s">
-        <v>489</v>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="133" t="s">
+        <v>443</v>
       </c>
       <c r="C29" s="65"/>
-      <c r="D29" s="137" t="s">
-        <v>490</v>
+      <c r="D29" s="135" t="s">
+        <v>610</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -12747,30 +12973,28 @@
       <c r="J29" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="64" t="s">
+      <c r="K29" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L29" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M29" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L29" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M29" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N29" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O29" s="65"/>
       <c r="P29" s="65" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="139" t="s">
-        <v>491</v>
-      </c>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="133"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="137" t="s">
-        <v>492</v>
+      <c r="D30" s="135" t="s">
+        <v>611</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
@@ -12780,30 +13004,30 @@
       <c r="J30" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K30" s="64" t="s">
+      <c r="K30" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L30" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M30" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L30" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M30" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N30" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="139" t="s">
-        <v>493</v>
+        <v>637</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="133" t="s">
+        <v>445</v>
       </c>
       <c r="C31" s="65"/>
-      <c r="D31" s="137" t="s">
-        <v>494</v>
+      <c r="D31" s="135" t="s">
+        <v>612</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -12813,30 +13037,28 @@
       <c r="J31" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="64" t="s">
+      <c r="K31" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L31" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M31" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L31" s="64" t="s">
-        <v>478</v>
-      </c>
-      <c r="M31" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N31" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O31" s="65"/>
       <c r="P31" s="65" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="139" t="s">
-        <v>495</v>
-      </c>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="133"/>
       <c r="C32" s="65"/>
-      <c r="D32" s="137" t="s">
-        <v>496</v>
+      <c r="D32" s="135" t="s">
+        <v>613</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -12846,30 +13068,28 @@
       <c r="J32" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L32" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M32" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L32" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M32" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O32" s="65"/>
       <c r="P32" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="139" t="s">
-        <v>498</v>
-      </c>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="133"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="137" t="s">
-        <v>499</v>
+      <c r="D33" s="135" t="s">
+        <v>614</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -12879,30 +13099,28 @@
       <c r="J33" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K33" s="64" t="s">
+      <c r="K33" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L33" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M33" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L33" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M33" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N33" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O33" s="65"/>
       <c r="P33" s="65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="139" t="s">
-        <v>500</v>
-      </c>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="133"/>
       <c r="C34" s="65"/>
-      <c r="D34" s="137" t="s">
-        <v>501</v>
+      <c r="D34" s="135" t="s">
+        <v>615</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -12912,30 +13130,28 @@
       <c r="J34" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="64" t="s">
+      <c r="K34" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L34" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M34" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L34" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M34" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N34" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O34" s="65"/>
       <c r="P34" s="65" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="139" t="s">
-        <v>502</v>
-      </c>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="133"/>
       <c r="C35" s="65"/>
-      <c r="D35" s="137" t="s">
-        <v>503</v>
+      <c r="D35" s="135" t="s">
+        <v>616</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -12945,30 +13161,28 @@
       <c r="J35" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="64" t="s">
+      <c r="K35" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L35" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M35" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L35" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M35" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N35" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O35" s="65"/>
       <c r="P35" s="65" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="139" t="s">
-        <v>504</v>
-      </c>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="133"/>
       <c r="C36" s="65"/>
-      <c r="D36" s="137" t="s">
-        <v>505</v>
+      <c r="D36" s="135" t="s">
+        <v>617</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -12978,30 +13192,30 @@
       <c r="J36" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K36" s="64" t="s">
+      <c r="K36" s="137" t="s">
+        <v>431</v>
+      </c>
+      <c r="L36" s="140" t="s">
+        <v>585</v>
+      </c>
+      <c r="M36" s="138" t="s">
         <v>432</v>
-      </c>
-      <c r="L36" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M36" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N36" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O36" s="65"/>
       <c r="P36" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="139" t="s">
-        <v>506</v>
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="133" t="s">
+        <v>447</v>
       </c>
       <c r="C37" s="65"/>
-      <c r="D37" s="137" t="s">
-        <v>507</v>
+      <c r="D37" s="131" t="s">
+        <v>558</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -13012,29 +13226,29 @@
         <v>204</v>
       </c>
       <c r="K37" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L37" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M37" s="64" t="s">
         <v>432</v>
-      </c>
-      <c r="L37" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M37" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N37" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O37" s="65"/>
       <c r="P37" s="65" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="139" t="s">
-        <v>508</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="133" t="s">
+        <v>449</v>
       </c>
       <c r="C38" s="65"/>
-      <c r="D38" s="137" t="s">
-        <v>509</v>
+      <c r="D38" s="131" t="s">
+        <v>559</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -13045,29 +13259,29 @@
         <v>204</v>
       </c>
       <c r="K38" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L38" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M38" s="64" t="s">
         <v>432</v>
-      </c>
-      <c r="L38" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M38" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N38" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="133" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="139" t="s">
-        <v>510</v>
-      </c>
       <c r="C39" s="65"/>
-      <c r="D39" s="137" t="s">
-        <v>511</v>
+      <c r="D39" s="131" t="s">
+        <v>560</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
@@ -13078,29 +13292,29 @@
         <v>204</v>
       </c>
       <c r="K39" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L39" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M39" s="64" t="s">
         <v>432</v>
-      </c>
-      <c r="L39" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M39" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N39" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O39" s="65"/>
       <c r="P39" s="65" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="139" t="s">
-        <v>512</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="133" t="s">
+        <v>451</v>
       </c>
       <c r="C40" s="65"/>
-      <c r="D40" s="137" t="s">
-        <v>513</v>
+      <c r="D40" s="131" t="s">
+        <v>561</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -13111,109 +13325,902 @@
         <v>204</v>
       </c>
       <c r="K40" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L40" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M40" s="64" t="s">
         <v>432</v>
-      </c>
-      <c r="L40" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="M40" s="64" t="s">
-        <v>434</v>
       </c>
       <c r="N40" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O40" s="65"/>
       <c r="P40" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="133" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="131" t="s">
+        <v>562</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K41" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L41" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M41" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N41" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="133" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="65"/>
+      <c r="D42" s="131" t="s">
+        <v>563</v>
+      </c>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L42" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M42" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N42" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="133" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="131" t="s">
+        <v>564</v>
+      </c>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K43" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L43" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M43" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N43" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="133" t="s">
+        <v>455</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="131" t="s">
+        <v>565</v>
+      </c>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K44" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L44" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M44" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N44" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O44" s="65"/>
+      <c r="P44" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="133" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="108"/>
-    </row>
-    <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="89"/>
-      <c r="C42" s="91" t="s">
+      <c r="C45" s="65"/>
+      <c r="D45" s="131" t="s">
+        <v>566</v>
+      </c>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K45" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L45" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="M45" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N45" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="133" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" s="65"/>
+      <c r="D46" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K46" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L46" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M46" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N46" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O46" s="65"/>
+      <c r="P46" s="65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="133" t="s">
+        <v>459</v>
+      </c>
+      <c r="C47" s="65"/>
+      <c r="D47" s="131" t="s">
+        <v>568</v>
+      </c>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K47" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L47" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M47" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N47" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O47" s="65"/>
+      <c r="P47" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="133" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" s="65"/>
+      <c r="D48" s="131" t="s">
+        <v>569</v>
+      </c>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K48" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M48" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N48" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O48" s="65"/>
+      <c r="P48" s="65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="133" t="s">
+        <v>461</v>
+      </c>
+      <c r="C49" s="65"/>
+      <c r="D49" s="131" t="s">
+        <v>570</v>
+      </c>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K49" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L49" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M49" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N49" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O49" s="65"/>
+      <c r="P49" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="C50" s="65"/>
+      <c r="D50" s="131" t="s">
+        <v>571</v>
+      </c>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K50" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L50" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M50" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N50" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="133" t="s">
+        <v>463</v>
+      </c>
+      <c r="C51" s="65"/>
+      <c r="D51" s="131" t="s">
+        <v>572</v>
+      </c>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="64"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K51" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L51" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M51" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N51" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O51" s="65"/>
+      <c r="P51" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="133" t="s">
+        <v>464</v>
+      </c>
+      <c r="C52" s="65"/>
+      <c r="D52" s="131" t="s">
+        <v>573</v>
+      </c>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K52" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L52" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M52" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N52" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O52" s="65"/>
+      <c r="P52" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="133" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="65"/>
+      <c r="D53" s="131" t="s">
+        <v>574</v>
+      </c>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K53" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L53" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M53" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N53" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O53" s="65"/>
+      <c r="P53" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="133" t="s">
+        <v>466</v>
+      </c>
+      <c r="C54" s="65"/>
+      <c r="D54" s="131" t="s">
+        <v>575</v>
+      </c>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K54" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L54" s="64" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N54" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O54" s="65"/>
+      <c r="P54" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="133" t="s">
+        <v>467</v>
+      </c>
+      <c r="C55" s="65"/>
+      <c r="D55" s="131" t="s">
+        <v>576</v>
+      </c>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M55" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N55" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O55" s="65"/>
+      <c r="P55" s="65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="C56" s="65"/>
+      <c r="D56" s="131" t="s">
+        <v>577</v>
+      </c>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K56" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L56" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M56" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N56" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="133" t="s">
+        <v>470</v>
+      </c>
+      <c r="C57" s="65"/>
+      <c r="D57" s="131" t="s">
+        <v>578</v>
+      </c>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K57" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L57" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M57" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N57" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O57" s="65"/>
+      <c r="P57" s="65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="133" t="s">
+        <v>471</v>
+      </c>
+      <c r="C58" s="65"/>
+      <c r="D58" s="131" t="s">
+        <v>579</v>
+      </c>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K58" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L58" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M58" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N58" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O58" s="65"/>
+      <c r="P58" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="133" t="s">
+        <v>472</v>
+      </c>
+      <c r="C59" s="65"/>
+      <c r="D59" s="131" t="s">
+        <v>580</v>
+      </c>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K59" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L59" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N59" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O59" s="65"/>
+      <c r="P59" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="133" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" s="65"/>
+      <c r="D60" s="131" t="s">
+        <v>581</v>
+      </c>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L60" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M60" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N60" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O60" s="65"/>
+      <c r="P60" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="C61" s="65"/>
+      <c r="D61" s="131" t="s">
+        <v>582</v>
+      </c>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K61" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L61" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M61" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N61" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O61" s="65"/>
+      <c r="P61" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="65"/>
+      <c r="D62" s="131" t="s">
+        <v>583</v>
+      </c>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K62" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M62" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N62" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O62" s="65"/>
+      <c r="P62" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="133" t="s">
+        <v>476</v>
+      </c>
+      <c r="C63" s="65"/>
+      <c r="D63" s="131" t="s">
+        <v>584</v>
+      </c>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K63" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L63" s="64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M63" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N63" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="107"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="108"/>
+      <c r="K64" s="109"/>
+      <c r="L64" s="109"/>
+      <c r="M64" s="109"/>
+      <c r="N64" s="109"/>
+      <c r="O64" s="108"/>
+      <c r="P64" s="108"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="89"/>
+      <c r="C65" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92">
+      <c r="D65" s="91"/>
+      <c r="E65" s="92">
         <v>0</v>
       </c>
-      <c r="F42" s="92">
+      <c r="F65" s="92">
         <v>0</v>
       </c>
-      <c r="G42" s="92">
+      <c r="G65" s="92">
         <v>0</v>
       </c>
-      <c r="H42" s="92">
+      <c r="H65" s="92">
         <v>0</v>
       </c>
-      <c r="I42" s="92">
+      <c r="I65" s="92">
         <v>0</v>
       </c>
-      <c r="J42" s="92">
+      <c r="J65" s="92">
         <v>36</v>
       </c>
-      <c r="K42" s="93"/>
-      <c r="L42" s="93"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90"/>
-      <c r="P42" s="90"/>
-    </row>
-    <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="90"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="93"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="93"/>
-      <c r="M43" s="93"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90"/>
-      <c r="P43" s="90"/>
-    </row>
-    <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95" t="s">
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="90"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="90"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="90"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="93"/>
+      <c r="E66" s="93"/>
+      <c r="F66" s="93"/>
+      <c r="G66" s="93"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="93"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="93"/>
+      <c r="L66" s="93"/>
+      <c r="M66" s="93"/>
+      <c r="N66" s="90"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="90"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="93"/>
+      <c r="E67" s="94"/>
+      <c r="F67" s="94"/>
+      <c r="G67" s="94"/>
+      <c r="H67" s="94"/>
+      <c r="I67" s="94"/>
+      <c r="J67" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K67" s="96">
         <v>36</v>
       </c>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="90"/>
+      <c r="L67" s="93"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="90"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" location="'Metadatos V'!B4" xr:uid="{0BD1436B-6291-47FC-8FE2-9F631D4A5D8B}"/>
+    <hyperlink ref="D6" r:id="rId2" location="'Metadatos V'!B5" xr:uid="{98012A51-0003-4C45-ADC0-B25C4082F0F6}"/>
+    <hyperlink ref="D7" r:id="rId3" location="'Metadatos V'!B6" xr:uid="{09CB2D60-9401-469B-A76D-4B52FCF147E7}"/>
+    <hyperlink ref="D8" r:id="rId4" location="'Metadatos V'!B7" xr:uid="{06441420-AF16-4817-80DD-783F86540945}"/>
+    <hyperlink ref="D9" r:id="rId5" location="'Metadatos V'!B8" xr:uid="{A0128460-B47C-4750-BD62-F7D0DD2256CB}"/>
+    <hyperlink ref="D10" r:id="rId6" location="'Metadatos V'!B9" xr:uid="{88F31584-2C7F-4A2B-B050-9A2F5B51DAE3}"/>
+    <hyperlink ref="D11" r:id="rId7" location="'Metadatos V'!B10" xr:uid="{BFFCD561-ECA6-4E38-A05E-9E9D7C3E00E3}"/>
+    <hyperlink ref="D12" r:id="rId8" location="'Metadatos V'!B11" xr:uid="{622BBCCC-05B3-420D-BCE0-22E89EAB2F59}"/>
+    <hyperlink ref="D13" r:id="rId9" location="'Metadatos V'!B12" xr:uid="{86B5AC53-90B9-4298-8F17-CCA00DE85D36}"/>
+    <hyperlink ref="D14" r:id="rId10" location="'Metadatos V'!B13" xr:uid="{A1E1AE46-F14D-49E5-88B1-E1778D6E85EC}"/>
+    <hyperlink ref="D15" r:id="rId11" location="'Metadatos V'!B14" xr:uid="{E5A504A1-A0E7-41DB-BDC0-D3972E993224}"/>
+    <hyperlink ref="D16" r:id="rId12" location="'Metadatos V'!B15" xr:uid="{8AAA86F4-6B02-4767-BD7F-87D3FA8737F8}"/>
+    <hyperlink ref="D17" r:id="rId13" location="'Metadatos V'!B16" xr:uid="{D945EC01-224F-429C-91BE-A6AE3AF675EE}"/>
+    <hyperlink ref="D18" r:id="rId14" location="'Metadatos V'!B17" xr:uid="{F74010C6-48AF-421F-8CB5-9ECD4F69827F}"/>
+    <hyperlink ref="D19" r:id="rId15" location="'Metadatos V'!B18" xr:uid="{85B568FA-D77E-4E0C-A20C-16302F6445B6}"/>
+    <hyperlink ref="D20" r:id="rId16" location="'Metadatos V'!B19" xr:uid="{0D0AC1A1-23D3-4C7A-B9A6-95A52943F935}"/>
+    <hyperlink ref="D21" r:id="rId17" location="'Metadatos V'!B20" xr:uid="{91EB44F3-FDCD-446C-B423-521EC3E08CFC}"/>
+    <hyperlink ref="D22" r:id="rId18" location="'Metadatos V'!B21" xr:uid="{7CC451FE-01F6-4AAD-8761-EB362C8B93AB}"/>
+    <hyperlink ref="D23" r:id="rId19" location="'Metadatos V'!B22" xr:uid="{8E5B01BD-8506-4B2A-820D-3C8778A072C9}"/>
+    <hyperlink ref="D24" r:id="rId20" location="'Metadatos V'!B23" xr:uid="{B38C39CE-9F9F-4FE0-AACD-A1B4F3B69E2E}"/>
+    <hyperlink ref="D25" r:id="rId21" location="'Metadatos V'!B24" xr:uid="{66FB0936-72FB-40BF-9F43-22388C20062F}"/>
+    <hyperlink ref="D26" r:id="rId22" location="'Metadatos V'!B25" xr:uid="{5D379C2D-D0F3-4425-985E-CDEF94335E2E}"/>
+    <hyperlink ref="D27" r:id="rId23" location="'Metadatos V'!B26" xr:uid="{1249F71D-4AB4-4CD9-A227-C6B0F2C3B228}"/>
+    <hyperlink ref="D28" r:id="rId24" location="'Metadatos V'!B27" xr:uid="{4260577E-DC60-47E1-BAB4-568E61FA7E8A}"/>
+    <hyperlink ref="D29" r:id="rId25" location="'Metadatos V'!B28" xr:uid="{45141514-FCF0-4841-BEEE-BE087102CF59}"/>
+    <hyperlink ref="D30" r:id="rId26" location="'Metadatos V'!B29" xr:uid="{89EF11CF-14B3-4C98-9531-04E18ECDF7D1}"/>
+    <hyperlink ref="D31" r:id="rId27" location="'Metadatos V'!B30" xr:uid="{BA2E6FF6-DDEE-4EC6-B5C6-D5D998337350}"/>
+    <hyperlink ref="D32" r:id="rId28" location="'Metadatos V'!B31" xr:uid="{F2A50E4B-136B-44E5-8F43-847EBDD8F1AC}"/>
+    <hyperlink ref="D33" r:id="rId29" location="'Metadatos V'!B32" xr:uid="{F1D0BDE0-B3E8-4C6D-A376-FA6E21D2EE2D}"/>
+    <hyperlink ref="D34" r:id="rId30" location="'Metadatos V'!B33" xr:uid="{8FA923E8-C75C-4DAD-835A-7B7C5B507A30}"/>
+    <hyperlink ref="D35" r:id="rId31" location="'Metadatos V'!B34" xr:uid="{B5999E1E-211B-4435-BB6C-42AFE3F80781}"/>
+    <hyperlink ref="D36" r:id="rId32" location="'Metadatos V'!B35" xr:uid="{26BB993F-1B41-4033-BF0E-ED5CF3051DDC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -13245,7 +14252,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>514</v>
+        <v>477</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -13341,14 +14348,14 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="126" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>515</v>
-      </c>
-      <c r="D5" s="134" t="s">
-        <v>516</v>
+        <v>478</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>479</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -13366,18 +14373,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="56" t="s">
-        <v>518</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="140"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="65"/>
-      <c r="D6" s="135" t="s">
-        <v>519</v>
+      <c r="D6" s="130" t="s">
+        <v>482</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -13395,22 +14402,22 @@
         <v>207</v>
       </c>
       <c r="N6" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="62" t="s">
-        <v>520</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="127" t="s">
         <v>292</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>515</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>521</v>
+        <v>478</v>
+      </c>
+      <c r="D7" s="130" t="s">
+        <v>484</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -13428,20 +14435,20 @@
         <v>207</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="62" t="s">
-        <v>522</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="140"/>
+      <c r="B8" s="134"/>
       <c r="C8" s="100">
         <v>2</v>
       </c>
-      <c r="D8" s="135" t="s">
-        <v>523</v>
+      <c r="D8" s="130" t="s">
+        <v>486</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -13459,20 +14466,20 @@
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="62" t="s">
-        <v>524</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="140"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D9" s="135" t="s">
-        <v>525</v>
+      <c r="D9" s="130" t="s">
+        <v>488</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -13490,22 +14497,22 @@
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="62" t="s">
-        <v>526</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="127" t="s">
         <v>419</v>
       </c>
       <c r="C10" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D10" s="135" t="s">
-        <v>527</v>
+      <c r="D10" s="130" t="s">
+        <v>490</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -13523,22 +14530,22 @@
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="62" t="s">
-        <v>529</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="127" t="s">
         <v>423</v>
       </c>
       <c r="C11" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D11" s="135" t="s">
-        <v>530</v>
+      <c r="D11" s="130" t="s">
+        <v>493</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -13556,22 +14563,22 @@
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="62" t="s">
-        <v>531</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="132" t="s">
-        <v>442</v>
+      <c r="B12" s="127" t="s">
+        <v>437</v>
       </c>
       <c r="C12" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D12" s="135" t="s">
-        <v>532</v>
+      <c r="D12" s="130" t="s">
+        <v>495</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -13591,16 +14598,16 @@
       <c r="N12" s="64"/>
       <c r="O12" s="65"/>
       <c r="P12" s="62" t="s">
-        <v>533</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="140"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="100">
         <v>8</v>
       </c>
-      <c r="D13" s="135" t="s">
-        <v>534</v>
+      <c r="D13" s="130" t="s">
+        <v>497</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>200</v>
@@ -13618,24 +14625,24 @@
         <v>207</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O13" s="65" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="P13" s="62" t="s">
-        <v>536</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="132" t="s">
-        <v>445</v>
+      <c r="B14" s="127" t="s">
+        <v>439</v>
       </c>
       <c r="C14" s="100">
         <v>2</v>
       </c>
-      <c r="D14" s="135" t="s">
-        <v>537</v>
+      <c r="D14" s="130" t="s">
+        <v>500</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -13653,20 +14660,20 @@
       </c>
       <c r="M14" s="64"/>
       <c r="N14" s="64" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="62" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="140"/>
+      <c r="B15" s="134"/>
       <c r="C15" s="100" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" s="135" t="s">
-        <v>541</v>
+        <v>503</v>
+      </c>
+      <c r="D15" s="130" t="s">
+        <v>504</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -13684,16 +14691,16 @@
       <c r="N15" s="64"/>
       <c r="O15" s="65"/>
       <c r="P15" s="62" t="s">
-        <v>542</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="140"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="100" t="s">
-        <v>540</v>
-      </c>
-      <c r="D16" s="135" t="s">
-        <v>543</v>
+        <v>503</v>
+      </c>
+      <c r="D16" s="130" t="s">
+        <v>506</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -13711,18 +14718,18 @@
       <c r="N16" s="64"/>
       <c r="O16" s="65"/>
       <c r="P16" s="62" t="s">
-        <v>544</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="132" t="s">
-        <v>448</v>
+      <c r="B17" s="127" t="s">
+        <v>441</v>
       </c>
       <c r="C17" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D17" s="135" t="s">
-        <v>545</v>
+      <c r="D17" s="130" t="s">
+        <v>508</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -13740,22 +14747,22 @@
       </c>
       <c r="M17" s="64"/>
       <c r="N17" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="62" t="s">
-        <v>546</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="132" t="s">
-        <v>451</v>
+      <c r="B18" s="127" t="s">
+        <v>443</v>
       </c>
       <c r="C18" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D18" s="135" t="s">
-        <v>547</v>
+      <c r="D18" s="130" t="s">
+        <v>510</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -13773,20 +14780,20 @@
         <v>207</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="62" t="s">
-        <v>548</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="132"/>
+      <c r="B19" s="127"/>
       <c r="C19" s="100">
         <v>1</v>
       </c>
-      <c r="D19" s="135" t="s">
-        <v>549</v>
+      <c r="D19" s="130" t="s">
+        <v>512</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -13804,22 +14811,22 @@
         <v>207</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="62" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="132" t="s">
-        <v>454</v>
+      <c r="B20" s="127" t="s">
+        <v>445</v>
       </c>
       <c r="C20" s="100">
         <v>1</v>
       </c>
-      <c r="D20" s="135" t="s">
-        <v>551</v>
+      <c r="D20" s="130" t="s">
+        <v>514</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -13837,22 +14844,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="62" t="s">
-        <v>552</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="132" t="s">
-        <v>553</v>
+      <c r="B21" s="127" t="s">
+        <v>516</v>
       </c>
       <c r="C21" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D21" s="135" t="s">
-        <v>554</v>
+      <c r="D21" s="130" t="s">
+        <v>517</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -13870,22 +14877,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="62" t="s">
-        <v>555</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="132" t="s">
-        <v>556</v>
+      <c r="B22" s="127" t="s">
+        <v>519</v>
       </c>
       <c r="C22" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D22" s="135" t="s">
-        <v>554</v>
+      <c r="D22" s="130" t="s">
+        <v>517</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -13903,22 +14910,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="62" t="s">
-        <v>557</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="132" t="s">
-        <v>558</v>
+      <c r="B23" s="127" t="s">
+        <v>521</v>
       </c>
       <c r="C23" s="100">
         <v>2</v>
       </c>
-      <c r="D23" s="135" t="s">
-        <v>559</v>
+      <c r="D23" s="130" t="s">
+        <v>522</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>200</v>
@@ -13936,20 +14943,20 @@
         <v>207</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="62" t="s">
-        <v>560</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="140"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D24" s="135" t="s">
-        <v>561</v>
+      <c r="D24" s="130" t="s">
+        <v>524</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -13967,20 +14974,20 @@
         <v>207</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="62" t="s">
-        <v>562</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="140"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D25" s="135" t="s">
-        <v>563</v>
+      <c r="D25" s="130" t="s">
+        <v>526</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -13998,22 +15005,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="62" t="s">
-        <v>564</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="140" t="s">
-        <v>565</v>
+      <c r="B26" s="134" t="s">
+        <v>528</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
       </c>
-      <c r="D26" s="135" t="s">
-        <v>566</v>
+      <c r="D26" s="130" t="s">
+        <v>529</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -14031,22 +15038,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>567</v>
+        <v>530</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="62" t="s">
-        <v>568</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="140" t="s">
-        <v>569</v>
+      <c r="B27" s="134" t="s">
+        <v>532</v>
       </c>
       <c r="C27" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D27" s="135" t="s">
-        <v>570</v>
+      <c r="D27" s="130" t="s">
+        <v>533</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -14066,16 +15073,16 @@
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
       <c r="P27" s="62" t="s">
-        <v>571</v>
+        <v>534</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="140" t="s">
-        <v>572</v>
+      <c r="B28" s="134" t="s">
+        <v>535</v>
       </c>
       <c r="C28" s="65"/>
-      <c r="D28" s="135" t="s">
-        <v>573</v>
+      <c r="D28" s="130" t="s">
+        <v>536</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -14093,16 +15100,16 @@
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
       <c r="P28" s="62" t="s">
-        <v>574</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="140" t="s">
-        <v>575</v>
+      <c r="B29" s="134" t="s">
+        <v>538</v>
       </c>
       <c r="C29" s="65"/>
-      <c r="D29" s="135" t="s">
-        <v>576</v>
+      <c r="D29" s="130" t="s">
+        <v>539</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -14120,16 +15127,16 @@
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
       <c r="P29" s="62" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="140" t="s">
-        <v>578</v>
+      <c r="B30" s="134" t="s">
+        <v>541</v>
       </c>
       <c r="C30" s="65"/>
-      <c r="D30" s="135" t="s">
-        <v>579</v>
+      <c r="D30" s="130" t="s">
+        <v>542</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>200</v>
@@ -14147,16 +15154,16 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
       <c r="P30" s="62" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="140" t="s">
-        <v>581</v>
+      <c r="B31" s="134" t="s">
+        <v>544</v>
       </c>
       <c r="C31" s="65"/>
-      <c r="D31" s="135" t="s">
-        <v>582</v>
+      <c r="D31" s="130" t="s">
+        <v>545</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>200</v>
@@ -14173,19 +15180,19 @@
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="P31" s="62" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="140" t="s">
-        <v>584</v>
+      <c r="B32" s="134" t="s">
+        <v>547</v>
       </c>
       <c r="C32" s="65"/>
-      <c r="D32" s="135" t="s">
-        <v>585</v>
+      <c r="D32" s="130" t="s">
+        <v>548</v>
       </c>
       <c r="E32" s="64" t="s">
         <v>200</v>
@@ -14202,19 +15209,19 @@
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65" t="s">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="P32" s="62" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="140" t="s">
-        <v>587</v>
+      <c r="B33" s="134" t="s">
+        <v>550</v>
       </c>
       <c r="C33" s="65"/>
-      <c r="D33" s="135" t="s">
-        <v>588</v>
+      <c r="D33" s="130" t="s">
+        <v>551</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -14232,7 +15239,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
       <c r="P33" s="62" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="664">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1498,9 +1498,6 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>Personaje 2</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -1828,33 +1825,6 @@
     <t>Musica de fondo del nivel 1</t>
   </si>
   <si>
-    <t>V-210 V-215</t>
-  </si>
-  <si>
-    <t>V-220 V-225</t>
-  </si>
-  <si>
-    <t>V-230 V-235</t>
-  </si>
-  <si>
-    <t>V-240 V-245</t>
-  </si>
-  <si>
-    <t>V-250 V-255</t>
-  </si>
-  <si>
-    <t>V-260 V-265</t>
-  </si>
-  <si>
-    <t>V-270 V-275</t>
-  </si>
-  <si>
-    <t>V-280 V-285</t>
-  </si>
-  <si>
-    <t>V-290 V-295</t>
-  </si>
-  <si>
     <t>V-310 V-315</t>
   </si>
   <si>
@@ -2081,6 +2051,99 @@
   </si>
   <si>
     <t>Acelerón 2 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Cocodrila</t>
+  </si>
+  <si>
+    <t>V-210</t>
+  </si>
+  <si>
+    <t>V-211</t>
+  </si>
+  <si>
+    <t>V-215</t>
+  </si>
+  <si>
+    <t>V-220</t>
+  </si>
+  <si>
+    <t>V-221</t>
+  </si>
+  <si>
+    <t>V-225</t>
+  </si>
+  <si>
+    <t>V-226</t>
+  </si>
+  <si>
+    <t>V-230</t>
+  </si>
+  <si>
+    <t>V-235</t>
+  </si>
+  <si>
+    <t>V-236</t>
+  </si>
+  <si>
+    <t>V-240</t>
+  </si>
+  <si>
+    <t>V-241</t>
+  </si>
+  <si>
+    <t>V-245</t>
+  </si>
+  <si>
+    <t>V-246</t>
+  </si>
+  <si>
+    <t>V-250</t>
+  </si>
+  <si>
+    <t>V-255</t>
+  </si>
+  <si>
+    <t>V-260</t>
+  </si>
+  <si>
+    <t>V-261</t>
+  </si>
+  <si>
+    <t>V-265</t>
+  </si>
+  <si>
+    <t>V-266</t>
+  </si>
+  <si>
+    <t>V-270</t>
+  </si>
+  <si>
+    <t>V-271</t>
+  </si>
+  <si>
+    <t>V-275</t>
+  </si>
+  <si>
+    <t>V-280</t>
+  </si>
+  <si>
+    <t>V-285</t>
+  </si>
+  <si>
+    <t>V-290</t>
+  </si>
+  <si>
+    <t>V-295</t>
+  </si>
+  <si>
+    <t>Voz de selección 1</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Victoria 1</t>
   </si>
 </sst>
 </file>
@@ -3252,6 +3315,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3266,9 +3332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4177,27 +4240,27 @@
         <v>15</v>
       </c>
       <c r="C7" s="17">
-        <f>Personajes!E65</f>
+        <f>Personajes!E83</f>
         <v>0</v>
       </c>
       <c r="D7" s="17">
-        <f>Personajes!F65</f>
+        <f>Personajes!F83</f>
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <f>Personajes!G65</f>
+        <f>Personajes!G83</f>
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <f>Personajes!H65</f>
+        <f>Personajes!H83</f>
         <v>0</v>
       </c>
       <c r="G7" s="17">
-        <f>Personajes!I65</f>
+        <f>Personajes!I83</f>
         <v>0</v>
       </c>
       <c r="H7" s="17">
-        <f>Personajes!J65</f>
+        <f>Personajes!J83</f>
         <v>36</v>
       </c>
       <c r="I7" s="18">
@@ -4330,7 +4393,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -4408,7 +4471,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -4433,7 +4496,7 @@
         <v>414</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -4450,10 +4513,10 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="P5" s="56" t="s">
         <v>556</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4795,82 +4858,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="149" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
@@ -4880,15 +4943,15 @@
       <c r="E4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="148"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="149"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -6956,79 +7019,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147" t="s">
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="148" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="148" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -7044,12 +7107,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -9054,82 +9117,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="150" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="150" t="s">
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="148" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="149" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="147"/>
+      <c r="A4" s="148"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="97" t="s">
         <v>31</v>
       </c>
@@ -9139,15 +9202,15 @@
       <c r="E4" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="148"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="149"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -10450,79 +10513,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="148" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147" t="s">
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="148" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="147" t="s">
+      <c r="K3" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="147" t="s">
+      <c r="L3" s="148" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="147" t="s">
+      <c r="M3" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="148" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
+      <c r="A4" s="149"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -10538,12 +10601,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="147"/>
-      <c r="N4" s="147"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -12079,10 +12142,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK67"/>
+  <dimension ref="A1:AMK85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -12205,7 +12268,7 @@
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="143" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -12219,7 +12282,7 @@
         <v>431</v>
       </c>
       <c r="L5" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M5" s="138" t="s">
         <v>432</v>
@@ -12228,7 +12291,7 @@
         <v>220</v>
       </c>
       <c r="O5" s="59"/>
-      <c r="P5" s="151" t="s">
+      <c r="P5" s="146" t="s">
         <v>433</v>
       </c>
     </row>
@@ -12236,7 +12299,7 @@
       <c r="B6" s="141"/>
       <c r="C6" s="142"/>
       <c r="D6" s="144" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="E6" s="139"/>
       <c r="F6" s="139"/>
@@ -12250,7 +12313,7 @@
         <v>431</v>
       </c>
       <c r="L6" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M6" s="138" t="s">
         <v>432</v>
@@ -12260,7 +12323,7 @@
       </c>
       <c r="O6" s="142"/>
       <c r="P6" s="142" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12269,7 +12332,7 @@
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="135" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -12283,7 +12346,7 @@
         <v>431</v>
       </c>
       <c r="L7" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M7" s="138" t="s">
         <v>432</v>
@@ -12293,14 +12356,14 @@
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="65" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="133"/>
       <c r="C8" s="65"/>
       <c r="D8" s="135" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -12314,7 +12377,7 @@
         <v>431</v>
       </c>
       <c r="L8" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M8" s="138" t="s">
         <v>432</v>
@@ -12324,14 +12387,14 @@
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="65" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="133"/>
       <c r="C9" s="65"/>
       <c r="D9" s="135" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -12345,7 +12408,7 @@
         <v>431</v>
       </c>
       <c r="L9" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M9" s="138" t="s">
         <v>432</v>
@@ -12355,14 +12418,14 @@
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="133"/>
       <c r="C10" s="65"/>
       <c r="D10" s="135" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -12376,7 +12439,7 @@
         <v>431</v>
       </c>
       <c r="L10" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M10" s="138" t="s">
         <v>432</v>
@@ -12386,14 +12449,14 @@
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="65" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="133"/>
       <c r="C11" s="65"/>
       <c r="D11" s="135" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -12407,7 +12470,7 @@
         <v>431</v>
       </c>
       <c r="L11" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M11" s="138" t="s">
         <v>432</v>
@@ -12417,7 +12480,7 @@
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="65" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12426,7 +12489,7 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="135" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -12440,7 +12503,7 @@
         <v>431</v>
       </c>
       <c r="L12" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M12" s="138" t="s">
         <v>432</v>
@@ -12457,7 +12520,7 @@
       <c r="B13" s="133"/>
       <c r="C13" s="65"/>
       <c r="D13" s="135" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -12471,7 +12534,7 @@
         <v>431</v>
       </c>
       <c r="L13" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M13" s="138" t="s">
         <v>432</v>
@@ -12481,14 +12544,14 @@
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="133"/>
       <c r="C14" s="65"/>
       <c r="D14" s="135" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -12502,7 +12565,7 @@
         <v>431</v>
       </c>
       <c r="L14" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M14" s="138" t="s">
         <v>432</v>
@@ -12512,14 +12575,14 @@
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="65" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="133"/>
       <c r="C15" s="65"/>
       <c r="D15" s="135" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -12533,7 +12596,7 @@
         <v>431</v>
       </c>
       <c r="L15" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M15" s="138" t="s">
         <v>432</v>
@@ -12543,7 +12606,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12552,7 +12615,7 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="135" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -12566,7 +12629,7 @@
         <v>431</v>
       </c>
       <c r="L16" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M16" s="138" t="s">
         <v>432</v>
@@ -12576,14 +12639,14 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="133"/>
       <c r="C17" s="65"/>
       <c r="D17" s="135" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -12597,7 +12660,7 @@
         <v>431</v>
       </c>
       <c r="L17" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M17" s="138" t="s">
         <v>432</v>
@@ -12607,14 +12670,14 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="133"/>
       <c r="C18" s="65"/>
       <c r="D18" s="135" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -12628,7 +12691,7 @@
         <v>431</v>
       </c>
       <c r="L18" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M18" s="138" t="s">
         <v>432</v>
@@ -12638,14 +12701,14 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="133"/>
       <c r="C19" s="65"/>
       <c r="D19" s="135" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -12659,7 +12722,7 @@
         <v>431</v>
       </c>
       <c r="L19" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M19" s="138" t="s">
         <v>432</v>
@@ -12669,7 +12732,7 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12678,7 +12741,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="135" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -12692,7 +12755,7 @@
         <v>431</v>
       </c>
       <c r="L20" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M20" s="138" t="s">
         <v>432</v>
@@ -12709,7 +12772,7 @@
       <c r="B21" s="133"/>
       <c r="C21" s="65"/>
       <c r="D21" s="135" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -12723,7 +12786,7 @@
         <v>431</v>
       </c>
       <c r="L21" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M21" s="138" t="s">
         <v>432</v>
@@ -12733,14 +12796,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="133"/>
       <c r="C22" s="65"/>
       <c r="D22" s="135" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -12754,7 +12817,7 @@
         <v>431</v>
       </c>
       <c r="L22" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M22" s="138" t="s">
         <v>432</v>
@@ -12764,14 +12827,14 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="133"/>
       <c r="C23" s="65"/>
       <c r="D23" s="135" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -12785,7 +12848,7 @@
         <v>431</v>
       </c>
       <c r="L23" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M23" s="138" t="s">
         <v>432</v>
@@ -12795,7 +12858,7 @@
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="65" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12804,7 +12867,7 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="135" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -12818,7 +12881,7 @@
         <v>431</v>
       </c>
       <c r="L24" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M24" s="138" t="s">
         <v>432</v>
@@ -12835,7 +12898,7 @@
       <c r="B25" s="133"/>
       <c r="C25" s="65"/>
       <c r="D25" s="135" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -12849,7 +12912,7 @@
         <v>431</v>
       </c>
       <c r="L25" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M25" s="138" t="s">
         <v>432</v>
@@ -12859,14 +12922,14 @@
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="65" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="133"/>
       <c r="C26" s="65"/>
       <c r="D26" s="135" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -12880,7 +12943,7 @@
         <v>431</v>
       </c>
       <c r="L26" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M26" s="138" t="s">
         <v>432</v>
@@ -12890,7 +12953,7 @@
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12899,7 +12962,7 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="135" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -12913,7 +12976,7 @@
         <v>431</v>
       </c>
       <c r="L27" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M27" s="138" t="s">
         <v>432</v>
@@ -12930,7 +12993,7 @@
       <c r="B28" s="133"/>
       <c r="C28" s="65"/>
       <c r="D28" s="135" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -12944,7 +13007,7 @@
         <v>431</v>
       </c>
       <c r="L28" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M28" s="138" t="s">
         <v>432</v>
@@ -12954,7 +13017,7 @@
       </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12963,7 +13026,7 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="135" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -12977,7 +13040,7 @@
         <v>431</v>
       </c>
       <c r="L29" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M29" s="138" t="s">
         <v>432</v>
@@ -12994,7 +13057,7 @@
       <c r="B30" s="133"/>
       <c r="C30" s="65"/>
       <c r="D30" s="135" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
@@ -13008,7 +13071,7 @@
         <v>431</v>
       </c>
       <c r="L30" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M30" s="138" t="s">
         <v>432</v>
@@ -13018,7 +13081,7 @@
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13027,7 +13090,7 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="135" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -13041,7 +13104,7 @@
         <v>431</v>
       </c>
       <c r="L31" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M31" s="138" t="s">
         <v>432</v>
@@ -13058,7 +13121,7 @@
       <c r="B32" s="133"/>
       <c r="C32" s="65"/>
       <c r="D32" s="135" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -13072,7 +13135,7 @@
         <v>431</v>
       </c>
       <c r="L32" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M32" s="138" t="s">
         <v>432</v>
@@ -13082,14 +13145,14 @@
       </c>
       <c r="O32" s="65"/>
       <c r="P32" s="65" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="133"/>
       <c r="C33" s="65"/>
       <c r="D33" s="135" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -13103,7 +13166,7 @@
         <v>431</v>
       </c>
       <c r="L33" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M33" s="138" t="s">
         <v>432</v>
@@ -13113,14 +13176,14 @@
       </c>
       <c r="O33" s="65"/>
       <c r="P33" s="65" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="133"/>
       <c r="C34" s="65"/>
       <c r="D34" s="135" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -13134,7 +13197,7 @@
         <v>431</v>
       </c>
       <c r="L34" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M34" s="138" t="s">
         <v>432</v>
@@ -13144,14 +13207,14 @@
       </c>
       <c r="O34" s="65"/>
       <c r="P34" s="65" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="133"/>
       <c r="C35" s="65"/>
       <c r="D35" s="135" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -13165,7 +13228,7 @@
         <v>431</v>
       </c>
       <c r="L35" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M35" s="138" t="s">
         <v>432</v>
@@ -13175,14 +13238,14 @@
       </c>
       <c r="O35" s="65"/>
       <c r="P35" s="65" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="133"/>
       <c r="C36" s="65"/>
       <c r="D36" s="135" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -13196,7 +13259,7 @@
         <v>431</v>
       </c>
       <c r="L36" s="140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="M36" s="138" t="s">
         <v>432</v>
@@ -13206,16 +13269,16 @@
       </c>
       <c r="O36" s="65"/>
       <c r="P36" s="65" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="133" t="s">
         <v>447</v>
       </c>
       <c r="C37" s="65"/>
-      <c r="D37" s="131" t="s">
-        <v>558</v>
+      <c r="D37" s="135" t="s">
+        <v>634</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -13229,7 +13292,7 @@
         <v>431</v>
       </c>
       <c r="L37" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M37" s="64" t="s">
         <v>432</v>
@@ -13242,13 +13305,11 @@
         <v>433</v>
       </c>
     </row>
-    <row r="38" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="133" t="s">
-        <v>449</v>
-      </c>
+    <row r="38" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="133"/>
       <c r="C38" s="65"/>
-      <c r="D38" s="131" t="s">
-        <v>559</v>
+      <c r="D38" s="135" t="s">
+        <v>635</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -13262,7 +13323,7 @@
         <v>431</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M38" s="64" t="s">
         <v>432</v>
@@ -13272,16 +13333,14 @@
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="133" t="s">
-        <v>450</v>
-      </c>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="133"/>
       <c r="C39" s="65"/>
-      <c r="D39" s="131" t="s">
-        <v>560</v>
+      <c r="D39" s="135" t="s">
+        <v>636</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
@@ -13295,7 +13354,7 @@
         <v>431</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M39" s="64" t="s">
         <v>432</v>
@@ -13305,16 +13364,16 @@
       </c>
       <c r="O39" s="65"/>
       <c r="P39" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="2:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="133" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C40" s="65"/>
-      <c r="D40" s="131" t="s">
-        <v>561</v>
+      <c r="D40" s="135" t="s">
+        <v>637</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -13328,7 +13387,7 @@
         <v>431</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M40" s="64" t="s">
         <v>432</v>
@@ -13338,16 +13397,14 @@
       </c>
       <c r="O40" s="65"/>
       <c r="P40" s="65" t="s">
-        <v>436</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="133" t="s">
-        <v>452</v>
-      </c>
+      <c r="B41" s="133"/>
       <c r="C41" s="65"/>
-      <c r="D41" s="131" t="s">
-        <v>562</v>
+      <c r="D41" s="135" t="s">
+        <v>638</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64"/>
@@ -13361,7 +13418,7 @@
         <v>431</v>
       </c>
       <c r="L41" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M41" s="64" t="s">
         <v>432</v>
@@ -13371,16 +13428,14 @@
       </c>
       <c r="O41" s="65"/>
       <c r="P41" s="65" t="s">
-        <v>438</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="133" t="s">
-        <v>453</v>
-      </c>
+      <c r="B42" s="133"/>
       <c r="C42" s="65"/>
-      <c r="D42" s="131" t="s">
-        <v>563</v>
+      <c r="D42" s="135" t="s">
+        <v>639</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64"/>
@@ -13394,7 +13449,7 @@
         <v>431</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M42" s="64" t="s">
         <v>432</v>
@@ -13404,16 +13459,14 @@
       </c>
       <c r="O42" s="65"/>
       <c r="P42" s="65" t="s">
-        <v>440</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="133" t="s">
-        <v>454</v>
-      </c>
+      <c r="B43" s="133"/>
       <c r="C43" s="65"/>
-      <c r="D43" s="131" t="s">
-        <v>564</v>
+      <c r="D43" s="135" t="s">
+        <v>640</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="64"/>
@@ -13427,7 +13480,7 @@
         <v>431</v>
       </c>
       <c r="L43" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M43" s="64" t="s">
         <v>432</v>
@@ -13437,16 +13490,16 @@
       </c>
       <c r="O43" s="65"/>
       <c r="P43" s="65" t="s">
-        <v>442</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="133" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C44" s="65"/>
-      <c r="D44" s="131" t="s">
-        <v>565</v>
+      <c r="D44" s="135" t="s">
+        <v>641</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="64"/>
@@ -13460,7 +13513,7 @@
         <v>431</v>
       </c>
       <c r="L44" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M44" s="64" t="s">
         <v>432</v>
@@ -13470,16 +13523,14 @@
       </c>
       <c r="O44" s="65"/>
       <c r="P44" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="45" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="133" t="s">
-        <v>456</v>
-      </c>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="133"/>
       <c r="C45" s="65"/>
-      <c r="D45" s="131" t="s">
-        <v>566</v>
+      <c r="D45" s="135" t="s">
+        <v>642</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
@@ -13493,7 +13544,7 @@
         <v>431</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>448</v>
+        <v>633</v>
       </c>
       <c r="M45" s="64" t="s">
         <v>432</v>
@@ -13503,16 +13554,14 @@
       </c>
       <c r="O45" s="65"/>
       <c r="P45" s="65" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="133" t="s">
-        <v>457</v>
-      </c>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="133"/>
       <c r="C46" s="65"/>
-      <c r="D46" s="131" t="s">
-        <v>567</v>
+      <c r="D46" s="135" t="s">
+        <v>643</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
@@ -13526,7 +13575,7 @@
         <v>431</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M46" s="64" t="s">
         <v>432</v>
@@ -13536,16 +13585,16 @@
       </c>
       <c r="O46" s="65"/>
       <c r="P46" s="65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="133" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C47" s="65"/>
-      <c r="D47" s="131" t="s">
-        <v>568</v>
+      <c r="D47" s="135" t="s">
+        <v>644</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
@@ -13559,7 +13608,7 @@
         <v>431</v>
       </c>
       <c r="L47" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M47" s="64" t="s">
         <v>432</v>
@@ -13569,16 +13618,14 @@
       </c>
       <c r="O47" s="65"/>
       <c r="P47" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="133" t="s">
-        <v>460</v>
-      </c>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="133"/>
       <c r="C48" s="65"/>
-      <c r="D48" s="131" t="s">
-        <v>569</v>
+      <c r="D48" s="135" t="s">
+        <v>645</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
@@ -13592,7 +13639,7 @@
         <v>431</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M48" s="64" t="s">
         <v>432</v>
@@ -13602,16 +13649,14 @@
       </c>
       <c r="O48" s="65"/>
       <c r="P48" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="49" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="133" t="s">
-        <v>461</v>
-      </c>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="133"/>
       <c r="C49" s="65"/>
-      <c r="D49" s="131" t="s">
-        <v>570</v>
+      <c r="D49" s="135" t="s">
+        <v>646</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="64"/>
@@ -13625,7 +13670,7 @@
         <v>431</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M49" s="64" t="s">
         <v>432</v>
@@ -13635,16 +13680,14 @@
       </c>
       <c r="O49" s="65"/>
       <c r="P49" s="65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="50" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="133" t="s">
-        <v>462</v>
-      </c>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="133"/>
       <c r="C50" s="65"/>
-      <c r="D50" s="131" t="s">
-        <v>571</v>
+      <c r="D50" s="135" t="s">
+        <v>647</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
@@ -13658,7 +13701,7 @@
         <v>431</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M50" s="64" t="s">
         <v>432</v>
@@ -13668,16 +13711,16 @@
       </c>
       <c r="O50" s="65"/>
       <c r="P50" s="65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="133" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C51" s="65"/>
-      <c r="D51" s="131" t="s">
-        <v>572</v>
+      <c r="D51" s="135" t="s">
+        <v>648</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
@@ -13691,7 +13734,7 @@
         <v>431</v>
       </c>
       <c r="L51" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M51" s="64" t="s">
         <v>432</v>
@@ -13701,16 +13744,14 @@
       </c>
       <c r="O51" s="65"/>
       <c r="P51" s="65" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="52" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="133" t="s">
-        <v>464</v>
-      </c>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="133"/>
       <c r="C52" s="65"/>
-      <c r="D52" s="131" t="s">
-        <v>573</v>
+      <c r="D52" s="135" t="s">
+        <v>649</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
@@ -13724,7 +13765,7 @@
         <v>431</v>
       </c>
       <c r="L52" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M52" s="64" t="s">
         <v>432</v>
@@ -13734,16 +13775,16 @@
       </c>
       <c r="O52" s="65"/>
       <c r="P52" s="65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="53" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="133" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C53" s="65"/>
-      <c r="D53" s="131" t="s">
-        <v>574</v>
+      <c r="D53" s="135" t="s">
+        <v>650</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64"/>
@@ -13757,7 +13798,7 @@
         <v>431</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M53" s="64" t="s">
         <v>432</v>
@@ -13767,16 +13808,14 @@
       </c>
       <c r="O53" s="65"/>
       <c r="P53" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="133" t="s">
-        <v>466</v>
-      </c>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="133"/>
       <c r="C54" s="65"/>
-      <c r="D54" s="131" t="s">
-        <v>575</v>
+      <c r="D54" s="135" t="s">
+        <v>651</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="64"/>
@@ -13790,7 +13829,7 @@
         <v>431</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>458</v>
+        <v>633</v>
       </c>
       <c r="M54" s="64" t="s">
         <v>432</v>
@@ -13800,16 +13839,14 @@
       </c>
       <c r="O54" s="65"/>
       <c r="P54" s="65" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="133" t="s">
-        <v>467</v>
-      </c>
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="133"/>
       <c r="C55" s="65"/>
-      <c r="D55" s="131" t="s">
-        <v>576</v>
+      <c r="D55" s="135" t="s">
+        <v>652</v>
       </c>
       <c r="E55" s="64"/>
       <c r="F55" s="64"/>
@@ -13823,7 +13860,7 @@
         <v>431</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M55" s="64" t="s">
         <v>432</v>
@@ -13833,16 +13870,14 @@
       </c>
       <c r="O55" s="65"/>
       <c r="P55" s="65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="133" t="s">
-        <v>469</v>
-      </c>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="133"/>
       <c r="C56" s="65"/>
-      <c r="D56" s="131" t="s">
-        <v>577</v>
+      <c r="D56" s="135" t="s">
+        <v>653</v>
       </c>
       <c r="E56" s="64"/>
       <c r="F56" s="64"/>
@@ -13856,7 +13891,7 @@
         <v>431</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M56" s="64" t="s">
         <v>432</v>
@@ -13866,16 +13901,16 @@
       </c>
       <c r="O56" s="65"/>
       <c r="P56" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="133" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C57" s="65"/>
-      <c r="D57" s="131" t="s">
-        <v>578</v>
+      <c r="D57" s="135" t="s">
+        <v>654</v>
       </c>
       <c r="E57" s="64"/>
       <c r="F57" s="64"/>
@@ -13889,7 +13924,7 @@
         <v>431</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M57" s="64" t="s">
         <v>432</v>
@@ -13899,16 +13934,14 @@
       </c>
       <c r="O57" s="65"/>
       <c r="P57" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="133" t="s">
-        <v>471</v>
-      </c>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="133"/>
       <c r="C58" s="65"/>
-      <c r="D58" s="131" t="s">
-        <v>579</v>
+      <c r="D58" s="135" t="s">
+        <v>655</v>
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="64"/>
@@ -13922,7 +13955,7 @@
         <v>431</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M58" s="64" t="s">
         <v>432</v>
@@ -13932,16 +13965,14 @@
       </c>
       <c r="O58" s="65"/>
       <c r="P58" s="65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="133" t="s">
-        <v>472</v>
-      </c>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="133"/>
       <c r="C59" s="65"/>
-      <c r="D59" s="131" t="s">
-        <v>580</v>
+      <c r="D59" s="135" t="s">
+        <v>656</v>
       </c>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
@@ -13955,7 +13986,7 @@
         <v>431</v>
       </c>
       <c r="L59" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M59" s="64" t="s">
         <v>432</v>
@@ -13965,16 +13996,16 @@
       </c>
       <c r="O59" s="65"/>
       <c r="P59" s="65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="133" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="C60" s="65"/>
-      <c r="D60" s="131" t="s">
-        <v>581</v>
+      <c r="D60" s="135" t="s">
+        <v>657</v>
       </c>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
@@ -13988,7 +14019,7 @@
         <v>431</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M60" s="64" t="s">
         <v>432</v>
@@ -13998,16 +14029,14 @@
       </c>
       <c r="O60" s="65"/>
       <c r="P60" s="65" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="133" t="s">
-        <v>474</v>
-      </c>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="133"/>
       <c r="C61" s="65"/>
-      <c r="D61" s="131" t="s">
-        <v>582</v>
+      <c r="D61" s="135" t="s">
+        <v>658</v>
       </c>
       <c r="E61" s="64"/>
       <c r="F61" s="64"/>
@@ -14021,7 +14050,7 @@
         <v>431</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M61" s="64" t="s">
         <v>432</v>
@@ -14031,16 +14060,16 @@
       </c>
       <c r="O61" s="65"/>
       <c r="P61" s="65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="62" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="133" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C62" s="65"/>
-      <c r="D62" s="131" t="s">
-        <v>583</v>
+      <c r="D62" s="135" t="s">
+        <v>659</v>
       </c>
       <c r="E62" s="64"/>
       <c r="F62" s="64"/>
@@ -14054,7 +14083,7 @@
         <v>431</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M62" s="64" t="s">
         <v>432</v>
@@ -14064,16 +14093,14 @@
       </c>
       <c r="O62" s="65"/>
       <c r="P62" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="133" t="s">
-        <v>476</v>
-      </c>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="133"/>
       <c r="C63" s="65"/>
-      <c r="D63" s="131" t="s">
-        <v>584</v>
+      <c r="D63" s="135" t="s">
+        <v>660</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="64"/>
@@ -14087,7 +14114,7 @@
         <v>431</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>468</v>
+        <v>633</v>
       </c>
       <c r="M63" s="64" t="s">
         <v>432</v>
@@ -14097,94 +14124,688 @@
       </c>
       <c r="O63" s="65"/>
       <c r="P63" s="65" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="133" t="s">
+        <v>456</v>
+      </c>
+      <c r="C64" s="65"/>
+      <c r="D64" s="131" t="s">
+        <v>557</v>
+      </c>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K64" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M64" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N64" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O64" s="65"/>
+      <c r="P64" s="65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="133" t="s">
+        <v>458</v>
+      </c>
+      <c r="C65" s="65"/>
+      <c r="D65" s="131" t="s">
+        <v>558</v>
+      </c>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K65" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L65" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M65" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N65" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O65" s="65"/>
+      <c r="P65" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="133" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" s="65"/>
+      <c r="D66" s="131" t="s">
+        <v>559</v>
+      </c>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K66" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L66" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M66" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N66" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O66" s="65"/>
+      <c r="P66" s="65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="133" t="s">
+        <v>460</v>
+      </c>
+      <c r="C67" s="65"/>
+      <c r="D67" s="131" t="s">
+        <v>560</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K67" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L67" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M67" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N67" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O67" s="65"/>
+      <c r="P67" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="133" t="s">
+        <v>461</v>
+      </c>
+      <c r="C68" s="65"/>
+      <c r="D68" s="131" t="s">
+        <v>561</v>
+      </c>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K68" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L68" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M68" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N68" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O68" s="65"/>
+      <c r="P68" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="C69" s="65"/>
+      <c r="D69" s="131" t="s">
+        <v>562</v>
+      </c>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L69" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M69" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N69" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O69" s="65"/>
+      <c r="P69" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="133" t="s">
+        <v>463</v>
+      </c>
+      <c r="C70" s="65"/>
+      <c r="D70" s="131" t="s">
+        <v>563</v>
+      </c>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K70" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L70" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M70" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N70" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O70" s="65"/>
+      <c r="P70" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="133" t="s">
+        <v>464</v>
+      </c>
+      <c r="C71" s="65"/>
+      <c r="D71" s="131" t="s">
+        <v>564</v>
+      </c>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L71" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M71" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N71" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="133" t="s">
+        <v>465</v>
+      </c>
+      <c r="C72" s="65"/>
+      <c r="D72" s="131" t="s">
+        <v>565</v>
+      </c>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K72" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L72" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M72" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N72" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O72" s="65"/>
+      <c r="P72" s="65" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="107"/>
-      <c r="C64" s="108"/>
-      <c r="D64" s="108"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="108"/>
-      <c r="K64" s="109"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="108"/>
-      <c r="P64" s="108"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="89"/>
-      <c r="C65" s="91" t="s">
+    <row r="73" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="133" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" s="65"/>
+      <c r="D73" s="131" t="s">
+        <v>566</v>
+      </c>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K73" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L73" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M73" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N73" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O73" s="65"/>
+      <c r="P73" s="65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="C74" s="65"/>
+      <c r="D74" s="131" t="s">
+        <v>567</v>
+      </c>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K74" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L74" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M74" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N74" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="C75" s="65"/>
+      <c r="D75" s="131" t="s">
+        <v>568</v>
+      </c>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K75" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L75" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M75" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N75" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O75" s="65"/>
+      <c r="P75" s="65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="133" t="s">
+        <v>470</v>
+      </c>
+      <c r="C76" s="65"/>
+      <c r="D76" s="131" t="s">
+        <v>569</v>
+      </c>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
+      <c r="I76" s="64"/>
+      <c r="J76" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K76" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L76" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M76" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N76" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O76" s="65"/>
+      <c r="P76" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="133" t="s">
+        <v>471</v>
+      </c>
+      <c r="C77" s="65"/>
+      <c r="D77" s="131" t="s">
+        <v>570</v>
+      </c>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="64"/>
+      <c r="H77" s="64"/>
+      <c r="I77" s="64"/>
+      <c r="J77" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K77" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L77" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M77" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N77" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O77" s="65"/>
+      <c r="P77" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="133" t="s">
+        <v>472</v>
+      </c>
+      <c r="C78" s="65"/>
+      <c r="D78" s="131" t="s">
+        <v>571</v>
+      </c>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K78" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L78" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M78" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N78" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O78" s="65"/>
+      <c r="P78" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="133" t="s">
+        <v>473</v>
+      </c>
+      <c r="C79" s="65"/>
+      <c r="D79" s="131" t="s">
+        <v>572</v>
+      </c>
+      <c r="E79" s="64"/>
+      <c r="F79" s="64"/>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K79" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L79" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M79" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N79" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O79" s="65"/>
+      <c r="P79" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="C80" s="65"/>
+      <c r="D80" s="131" t="s">
+        <v>573</v>
+      </c>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+      <c r="I80" s="64"/>
+      <c r="J80" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K80" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L80" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N80" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O80" s="65"/>
+      <c r="P80" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="133" t="s">
+        <v>475</v>
+      </c>
+      <c r="C81" s="65"/>
+      <c r="D81" s="131" t="s">
+        <v>574</v>
+      </c>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
+      <c r="H81" s="64"/>
+      <c r="I81" s="64"/>
+      <c r="J81" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K81" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L81" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="M81" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N81" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O81" s="65"/>
+      <c r="P81" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="107"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="109"/>
+      <c r="F82" s="109"/>
+      <c r="G82" s="109"/>
+      <c r="H82" s="109"/>
+      <c r="I82" s="109"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="109"/>
+      <c r="L82" s="109"/>
+      <c r="M82" s="109"/>
+      <c r="N82" s="109"/>
+      <c r="O82" s="108"/>
+      <c r="P82" s="108"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="89"/>
+      <c r="C83" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D65" s="91"/>
-      <c r="E65" s="92">
+      <c r="D83" s="91"/>
+      <c r="E83" s="92">
         <v>0</v>
       </c>
-      <c r="F65" s="92">
+      <c r="F83" s="92">
         <v>0</v>
       </c>
-      <c r="G65" s="92">
+      <c r="G83" s="92">
         <v>0</v>
       </c>
-      <c r="H65" s="92">
+      <c r="H83" s="92">
         <v>0</v>
       </c>
-      <c r="I65" s="92">
+      <c r="I83" s="92">
         <v>0</v>
       </c>
-      <c r="J65" s="92">
+      <c r="J83" s="92">
         <v>36</v>
       </c>
-      <c r="K65" s="93"/>
-      <c r="L65" s="93"/>
-      <c r="M65" s="93"/>
-      <c r="N65" s="90"/>
-      <c r="O65" s="90"/>
-      <c r="P65" s="90"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="90"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="93"/>
-      <c r="E66" s="93"/>
-      <c r="F66" s="93"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="93"/>
-      <c r="I66" s="93"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="93"/>
-      <c r="L66" s="93"/>
-      <c r="M66" s="93"/>
-      <c r="N66" s="90"/>
-      <c r="O66" s="90"/>
-      <c r="P66" s="90"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="90"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="94"/>
-      <c r="F67" s="94"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="94"/>
-      <c r="J67" s="95" t="s">
+      <c r="K83" s="93"/>
+      <c r="L83" s="93"/>
+      <c r="M83" s="93"/>
+      <c r="N83" s="90"/>
+      <c r="O83" s="90"/>
+      <c r="P83" s="90"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="90"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="93"/>
+      <c r="E84" s="93"/>
+      <c r="F84" s="93"/>
+      <c r="G84" s="93"/>
+      <c r="H84" s="93"/>
+      <c r="I84" s="93"/>
+      <c r="J84" s="93"/>
+      <c r="K84" s="93"/>
+      <c r="L84" s="93"/>
+      <c r="M84" s="93"/>
+      <c r="N84" s="90"/>
+      <c r="O84" s="90"/>
+      <c r="P84" s="90"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="94"/>
+      <c r="G85" s="94"/>
+      <c r="H85" s="94"/>
+      <c r="I85" s="94"/>
+      <c r="J85" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="K67" s="96">
+      <c r="K85" s="96">
         <v>36</v>
       </c>
-      <c r="L67" s="93"/>
-      <c r="M67" s="93"/>
-      <c r="N67" s="90"/>
-      <c r="O67" s="90"/>
-      <c r="P67" s="90"/>
+      <c r="L85" s="93"/>
+      <c r="M85" s="93"/>
+      <c r="N85" s="90"/>
+      <c r="O85" s="90"/>
+      <c r="P85" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14220,6 +14841,33 @@
     <hyperlink ref="D34" r:id="rId30" location="'Metadatos V'!B33" xr:uid="{8FA923E8-C75C-4DAD-835A-7B7C5B507A30}"/>
     <hyperlink ref="D35" r:id="rId31" location="'Metadatos V'!B34" xr:uid="{B5999E1E-211B-4435-BB6C-42AFE3F80781}"/>
     <hyperlink ref="D36" r:id="rId32" location="'Metadatos V'!B35" xr:uid="{26BB993F-1B41-4033-BF0E-ED5CF3051DDC}"/>
+    <hyperlink ref="D37" r:id="rId33" location="'Metadatos V'!B36" xr:uid="{5DC6534B-D04D-4242-9646-F0FAA0291387}"/>
+    <hyperlink ref="D38" r:id="rId34" location="'Metadatos V'!B37" xr:uid="{B7E9ACDF-9AE5-430A-89B4-7F4FC6DAD00D}"/>
+    <hyperlink ref="D39" r:id="rId35" location="'Metadatos V'!B38" xr:uid="{F81FCAB0-12FE-4C77-8F6C-E71C9F83A220}"/>
+    <hyperlink ref="D40" r:id="rId36" location="'Metadatos V'!B39" xr:uid="{E8EF32C9-65F3-458A-BB02-2F5B85A0E865}"/>
+    <hyperlink ref="D41" r:id="rId37" location="'Metadatos V'!B40" xr:uid="{FE8F22C0-A4ED-4DC9-8FE4-F5193CB430A8}"/>
+    <hyperlink ref="D42" r:id="rId38" location="'Metadatos V'!B41" xr:uid="{611CCAD4-E3D3-48C6-AA4B-42B238D619DF}"/>
+    <hyperlink ref="D43" r:id="rId39" location="'Metadatos V'!B42" xr:uid="{4431A1B8-44C8-466A-AE56-0F168CB9B636}"/>
+    <hyperlink ref="D44" r:id="rId40" location="'Metadatos V'!B43" xr:uid="{EB1F7E80-0D83-4458-AE23-369FD416E4D8}"/>
+    <hyperlink ref="D45" r:id="rId41" location="'Metadatos V'!B44" xr:uid="{4EB72B41-4A3D-4D69-BD0F-5B675CC32D1A}"/>
+    <hyperlink ref="D46" r:id="rId42" location="'Metadatos V'!B45" xr:uid="{DFC2FAED-C44D-4B6E-9977-7627939B79FB}"/>
+    <hyperlink ref="D47" r:id="rId43" location="'Metadatos V'!B46" xr:uid="{758CD3FF-D014-479D-AA40-5B6F2D399B81}"/>
+    <hyperlink ref="D48" r:id="rId44" location="'Metadatos V'!B47" xr:uid="{C73B7DC1-C05D-4BBA-A740-F1E59C8CF20D}"/>
+    <hyperlink ref="D49" r:id="rId45" location="'Metadatos V'!B48" xr:uid="{8F709861-DF23-4922-82A3-5F98509FC099}"/>
+    <hyperlink ref="D50" r:id="rId46" location="'Metadatos V'!B49" xr:uid="{F3A3531F-67C1-4B8F-81C1-6AC88D0871E5}"/>
+    <hyperlink ref="D51" r:id="rId47" location="'Metadatos V'!B50" xr:uid="{EB39E6AD-04AC-4307-9F1C-70ABEBE2A1C7}"/>
+    <hyperlink ref="D52" r:id="rId48" location="'Metadatos V'!B51" xr:uid="{331F9CC0-B011-4423-9B7D-ADC49A168239}"/>
+    <hyperlink ref="D53" r:id="rId49" location="'Metadatos V'!B52" xr:uid="{0A40D78E-4DC0-4F2C-959B-3F41165C5074}"/>
+    <hyperlink ref="D54" r:id="rId50" location="'Metadatos V'!B53" xr:uid="{13D20A73-E747-4FA4-80E4-065483949905}"/>
+    <hyperlink ref="D55" r:id="rId51" location="'Metadatos V'!B54" xr:uid="{E039E482-93C8-4D11-837C-09A0D06B09FB}"/>
+    <hyperlink ref="D56" r:id="rId52" location="'Metadatos V'!B55" xr:uid="{869122C2-96B0-4932-AF49-CB7D5A8C4C10}"/>
+    <hyperlink ref="D57" r:id="rId53" location="'Metadatos V'!B56" xr:uid="{D9F5CA8F-4875-4DFE-A5AB-0C0F4678D467}"/>
+    <hyperlink ref="D58" r:id="rId54" location="'Metadatos V'!B57" xr:uid="{264FD871-64FA-4A24-B82D-3355988CBB39}"/>
+    <hyperlink ref="D59" r:id="rId55" location="'Metadatos V'!B58" xr:uid="{42574E0D-98E1-43C0-ACD1-72370EC18DA2}"/>
+    <hyperlink ref="D60" r:id="rId56" location="'Metadatos V'!B59" xr:uid="{41B6464B-6A96-44E4-BD36-A338F82E7021}"/>
+    <hyperlink ref="D61" r:id="rId57" location="'Metadatos V'!B60" xr:uid="{867385BA-5C99-4E73-8BEE-1E3EE123B5D4}"/>
+    <hyperlink ref="D62" r:id="rId58" location="'Metadatos V'!B61" xr:uid="{F68D4250-64DB-493A-820D-EE086A8A1CFC}"/>
+    <hyperlink ref="D63" r:id="rId59" location="'Metadatos V'!B62" xr:uid="{9998FF29-5F84-40EF-A583-87AB3A11616B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -14252,7 +14900,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -14352,10 +15000,10 @@
         <v>285</v>
       </c>
       <c r="C5" s="110" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="129" t="s">
         <v>478</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>479</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -14373,18 +15021,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="134"/>
       <c r="C6" s="65"/>
       <c r="D6" s="130" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -14402,11 +15050,11 @@
         <v>207</v>
       </c>
       <c r="N6" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -14414,10 +15062,10 @@
         <v>292</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -14435,11 +15083,11 @@
         <v>207</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="62" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -14448,7 +15096,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -14466,11 +15114,11 @@
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="62" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14479,7 +15127,7 @@
         <v>420</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -14497,11 +15145,11 @@
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="62" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14512,7 +15160,7 @@
         <v>420</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -14530,11 +15178,11 @@
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="62" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14545,7 +15193,7 @@
         <v>420</v>
       </c>
       <c r="D11" s="130" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -14563,11 +15211,11 @@
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="62" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14578,7 +15226,7 @@
         <v>420</v>
       </c>
       <c r="D12" s="130" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -14598,7 +15246,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="65"/>
       <c r="P12" s="62" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -14607,7 +15255,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="130" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>200</v>
@@ -14625,13 +15273,13 @@
         <v>207</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O13" s="65" t="s">
+        <v>497</v>
+      </c>
+      <c r="P13" s="62" t="s">
         <v>498</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14642,7 +15290,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -14660,20 +15308,20 @@
       </c>
       <c r="M14" s="64"/>
       <c r="N14" s="64" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="134"/>
       <c r="C15" s="100" t="s">
+        <v>502</v>
+      </c>
+      <c r="D15" s="130" t="s">
         <v>503</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>504</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -14691,16 +15339,16 @@
       <c r="N15" s="64"/>
       <c r="O15" s="65"/>
       <c r="P15" s="62" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="134"/>
       <c r="C16" s="100" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D16" s="130" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -14718,7 +15366,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="65"/>
       <c r="P16" s="62" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14729,7 +15377,7 @@
         <v>420</v>
       </c>
       <c r="D17" s="130" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -14747,11 +15395,11 @@
       </c>
       <c r="M17" s="64"/>
       <c r="N17" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="62" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14762,7 +15410,7 @@
         <v>420</v>
       </c>
       <c r="D18" s="130" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -14780,11 +15428,11 @@
         <v>207</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="62" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14793,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="130" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -14811,11 +15459,11 @@
         <v>207</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="62" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14826,7 +15474,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="130" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -14844,22 +15492,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="62" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="127" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C21" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D21" s="130" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -14877,22 +15525,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="127" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C22" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D22" s="130" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -14910,22 +15558,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="62" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="127" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C23" s="100">
         <v>2</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>200</v>
@@ -14943,11 +15591,11 @@
         <v>207</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="62" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14956,7 +15604,7 @@
         <v>420</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -14974,11 +15622,11 @@
         <v>207</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="62" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14987,7 +15635,7 @@
         <v>420</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -15005,22 +15653,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="134" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -15038,22 +15686,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="62" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="134" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C27" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D27" s="130" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -15073,16 +15721,16 @@
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
       <c r="P27" s="62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="134" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="130" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -15100,16 +15748,16 @@
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
       <c r="P28" s="62" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="134" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="130" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -15127,16 +15775,16 @@
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
       <c r="P29" s="62" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="134" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="130" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>200</v>
@@ -15154,16 +15802,16 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
       <c r="P30" s="62" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="134" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="130" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>200</v>
@@ -15180,19 +15828,19 @@
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P31" s="62" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="134" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="130" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E32" s="64" t="s">
         <v>200</v>
@@ -15209,19 +15857,19 @@
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="P32" s="62" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="134" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="130" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -15239,7 +15887,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
       <c r="P33" s="62" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="684">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1525,9 +1525,6 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>Personaje 3</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -1825,60 +1822,6 @@
     <t>Musica de fondo del nivel 1</t>
   </si>
   <si>
-    <t>V-310 V-315</t>
-  </si>
-  <si>
-    <t>V-320 V-325</t>
-  </si>
-  <si>
-    <t>V-330 V-335</t>
-  </si>
-  <si>
-    <t>V-340 V-345</t>
-  </si>
-  <si>
-    <t>V-350 V-355</t>
-  </si>
-  <si>
-    <t>V-360 V-365</t>
-  </si>
-  <si>
-    <t>V-370 V-375</t>
-  </si>
-  <si>
-    <t>V-380 V-385</t>
-  </si>
-  <si>
-    <t>V-390 V-395</t>
-  </si>
-  <si>
-    <t>V-410 V-415</t>
-  </si>
-  <si>
-    <t>V-420 V-425</t>
-  </si>
-  <si>
-    <t>V-430 V-435</t>
-  </si>
-  <si>
-    <t>V-440 V-445</t>
-  </si>
-  <si>
-    <t>V-450 V-455</t>
-  </si>
-  <si>
-    <t>V-460 V-465</t>
-  </si>
-  <si>
-    <t>V-470 V-475</t>
-  </si>
-  <si>
-    <t>V-480 V-485</t>
-  </si>
-  <si>
-    <t>V-490 V-495</t>
-  </si>
-  <si>
     <t>Punk</t>
   </si>
   <si>
@@ -2144,6 +2087,123 @@
   </si>
   <si>
     <t>Victoria 1</t>
+  </si>
+  <si>
+    <t>V-310</t>
+  </si>
+  <si>
+    <t>V-315</t>
+  </si>
+  <si>
+    <t>V-320</t>
+  </si>
+  <si>
+    <t>V-321</t>
+  </si>
+  <si>
+    <t>V-325</t>
+  </si>
+  <si>
+    <t>V-326</t>
+  </si>
+  <si>
+    <t>V-330</t>
+  </si>
+  <si>
+    <t>V-335</t>
+  </si>
+  <si>
+    <t>V-340</t>
+  </si>
+  <si>
+    <t>V-341</t>
+  </si>
+  <si>
+    <t>V-342</t>
+  </si>
+  <si>
+    <t>V-345</t>
+  </si>
+  <si>
+    <t>V-346</t>
+  </si>
+  <si>
+    <t>V-350</t>
+  </si>
+  <si>
+    <t>V-351</t>
+  </si>
+  <si>
+    <t>V-352</t>
+  </si>
+  <si>
+    <t>V-355</t>
+  </si>
+  <si>
+    <t>V-356</t>
+  </si>
+  <si>
+    <t>V-357</t>
+  </si>
+  <si>
+    <t>V-360</t>
+  </si>
+  <si>
+    <t>V-361</t>
+  </si>
+  <si>
+    <t>V-365</t>
+  </si>
+  <si>
+    <t>V-366</t>
+  </si>
+  <si>
+    <t>V-370</t>
+  </si>
+  <si>
+    <t>V-375</t>
+  </si>
+  <si>
+    <t>V-380</t>
+  </si>
+  <si>
+    <t>V-381</t>
+  </si>
+  <si>
+    <t>V-385</t>
+  </si>
+  <si>
+    <t>V-390</t>
+  </si>
+  <si>
+    <t>V-391</t>
+  </si>
+  <si>
+    <t>V-392</t>
+  </si>
+  <si>
+    <t>V-395</t>
+  </si>
+  <si>
+    <t>V-396</t>
+  </si>
+  <si>
+    <t>V-397</t>
+  </si>
+  <si>
+    <t>Bruja</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.2</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.2</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.2 (INGLÉS)</t>
+  </si>
+  <si>
+    <t>Derrota 1</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2371,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2897,12 +2957,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3333,6 +3456,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4240,27 +4378,27 @@
         <v>15</v>
       </c>
       <c r="C7" s="17">
-        <f>Personajes!E83</f>
+        <f>Personajes!E112</f>
         <v>0</v>
       </c>
       <c r="D7" s="17">
-        <f>Personajes!F83</f>
+        <f>Personajes!F112</f>
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <f>Personajes!G83</f>
+        <f>Personajes!G112</f>
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <f>Personajes!H83</f>
+        <f>Personajes!H112</f>
         <v>0</v>
       </c>
       <c r="G7" s="17">
-        <f>Personajes!I83</f>
+        <f>Personajes!I112</f>
         <v>0</v>
       </c>
       <c r="H7" s="17">
-        <f>Personajes!J83</f>
+        <f>Personajes!J112</f>
         <v>36</v>
       </c>
       <c r="I7" s="18">
@@ -4393,7 +4531,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -4471,7 +4609,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -4496,7 +4634,7 @@
         <v>414</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -4513,10 +4651,10 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="56" t="s">
+        <v>554</v>
+      </c>
+      <c r="P5" s="56" t="s">
         <v>555</v>
-      </c>
-      <c r="P5" s="56" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -12142,10 +12280,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK85"/>
+  <dimension ref="A1:AMK114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S93" sqref="S93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -12268,7 +12406,7 @@
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="143" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -12282,7 +12420,7 @@
         <v>431</v>
       </c>
       <c r="L5" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M5" s="138" t="s">
         <v>432</v>
@@ -12299,7 +12437,7 @@
       <c r="B6" s="141"/>
       <c r="C6" s="142"/>
       <c r="D6" s="144" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
       <c r="E6" s="139"/>
       <c r="F6" s="139"/>
@@ -12313,7 +12451,7 @@
         <v>431</v>
       </c>
       <c r="L6" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M6" s="138" t="s">
         <v>432</v>
@@ -12323,7 +12461,7 @@
       </c>
       <c r="O6" s="142"/>
       <c r="P6" s="142" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12332,7 +12470,7 @@
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="135" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -12346,7 +12484,7 @@
         <v>431</v>
       </c>
       <c r="L7" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M7" s="138" t="s">
         <v>432</v>
@@ -12356,14 +12494,14 @@
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="65" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="133"/>
       <c r="C8" s="65"/>
       <c r="D8" s="135" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -12377,7 +12515,7 @@
         <v>431</v>
       </c>
       <c r="L8" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M8" s="138" t="s">
         <v>432</v>
@@ -12387,14 +12525,14 @@
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="65" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="133"/>
       <c r="C9" s="65"/>
       <c r="D9" s="135" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -12408,7 +12546,7 @@
         <v>431</v>
       </c>
       <c r="L9" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M9" s="138" t="s">
         <v>432</v>
@@ -12418,14 +12556,14 @@
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="133"/>
       <c r="C10" s="65"/>
       <c r="D10" s="135" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -12439,7 +12577,7 @@
         <v>431</v>
       </c>
       <c r="L10" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M10" s="138" t="s">
         <v>432</v>
@@ -12449,14 +12587,14 @@
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="65" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="133"/>
       <c r="C11" s="65"/>
       <c r="D11" s="135" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -12470,7 +12608,7 @@
         <v>431</v>
       </c>
       <c r="L11" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M11" s="138" t="s">
         <v>432</v>
@@ -12480,7 +12618,7 @@
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="65" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12489,7 +12627,7 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="135" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -12503,7 +12641,7 @@
         <v>431</v>
       </c>
       <c r="L12" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M12" s="138" t="s">
         <v>432</v>
@@ -12520,7 +12658,7 @@
       <c r="B13" s="133"/>
       <c r="C13" s="65"/>
       <c r="D13" s="135" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -12534,7 +12672,7 @@
         <v>431</v>
       </c>
       <c r="L13" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M13" s="138" t="s">
         <v>432</v>
@@ -12544,14 +12682,14 @@
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="133"/>
       <c r="C14" s="65"/>
       <c r="D14" s="135" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -12565,7 +12703,7 @@
         <v>431</v>
       </c>
       <c r="L14" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M14" s="138" t="s">
         <v>432</v>
@@ -12575,14 +12713,14 @@
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="65" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="133"/>
       <c r="C15" s="65"/>
       <c r="D15" s="135" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -12596,7 +12734,7 @@
         <v>431</v>
       </c>
       <c r="L15" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M15" s="138" t="s">
         <v>432</v>
@@ -12606,7 +12744,7 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12615,7 +12753,7 @@
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="135" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -12629,7 +12767,7 @@
         <v>431</v>
       </c>
       <c r="L16" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M16" s="138" t="s">
         <v>432</v>
@@ -12639,14 +12777,14 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="133"/>
       <c r="C17" s="65"/>
       <c r="D17" s="135" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -12660,7 +12798,7 @@
         <v>431</v>
       </c>
       <c r="L17" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M17" s="138" t="s">
         <v>432</v>
@@ -12670,14 +12808,14 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="133"/>
       <c r="C18" s="65"/>
       <c r="D18" s="135" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -12691,7 +12829,7 @@
         <v>431</v>
       </c>
       <c r="L18" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M18" s="138" t="s">
         <v>432</v>
@@ -12701,14 +12839,14 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="133"/>
       <c r="C19" s="65"/>
       <c r="D19" s="135" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -12722,7 +12860,7 @@
         <v>431</v>
       </c>
       <c r="L19" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M19" s="138" t="s">
         <v>432</v>
@@ -12732,7 +12870,7 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12741,7 +12879,7 @@
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="135" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -12755,7 +12893,7 @@
         <v>431</v>
       </c>
       <c r="L20" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M20" s="138" t="s">
         <v>432</v>
@@ -12772,7 +12910,7 @@
       <c r="B21" s="133"/>
       <c r="C21" s="65"/>
       <c r="D21" s="135" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -12786,7 +12924,7 @@
         <v>431</v>
       </c>
       <c r="L21" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M21" s="138" t="s">
         <v>432</v>
@@ -12796,14 +12934,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65" t="s">
-        <v>621</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="133"/>
       <c r="C22" s="65"/>
       <c r="D22" s="135" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -12817,7 +12955,7 @@
         <v>431</v>
       </c>
       <c r="L22" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M22" s="138" t="s">
         <v>432</v>
@@ -12827,14 +12965,14 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="133"/>
       <c r="C23" s="65"/>
       <c r="D23" s="135" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -12848,7 +12986,7 @@
         <v>431</v>
       </c>
       <c r="L23" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M23" s="138" t="s">
         <v>432</v>
@@ -12858,7 +12996,7 @@
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="65" t="s">
-        <v>623</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12867,7 +13005,7 @@
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="135" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -12881,7 +13019,7 @@
         <v>431</v>
       </c>
       <c r="L24" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M24" s="138" t="s">
         <v>432</v>
@@ -12898,7 +13036,7 @@
       <c r="B25" s="133"/>
       <c r="C25" s="65"/>
       <c r="D25" s="135" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -12912,7 +13050,7 @@
         <v>431</v>
       </c>
       <c r="L25" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M25" s="138" t="s">
         <v>432</v>
@@ -12922,14 +13060,14 @@
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="65" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="133"/>
       <c r="C26" s="65"/>
       <c r="D26" s="135" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -12943,7 +13081,7 @@
         <v>431</v>
       </c>
       <c r="L26" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M26" s="138" t="s">
         <v>432</v>
@@ -12953,7 +13091,7 @@
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12962,7 +13100,7 @@
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="135" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -12976,7 +13114,7 @@
         <v>431</v>
       </c>
       <c r="L27" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M27" s="138" t="s">
         <v>432</v>
@@ -12993,7 +13131,7 @@
       <c r="B28" s="133"/>
       <c r="C28" s="65"/>
       <c r="D28" s="135" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -13007,7 +13145,7 @@
         <v>431</v>
       </c>
       <c r="L28" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M28" s="138" t="s">
         <v>432</v>
@@ -13017,7 +13155,7 @@
       </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13026,7 +13164,7 @@
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="135" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -13040,7 +13178,7 @@
         <v>431</v>
       </c>
       <c r="L29" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M29" s="138" t="s">
         <v>432</v>
@@ -13057,7 +13195,7 @@
       <c r="B30" s="133"/>
       <c r="C30" s="65"/>
       <c r="D30" s="135" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
@@ -13071,7 +13209,7 @@
         <v>431</v>
       </c>
       <c r="L30" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M30" s="138" t="s">
         <v>432</v>
@@ -13081,7 +13219,7 @@
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13090,7 +13228,7 @@
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="135" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -13104,7 +13242,7 @@
         <v>431</v>
       </c>
       <c r="L31" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M31" s="138" t="s">
         <v>432</v>
@@ -13121,7 +13259,7 @@
       <c r="B32" s="133"/>
       <c r="C32" s="65"/>
       <c r="D32" s="135" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -13135,7 +13273,7 @@
         <v>431</v>
       </c>
       <c r="L32" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M32" s="138" t="s">
         <v>432</v>
@@ -13145,14 +13283,14 @@
       </c>
       <c r="O32" s="65"/>
       <c r="P32" s="65" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="133"/>
       <c r="C33" s="65"/>
       <c r="D33" s="135" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -13166,7 +13304,7 @@
         <v>431</v>
       </c>
       <c r="L33" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M33" s="138" t="s">
         <v>432</v>
@@ -13176,14 +13314,14 @@
       </c>
       <c r="O33" s="65"/>
       <c r="P33" s="65" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="133"/>
       <c r="C34" s="65"/>
       <c r="D34" s="135" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -13197,7 +13335,7 @@
         <v>431</v>
       </c>
       <c r="L34" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M34" s="138" t="s">
         <v>432</v>
@@ -13207,14 +13345,14 @@
       </c>
       <c r="O34" s="65"/>
       <c r="P34" s="65" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="133"/>
       <c r="C35" s="65"/>
       <c r="D35" s="135" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -13228,7 +13366,7 @@
         <v>431</v>
       </c>
       <c r="L35" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M35" s="138" t="s">
         <v>432</v>
@@ -13238,14 +13376,14 @@
       </c>
       <c r="O35" s="65"/>
       <c r="P35" s="65" t="s">
-        <v>631</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="133"/>
       <c r="C36" s="65"/>
       <c r="D36" s="135" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -13259,7 +13397,7 @@
         <v>431</v>
       </c>
       <c r="L36" s="140" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="M36" s="138" t="s">
         <v>432</v>
@@ -13269,7 +13407,7 @@
       </c>
       <c r="O36" s="65"/>
       <c r="P36" s="65" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13278,7 +13416,7 @@
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="135" t="s">
-        <v>634</v>
+        <v>615</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -13292,7 +13430,7 @@
         <v>431</v>
       </c>
       <c r="L37" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M37" s="64" t="s">
         <v>432</v>
@@ -13309,7 +13447,7 @@
       <c r="B38" s="133"/>
       <c r="C38" s="65"/>
       <c r="D38" s="135" t="s">
-        <v>635</v>
+        <v>616</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -13323,7 +13461,7 @@
         <v>431</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M38" s="64" t="s">
         <v>432</v>
@@ -13333,14 +13471,14 @@
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="133"/>
       <c r="C39" s="65"/>
       <c r="D39" s="135" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
@@ -13354,7 +13492,7 @@
         <v>431</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M39" s="64" t="s">
         <v>432</v>
@@ -13364,7 +13502,7 @@
       </c>
       <c r="O39" s="65"/>
       <c r="P39" s="65" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13373,7 +13511,7 @@
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="135" t="s">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -13387,7 +13525,7 @@
         <v>431</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M40" s="64" t="s">
         <v>432</v>
@@ -13397,14 +13535,14 @@
       </c>
       <c r="O40" s="65"/>
       <c r="P40" s="65" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="133"/>
       <c r="C41" s="65"/>
       <c r="D41" s="135" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64"/>
@@ -13418,7 +13556,7 @@
         <v>431</v>
       </c>
       <c r="L41" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M41" s="64" t="s">
         <v>432</v>
@@ -13428,14 +13566,14 @@
       </c>
       <c r="O41" s="65"/>
       <c r="P41" s="65" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="133"/>
       <c r="C42" s="65"/>
       <c r="D42" s="135" t="s">
-        <v>639</v>
+        <v>620</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64"/>
@@ -13449,7 +13587,7 @@
         <v>431</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M42" s="64" t="s">
         <v>432</v>
@@ -13459,14 +13597,14 @@
       </c>
       <c r="O42" s="65"/>
       <c r="P42" s="65" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="133"/>
       <c r="C43" s="65"/>
       <c r="D43" s="135" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="64"/>
@@ -13480,7 +13618,7 @@
         <v>431</v>
       </c>
       <c r="L43" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M43" s="64" t="s">
         <v>432</v>
@@ -13490,7 +13628,7 @@
       </c>
       <c r="O43" s="65"/>
       <c r="P43" s="65" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13499,7 +13637,7 @@
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="135" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="64"/>
@@ -13513,7 +13651,7 @@
         <v>431</v>
       </c>
       <c r="L44" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M44" s="64" t="s">
         <v>432</v>
@@ -13530,7 +13668,7 @@
       <c r="B45" s="133"/>
       <c r="C45" s="65"/>
       <c r="D45" s="135" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
@@ -13544,7 +13682,7 @@
         <v>431</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M45" s="64" t="s">
         <v>432</v>
@@ -13554,14 +13692,14 @@
       </c>
       <c r="O45" s="65"/>
       <c r="P45" s="65" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="133"/>
       <c r="C46" s="65"/>
       <c r="D46" s="135" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
@@ -13575,7 +13713,7 @@
         <v>431</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M46" s="64" t="s">
         <v>432</v>
@@ -13585,7 +13723,7 @@
       </c>
       <c r="O46" s="65"/>
       <c r="P46" s="65" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13594,7 +13732,7 @@
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="135" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
@@ -13608,7 +13746,7 @@
         <v>431</v>
       </c>
       <c r="L47" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M47" s="64" t="s">
         <v>432</v>
@@ -13618,14 +13756,14 @@
       </c>
       <c r="O47" s="65"/>
       <c r="P47" s="65" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="133"/>
       <c r="C48" s="65"/>
       <c r="D48" s="135" t="s">
-        <v>645</v>
+        <v>626</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
@@ -13639,7 +13777,7 @@
         <v>431</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M48" s="64" t="s">
         <v>432</v>
@@ -13649,14 +13787,14 @@
       </c>
       <c r="O48" s="65"/>
       <c r="P48" s="65" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="133"/>
       <c r="C49" s="65"/>
       <c r="D49" s="135" t="s">
-        <v>646</v>
+        <v>627</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="64"/>
@@ -13670,7 +13808,7 @@
         <v>431</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M49" s="64" t="s">
         <v>432</v>
@@ -13680,14 +13818,14 @@
       </c>
       <c r="O49" s="65"/>
       <c r="P49" s="65" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="133"/>
       <c r="C50" s="65"/>
       <c r="D50" s="135" t="s">
-        <v>647</v>
+        <v>628</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
@@ -13701,7 +13839,7 @@
         <v>431</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M50" s="64" t="s">
         <v>432</v>
@@ -13711,7 +13849,7 @@
       </c>
       <c r="O50" s="65"/>
       <c r="P50" s="65" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13720,7 +13858,7 @@
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="135" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
@@ -13734,7 +13872,7 @@
         <v>431</v>
       </c>
       <c r="L51" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M51" s="64" t="s">
         <v>432</v>
@@ -13751,7 +13889,7 @@
       <c r="B52" s="133"/>
       <c r="C52" s="65"/>
       <c r="D52" s="135" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
@@ -13765,7 +13903,7 @@
         <v>431</v>
       </c>
       <c r="L52" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M52" s="64" t="s">
         <v>432</v>
@@ -13775,7 +13913,7 @@
       </c>
       <c r="O52" s="65"/>
       <c r="P52" s="65" t="s">
-        <v>622</v>
+        <v>603</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13784,7 +13922,7 @@
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="135" t="s">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64"/>
@@ -13798,7 +13936,7 @@
         <v>431</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M53" s="64" t="s">
         <v>432</v>
@@ -13815,7 +13953,7 @@
       <c r="B54" s="133"/>
       <c r="C54" s="65"/>
       <c r="D54" s="135" t="s">
-        <v>651</v>
+        <v>632</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="64"/>
@@ -13829,7 +13967,7 @@
         <v>431</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M54" s="64" t="s">
         <v>432</v>
@@ -13839,14 +13977,14 @@
       </c>
       <c r="O54" s="65"/>
       <c r="P54" s="65" t="s">
-        <v>624</v>
+        <v>605</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="133"/>
       <c r="C55" s="65"/>
       <c r="D55" s="135" t="s">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="E55" s="64"/>
       <c r="F55" s="64"/>
@@ -13860,7 +13998,7 @@
         <v>431</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M55" s="64" t="s">
         <v>432</v>
@@ -13870,14 +14008,14 @@
       </c>
       <c r="O55" s="65"/>
       <c r="P55" s="65" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="133"/>
       <c r="C56" s="65"/>
       <c r="D56" s="135" t="s">
-        <v>653</v>
+        <v>634</v>
       </c>
       <c r="E56" s="64"/>
       <c r="F56" s="64"/>
@@ -13891,7 +14029,7 @@
         <v>431</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M56" s="64" t="s">
         <v>432</v>
@@ -13901,7 +14039,7 @@
       </c>
       <c r="O56" s="65"/>
       <c r="P56" s="65" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13910,7 +14048,7 @@
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="135" t="s">
-        <v>654</v>
+        <v>635</v>
       </c>
       <c r="E57" s="64"/>
       <c r="F57" s="64"/>
@@ -13924,7 +14062,7 @@
         <v>431</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M57" s="64" t="s">
         <v>432</v>
@@ -13941,7 +14079,7 @@
       <c r="B58" s="133"/>
       <c r="C58" s="65"/>
       <c r="D58" s="135" t="s">
-        <v>655</v>
+        <v>636</v>
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="64"/>
@@ -13955,7 +14093,7 @@
         <v>431</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M58" s="64" t="s">
         <v>432</v>
@@ -13965,14 +14103,14 @@
       </c>
       <c r="O58" s="65"/>
       <c r="P58" s="65" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="133"/>
       <c r="C59" s="65"/>
       <c r="D59" s="135" t="s">
-        <v>656</v>
+        <v>637</v>
       </c>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
@@ -13986,7 +14124,7 @@
         <v>431</v>
       </c>
       <c r="L59" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M59" s="64" t="s">
         <v>432</v>
@@ -13996,7 +14134,7 @@
       </c>
       <c r="O59" s="65"/>
       <c r="P59" s="65" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14005,7 +14143,7 @@
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="135" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
@@ -14019,7 +14157,7 @@
         <v>431</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M60" s="64" t="s">
         <v>432</v>
@@ -14036,7 +14174,7 @@
       <c r="B61" s="133"/>
       <c r="C61" s="65"/>
       <c r="D61" s="135" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E61" s="64"/>
       <c r="F61" s="64"/>
@@ -14050,7 +14188,7 @@
         <v>431</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M61" s="64" t="s">
         <v>432</v>
@@ -14060,7 +14198,7 @@
       </c>
       <c r="O61" s="65"/>
       <c r="P61" s="65" t="s">
-        <v>627</v>
+        <v>608</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14069,7 +14207,7 @@
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="135" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E62" s="64"/>
       <c r="F62" s="64"/>
@@ -14083,7 +14221,7 @@
         <v>431</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M62" s="64" t="s">
         <v>432</v>
@@ -14100,7 +14238,7 @@
       <c r="B63" s="133"/>
       <c r="C63" s="65"/>
       <c r="D63" s="135" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="64"/>
@@ -14114,7 +14252,7 @@
         <v>431</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>633</v>
+        <v>614</v>
       </c>
       <c r="M63" s="64" t="s">
         <v>432</v>
@@ -14124,18 +14262,18 @@
       </c>
       <c r="O63" s="65"/>
       <c r="P63" s="65" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="64" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="133" t="s">
         <v>456</v>
       </c>
       <c r="C64" s="65"/>
-      <c r="D64" s="131" t="s">
-        <v>557</v>
-      </c>
-      <c r="E64" s="64"/>
+      <c r="D64" s="156" t="s">
+        <v>645</v>
+      </c>
+      <c r="E64" s="138"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
@@ -14147,7 +14285,7 @@
         <v>431</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M64" s="64" t="s">
         <v>432</v>
@@ -14160,15 +14298,13 @@
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="133" t="s">
-        <v>458</v>
-      </c>
+    <row r="65" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="133"/>
       <c r="C65" s="65"/>
-      <c r="D65" s="131" t="s">
-        <v>558</v>
-      </c>
-      <c r="E65" s="64"/>
+      <c r="D65" s="157" t="s">
+        <v>646</v>
+      </c>
+      <c r="E65" s="138"/>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
@@ -14180,7 +14316,7 @@
         <v>431</v>
       </c>
       <c r="L65" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M65" s="64" t="s">
         <v>432</v>
@@ -14190,18 +14326,18 @@
       </c>
       <c r="O65" s="65"/>
       <c r="P65" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="133" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C66" s="65"/>
-      <c r="D66" s="131" t="s">
-        <v>559</v>
-      </c>
-      <c r="E66" s="64"/>
+      <c r="D66" s="157" t="s">
+        <v>647</v>
+      </c>
+      <c r="E66" s="138"/>
       <c r="F66" s="64"/>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
@@ -14213,7 +14349,7 @@
         <v>431</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M66" s="64" t="s">
         <v>432</v>
@@ -14223,18 +14359,16 @@
       </c>
       <c r="O66" s="65"/>
       <c r="P66" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="133" t="s">
-        <v>460</v>
-      </c>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="133"/>
       <c r="C67" s="65"/>
-      <c r="D67" s="131" t="s">
-        <v>560</v>
-      </c>
-      <c r="E67" s="64"/>
+      <c r="D67" s="157" t="s">
+        <v>648</v>
+      </c>
+      <c r="E67" s="138"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
@@ -14246,7 +14380,7 @@
         <v>431</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M67" s="64" t="s">
         <v>432</v>
@@ -14256,18 +14390,16 @@
       </c>
       <c r="O67" s="65"/>
       <c r="P67" s="65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="68" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="133" t="s">
-        <v>461</v>
-      </c>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="133"/>
       <c r="C68" s="65"/>
-      <c r="D68" s="131" t="s">
-        <v>561</v>
-      </c>
-      <c r="E68" s="64"/>
+      <c r="D68" s="157" t="s">
+        <v>649</v>
+      </c>
+      <c r="E68" s="138"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
@@ -14279,7 +14411,7 @@
         <v>431</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M68" s="64" t="s">
         <v>432</v>
@@ -14289,18 +14421,16 @@
       </c>
       <c r="O68" s="65"/>
       <c r="P68" s="65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="69" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="133" t="s">
-        <v>462</v>
-      </c>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="133"/>
       <c r="C69" s="65"/>
-      <c r="D69" s="131" t="s">
-        <v>562</v>
-      </c>
-      <c r="E69" s="64"/>
+      <c r="D69" s="157" t="s">
+        <v>650</v>
+      </c>
+      <c r="E69" s="138"/>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -14312,7 +14442,7 @@
         <v>431</v>
       </c>
       <c r="L69" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M69" s="64" t="s">
         <v>432</v>
@@ -14322,18 +14452,18 @@
       </c>
       <c r="O69" s="65"/>
       <c r="P69" s="65" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="70" spans="2:16" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="133" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C70" s="65"/>
-      <c r="D70" s="131" t="s">
-        <v>563</v>
-      </c>
-      <c r="E70" s="64"/>
+      <c r="D70" s="157" t="s">
+        <v>651</v>
+      </c>
+      <c r="E70" s="138"/>
       <c r="F70" s="64"/>
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
@@ -14345,7 +14475,7 @@
         <v>431</v>
       </c>
       <c r="L70" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M70" s="64" t="s">
         <v>432</v>
@@ -14355,18 +14485,16 @@
       </c>
       <c r="O70" s="65"/>
       <c r="P70" s="65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="133" t="s">
-        <v>464</v>
-      </c>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="133"/>
       <c r="C71" s="65"/>
-      <c r="D71" s="131" t="s">
-        <v>564</v>
-      </c>
-      <c r="E71" s="64"/>
+      <c r="D71" s="157" t="s">
+        <v>652</v>
+      </c>
+      <c r="E71" s="138"/>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
@@ -14378,7 +14506,7 @@
         <v>431</v>
       </c>
       <c r="L71" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M71" s="64" t="s">
         <v>432</v>
@@ -14388,18 +14516,18 @@
       </c>
       <c r="O71" s="65"/>
       <c r="P71" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="133" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C72" s="65"/>
-      <c r="D72" s="131" t="s">
-        <v>565</v>
-      </c>
-      <c r="E72" s="64"/>
+      <c r="D72" s="157" t="s">
+        <v>653</v>
+      </c>
+      <c r="E72" s="138"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
@@ -14411,7 +14539,7 @@
         <v>431</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>457</v>
+        <v>679</v>
       </c>
       <c r="M72" s="64" t="s">
         <v>432</v>
@@ -14421,18 +14549,16 @@
       </c>
       <c r="O72" s="65"/>
       <c r="P72" s="65" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="133" t="s">
-        <v>466</v>
-      </c>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="133"/>
       <c r="C73" s="65"/>
-      <c r="D73" s="131" t="s">
-        <v>566</v>
-      </c>
-      <c r="E73" s="64"/>
+      <c r="D73" s="157" t="s">
+        <v>654</v>
+      </c>
+      <c r="E73" s="138"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
       <c r="H73" s="64"/>
@@ -14444,7 +14570,7 @@
         <v>431</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M73" s="64" t="s">
         <v>432</v>
@@ -14454,18 +14580,16 @@
       </c>
       <c r="O73" s="65"/>
       <c r="P73" s="65" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="133" t="s">
-        <v>468</v>
-      </c>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="133"/>
       <c r="C74" s="65"/>
-      <c r="D74" s="131" t="s">
-        <v>567</v>
-      </c>
-      <c r="E74" s="64"/>
+      <c r="D74" s="157" t="s">
+        <v>655</v>
+      </c>
+      <c r="E74" s="138"/>
       <c r="F74" s="64"/>
       <c r="G74" s="64"/>
       <c r="H74" s="64"/>
@@ -14477,7 +14601,7 @@
         <v>431</v>
       </c>
       <c r="L74" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M74" s="64" t="s">
         <v>432</v>
@@ -14487,18 +14611,16 @@
       </c>
       <c r="O74" s="65"/>
       <c r="P74" s="65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="133" t="s">
-        <v>469</v>
-      </c>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="133"/>
       <c r="C75" s="65"/>
-      <c r="D75" s="131" t="s">
-        <v>568</v>
-      </c>
-      <c r="E75" s="64"/>
+      <c r="D75" s="157" t="s">
+        <v>656</v>
+      </c>
+      <c r="E75" s="138"/>
       <c r="F75" s="64"/>
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
@@ -14510,7 +14632,7 @@
         <v>431</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M75" s="64" t="s">
         <v>432</v>
@@ -14520,18 +14642,16 @@
       </c>
       <c r="O75" s="65"/>
       <c r="P75" s="65" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="133" t="s">
-        <v>470</v>
-      </c>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="133"/>
       <c r="C76" s="65"/>
-      <c r="D76" s="131" t="s">
-        <v>569</v>
-      </c>
-      <c r="E76" s="64"/>
+      <c r="D76" s="157" t="s">
+        <v>657</v>
+      </c>
+      <c r="E76" s="138"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
@@ -14543,7 +14663,7 @@
         <v>431</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M76" s="64" t="s">
         <v>432</v>
@@ -14553,18 +14673,18 @@
       </c>
       <c r="O76" s="65"/>
       <c r="P76" s="65" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="133" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C77" s="65"/>
-      <c r="D77" s="131" t="s">
-        <v>570</v>
-      </c>
-      <c r="E77" s="64"/>
+      <c r="D77" s="157" t="s">
+        <v>658</v>
+      </c>
+      <c r="E77" s="138"/>
       <c r="F77" s="64"/>
       <c r="G77" s="64"/>
       <c r="H77" s="64"/>
@@ -14576,7 +14696,7 @@
         <v>431</v>
       </c>
       <c r="L77" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M77" s="64" t="s">
         <v>432</v>
@@ -14589,15 +14709,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="78" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="133" t="s">
-        <v>472</v>
-      </c>
+    <row r="78" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="133"/>
       <c r="C78" s="65"/>
-      <c r="D78" s="131" t="s">
-        <v>571</v>
-      </c>
-      <c r="E78" s="64"/>
+      <c r="D78" s="157" t="s">
+        <v>659</v>
+      </c>
+      <c r="E78" s="138"/>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
@@ -14609,7 +14727,7 @@
         <v>431</v>
       </c>
       <c r="L78" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M78" s="64" t="s">
         <v>432</v>
@@ -14619,18 +14737,16 @@
       </c>
       <c r="O78" s="65"/>
       <c r="P78" s="65" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="79" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="133" t="s">
-        <v>473</v>
-      </c>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="133"/>
       <c r="C79" s="65"/>
-      <c r="D79" s="131" t="s">
-        <v>572</v>
-      </c>
-      <c r="E79" s="64"/>
+      <c r="D79" s="157" t="s">
+        <v>660</v>
+      </c>
+      <c r="E79" s="138"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
@@ -14642,7 +14758,7 @@
         <v>431</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M79" s="64" t="s">
         <v>432</v>
@@ -14652,18 +14768,16 @@
       </c>
       <c r="O79" s="65"/>
       <c r="P79" s="65" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="80" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="133" t="s">
-        <v>474</v>
-      </c>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="133"/>
       <c r="C80" s="65"/>
-      <c r="D80" s="131" t="s">
-        <v>573</v>
-      </c>
-      <c r="E80" s="64"/>
+      <c r="D80" s="157" t="s">
+        <v>661</v>
+      </c>
+      <c r="E80" s="138"/>
       <c r="F80" s="64"/>
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
@@ -14675,7 +14789,7 @@
         <v>431</v>
       </c>
       <c r="L80" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M80" s="64" t="s">
         <v>432</v>
@@ -14685,18 +14799,16 @@
       </c>
       <c r="O80" s="65"/>
       <c r="P80" s="65" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="81" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="133" t="s">
-        <v>475</v>
-      </c>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="133"/>
       <c r="C81" s="65"/>
-      <c r="D81" s="131" t="s">
-        <v>574</v>
-      </c>
-      <c r="E81" s="64"/>
+      <c r="D81" s="157" t="s">
+        <v>662</v>
+      </c>
+      <c r="E81" s="138"/>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
       <c r="H81" s="64"/>
@@ -14708,7 +14820,7 @@
         <v>431</v>
       </c>
       <c r="L81" s="64" t="s">
-        <v>467</v>
+        <v>679</v>
       </c>
       <c r="M81" s="64" t="s">
         <v>432</v>
@@ -14718,94 +14830,945 @@
       </c>
       <c r="O81" s="65"/>
       <c r="P81" s="65" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="133"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="157" t="s">
+        <v>663</v>
+      </c>
+      <c r="E82" s="138"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
+      <c r="I82" s="64"/>
+      <c r="J82" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K82" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L82" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M82" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N82" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O82" s="65"/>
+      <c r="P82" s="65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="133" t="s">
+        <v>461</v>
+      </c>
+      <c r="C83" s="65"/>
+      <c r="D83" s="157" t="s">
+        <v>664</v>
+      </c>
+      <c r="E83" s="138"/>
+      <c r="F83" s="64"/>
+      <c r="G83" s="64"/>
+      <c r="H83" s="64"/>
+      <c r="I83" s="64"/>
+      <c r="J83" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K83" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L83" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M83" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N83" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="133"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="157" t="s">
+        <v>665</v>
+      </c>
+      <c r="E84" s="138"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
+      <c r="I84" s="64"/>
+      <c r="J84" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K84" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L84" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M84" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N84" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O84" s="65"/>
+      <c r="P84" s="65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="133"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="157" t="s">
+        <v>666</v>
+      </c>
+      <c r="E85" s="138"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="64"/>
+      <c r="H85" s="64"/>
+      <c r="I85" s="64"/>
+      <c r="J85" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K85" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L85" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M85" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N85" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="133"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="157" t="s">
+        <v>667</v>
+      </c>
+      <c r="E86" s="138"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
+      <c r="I86" s="64"/>
+      <c r="J86" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K86" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L86" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M86" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N86" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="133" t="s">
+        <v>462</v>
+      </c>
+      <c r="C87" s="65"/>
+      <c r="D87" s="157" t="s">
+        <v>668</v>
+      </c>
+      <c r="E87" s="138"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="64"/>
+      <c r="I87" s="64"/>
+      <c r="J87" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K87" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L87" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M87" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N87" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="133"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="E88" s="138"/>
+      <c r="F88" s="64"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="64"/>
+      <c r="I88" s="64"/>
+      <c r="J88" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K88" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L88" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M88" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N88" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="133" t="s">
+        <v>463</v>
+      </c>
+      <c r="C89" s="65"/>
+      <c r="D89" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="E89" s="138"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="64"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="64"/>
+      <c r="J89" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K89" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L89" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M89" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N89" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="133"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="157" t="s">
+        <v>671</v>
+      </c>
+      <c r="E90" s="138"/>
+      <c r="F90" s="64"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="64"/>
+      <c r="I90" s="64"/>
+      <c r="J90" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K90" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L90" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M90" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N90" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="133"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="157" t="s">
+        <v>672</v>
+      </c>
+      <c r="E91" s="138"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="64"/>
+      <c r="I91" s="64"/>
+      <c r="J91" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K91" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L91" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M91" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N91" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="133" t="s">
+        <v>464</v>
+      </c>
+      <c r="C92" s="65"/>
+      <c r="D92" s="157" t="s">
+        <v>673</v>
+      </c>
+      <c r="E92" s="138"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K92" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L92" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M92" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N92" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="82" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="107"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="109"/>
-      <c r="J82" s="108"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="109"/>
-      <c r="M82" s="109"/>
-      <c r="N82" s="109"/>
-      <c r="O82" s="108"/>
-      <c r="P82" s="108"/>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B83" s="89"/>
-      <c r="C83" s="91" t="s">
+    <row r="93" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="133"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="157" t="s">
+        <v>674</v>
+      </c>
+      <c r="E93" s="138"/>
+      <c r="F93" s="64"/>
+      <c r="G93" s="64"/>
+      <c r="H93" s="64"/>
+      <c r="I93" s="64"/>
+      <c r="J93" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K93" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L93" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M93" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N93" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="133"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="E94" s="138"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="64"/>
+      <c r="H94" s="64"/>
+      <c r="I94" s="64"/>
+      <c r="J94" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K94" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L94" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M94" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N94" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O94" s="65"/>
+      <c r="P94" s="65" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="133"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="157" t="s">
+        <v>676</v>
+      </c>
+      <c r="E95" s="138"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
+      <c r="H95" s="64"/>
+      <c r="I95" s="64"/>
+      <c r="J95" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K95" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L95" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M95" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N95" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="133"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="157" t="s">
+        <v>677</v>
+      </c>
+      <c r="E96" s="138"/>
+      <c r="F96" s="64"/>
+      <c r="G96" s="64"/>
+      <c r="H96" s="64"/>
+      <c r="I96" s="64"/>
+      <c r="J96" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K96" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L96" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M96" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N96" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="133"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="158" t="s">
+        <v>678</v>
+      </c>
+      <c r="E97" s="138"/>
+      <c r="F97" s="64"/>
+      <c r="G97" s="64"/>
+      <c r="H97" s="64"/>
+      <c r="I97" s="64"/>
+      <c r="J97" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K97" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L97" s="64" t="s">
+        <v>679</v>
+      </c>
+      <c r="M97" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N97" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O97" s="65"/>
+      <c r="P97" s="65" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="133" t="s">
+        <v>465</v>
+      </c>
+      <c r="C98" s="65"/>
+      <c r="D98" s="131"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="64"/>
+      <c r="G98" s="64"/>
+      <c r="H98" s="64"/>
+      <c r="I98" s="64"/>
+      <c r="J98" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K98" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L98" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M98" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N98" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O98" s="65"/>
+      <c r="P98" s="65" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="133" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" s="65"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="64"/>
+      <c r="H99" s="64"/>
+      <c r="I99" s="64"/>
+      <c r="J99" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K99" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L99" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M99" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N99" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="133" t="s">
+        <v>468</v>
+      </c>
+      <c r="C100" s="65"/>
+      <c r="D100" s="131"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="64"/>
+      <c r="G100" s="64"/>
+      <c r="H100" s="64"/>
+      <c r="I100" s="64"/>
+      <c r="J100" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K100" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L100" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M100" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N100" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O100" s="65"/>
+      <c r="P100" s="65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="133" t="s">
+        <v>469</v>
+      </c>
+      <c r="C101" s="65"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="64"/>
+      <c r="H101" s="64"/>
+      <c r="I101" s="64"/>
+      <c r="J101" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K101" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L101" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M101" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N101" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="133" t="s">
+        <v>470</v>
+      </c>
+      <c r="C102" s="65"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="64"/>
+      <c r="F102" s="64"/>
+      <c r="G102" s="64"/>
+      <c r="H102" s="64"/>
+      <c r="I102" s="64"/>
+      <c r="J102" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K102" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L102" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M102" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N102" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O102" s="65"/>
+      <c r="P102" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="133" t="s">
+        <v>471</v>
+      </c>
+      <c r="C103" s="65"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="64"/>
+      <c r="H103" s="64"/>
+      <c r="I103" s="64"/>
+      <c r="J103" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K103" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L103" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M103" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N103" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O103" s="65"/>
+      <c r="P103" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="133" t="s">
+        <v>472</v>
+      </c>
+      <c r="C104" s="65"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="64"/>
+      <c r="H104" s="64"/>
+      <c r="I104" s="64"/>
+      <c r="J104" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K104" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L104" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M104" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N104" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O104" s="65"/>
+      <c r="P104" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="133" t="s">
+        <v>473</v>
+      </c>
+      <c r="C105" s="65"/>
+      <c r="D105" s="131"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="64"/>
+      <c r="I105" s="64"/>
+      <c r="J105" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K105" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L105" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M105" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N105" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O105" s="65"/>
+      <c r="P105" s="65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="133" t="s">
+        <v>474</v>
+      </c>
+      <c r="C106" s="65"/>
+      <c r="D106" s="131"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
+      <c r="H106" s="64"/>
+      <c r="I106" s="64"/>
+      <c r="J106" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K106" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L106" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="M106" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N106" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O106" s="65"/>
+      <c r="P106" s="65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="152"/>
+      <c r="C107" s="153"/>
+      <c r="D107" s="154"/>
+      <c r="E107" s="155"/>
+      <c r="F107" s="155"/>
+      <c r="G107" s="155"/>
+      <c r="H107" s="155"/>
+      <c r="I107" s="155"/>
+      <c r="J107" s="153"/>
+      <c r="K107" s="155"/>
+      <c r="L107" s="155"/>
+      <c r="M107" s="155"/>
+      <c r="N107" s="155"/>
+      <c r="O107" s="153"/>
+      <c r="P107" s="153"/>
+    </row>
+    <row r="108" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="152"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="154"/>
+      <c r="E108" s="155"/>
+      <c r="F108" s="155"/>
+      <c r="G108" s="155"/>
+      <c r="H108" s="155"/>
+      <c r="I108" s="155"/>
+      <c r="J108" s="153"/>
+      <c r="K108" s="155"/>
+      <c r="L108" s="155"/>
+      <c r="M108" s="155"/>
+      <c r="N108" s="155"/>
+      <c r="O108" s="153"/>
+      <c r="P108" s="153"/>
+    </row>
+    <row r="109" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="152"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="155"/>
+      <c r="F109" s="155"/>
+      <c r="G109" s="155"/>
+      <c r="H109" s="155"/>
+      <c r="I109" s="155"/>
+      <c r="J109" s="153"/>
+      <c r="K109" s="155"/>
+      <c r="L109" s="155"/>
+      <c r="M109" s="155"/>
+      <c r="N109" s="155"/>
+      <c r="O109" s="153"/>
+      <c r="P109" s="153"/>
+    </row>
+    <row r="110" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="152"/>
+      <c r="C110" s="153"/>
+      <c r="D110" s="154"/>
+      <c r="E110" s="155"/>
+      <c r="F110" s="155"/>
+      <c r="G110" s="155"/>
+      <c r="H110" s="155"/>
+      <c r="I110" s="155"/>
+      <c r="J110" s="153"/>
+      <c r="K110" s="155"/>
+      <c r="L110" s="155"/>
+      <c r="M110" s="155"/>
+      <c r="N110" s="155"/>
+      <c r="O110" s="153"/>
+      <c r="P110" s="153"/>
+    </row>
+    <row r="111" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="107"/>
+      <c r="C111" s="108"/>
+      <c r="D111" s="108"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="109"/>
+      <c r="G111" s="109"/>
+      <c r="H111" s="109"/>
+      <c r="I111" s="109"/>
+      <c r="J111" s="108"/>
+      <c r="K111" s="109"/>
+      <c r="L111" s="109"/>
+      <c r="M111" s="109"/>
+      <c r="N111" s="109"/>
+      <c r="O111" s="108"/>
+      <c r="P111" s="108"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="89"/>
+      <c r="C112" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="92">
+      <c r="D112" s="91"/>
+      <c r="E112" s="92">
         <v>0</v>
       </c>
-      <c r="F83" s="92">
+      <c r="F112" s="92">
         <v>0</v>
       </c>
-      <c r="G83" s="92">
+      <c r="G112" s="92">
         <v>0</v>
       </c>
-      <c r="H83" s="92">
+      <c r="H112" s="92">
         <v>0</v>
       </c>
-      <c r="I83" s="92">
+      <c r="I112" s="92">
         <v>0</v>
       </c>
-      <c r="J83" s="92">
+      <c r="J112" s="92">
         <v>36</v>
       </c>
-      <c r="K83" s="93"/>
-      <c r="L83" s="93"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="90"/>
-      <c r="O83" s="90"/>
-      <c r="P83" s="90"/>
-    </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B84" s="90"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="93"/>
-      <c r="H84" s="93"/>
-      <c r="I84" s="93"/>
-      <c r="J84" s="93"/>
-      <c r="K84" s="93"/>
-      <c r="L84" s="93"/>
-      <c r="M84" s="93"/>
-      <c r="N84" s="90"/>
-      <c r="O84" s="90"/>
-      <c r="P84" s="90"/>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B85" s="90"/>
-      <c r="C85" s="90"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="95" t="s">
+      <c r="K112" s="93"/>
+      <c r="L112" s="93"/>
+      <c r="M112" s="93"/>
+      <c r="N112" s="90"/>
+      <c r="O112" s="90"/>
+      <c r="P112" s="90"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="90"/>
+      <c r="C113" s="91"/>
+      <c r="D113" s="93"/>
+      <c r="E113" s="93"/>
+      <c r="F113" s="93"/>
+      <c r="G113" s="93"/>
+      <c r="H113" s="93"/>
+      <c r="I113" s="93"/>
+      <c r="J113" s="93"/>
+      <c r="K113" s="93"/>
+      <c r="L113" s="93"/>
+      <c r="M113" s="93"/>
+      <c r="N113" s="90"/>
+      <c r="O113" s="90"/>
+      <c r="P113" s="90"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="90"/>
+      <c r="C114" s="90"/>
+      <c r="D114" s="93"/>
+      <c r="E114" s="94"/>
+      <c r="F114" s="94"/>
+      <c r="G114" s="94"/>
+      <c r="H114" s="94"/>
+      <c r="I114" s="94"/>
+      <c r="J114" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="K85" s="96">
+      <c r="K114" s="96">
         <v>36</v>
       </c>
-      <c r="L85" s="93"/>
-      <c r="M85" s="93"/>
-      <c r="N85" s="90"/>
-      <c r="O85" s="90"/>
-      <c r="P85" s="90"/>
+      <c r="L114" s="93"/>
+      <c r="M114" s="93"/>
+      <c r="N114" s="90"/>
+      <c r="O114" s="90"/>
+      <c r="P114" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14868,6 +15831,40 @@
     <hyperlink ref="D61" r:id="rId57" location="'Metadatos V'!B60" xr:uid="{867385BA-5C99-4E73-8BEE-1E3EE123B5D4}"/>
     <hyperlink ref="D62" r:id="rId58" location="'Metadatos V'!B61" xr:uid="{F68D4250-64DB-493A-820D-EE086A8A1CFC}"/>
     <hyperlink ref="D63" r:id="rId59" location="'Metadatos V'!B62" xr:uid="{9998FF29-5F84-40EF-A583-87AB3A11616B}"/>
+    <hyperlink ref="D64" r:id="rId60" location="'Metadatos V'!B63" xr:uid="{2D7BC5DC-DB25-4B12-BE19-C56B4010454C}"/>
+    <hyperlink ref="D65" r:id="rId61" location="'Metadatos V'!B64" xr:uid="{44577E2E-2F0A-49D9-877E-D9F61621996C}"/>
+    <hyperlink ref="D66" r:id="rId62" location="'Metadatos V'!B65" xr:uid="{44EEC8DB-D498-46B0-B19E-F1F566EDBE39}"/>
+    <hyperlink ref="D67" r:id="rId63" location="'Metadatos V'!B66" xr:uid="{8199C4ED-EFF6-4315-9CDE-92250128AED3}"/>
+    <hyperlink ref="D68" r:id="rId64" location="'Metadatos V'!B67" xr:uid="{18B79F5C-EA24-4AF2-9FAF-E484799F8BFE}"/>
+    <hyperlink ref="D69" r:id="rId65" location="'Metadatos V'!B68" xr:uid="{35DDE0E4-8B2C-4A23-8A15-7CF2E1521818}"/>
+    <hyperlink ref="D70" r:id="rId66" location="'Metadatos V'!B69" xr:uid="{26C5BF2C-FB01-47EF-9C31-6B17F46D90FF}"/>
+    <hyperlink ref="D71" r:id="rId67" location="'Metadatos V'!B70" xr:uid="{9EFBF60B-3B9D-45EE-B242-727E79055DED}"/>
+    <hyperlink ref="D72" r:id="rId68" location="'Metadatos V'!B71" xr:uid="{2F1A0FBF-9C77-4DA1-9C7C-98E10D9E5AFB}"/>
+    <hyperlink ref="D73" r:id="rId69" location="'Metadatos V'!B72" xr:uid="{C2E1E592-46AF-4C8A-A4B7-8FF88E4007B0}"/>
+    <hyperlink ref="D74" r:id="rId70" location="'Metadatos V'!B73" xr:uid="{785DE42C-B157-4AAF-BF87-D76866B21304}"/>
+    <hyperlink ref="D75" r:id="rId71" location="'Metadatos V'!B74" xr:uid="{C09A90FF-DADA-4A81-9FC5-8581EE1408A0}"/>
+    <hyperlink ref="D76" r:id="rId72" location="'Metadatos V'!B75" xr:uid="{2E4EE3F5-DFE9-4B74-88EF-B065F0819BCB}"/>
+    <hyperlink ref="D77" r:id="rId73" location="'Metadatos V'!B76" xr:uid="{8071A742-22DE-4022-8A1B-52445D0BAD00}"/>
+    <hyperlink ref="D78" r:id="rId74" location="'Metadatos V'!B77" xr:uid="{9E0953FC-5411-4582-80EF-99E3EB9BFB03}"/>
+    <hyperlink ref="D79" r:id="rId75" location="'Metadatos V'!B78" xr:uid="{957EA248-779F-411D-9C92-33F90FAC01ED}"/>
+    <hyperlink ref="D80" r:id="rId76" location="'Metadatos V'!B79" xr:uid="{F3D2E0A7-4E78-4942-8603-6AC081E091A8}"/>
+    <hyperlink ref="D81" r:id="rId77" location="'Metadatos V'!B80" xr:uid="{0EEC220E-32ED-4517-98FD-14B91A6988DD}"/>
+    <hyperlink ref="D82" r:id="rId78" location="'Metadatos V'!B81" xr:uid="{2C845BAC-08CE-4783-8DCD-31B0906A0B71}"/>
+    <hyperlink ref="D83" r:id="rId79" location="'Metadatos V'!B82" xr:uid="{83937E7B-E380-46FC-AE0A-6604D9E367E7}"/>
+    <hyperlink ref="D84" r:id="rId80" location="'Metadatos V'!B83" xr:uid="{8ACBC8AE-0120-43DC-B04D-B281EA18E998}"/>
+    <hyperlink ref="D85" r:id="rId81" location="'Metadatos V'!B84" xr:uid="{C38F7EB3-3A7A-40C6-B1FA-2EB58AF3A860}"/>
+    <hyperlink ref="D86" r:id="rId82" location="'Metadatos V'!B85" xr:uid="{AC369211-1ADF-4F29-8D79-6A5DF8A39E76}"/>
+    <hyperlink ref="D87" r:id="rId83" location="'Metadatos V'!B86" xr:uid="{658C8416-518C-44C5-93D6-C33AE2DEA507}"/>
+    <hyperlink ref="D88" r:id="rId84" location="'Metadatos V'!B87" xr:uid="{07D08CD0-A4E2-4BF0-AEEE-0BDA4C0ED9C2}"/>
+    <hyperlink ref="D89" r:id="rId85" location="'Metadatos V'!B88" xr:uid="{8ED3EED8-8124-4AE9-893A-6789CA7BA82B}"/>
+    <hyperlink ref="D90" r:id="rId86" location="'Metadatos V'!B89" xr:uid="{5D9DDE3F-C4CE-4306-850B-28A6F2933129}"/>
+    <hyperlink ref="D91" r:id="rId87" location="'Metadatos V'!B90" xr:uid="{6DCF71A9-ACB2-40E1-8C16-B38C3ADDFBF3}"/>
+    <hyperlink ref="D92" r:id="rId88" location="'Metadatos V'!B91" xr:uid="{AAEE01E7-70F7-44BE-89AB-1103E0EED55F}"/>
+    <hyperlink ref="D93" r:id="rId89" location="'Metadatos V'!B92" xr:uid="{D3BC58EF-0F32-4625-900A-22DC20676723}"/>
+    <hyperlink ref="D94" r:id="rId90" location="'Metadatos V'!B93" xr:uid="{5F6FC726-F8A8-4339-804D-7A9044E1D5B0}"/>
+    <hyperlink ref="D95" r:id="rId91" location="'Metadatos V'!B94" xr:uid="{C6838503-3A6A-4FE0-B3E6-B970FD3F9AB4}"/>
+    <hyperlink ref="D96" r:id="rId92" location="'Metadatos V'!B95" xr:uid="{EBE3EA12-B8C7-4B06-8E77-2413C24BBEEF}"/>
+    <hyperlink ref="D97" r:id="rId93" location="'Metadatos V'!B96" xr:uid="{58806871-1A47-4734-8C4F-F8703FF8C055}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -14900,7 +15897,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -15000,10 +15997,10 @@
         <v>285</v>
       </c>
       <c r="C5" s="110" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" s="129" t="s">
         <v>477</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>478</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -15021,18 +16018,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="134"/>
       <c r="C6" s="65"/>
       <c r="D6" s="130" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -15050,11 +16047,11 @@
         <v>207</v>
       </c>
       <c r="N6" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="62" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -15062,10 +16059,10 @@
         <v>292</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -15083,11 +16080,11 @@
         <v>207</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="62" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,7 +16093,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -15114,11 +16111,11 @@
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15127,7 +16124,7 @@
         <v>420</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -15145,11 +16142,11 @@
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="62" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15160,7 +16157,7 @@
         <v>420</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -15178,11 +16175,11 @@
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="62" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15193,7 +16190,7 @@
         <v>420</v>
       </c>
       <c r="D11" s="130" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -15211,11 +16208,11 @@
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="62" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15226,7 +16223,7 @@
         <v>420</v>
       </c>
       <c r="D12" s="130" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -15246,7 +16243,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="65"/>
       <c r="P12" s="62" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -15255,7 +16252,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="130" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>200</v>
@@ -15273,13 +16270,13 @@
         <v>207</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O13" s="65" t="s">
+        <v>496</v>
+      </c>
+      <c r="P13" s="62" t="s">
         <v>497</v>
-      </c>
-      <c r="P13" s="62" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15290,7 +16287,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -15308,20 +16305,20 @@
       </c>
       <c r="M14" s="64"/>
       <c r="N14" s="64" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="62" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="134"/>
       <c r="C15" s="100" t="s">
+        <v>501</v>
+      </c>
+      <c r="D15" s="130" t="s">
         <v>502</v>
-      </c>
-      <c r="D15" s="130" t="s">
-        <v>503</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -15339,16 +16336,16 @@
       <c r="N15" s="64"/>
       <c r="O15" s="65"/>
       <c r="P15" s="62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="134"/>
       <c r="C16" s="100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D16" s="130" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -15366,7 +16363,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="65"/>
       <c r="P16" s="62" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15377,7 +16374,7 @@
         <v>420</v>
       </c>
       <c r="D17" s="130" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -15395,11 +16392,11 @@
       </c>
       <c r="M17" s="64"/>
       <c r="N17" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="62" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15410,7 +16407,7 @@
         <v>420</v>
       </c>
       <c r="D18" s="130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -15428,11 +16425,11 @@
         <v>207</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="62" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15441,7 +16438,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="130" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -15459,11 +16456,11 @@
         <v>207</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="62" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15474,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="130" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -15492,22 +16489,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="127" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C21" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D21" s="130" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -15525,22 +16522,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="127" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C22" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D22" s="130" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -15558,22 +16555,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="62" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="127" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C23" s="100">
         <v>2</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>200</v>
@@ -15591,11 +16588,11 @@
         <v>207</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="62" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15604,7 +16601,7 @@
         <v>420</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -15622,11 +16619,11 @@
         <v>207</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,7 +16632,7 @@
         <v>420</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -15653,22 +16650,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="134" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -15686,22 +16683,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="134" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C27" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D27" s="130" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -15721,16 +16718,16 @@
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
       <c r="P27" s="62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="134" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -15748,16 +16745,16 @@
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
       <c r="P28" s="62" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="134" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="130" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -15775,16 +16772,16 @@
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
       <c r="P29" s="62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="134" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="130" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>200</v>
@@ -15802,16 +16799,16 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
       <c r="P30" s="62" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="134" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="130" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>200</v>
@@ -15828,19 +16825,19 @@
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P31" s="62" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="134" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="130" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E32" s="64" t="s">
         <v>200</v>
@@ -15857,19 +16854,19 @@
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P32" s="62" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="134" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="130" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -15887,7 +16884,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
       <c r="P33" s="62" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Wasted-Racing\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Niveles" sheetId="9" r:id="rId9"/>
     <sheet name="CueSheet Nivel 1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="710">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1456,15 +1456,9 @@
     <t>Voz de seleccion</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien</t>
-  </si>
-  <si>
     <t>Voz de que algo ha salido bien 2</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
@@ -1552,9 +1546,6 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>Personaje 4</t>
-  </si>
-  <si>
     <t>4.2</t>
   </si>
   <si>
@@ -2204,17 +2195,104 @@
   </si>
   <si>
     <t>Derrota 1</t>
+  </si>
+  <si>
+    <t>V-410</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voz de selección </t>
+  </si>
+  <si>
+    <t>V-411</t>
+  </si>
+  <si>
+    <t>V-415</t>
+  </si>
+  <si>
+    <t>V-420</t>
+  </si>
+  <si>
+    <t>V-425</t>
+  </si>
+  <si>
+    <t>V-426</t>
+  </si>
+  <si>
+    <t>V-430</t>
+  </si>
+  <si>
+    <t>V-431</t>
+  </si>
+  <si>
+    <t>V-435</t>
+  </si>
+  <si>
+    <t>V-436</t>
+  </si>
+  <si>
+    <t>V-440</t>
+  </si>
+  <si>
+    <t>V-441</t>
+  </si>
+  <si>
+    <t>V-445</t>
+  </si>
+  <si>
+    <t>V-450</t>
+  </si>
+  <si>
+    <t>V-451</t>
+  </si>
+  <si>
+    <t>V-455</t>
+  </si>
+  <si>
+    <t>V-456</t>
+  </si>
+  <si>
+    <t>V-460</t>
+  </si>
+  <si>
+    <t>V-461</t>
+  </si>
+  <si>
+    <t>V-465</t>
+  </si>
+  <si>
+    <t>V-466</t>
+  </si>
+  <si>
+    <t>V-470</t>
+  </si>
+  <si>
+    <t>V-475</t>
+  </si>
+  <si>
+    <t>V-480</t>
+  </si>
+  <si>
+    <t>V-485</t>
+  </si>
+  <si>
+    <t>V-490</t>
+  </si>
+  <si>
+    <t>V-495</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2258,20 +2336,20 @@
       <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2284,18 +2362,18 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2308,7 +2386,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2326,17 +2404,23 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2371,7 +2455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -2962,45 +3046,6 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -3025,7 +3070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3401,16 +3446,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
@@ -3427,20 +3469,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3456,21 +3505,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3558,7 +3592,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -3600,6 +3634,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3627,7 +3662,7 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-D749-4719-A9C4-21D25661312D}"/>
               </c:ext>
@@ -3647,7 +3682,7 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-D749-4719-A9C4-21D25661312D}"/>
               </c:ext>
@@ -3667,7 +3702,7 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-D749-4719-A9C4-21D25661312D}"/>
               </c:ext>
@@ -3687,7 +3722,7 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-D749-4719-A9C4-21D25661312D}"/>
               </c:ext>
@@ -3707,7 +3742,7 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-D749-4719-A9C4-21D25661312D}"/>
               </c:ext>
@@ -3727,7 +3762,7 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-D749-4719-A9C4-21D25661312D}"/>
               </c:ext>
@@ -3749,7 +3784,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -3798,15 +3833,15 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-D749-4719-A9C4-21D25661312D}"/>
             </c:ext>
@@ -3834,6 +3869,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3882,7 +3918,7 @@
         <xdr:cNvPr id="2" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,11 +4235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O11"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,32 +4414,32 @@
         <v>15</v>
       </c>
       <c r="C7" s="17">
-        <f>Personajes!E112</f>
+        <f>Personajes!E126</f>
         <v>0</v>
       </c>
       <c r="D7" s="17">
-        <f>Personajes!F112</f>
+        <f>Personajes!F126</f>
         <v>0</v>
       </c>
       <c r="E7" s="17">
-        <f>Personajes!G112</f>
+        <f>Personajes!G126</f>
         <v>0</v>
       </c>
       <c r="F7" s="17">
-        <f>Personajes!H112</f>
+        <f>Personajes!H126</f>
         <v>0</v>
       </c>
       <c r="G7" s="17">
-        <f>Personajes!I112</f>
-        <v>0</v>
+        <f>Personajes!I126</f>
+        <v>2</v>
       </c>
       <c r="H7" s="17">
-        <f>Personajes!J112</f>
-        <v>36</v>
+        <f>Personajes!J126</f>
+        <v>118</v>
       </c>
       <c r="I7" s="18">
         <f>SUM(C7:H7)</f>
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -4481,24 +4517,24 @@
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" location="'CueSheet intro'!A1" display="Cue sheet de la intro" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B5" location="'CueSheet Nivel 1'!A1" display="Cue sheet del nivel 1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B6" location="'Menu principal'!A1" display="Menu principal" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B7" location="Personajes!A1" display="Personajes" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B8" location="Niveles!A1" display="Niveles" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B4" location="'CueSheet intro'!A1" display="Cue sheet de la intro"/>
+    <hyperlink ref="B5" location="'CueSheet Nivel 1'!A1" display="Cue sheet del nivel 1"/>
+    <hyperlink ref="B6" location="'Menu principal'!A1" display="Menu principal"/>
+    <hyperlink ref="B7" location="Personajes!A1" display="Personajes"/>
+    <hyperlink ref="B8" location="Niveles!A1" display="Niveles"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4507,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4531,7 +4567,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -4609,7 +4645,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -4634,7 +4670,7 @@
         <v>414</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -4651,10 +4687,10 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="56" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="P5" s="56" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4971,7 +5007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView topLeftCell="B31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -4996,82 +5032,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="153" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
@@ -5081,15 +5117,15 @@
       <c r="E4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="149"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="153"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -7070,63 +7106,63 @@
     <mergeCell ref="N3:N4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="M6" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="M7" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="M9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="M10" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="M11" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="M12" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="M13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="M14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="M15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="M16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="M17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="M18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="M19" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="M20" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="M21" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="M22" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="M23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="M24" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="M25" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="M26" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="M27" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="M28" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="M29" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="M30" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="M31" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="M32" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="M33" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="M34" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="M35" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="M36" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="M37" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="M38" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="M39" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="M40" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="M41" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="M42" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="M43" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="M44" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="M45" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="N45" location="'CueSheet Cinematica'!D11" display="AI-01" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="M46" r:id="rId42" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="N46" location="'CueSheet Cinematica'!D19" display="AI-02" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="O46" location="'CueSheet Cinematica'!D23" display="AI-07" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="M47" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="N47" location="'CueSheet Cinematica'!D32" display="AI-03" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="M48" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="N48" location="'CueSheet Cinematica'!D34" display="AI-04" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="M49" r:id="rId45" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="N49" location="'CueSheet Cinematica'!D50" display="AI-05" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="M50" r:id="rId46" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="N50" location="'CueSheet Cinematica'!D61" display="AI-06" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="M51" r:id="rId47" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="M52" r:id="rId48" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="M53" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="M54" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="M6" r:id="rId2"/>
+    <hyperlink ref="M7" r:id="rId3"/>
+    <hyperlink ref="M8" r:id="rId4"/>
+    <hyperlink ref="M9" r:id="rId5"/>
+    <hyperlink ref="M10" r:id="rId6"/>
+    <hyperlink ref="M11" r:id="rId7"/>
+    <hyperlink ref="M12" r:id="rId8"/>
+    <hyperlink ref="M13" r:id="rId9"/>
+    <hyperlink ref="M14" r:id="rId10"/>
+    <hyperlink ref="M15" r:id="rId11"/>
+    <hyperlink ref="M16" r:id="rId12"/>
+    <hyperlink ref="M17" r:id="rId13"/>
+    <hyperlink ref="M18" r:id="rId14"/>
+    <hyperlink ref="M19" r:id="rId15"/>
+    <hyperlink ref="M20" r:id="rId16"/>
+    <hyperlink ref="M21" r:id="rId17"/>
+    <hyperlink ref="M22" r:id="rId18"/>
+    <hyperlink ref="M23" r:id="rId19"/>
+    <hyperlink ref="M24" r:id="rId20"/>
+    <hyperlink ref="M25" r:id="rId21"/>
+    <hyperlink ref="M26" r:id="rId22"/>
+    <hyperlink ref="M27" r:id="rId23"/>
+    <hyperlink ref="M28" r:id="rId24"/>
+    <hyperlink ref="M29" r:id="rId25"/>
+    <hyperlink ref="M30" r:id="rId26"/>
+    <hyperlink ref="M31" r:id="rId27"/>
+    <hyperlink ref="M32" r:id="rId28"/>
+    <hyperlink ref="M33" r:id="rId29"/>
+    <hyperlink ref="M34" r:id="rId30"/>
+    <hyperlink ref="M35" r:id="rId31"/>
+    <hyperlink ref="M36" r:id="rId32"/>
+    <hyperlink ref="M37" r:id="rId33"/>
+    <hyperlink ref="M38" r:id="rId34"/>
+    <hyperlink ref="M39" r:id="rId35"/>
+    <hyperlink ref="M40" r:id="rId36"/>
+    <hyperlink ref="M41" r:id="rId37"/>
+    <hyperlink ref="M42" r:id="rId38"/>
+    <hyperlink ref="M43" r:id="rId39"/>
+    <hyperlink ref="M44" r:id="rId40"/>
+    <hyperlink ref="M45" r:id="rId41"/>
+    <hyperlink ref="N45" location="'CueSheet Cinematica'!D11" display="AI-01"/>
+    <hyperlink ref="M46" r:id="rId42"/>
+    <hyperlink ref="N46" location="'CueSheet Cinematica'!D19" display="AI-02"/>
+    <hyperlink ref="O46" location="'CueSheet Cinematica'!D23" display="AI-07"/>
+    <hyperlink ref="M47" r:id="rId43"/>
+    <hyperlink ref="N47" location="'CueSheet Cinematica'!D32" display="AI-03"/>
+    <hyperlink ref="M48" r:id="rId44"/>
+    <hyperlink ref="N48" location="'CueSheet Cinematica'!D34" display="AI-04"/>
+    <hyperlink ref="M49" r:id="rId45"/>
+    <hyperlink ref="N49" location="'CueSheet Cinematica'!D50" display="AI-05"/>
+    <hyperlink ref="M50" r:id="rId46"/>
+    <hyperlink ref="N50" location="'CueSheet Cinematica'!D61" display="AI-06"/>
+    <hyperlink ref="M51" r:id="rId47"/>
+    <hyperlink ref="M52" r:id="rId48"/>
+    <hyperlink ref="M53" r:id="rId49"/>
+    <hyperlink ref="M54" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7134,7 +7170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -7157,79 +7193,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="151" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="152" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148" t="s">
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="152" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -7245,12 +7281,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -8712,7 +8748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -9231,7 +9267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -9255,82 +9291,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="151" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="152" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151" t="s">
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="148" t="s">
+      <c r="H3" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="148" t="s">
+      <c r="I3" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="149" t="s">
+      <c r="N3" s="153" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="148"/>
-      <c r="B4" s="148"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="97" t="s">
         <v>31</v>
       </c>
@@ -9340,15 +9376,15 @@
       <c r="E4" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="149"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="153"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -10563,64 +10599,64 @@
     <mergeCell ref="N3:N4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="N5" location="'CueSheet Foleys'!C5" display="F-01" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="M6" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="N6" location="'CueSheet Foleys'!C6" display="F-02" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="M7" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="N7" location="'CueSheet Foleys'!C7" display="F-03" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="M8" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="N8" location="'CueSheet Foleys'!C8" display="F-04" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="M9" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="N9" location="'CueSheet Foleys'!C9" display="F-05" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="M10" r:id="rId6" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="N10" location="'CueSheet Foleys'!C10" display="F-06" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="M11" r:id="rId7" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="N11" location="'CueSheet Foleys'!C11" display="F-07" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="M12" r:id="rId8" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="N12" location="'CueSheet Foleys'!C12" display="F-08" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="M13" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="N13" location="'CueSheet Foleys'!C13" display="F-09" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="M14" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="N14" location="'CueSheet Foleys'!C14" display="F-10" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
-    <hyperlink ref="M15" r:id="rId11" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
-    <hyperlink ref="N15" location="'CueSheet Foleys'!C15" display="F-11" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
-    <hyperlink ref="M16" r:id="rId12" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
-    <hyperlink ref="N16" location="'CueSheet Foleys'!C16" display="F-12" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
-    <hyperlink ref="M17" r:id="rId13" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
-    <hyperlink ref="N17" location="'CueSheet Foleys'!C17" display="F-13" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
-    <hyperlink ref="M18" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
-    <hyperlink ref="N18" location="'CueSheet Foleys'!C18" display="F-14" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
-    <hyperlink ref="M19" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
-    <hyperlink ref="N19" location="'CueSheet Foleys'!C19" display="F-15" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
-    <hyperlink ref="M20" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
-    <hyperlink ref="N20" location="'CueSheet Foleys'!C20" display="F-16" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
-    <hyperlink ref="M21" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
-    <hyperlink ref="N21" location="'CueSheet Foleys'!C21" display="F-17" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
-    <hyperlink ref="M22" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
-    <hyperlink ref="N22" location="'CueSheet Foleys'!C22" display="F-18" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
-    <hyperlink ref="M23" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
-    <hyperlink ref="N23" location="'CueSheet Foleys'!C23" display="F-19" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
-    <hyperlink ref="M24" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
-    <hyperlink ref="N24" location="'CueSheet Foleys'!C24" display="F-20" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
-    <hyperlink ref="M25" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000028000000}"/>
-    <hyperlink ref="N25" location="'CueSheet Foleys'!C25" display="F-21" xr:uid="{00000000-0004-0000-0400-000029000000}"/>
-    <hyperlink ref="M26" r:id="rId22" xr:uid="{00000000-0004-0000-0400-00002A000000}"/>
-    <hyperlink ref="N26" location="'CueSheet Foleys'!C26" display="F-22" xr:uid="{00000000-0004-0000-0400-00002B000000}"/>
-    <hyperlink ref="M27" r:id="rId23" xr:uid="{00000000-0004-0000-0400-00002C000000}"/>
-    <hyperlink ref="N27" location="'CueSheet Foleys'!C27" display="F-23" xr:uid="{00000000-0004-0000-0400-00002D000000}"/>
-    <hyperlink ref="M28" r:id="rId24" xr:uid="{00000000-0004-0000-0400-00002E000000}"/>
-    <hyperlink ref="N28" location="'CueSheet Foleys'!C28" display="F-24" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
-    <hyperlink ref="M29" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000030000000}"/>
-    <hyperlink ref="N29" location="'CueSheet Foleys'!C29" display="F-25" xr:uid="{00000000-0004-0000-0400-000031000000}"/>
-    <hyperlink ref="M30" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
-    <hyperlink ref="M31" r:id="rId27" xr:uid="{00000000-0004-0000-0400-000033000000}"/>
-    <hyperlink ref="M32" r:id="rId28" xr:uid="{00000000-0004-0000-0400-000034000000}"/>
-    <hyperlink ref="N32" location="'CueSheet Foleys'!C32" display="F-28" xr:uid="{00000000-0004-0000-0400-000035000000}"/>
-    <hyperlink ref="M33" r:id="rId29" xr:uid="{00000000-0004-0000-0400-000036000000}"/>
-    <hyperlink ref="N33" location="'CueSheet Foleys'!C33" display="F-29" xr:uid="{00000000-0004-0000-0400-000037000000}"/>
-    <hyperlink ref="M34" r:id="rId30" xr:uid="{00000000-0004-0000-0400-000038000000}"/>
-    <hyperlink ref="N34" location="'CueSheet Foleys'!C34" display="F-30" xr:uid="{00000000-0004-0000-0400-000039000000}"/>
+    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="N5" location="'CueSheet Foleys'!C5" display="F-01"/>
+    <hyperlink ref="M6" r:id="rId2"/>
+    <hyperlink ref="N6" location="'CueSheet Foleys'!C6" display="F-02"/>
+    <hyperlink ref="M7" r:id="rId3"/>
+    <hyperlink ref="N7" location="'CueSheet Foleys'!C7" display="F-03"/>
+    <hyperlink ref="M8" r:id="rId4"/>
+    <hyperlink ref="N8" location="'CueSheet Foleys'!C8" display="F-04"/>
+    <hyperlink ref="M9" r:id="rId5"/>
+    <hyperlink ref="N9" location="'CueSheet Foleys'!C9" display="F-05"/>
+    <hyperlink ref="M10" r:id="rId6"/>
+    <hyperlink ref="N10" location="'CueSheet Foleys'!C10" display="F-06"/>
+    <hyperlink ref="M11" r:id="rId7"/>
+    <hyperlink ref="N11" location="'CueSheet Foleys'!C11" display="F-07"/>
+    <hyperlink ref="M12" r:id="rId8"/>
+    <hyperlink ref="N12" location="'CueSheet Foleys'!C12" display="F-08"/>
+    <hyperlink ref="M13" r:id="rId9"/>
+    <hyperlink ref="N13" location="'CueSheet Foleys'!C13" display="F-09"/>
+    <hyperlink ref="M14" r:id="rId10"/>
+    <hyperlink ref="N14" location="'CueSheet Foleys'!C14" display="F-10"/>
+    <hyperlink ref="M15" r:id="rId11"/>
+    <hyperlink ref="N15" location="'CueSheet Foleys'!C15" display="F-11"/>
+    <hyperlink ref="M16" r:id="rId12"/>
+    <hyperlink ref="N16" location="'CueSheet Foleys'!C16" display="F-12"/>
+    <hyperlink ref="M17" r:id="rId13"/>
+    <hyperlink ref="N17" location="'CueSheet Foleys'!C17" display="F-13"/>
+    <hyperlink ref="M18" r:id="rId14"/>
+    <hyperlink ref="N18" location="'CueSheet Foleys'!C18" display="F-14"/>
+    <hyperlink ref="M19" r:id="rId15"/>
+    <hyperlink ref="N19" location="'CueSheet Foleys'!C19" display="F-15"/>
+    <hyperlink ref="M20" r:id="rId16"/>
+    <hyperlink ref="N20" location="'CueSheet Foleys'!C20" display="F-16"/>
+    <hyperlink ref="M21" r:id="rId17"/>
+    <hyperlink ref="N21" location="'CueSheet Foleys'!C21" display="F-17"/>
+    <hyperlink ref="M22" r:id="rId18"/>
+    <hyperlink ref="N22" location="'CueSheet Foleys'!C22" display="F-18"/>
+    <hyperlink ref="M23" r:id="rId19"/>
+    <hyperlink ref="N23" location="'CueSheet Foleys'!C23" display="F-19"/>
+    <hyperlink ref="M24" r:id="rId20"/>
+    <hyperlink ref="N24" location="'CueSheet Foleys'!C24" display="F-20"/>
+    <hyperlink ref="M25" r:id="rId21"/>
+    <hyperlink ref="N25" location="'CueSheet Foleys'!C25" display="F-21"/>
+    <hyperlink ref="M26" r:id="rId22"/>
+    <hyperlink ref="N26" location="'CueSheet Foleys'!C26" display="F-22"/>
+    <hyperlink ref="M27" r:id="rId23"/>
+    <hyperlink ref="N27" location="'CueSheet Foleys'!C27" display="F-23"/>
+    <hyperlink ref="M28" r:id="rId24"/>
+    <hyperlink ref="N28" location="'CueSheet Foleys'!C28" display="F-24"/>
+    <hyperlink ref="M29" r:id="rId25"/>
+    <hyperlink ref="N29" location="'CueSheet Foleys'!C29" display="F-25"/>
+    <hyperlink ref="M30" r:id="rId26"/>
+    <hyperlink ref="M31" r:id="rId27"/>
+    <hyperlink ref="M32" r:id="rId28"/>
+    <hyperlink ref="N32" location="'CueSheet Foleys'!C32" display="F-28"/>
+    <hyperlink ref="M33" r:id="rId29"/>
+    <hyperlink ref="N33" location="'CueSheet Foleys'!C33" display="F-29"/>
+    <hyperlink ref="M34" r:id="rId30"/>
+    <hyperlink ref="N34" location="'CueSheet Foleys'!C34" display="F-30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10628,7 +10664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
@@ -10651,79 +10687,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="151" t="s">
         <v>391</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="147"/>
-      <c r="M1" s="147"/>
-      <c r="N1" s="147"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="151"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="151"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="148" t="s">
+      <c r="B3" s="152" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="152" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148" t="s">
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="148" t="s">
+      <c r="J3" s="152" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="152" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="152" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="148" t="s">
+      <c r="M3" s="152" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="148" t="s">
+      <c r="N3" s="152" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="149"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
+      <c r="A4" s="153"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -10739,12 +10775,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="152"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -11742,7 +11778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11903,7 +11939,7 @@
       <c r="C6" s="100" t="s">
         <v>415</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="134" t="s">
         <v>416</v>
       </c>
       <c r="E6" s="64"/>
@@ -11936,7 +11972,7 @@
       <c r="C7" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="134" t="s">
         <v>421</v>
       </c>
       <c r="E7" s="64"/>
@@ -11997,12 +12033,12 @@
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="128" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C9" s="114" t="s">
         <v>426</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="135" t="s">
         <v>427</v>
       </c>
       <c r="E9" s="102"/>
@@ -12269,9 +12305,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" location="'Metadatos H'!B4" xr:uid="{EC1158F9-1FAB-4BE8-B0A2-A93BAFCFAC8F}"/>
-    <hyperlink ref="D7" r:id="rId2" location="'Metadatos H'!B5" xr:uid="{072AF5CF-9DDA-4DBB-9D32-66271154816B}"/>
-    <hyperlink ref="D9" r:id="rId3" location="'Metadatos H'!B6" xr:uid="{979888EF-3E56-4A07-8221-5F9C4F2D36F5}"/>
+    <hyperlink ref="D6" r:id="rId1" location="'Metadatos H'!B4"/>
+    <hyperlink ref="D7" r:id="rId2" location="'Metadatos H'!B5"/>
+    <hyperlink ref="D9" r:id="rId3" location="'Metadatos H'!B6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12279,11 +12315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AMK114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S93" sqref="S93"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -12392,7 +12428,7 @@
       <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
-      <c r="J4" s="145"/>
+      <c r="J4" s="142"/>
       <c r="K4" s="51"/>
       <c r="L4" s="51"/>
       <c r="M4" s="51"/>
@@ -12401,76 +12437,76 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>285</v>
       </c>
       <c r="C5" s="59"/>
-      <c r="D5" s="143" t="s">
-        <v>557</v>
+      <c r="D5" s="145" t="s">
+        <v>554</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
-      <c r="J5" s="142" t="s">
+      <c r="J5" s="141" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L5" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M5" s="138" t="s">
+      <c r="L5" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M5" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N5" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O5" s="59"/>
-      <c r="P5" s="146" t="s">
+      <c r="P5" s="143" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
-      <c r="C6" s="142"/>
-      <c r="D6" s="144" t="s">
-        <v>558</v>
-      </c>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="146" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" s="138"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
       <c r="J6" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="137" t="s">
+      <c r="K6" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L6" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M6" s="138" t="s">
+      <c r="L6" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M6" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N6" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="O6" s="142"/>
-      <c r="P6" s="142" t="s">
-        <v>589</v>
+      <c r="O6" s="141"/>
+      <c r="P6" s="141" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="132" t="s">
         <v>292</v>
       </c>
       <c r="C7" s="65"/>
-      <c r="D7" s="135" t="s">
-        <v>559</v>
+      <c r="D7" s="147" t="s">
+        <v>556</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -12480,13 +12516,13 @@
       <c r="J7" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="137" t="s">
+      <c r="K7" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L7" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M7" s="138" t="s">
+      <c r="L7" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M7" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N7" s="64" t="s">
@@ -12494,14 +12530,14 @@
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="65" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="133"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="65"/>
-      <c r="D8" s="135" t="s">
-        <v>560</v>
+      <c r="D8" s="147" t="s">
+        <v>557</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -12511,13 +12547,13 @@
       <c r="J8" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K8" s="137" t="s">
+      <c r="K8" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L8" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M8" s="138" t="s">
+      <c r="L8" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M8" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N8" s="64" t="s">
@@ -12525,14 +12561,14 @@
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="65" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="133"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="65"/>
-      <c r="D9" s="135" t="s">
-        <v>561</v>
+      <c r="D9" s="147" t="s">
+        <v>558</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -12542,13 +12578,13 @@
       <c r="J9" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L9" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M9" s="138" t="s">
+      <c r="L9" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M9" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N9" s="64" t="s">
@@ -12556,14 +12592,14 @@
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="133"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="65"/>
-      <c r="D10" s="135" t="s">
-        <v>562</v>
+      <c r="D10" s="147" t="s">
+        <v>559</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -12573,13 +12609,13 @@
       <c r="J10" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K10" s="137" t="s">
+      <c r="K10" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L10" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M10" s="138" t="s">
+      <c r="L10" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M10" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N10" s="64" t="s">
@@ -12587,14 +12623,14 @@
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="65" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="135" t="s">
-        <v>563</v>
+      <c r="D11" s="147" t="s">
+        <v>560</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -12604,13 +12640,13 @@
       <c r="J11" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="137" t="s">
+      <c r="K11" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L11" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M11" s="138" t="s">
+      <c r="L11" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M11" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N11" s="64" t="s">
@@ -12618,16 +12654,16 @@
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="65" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="133" t="s">
+      <c r="B12" s="132" t="s">
         <v>419</v>
       </c>
       <c r="C12" s="65"/>
-      <c r="D12" s="135" t="s">
-        <v>564</v>
+      <c r="D12" s="147" t="s">
+        <v>561</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -12637,13 +12673,13 @@
       <c r="J12" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K12" s="137" t="s">
+      <c r="K12" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L12" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M12" s="138" t="s">
+      <c r="L12" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M12" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N12" s="64" t="s">
@@ -12651,14 +12687,14 @@
       </c>
       <c r="O12" s="65"/>
       <c r="P12" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="133"/>
+      <c r="B13" s="132"/>
       <c r="C13" s="65"/>
-      <c r="D13" s="135" t="s">
-        <v>565</v>
+      <c r="D13" s="147" t="s">
+        <v>562</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -12668,13 +12704,13 @@
       <c r="J13" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K13" s="137" t="s">
+      <c r="K13" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L13" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M13" s="138" t="s">
+      <c r="L13" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M13" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N13" s="64" t="s">
@@ -12682,14 +12718,14 @@
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="133"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="65"/>
-      <c r="D14" s="135" t="s">
-        <v>566</v>
+      <c r="D14" s="147" t="s">
+        <v>563</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -12699,13 +12735,13 @@
       <c r="J14" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="137" t="s">
+      <c r="K14" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L14" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M14" s="138" t="s">
+      <c r="L14" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M14" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N14" s="64" t="s">
@@ -12713,14 +12749,14 @@
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="65" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="133"/>
+      <c r="B15" s="132"/>
       <c r="C15" s="65"/>
-      <c r="D15" s="135" t="s">
-        <v>567</v>
+      <c r="D15" s="147" t="s">
+        <v>564</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -12730,13 +12766,13 @@
       <c r="J15" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L15" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M15" s="138" t="s">
+      <c r="L15" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M15" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N15" s="64" t="s">
@@ -12744,16 +12780,16 @@
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="132" t="s">
         <v>423</v>
       </c>
       <c r="C16" s="65"/>
-      <c r="D16" s="135" t="s">
-        <v>568</v>
+      <c r="D16" s="147" t="s">
+        <v>565</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -12763,13 +12799,13 @@
       <c r="J16" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K16" s="137" t="s">
+      <c r="K16" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L16" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M16" s="138" t="s">
+      <c r="L16" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M16" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N16" s="64" t="s">
@@ -12777,14 +12813,14 @@
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="133"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="65"/>
-      <c r="D17" s="135" t="s">
-        <v>569</v>
+      <c r="D17" s="147" t="s">
+        <v>566</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -12794,13 +12830,13 @@
       <c r="J17" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K17" s="137" t="s">
+      <c r="K17" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L17" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M17" s="138" t="s">
+      <c r="L17" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M17" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N17" s="64" t="s">
@@ -12808,14 +12844,14 @@
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="133"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="65"/>
-      <c r="D18" s="135" t="s">
-        <v>570</v>
+      <c r="D18" s="147" t="s">
+        <v>567</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -12825,13 +12861,13 @@
       <c r="J18" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="137" t="s">
+      <c r="K18" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L18" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M18" s="138" t="s">
+      <c r="L18" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M18" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N18" s="64" t="s">
@@ -12839,14 +12875,14 @@
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="133"/>
+      <c r="B19" s="132"/>
       <c r="C19" s="65"/>
-      <c r="D19" s="135" t="s">
-        <v>571</v>
+      <c r="D19" s="147" t="s">
+        <v>568</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -12856,13 +12892,13 @@
       <c r="J19" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K19" s="137" t="s">
+      <c r="K19" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L19" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M19" s="138" t="s">
+      <c r="L19" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M19" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N19" s="64" t="s">
@@ -12870,16 +12906,16 @@
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="133" t="s">
-        <v>437</v>
+      <c r="B20" s="132" t="s">
+        <v>435</v>
       </c>
       <c r="C20" s="65"/>
-      <c r="D20" s="135" t="s">
-        <v>572</v>
+      <c r="D20" s="147" t="s">
+        <v>569</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -12889,13 +12925,13 @@
       <c r="J20" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K20" s="137" t="s">
+      <c r="K20" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L20" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M20" s="138" t="s">
+      <c r="L20" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M20" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N20" s="64" t="s">
@@ -12903,14 +12939,14 @@
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="133"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="65"/>
-      <c r="D21" s="135" t="s">
-        <v>573</v>
+      <c r="D21" s="147" t="s">
+        <v>570</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -12920,13 +12956,13 @@
       <c r="J21" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K21" s="137" t="s">
+      <c r="K21" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L21" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M21" s="138" t="s">
+      <c r="L21" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M21" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N21" s="64" t="s">
@@ -12934,14 +12970,14 @@
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="133"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="65"/>
-      <c r="D22" s="135" t="s">
-        <v>574</v>
+      <c r="D22" s="147" t="s">
+        <v>571</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -12951,13 +12987,13 @@
       <c r="J22" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K22" s="137" t="s">
+      <c r="K22" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L22" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M22" s="138" t="s">
+      <c r="L22" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M22" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N22" s="64" t="s">
@@ -12965,14 +13001,14 @@
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="133"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="65"/>
-      <c r="D23" s="135" t="s">
-        <v>575</v>
+      <c r="D23" s="147" t="s">
+        <v>572</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -12982,13 +13018,13 @@
       <c r="J23" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="137" t="s">
+      <c r="K23" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L23" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M23" s="138" t="s">
+      <c r="L23" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M23" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N23" s="64" t="s">
@@ -12996,16 +13032,16 @@
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="65" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="133" t="s">
-        <v>439</v>
+      <c r="B24" s="132" t="s">
+        <v>437</v>
       </c>
       <c r="C24" s="65"/>
-      <c r="D24" s="135" t="s">
-        <v>576</v>
+      <c r="D24" s="147" t="s">
+        <v>573</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -13015,13 +13051,13 @@
       <c r="J24" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K24" s="137" t="s">
+      <c r="K24" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L24" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M24" s="138" t="s">
+      <c r="L24" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M24" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N24" s="64" t="s">
@@ -13029,14 +13065,14 @@
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="133"/>
+      <c r="B25" s="132"/>
       <c r="C25" s="65"/>
-      <c r="D25" s="135" t="s">
-        <v>577</v>
+      <c r="D25" s="147" t="s">
+        <v>574</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -13046,13 +13082,13 @@
       <c r="J25" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K25" s="137" t="s">
+      <c r="K25" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L25" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="138" t="s">
+      <c r="L25" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M25" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N25" s="64" t="s">
@@ -13060,14 +13096,14 @@
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="65" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="133"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="65"/>
-      <c r="D26" s="135" t="s">
-        <v>578</v>
+      <c r="D26" s="147" t="s">
+        <v>575</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -13077,13 +13113,13 @@
       <c r="J26" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K26" s="137" t="s">
+      <c r="K26" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L26" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M26" s="138" t="s">
+      <c r="L26" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M26" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N26" s="64" t="s">
@@ -13091,16 +13127,16 @@
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="133" t="s">
-        <v>441</v>
+      <c r="B27" s="132" t="s">
+        <v>439</v>
       </c>
       <c r="C27" s="65"/>
-      <c r="D27" s="135" t="s">
-        <v>579</v>
+      <c r="D27" s="147" t="s">
+        <v>576</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -13110,13 +13146,13 @@
       <c r="J27" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K27" s="137" t="s">
+      <c r="K27" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L27" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M27" s="138" t="s">
+      <c r="L27" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M27" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N27" s="64" t="s">
@@ -13124,14 +13160,14 @@
       </c>
       <c r="O27" s="65"/>
       <c r="P27" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="133"/>
+      <c r="B28" s="132"/>
       <c r="C28" s="65"/>
-      <c r="D28" s="135" t="s">
-        <v>580</v>
+      <c r="D28" s="147" t="s">
+        <v>577</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -13141,13 +13177,13 @@
       <c r="J28" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K28" s="137" t="s">
+      <c r="K28" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L28" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M28" s="138" t="s">
+      <c r="L28" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M28" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N28" s="64" t="s">
@@ -13155,16 +13191,16 @@
       </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="133" t="s">
-        <v>443</v>
+      <c r="B29" s="132" t="s">
+        <v>441</v>
       </c>
       <c r="C29" s="65"/>
-      <c r="D29" s="135" t="s">
-        <v>581</v>
+      <c r="D29" s="147" t="s">
+        <v>578</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -13174,13 +13210,13 @@
       <c r="J29" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L29" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M29" s="138" t="s">
+      <c r="L29" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M29" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N29" s="64" t="s">
@@ -13188,14 +13224,14 @@
       </c>
       <c r="O29" s="65"/>
       <c r="P29" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="133"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="135" t="s">
-        <v>582</v>
+      <c r="D30" s="147" t="s">
+        <v>579</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
@@ -13205,13 +13241,13 @@
       <c r="J30" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K30" s="137" t="s">
+      <c r="K30" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L30" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M30" s="138" t="s">
+      <c r="L30" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M30" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N30" s="64" t="s">
@@ -13219,16 +13255,16 @@
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="133" t="s">
-        <v>445</v>
+      <c r="B31" s="132" t="s">
+        <v>443</v>
       </c>
       <c r="C31" s="65"/>
-      <c r="D31" s="135" t="s">
-        <v>583</v>
+      <c r="D31" s="147" t="s">
+        <v>580</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -13238,13 +13274,13 @@
       <c r="J31" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="137" t="s">
+      <c r="K31" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L31" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M31" s="138" t="s">
+      <c r="L31" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M31" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N31" s="64" t="s">
@@ -13252,14 +13288,14 @@
       </c>
       <c r="O31" s="65"/>
       <c r="P31" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="133"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="65"/>
-      <c r="D32" s="135" t="s">
-        <v>584</v>
+      <c r="D32" s="147" t="s">
+        <v>581</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -13269,13 +13305,13 @@
       <c r="J32" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L32" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M32" s="138" t="s">
+      <c r="L32" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M32" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N32" s="64" t="s">
@@ -13283,14 +13319,14 @@
       </c>
       <c r="O32" s="65"/>
       <c r="P32" s="65" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="133"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="65"/>
-      <c r="D33" s="135" t="s">
-        <v>585</v>
+      <c r="D33" s="147" t="s">
+        <v>582</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -13300,13 +13336,13 @@
       <c r="J33" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K33" s="137" t="s">
+      <c r="K33" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L33" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M33" s="138" t="s">
+      <c r="L33" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M33" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N33" s="64" t="s">
@@ -13314,14 +13350,14 @@
       </c>
       <c r="O33" s="65"/>
       <c r="P33" s="65" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="133"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="65"/>
-      <c r="D34" s="135" t="s">
-        <v>586</v>
+      <c r="D34" s="147" t="s">
+        <v>583</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -13331,13 +13367,13 @@
       <c r="J34" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K34" s="137" t="s">
+      <c r="K34" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L34" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M34" s="138" t="s">
+      <c r="L34" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M34" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N34" s="64" t="s">
@@ -13345,14 +13381,14 @@
       </c>
       <c r="O34" s="65"/>
       <c r="P34" s="65" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="133"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="65"/>
-      <c r="D35" s="135" t="s">
-        <v>587</v>
+      <c r="D35" s="147" t="s">
+        <v>584</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -13362,13 +13398,13 @@
       <c r="J35" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K35" s="137" t="s">
+      <c r="K35" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L35" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M35" s="138" t="s">
+      <c r="L35" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M35" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N35" s="64" t="s">
@@ -13376,14 +13412,14 @@
       </c>
       <c r="O35" s="65"/>
       <c r="P35" s="65" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="133"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="65"/>
-      <c r="D36" s="135" t="s">
-        <v>588</v>
+      <c r="D36" s="147" t="s">
+        <v>585</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -13393,13 +13429,13 @@
       <c r="J36" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K36" s="137" t="s">
+      <c r="K36" s="136" t="s">
         <v>431</v>
       </c>
-      <c r="L36" s="140" t="s">
-        <v>556</v>
-      </c>
-      <c r="M36" s="138" t="s">
+      <c r="L36" s="139" t="s">
+        <v>553</v>
+      </c>
+      <c r="M36" s="137" t="s">
         <v>432</v>
       </c>
       <c r="N36" s="64" t="s">
@@ -13407,16 +13443,16 @@
       </c>
       <c r="O36" s="65"/>
       <c r="P36" s="65" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="133" t="s">
-        <v>447</v>
+      <c r="B37" s="132" t="s">
+        <v>445</v>
       </c>
       <c r="C37" s="65"/>
-      <c r="D37" s="135" t="s">
-        <v>615</v>
+      <c r="D37" s="147" t="s">
+        <v>612</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -13430,7 +13466,7 @@
         <v>431</v>
       </c>
       <c r="L37" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M37" s="64" t="s">
         <v>432</v>
@@ -13444,10 +13480,10 @@
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="133"/>
+      <c r="B38" s="132"/>
       <c r="C38" s="65"/>
-      <c r="D38" s="135" t="s">
-        <v>616</v>
+      <c r="D38" s="147" t="s">
+        <v>613</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -13461,7 +13497,7 @@
         <v>431</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M38" s="64" t="s">
         <v>432</v>
@@ -13471,14 +13507,14 @@
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="133"/>
+      <c r="B39" s="132"/>
       <c r="C39" s="65"/>
-      <c r="D39" s="135" t="s">
-        <v>617</v>
+      <c r="D39" s="147" t="s">
+        <v>614</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
@@ -13492,7 +13528,7 @@
         <v>431</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M39" s="64" t="s">
         <v>432</v>
@@ -13502,16 +13538,16 @@
       </c>
       <c r="O39" s="65"/>
       <c r="P39" s="65" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="133" t="s">
-        <v>448</v>
+      <c r="B40" s="132" t="s">
+        <v>446</v>
       </c>
       <c r="C40" s="65"/>
-      <c r="D40" s="135" t="s">
-        <v>618</v>
+      <c r="D40" s="147" t="s">
+        <v>615</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -13525,7 +13561,7 @@
         <v>431</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M40" s="64" t="s">
         <v>432</v>
@@ -13535,14 +13571,14 @@
       </c>
       <c r="O40" s="65"/>
       <c r="P40" s="65" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="133"/>
+      <c r="B41" s="132"/>
       <c r="C41" s="65"/>
-      <c r="D41" s="135" t="s">
-        <v>619</v>
+      <c r="D41" s="147" t="s">
+        <v>616</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64"/>
@@ -13556,7 +13592,7 @@
         <v>431</v>
       </c>
       <c r="L41" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M41" s="64" t="s">
         <v>432</v>
@@ -13566,14 +13602,14 @@
       </c>
       <c r="O41" s="65"/>
       <c r="P41" s="65" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="133"/>
+      <c r="B42" s="132"/>
       <c r="C42" s="65"/>
-      <c r="D42" s="135" t="s">
-        <v>620</v>
+      <c r="D42" s="147" t="s">
+        <v>617</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64"/>
@@ -13587,7 +13623,7 @@
         <v>431</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M42" s="64" t="s">
         <v>432</v>
@@ -13597,14 +13633,14 @@
       </c>
       <c r="O42" s="65"/>
       <c r="P42" s="65" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="133"/>
+      <c r="B43" s="132"/>
       <c r="C43" s="65"/>
-      <c r="D43" s="135" t="s">
-        <v>621</v>
+      <c r="D43" s="147" t="s">
+        <v>618</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="64"/>
@@ -13618,7 +13654,7 @@
         <v>431</v>
       </c>
       <c r="L43" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M43" s="64" t="s">
         <v>432</v>
@@ -13628,16 +13664,16 @@
       </c>
       <c r="O43" s="65"/>
       <c r="P43" s="65" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="133" t="s">
-        <v>449</v>
+      <c r="B44" s="132" t="s">
+        <v>447</v>
       </c>
       <c r="C44" s="65"/>
-      <c r="D44" s="135" t="s">
-        <v>622</v>
+      <c r="D44" s="147" t="s">
+        <v>619</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="64"/>
@@ -13651,7 +13687,7 @@
         <v>431</v>
       </c>
       <c r="L44" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M44" s="64" t="s">
         <v>432</v>
@@ -13661,14 +13697,14 @@
       </c>
       <c r="O44" s="65"/>
       <c r="P44" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="133"/>
+      <c r="B45" s="132"/>
       <c r="C45" s="65"/>
-      <c r="D45" s="135" t="s">
-        <v>623</v>
+      <c r="D45" s="147" t="s">
+        <v>620</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
@@ -13682,7 +13718,7 @@
         <v>431</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M45" s="64" t="s">
         <v>432</v>
@@ -13692,14 +13728,14 @@
       </c>
       <c r="O45" s="65"/>
       <c r="P45" s="65" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="133"/>
+      <c r="B46" s="132"/>
       <c r="C46" s="65"/>
-      <c r="D46" s="135" t="s">
-        <v>624</v>
+      <c r="D46" s="147" t="s">
+        <v>621</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
@@ -13713,7 +13749,7 @@
         <v>431</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M46" s="64" t="s">
         <v>432</v>
@@ -13723,16 +13759,16 @@
       </c>
       <c r="O46" s="65"/>
       <c r="P46" s="65" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="133" t="s">
-        <v>450</v>
+      <c r="B47" s="132" t="s">
+        <v>448</v>
       </c>
       <c r="C47" s="65"/>
-      <c r="D47" s="135" t="s">
-        <v>625</v>
+      <c r="D47" s="147" t="s">
+        <v>622</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
@@ -13746,7 +13782,7 @@
         <v>431</v>
       </c>
       <c r="L47" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M47" s="64" t="s">
         <v>432</v>
@@ -13756,14 +13792,14 @@
       </c>
       <c r="O47" s="65"/>
       <c r="P47" s="65" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="133"/>
+      <c r="B48" s="132"/>
       <c r="C48" s="65"/>
-      <c r="D48" s="135" t="s">
-        <v>626</v>
+      <c r="D48" s="147" t="s">
+        <v>623</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
@@ -13777,7 +13813,7 @@
         <v>431</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M48" s="64" t="s">
         <v>432</v>
@@ -13787,14 +13823,14 @@
       </c>
       <c r="O48" s="65"/>
       <c r="P48" s="65" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="133"/>
+      <c r="B49" s="132"/>
       <c r="C49" s="65"/>
-      <c r="D49" s="135" t="s">
-        <v>627</v>
+      <c r="D49" s="147" t="s">
+        <v>624</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="64"/>
@@ -13808,7 +13844,7 @@
         <v>431</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M49" s="64" t="s">
         <v>432</v>
@@ -13818,14 +13854,14 @@
       </c>
       <c r="O49" s="65"/>
       <c r="P49" s="65" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="133"/>
+      <c r="B50" s="132"/>
       <c r="C50" s="65"/>
-      <c r="D50" s="135" t="s">
-        <v>628</v>
+      <c r="D50" s="147" t="s">
+        <v>625</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
@@ -13839,7 +13875,7 @@
         <v>431</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M50" s="64" t="s">
         <v>432</v>
@@ -13849,16 +13885,16 @@
       </c>
       <c r="O50" s="65"/>
       <c r="P50" s="65" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="133" t="s">
-        <v>451</v>
+      <c r="B51" s="132" t="s">
+        <v>449</v>
       </c>
       <c r="C51" s="65"/>
-      <c r="D51" s="135" t="s">
-        <v>629</v>
+      <c r="D51" s="147" t="s">
+        <v>626</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
@@ -13872,7 +13908,7 @@
         <v>431</v>
       </c>
       <c r="L51" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M51" s="64" t="s">
         <v>432</v>
@@ -13882,14 +13918,14 @@
       </c>
       <c r="O51" s="65"/>
       <c r="P51" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="133"/>
+      <c r="B52" s="132"/>
       <c r="C52" s="65"/>
-      <c r="D52" s="135" t="s">
-        <v>630</v>
+      <c r="D52" s="147" t="s">
+        <v>627</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
@@ -13903,7 +13939,7 @@
         <v>431</v>
       </c>
       <c r="L52" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M52" s="64" t="s">
         <v>432</v>
@@ -13913,16 +13949,16 @@
       </c>
       <c r="O52" s="65"/>
       <c r="P52" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="133" t="s">
-        <v>452</v>
+      <c r="B53" s="132" t="s">
+        <v>450</v>
       </c>
       <c r="C53" s="65"/>
-      <c r="D53" s="135" t="s">
-        <v>631</v>
+      <c r="D53" s="147" t="s">
+        <v>628</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64"/>
@@ -13936,7 +13972,7 @@
         <v>431</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M53" s="64" t="s">
         <v>432</v>
@@ -13946,14 +13982,14 @@
       </c>
       <c r="O53" s="65"/>
       <c r="P53" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="133"/>
+      <c r="B54" s="132"/>
       <c r="C54" s="65"/>
-      <c r="D54" s="135" t="s">
-        <v>632</v>
+      <c r="D54" s="147" t="s">
+        <v>629</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="64"/>
@@ -13967,7 +14003,7 @@
         <v>431</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M54" s="64" t="s">
         <v>432</v>
@@ -13977,14 +14013,14 @@
       </c>
       <c r="O54" s="65"/>
       <c r="P54" s="65" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="133"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="65"/>
-      <c r="D55" s="135" t="s">
-        <v>633</v>
+      <c r="D55" s="147" t="s">
+        <v>630</v>
       </c>
       <c r="E55" s="64"/>
       <c r="F55" s="64"/>
@@ -13998,7 +14034,7 @@
         <v>431</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M55" s="64" t="s">
         <v>432</v>
@@ -14008,14 +14044,14 @@
       </c>
       <c r="O55" s="65"/>
       <c r="P55" s="65" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="133"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="65"/>
-      <c r="D56" s="135" t="s">
-        <v>634</v>
+      <c r="D56" s="147" t="s">
+        <v>631</v>
       </c>
       <c r="E56" s="64"/>
       <c r="F56" s="64"/>
@@ -14029,7 +14065,7 @@
         <v>431</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M56" s="64" t="s">
         <v>432</v>
@@ -14039,16 +14075,16 @@
       </c>
       <c r="O56" s="65"/>
       <c r="P56" s="65" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="133" t="s">
-        <v>453</v>
+      <c r="B57" s="132" t="s">
+        <v>451</v>
       </c>
       <c r="C57" s="65"/>
-      <c r="D57" s="135" t="s">
-        <v>635</v>
+      <c r="D57" s="147" t="s">
+        <v>632</v>
       </c>
       <c r="E57" s="64"/>
       <c r="F57" s="64"/>
@@ -14062,7 +14098,7 @@
         <v>431</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M57" s="64" t="s">
         <v>432</v>
@@ -14072,14 +14108,14 @@
       </c>
       <c r="O57" s="65"/>
       <c r="P57" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="133"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="65"/>
-      <c r="D58" s="135" t="s">
-        <v>636</v>
+      <c r="D58" s="147" t="s">
+        <v>633</v>
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="64"/>
@@ -14093,7 +14129,7 @@
         <v>431</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M58" s="64" t="s">
         <v>432</v>
@@ -14103,14 +14139,14 @@
       </c>
       <c r="O58" s="65"/>
       <c r="P58" s="65" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="133"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="65"/>
-      <c r="D59" s="135" t="s">
-        <v>637</v>
+      <c r="D59" s="147" t="s">
+        <v>634</v>
       </c>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
@@ -14124,7 +14160,7 @@
         <v>431</v>
       </c>
       <c r="L59" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M59" s="64" t="s">
         <v>432</v>
@@ -14134,16 +14170,16 @@
       </c>
       <c r="O59" s="65"/>
       <c r="P59" s="65" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="133" t="s">
-        <v>454</v>
+      <c r="B60" s="132" t="s">
+        <v>452</v>
       </c>
       <c r="C60" s="65"/>
-      <c r="D60" s="135" t="s">
-        <v>638</v>
+      <c r="D60" s="147" t="s">
+        <v>635</v>
       </c>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
@@ -14157,7 +14193,7 @@
         <v>431</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M60" s="64" t="s">
         <v>432</v>
@@ -14167,14 +14203,14 @@
       </c>
       <c r="O60" s="65"/>
       <c r="P60" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="133"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="65"/>
-      <c r="D61" s="135" t="s">
-        <v>639</v>
+      <c r="D61" s="147" t="s">
+        <v>636</v>
       </c>
       <c r="E61" s="64"/>
       <c r="F61" s="64"/>
@@ -14188,7 +14224,7 @@
         <v>431</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M61" s="64" t="s">
         <v>432</v>
@@ -14198,16 +14234,16 @@
       </c>
       <c r="O61" s="65"/>
       <c r="P61" s="65" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="133" t="s">
-        <v>455</v>
+      <c r="B62" s="132" t="s">
+        <v>453</v>
       </c>
       <c r="C62" s="65"/>
-      <c r="D62" s="135" t="s">
-        <v>640</v>
+      <c r="D62" s="147" t="s">
+        <v>637</v>
       </c>
       <c r="E62" s="64"/>
       <c r="F62" s="64"/>
@@ -14221,7 +14257,7 @@
         <v>431</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M62" s="64" t="s">
         <v>432</v>
@@ -14231,14 +14267,14 @@
       </c>
       <c r="O62" s="65"/>
       <c r="P62" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="133"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="65"/>
-      <c r="D63" s="135" t="s">
-        <v>641</v>
+      <c r="D63" s="147" t="s">
+        <v>638</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="64"/>
@@ -14252,7 +14288,7 @@
         <v>431</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="M63" s="64" t="s">
         <v>432</v>
@@ -14262,18 +14298,18 @@
       </c>
       <c r="O63" s="65"/>
       <c r="P63" s="65" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="133" t="s">
-        <v>456</v>
+      <c r="B64" s="132" t="s">
+        <v>454</v>
       </c>
       <c r="C64" s="65"/>
-      <c r="D64" s="156" t="s">
-        <v>645</v>
-      </c>
-      <c r="E64" s="138"/>
+      <c r="D64" s="148" t="s">
+        <v>642</v>
+      </c>
+      <c r="E64" s="137"/>
       <c r="F64" s="64"/>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
@@ -14285,7 +14321,7 @@
         <v>431</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M64" s="64" t="s">
         <v>432</v>
@@ -14299,12 +14335,12 @@
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="133"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="65"/>
-      <c r="D65" s="157" t="s">
-        <v>646</v>
-      </c>
-      <c r="E65" s="138"/>
+      <c r="D65" s="149" t="s">
+        <v>643</v>
+      </c>
+      <c r="E65" s="137"/>
       <c r="F65" s="64"/>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
@@ -14316,7 +14352,7 @@
         <v>431</v>
       </c>
       <c r="L65" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M65" s="64" t="s">
         <v>432</v>
@@ -14330,14 +14366,14 @@
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="133" t="s">
-        <v>457</v>
+      <c r="B66" s="132" t="s">
+        <v>455</v>
       </c>
       <c r="C66" s="65"/>
-      <c r="D66" s="157" t="s">
-        <v>647</v>
-      </c>
-      <c r="E66" s="138"/>
+      <c r="D66" s="149" t="s">
+        <v>644</v>
+      </c>
+      <c r="E66" s="137"/>
       <c r="F66" s="64"/>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
@@ -14349,7 +14385,7 @@
         <v>431</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M66" s="64" t="s">
         <v>432</v>
@@ -14359,16 +14395,16 @@
       </c>
       <c r="O66" s="65"/>
       <c r="P66" s="65" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="133"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="65"/>
-      <c r="D67" s="157" t="s">
-        <v>648</v>
-      </c>
-      <c r="E67" s="138"/>
+      <c r="D67" s="149" t="s">
+        <v>645</v>
+      </c>
+      <c r="E67" s="137"/>
       <c r="F67" s="64"/>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
@@ -14380,7 +14416,7 @@
         <v>431</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M67" s="64" t="s">
         <v>432</v>
@@ -14390,16 +14426,16 @@
       </c>
       <c r="O67" s="65"/>
       <c r="P67" s="65" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="133"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="65"/>
-      <c r="D68" s="157" t="s">
-        <v>649</v>
-      </c>
-      <c r="E68" s="138"/>
+      <c r="D68" s="149" t="s">
+        <v>646</v>
+      </c>
+      <c r="E68" s="137"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
@@ -14411,7 +14447,7 @@
         <v>431</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M68" s="64" t="s">
         <v>432</v>
@@ -14421,16 +14457,16 @@
       </c>
       <c r="O68" s="65"/>
       <c r="P68" s="65" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="133"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="65"/>
-      <c r="D69" s="157" t="s">
-        <v>650</v>
-      </c>
-      <c r="E69" s="138"/>
+      <c r="D69" s="149" t="s">
+        <v>647</v>
+      </c>
+      <c r="E69" s="137"/>
       <c r="F69" s="64"/>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
@@ -14442,7 +14478,7 @@
         <v>431</v>
       </c>
       <c r="L69" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M69" s="64" t="s">
         <v>432</v>
@@ -14452,18 +14488,18 @@
       </c>
       <c r="O69" s="65"/>
       <c r="P69" s="65" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="133" t="s">
-        <v>458</v>
+      <c r="B70" s="132" t="s">
+        <v>456</v>
       </c>
       <c r="C70" s="65"/>
-      <c r="D70" s="157" t="s">
-        <v>651</v>
-      </c>
-      <c r="E70" s="138"/>
+      <c r="D70" s="149" t="s">
+        <v>648</v>
+      </c>
+      <c r="E70" s="137"/>
       <c r="F70" s="64"/>
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
@@ -14475,7 +14511,7 @@
         <v>431</v>
       </c>
       <c r="L70" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M70" s="64" t="s">
         <v>432</v>
@@ -14485,16 +14521,16 @@
       </c>
       <c r="O70" s="65"/>
       <c r="P70" s="65" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="133"/>
+      <c r="B71" s="132"/>
       <c r="C71" s="65"/>
-      <c r="D71" s="157" t="s">
-        <v>652</v>
-      </c>
-      <c r="E71" s="138"/>
+      <c r="D71" s="149" t="s">
+        <v>649</v>
+      </c>
+      <c r="E71" s="137"/>
       <c r="F71" s="64"/>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
@@ -14506,7 +14542,7 @@
         <v>431</v>
       </c>
       <c r="L71" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M71" s="64" t="s">
         <v>432</v>
@@ -14516,18 +14552,18 @@
       </c>
       <c r="O71" s="65"/>
       <c r="P71" s="65" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="133" t="s">
-        <v>459</v>
+      <c r="B72" s="132" t="s">
+        <v>457</v>
       </c>
       <c r="C72" s="65"/>
-      <c r="D72" s="157" t="s">
-        <v>653</v>
-      </c>
-      <c r="E72" s="138"/>
+      <c r="D72" s="149" t="s">
+        <v>650</v>
+      </c>
+      <c r="E72" s="137"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
@@ -14539,7 +14575,7 @@
         <v>431</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M72" s="64" t="s">
         <v>432</v>
@@ -14549,16 +14585,16 @@
       </c>
       <c r="O72" s="65"/>
       <c r="P72" s="65" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="133"/>
+      <c r="B73" s="132"/>
       <c r="C73" s="65"/>
-      <c r="D73" s="157" t="s">
-        <v>654</v>
-      </c>
-      <c r="E73" s="138"/>
+      <c r="D73" s="149" t="s">
+        <v>651</v>
+      </c>
+      <c r="E73" s="137"/>
       <c r="F73" s="64"/>
       <c r="G73" s="64"/>
       <c r="H73" s="64"/>
@@ -14570,7 +14606,7 @@
         <v>431</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M73" s="64" t="s">
         <v>432</v>
@@ -14580,16 +14616,16 @@
       </c>
       <c r="O73" s="65"/>
       <c r="P73" s="65" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="133"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="65"/>
-      <c r="D74" s="157" t="s">
-        <v>655</v>
-      </c>
-      <c r="E74" s="138"/>
+      <c r="D74" s="149" t="s">
+        <v>652</v>
+      </c>
+      <c r="E74" s="137"/>
       <c r="F74" s="64"/>
       <c r="G74" s="64"/>
       <c r="H74" s="64"/>
@@ -14601,7 +14637,7 @@
         <v>431</v>
       </c>
       <c r="L74" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M74" s="64" t="s">
         <v>432</v>
@@ -14611,16 +14647,16 @@
       </c>
       <c r="O74" s="65"/>
       <c r="P74" s="65" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="133"/>
+      <c r="B75" s="132"/>
       <c r="C75" s="65"/>
-      <c r="D75" s="157" t="s">
-        <v>656</v>
-      </c>
-      <c r="E75" s="138"/>
+      <c r="D75" s="149" t="s">
+        <v>653</v>
+      </c>
+      <c r="E75" s="137"/>
       <c r="F75" s="64"/>
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
@@ -14632,7 +14668,7 @@
         <v>431</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M75" s="64" t="s">
         <v>432</v>
@@ -14642,16 +14678,16 @@
       </c>
       <c r="O75" s="65"/>
       <c r="P75" s="65" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="133"/>
+      <c r="B76" s="132"/>
       <c r="C76" s="65"/>
-      <c r="D76" s="157" t="s">
-        <v>657</v>
-      </c>
-      <c r="E76" s="138"/>
+      <c r="D76" s="149" t="s">
+        <v>654</v>
+      </c>
+      <c r="E76" s="137"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
@@ -14663,7 +14699,7 @@
         <v>431</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M76" s="64" t="s">
         <v>432</v>
@@ -14673,18 +14709,18 @@
       </c>
       <c r="O76" s="65"/>
       <c r="P76" s="65" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="133" t="s">
-        <v>460</v>
+      <c r="B77" s="132" t="s">
+        <v>458</v>
       </c>
       <c r="C77" s="65"/>
-      <c r="D77" s="157" t="s">
-        <v>658</v>
-      </c>
-      <c r="E77" s="138"/>
+      <c r="D77" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="E77" s="137"/>
       <c r="F77" s="64"/>
       <c r="G77" s="64"/>
       <c r="H77" s="64"/>
@@ -14696,7 +14732,7 @@
         <v>431</v>
       </c>
       <c r="L77" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M77" s="64" t="s">
         <v>432</v>
@@ -14706,16 +14742,16 @@
       </c>
       <c r="O77" s="65"/>
       <c r="P77" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="133"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="65"/>
-      <c r="D78" s="157" t="s">
-        <v>659</v>
-      </c>
-      <c r="E78" s="138"/>
+      <c r="D78" s="149" t="s">
+        <v>656</v>
+      </c>
+      <c r="E78" s="137"/>
       <c r="F78" s="64"/>
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
@@ -14727,7 +14763,7 @@
         <v>431</v>
       </c>
       <c r="L78" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M78" s="64" t="s">
         <v>432</v>
@@ -14737,16 +14773,16 @@
       </c>
       <c r="O78" s="65"/>
       <c r="P78" s="65" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="133"/>
+      <c r="B79" s="132"/>
       <c r="C79" s="65"/>
-      <c r="D79" s="157" t="s">
-        <v>660</v>
-      </c>
-      <c r="E79" s="138"/>
+      <c r="D79" s="149" t="s">
+        <v>657</v>
+      </c>
+      <c r="E79" s="137"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
@@ -14758,7 +14794,7 @@
         <v>431</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M79" s="64" t="s">
         <v>432</v>
@@ -14768,16 +14804,16 @@
       </c>
       <c r="O79" s="65"/>
       <c r="P79" s="65" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="133"/>
+      <c r="B80" s="132"/>
       <c r="C80" s="65"/>
-      <c r="D80" s="157" t="s">
-        <v>661</v>
-      </c>
-      <c r="E80" s="138"/>
+      <c r="D80" s="149" t="s">
+        <v>658</v>
+      </c>
+      <c r="E80" s="137"/>
       <c r="F80" s="64"/>
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
@@ -14789,7 +14825,7 @@
         <v>431</v>
       </c>
       <c r="L80" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M80" s="64" t="s">
         <v>432</v>
@@ -14799,16 +14835,16 @@
       </c>
       <c r="O80" s="65"/>
       <c r="P80" s="65" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="133"/>
+      <c r="B81" s="132"/>
       <c r="C81" s="65"/>
-      <c r="D81" s="157" t="s">
-        <v>662</v>
-      </c>
-      <c r="E81" s="138"/>
+      <c r="D81" s="149" t="s">
+        <v>659</v>
+      </c>
+      <c r="E81" s="137"/>
       <c r="F81" s="64"/>
       <c r="G81" s="64"/>
       <c r="H81" s="64"/>
@@ -14820,7 +14856,7 @@
         <v>431</v>
       </c>
       <c r="L81" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M81" s="64" t="s">
         <v>432</v>
@@ -14830,16 +14866,16 @@
       </c>
       <c r="O81" s="65"/>
       <c r="P81" s="65" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="133"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="65"/>
-      <c r="D82" s="157" t="s">
-        <v>663</v>
-      </c>
-      <c r="E82" s="138"/>
+      <c r="D82" s="149" t="s">
+        <v>660</v>
+      </c>
+      <c r="E82" s="137"/>
       <c r="F82" s="64"/>
       <c r="G82" s="64"/>
       <c r="H82" s="64"/>
@@ -14851,7 +14887,7 @@
         <v>431</v>
       </c>
       <c r="L82" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M82" s="64" t="s">
         <v>432</v>
@@ -14861,18 +14897,18 @@
       </c>
       <c r="O82" s="65"/>
       <c r="P82" s="65" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="133" t="s">
-        <v>461</v>
+      <c r="B83" s="132" t="s">
+        <v>459</v>
       </c>
       <c r="C83" s="65"/>
-      <c r="D83" s="157" t="s">
-        <v>664</v>
-      </c>
-      <c r="E83" s="138"/>
+      <c r="D83" s="149" t="s">
+        <v>661</v>
+      </c>
+      <c r="E83" s="137"/>
       <c r="F83" s="64"/>
       <c r="G83" s="64"/>
       <c r="H83" s="64"/>
@@ -14884,7 +14920,7 @@
         <v>431</v>
       </c>
       <c r="L83" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M83" s="64" t="s">
         <v>432</v>
@@ -14894,16 +14930,16 @@
       </c>
       <c r="O83" s="65"/>
       <c r="P83" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="133"/>
+      <c r="B84" s="132"/>
       <c r="C84" s="65"/>
-      <c r="D84" s="157" t="s">
-        <v>665</v>
-      </c>
-      <c r="E84" s="138"/>
+      <c r="D84" s="149" t="s">
+        <v>662</v>
+      </c>
+      <c r="E84" s="137"/>
       <c r="F84" s="64"/>
       <c r="G84" s="64"/>
       <c r="H84" s="64"/>
@@ -14915,7 +14951,7 @@
         <v>431</v>
       </c>
       <c r="L84" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M84" s="64" t="s">
         <v>432</v>
@@ -14925,16 +14961,16 @@
       </c>
       <c r="O84" s="65"/>
       <c r="P84" s="65" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="133"/>
+      <c r="B85" s="132"/>
       <c r="C85" s="65"/>
-      <c r="D85" s="157" t="s">
-        <v>666</v>
-      </c>
-      <c r="E85" s="138"/>
+      <c r="D85" s="149" t="s">
+        <v>663</v>
+      </c>
+      <c r="E85" s="137"/>
       <c r="F85" s="64"/>
       <c r="G85" s="64"/>
       <c r="H85" s="64"/>
@@ -14946,7 +14982,7 @@
         <v>431</v>
       </c>
       <c r="L85" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M85" s="64" t="s">
         <v>432</v>
@@ -14956,16 +14992,16 @@
       </c>
       <c r="O85" s="65"/>
       <c r="P85" s="65" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="133"/>
+      <c r="B86" s="132"/>
       <c r="C86" s="65"/>
-      <c r="D86" s="157" t="s">
-        <v>667</v>
-      </c>
-      <c r="E86" s="138"/>
+      <c r="D86" s="149" t="s">
+        <v>664</v>
+      </c>
+      <c r="E86" s="137"/>
       <c r="F86" s="64"/>
       <c r="G86" s="64"/>
       <c r="H86" s="64"/>
@@ -14977,7 +15013,7 @@
         <v>431</v>
       </c>
       <c r="L86" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M86" s="64" t="s">
         <v>432</v>
@@ -14987,18 +15023,18 @@
       </c>
       <c r="O86" s="65"/>
       <c r="P86" s="65" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="133" t="s">
-        <v>462</v>
+      <c r="B87" s="132" t="s">
+        <v>460</v>
       </c>
       <c r="C87" s="65"/>
-      <c r="D87" s="157" t="s">
-        <v>668</v>
-      </c>
-      <c r="E87" s="138"/>
+      <c r="D87" s="149" t="s">
+        <v>665</v>
+      </c>
+      <c r="E87" s="137"/>
       <c r="F87" s="64"/>
       <c r="G87" s="64"/>
       <c r="H87" s="64"/>
@@ -15010,7 +15046,7 @@
         <v>431</v>
       </c>
       <c r="L87" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M87" s="64" t="s">
         <v>432</v>
@@ -15020,16 +15056,16 @@
       </c>
       <c r="O87" s="65"/>
       <c r="P87" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="133"/>
+      <c r="B88" s="132"/>
       <c r="C88" s="65"/>
-      <c r="D88" s="157" t="s">
-        <v>669</v>
-      </c>
-      <c r="E88" s="138"/>
+      <c r="D88" s="149" t="s">
+        <v>666</v>
+      </c>
+      <c r="E88" s="137"/>
       <c r="F88" s="64"/>
       <c r="G88" s="64"/>
       <c r="H88" s="64"/>
@@ -15041,7 +15077,7 @@
         <v>431</v>
       </c>
       <c r="L88" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M88" s="64" t="s">
         <v>432</v>
@@ -15051,18 +15087,18 @@
       </c>
       <c r="O88" s="65"/>
       <c r="P88" s="65" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="133" t="s">
-        <v>463</v>
+      <c r="B89" s="132" t="s">
+        <v>461</v>
       </c>
       <c r="C89" s="65"/>
-      <c r="D89" s="157" t="s">
-        <v>670</v>
-      </c>
-      <c r="E89" s="138"/>
+      <c r="D89" s="149" t="s">
+        <v>667</v>
+      </c>
+      <c r="E89" s="137"/>
       <c r="F89" s="64"/>
       <c r="G89" s="64"/>
       <c r="H89" s="64"/>
@@ -15074,7 +15110,7 @@
         <v>431</v>
       </c>
       <c r="L89" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M89" s="64" t="s">
         <v>432</v>
@@ -15084,16 +15120,16 @@
       </c>
       <c r="O89" s="65"/>
       <c r="P89" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="133"/>
+      <c r="B90" s="132"/>
       <c r="C90" s="65"/>
-      <c r="D90" s="157" t="s">
-        <v>671</v>
-      </c>
-      <c r="E90" s="138"/>
+      <c r="D90" s="149" t="s">
+        <v>668</v>
+      </c>
+      <c r="E90" s="137"/>
       <c r="F90" s="64"/>
       <c r="G90" s="64"/>
       <c r="H90" s="64"/>
@@ -15105,7 +15141,7 @@
         <v>431</v>
       </c>
       <c r="L90" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M90" s="64" t="s">
         <v>432</v>
@@ -15115,16 +15151,16 @@
       </c>
       <c r="O90" s="65"/>
       <c r="P90" s="65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="133"/>
+      <c r="B91" s="132"/>
       <c r="C91" s="65"/>
-      <c r="D91" s="157" t="s">
-        <v>672</v>
-      </c>
-      <c r="E91" s="138"/>
+      <c r="D91" s="149" t="s">
+        <v>669</v>
+      </c>
+      <c r="E91" s="137"/>
       <c r="F91" s="64"/>
       <c r="G91" s="64"/>
       <c r="H91" s="64"/>
@@ -15136,7 +15172,7 @@
         <v>431</v>
       </c>
       <c r="L91" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M91" s="64" t="s">
         <v>432</v>
@@ -15146,18 +15182,18 @@
       </c>
       <c r="O91" s="65"/>
       <c r="P91" s="65" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="133" t="s">
-        <v>464</v>
+      <c r="B92" s="132" t="s">
+        <v>462</v>
       </c>
       <c r="C92" s="65"/>
-      <c r="D92" s="157" t="s">
-        <v>673</v>
-      </c>
-      <c r="E92" s="138"/>
+      <c r="D92" s="149" t="s">
+        <v>670</v>
+      </c>
+      <c r="E92" s="137"/>
       <c r="F92" s="64"/>
       <c r="G92" s="64"/>
       <c r="H92" s="64"/>
@@ -15169,7 +15205,7 @@
         <v>431</v>
       </c>
       <c r="L92" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M92" s="64" t="s">
         <v>432</v>
@@ -15179,16 +15215,16 @@
       </c>
       <c r="O92" s="65"/>
       <c r="P92" s="65" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="133"/>
+      <c r="B93" s="132"/>
       <c r="C93" s="65"/>
-      <c r="D93" s="157" t="s">
-        <v>674</v>
-      </c>
-      <c r="E93" s="138"/>
+      <c r="D93" s="149" t="s">
+        <v>671</v>
+      </c>
+      <c r="E93" s="137"/>
       <c r="F93" s="64"/>
       <c r="G93" s="64"/>
       <c r="H93" s="64"/>
@@ -15200,7 +15236,7 @@
         <v>431</v>
       </c>
       <c r="L93" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M93" s="64" t="s">
         <v>432</v>
@@ -15210,16 +15246,16 @@
       </c>
       <c r="O93" s="65"/>
       <c r="P93" s="65" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="133"/>
+      <c r="B94" s="132"/>
       <c r="C94" s="65"/>
-      <c r="D94" s="157" t="s">
-        <v>675</v>
-      </c>
-      <c r="E94" s="138"/>
+      <c r="D94" s="149" t="s">
+        <v>672</v>
+      </c>
+      <c r="E94" s="137"/>
       <c r="F94" s="64"/>
       <c r="G94" s="64"/>
       <c r="H94" s="64"/>
@@ -15231,7 +15267,7 @@
         <v>431</v>
       </c>
       <c r="L94" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M94" s="64" t="s">
         <v>432</v>
@@ -15241,16 +15277,16 @@
       </c>
       <c r="O94" s="65"/>
       <c r="P94" s="65" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="133"/>
+      <c r="B95" s="132"/>
       <c r="C95" s="65"/>
-      <c r="D95" s="157" t="s">
-        <v>676</v>
-      </c>
-      <c r="E95" s="138"/>
+      <c r="D95" s="149" t="s">
+        <v>673</v>
+      </c>
+      <c r="E95" s="137"/>
       <c r="F95" s="64"/>
       <c r="G95" s="64"/>
       <c r="H95" s="64"/>
@@ -15262,7 +15298,7 @@
         <v>431</v>
       </c>
       <c r="L95" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M95" s="64" t="s">
         <v>432</v>
@@ -15272,16 +15308,16 @@
       </c>
       <c r="O95" s="65"/>
       <c r="P95" s="65" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="133"/>
+      <c r="B96" s="132"/>
       <c r="C96" s="65"/>
-      <c r="D96" s="157" t="s">
-        <v>677</v>
-      </c>
-      <c r="E96" s="138"/>
+      <c r="D96" s="149" t="s">
+        <v>674</v>
+      </c>
+      <c r="E96" s="137"/>
       <c r="F96" s="64"/>
       <c r="G96" s="64"/>
       <c r="H96" s="64"/>
@@ -15293,7 +15329,7 @@
         <v>431</v>
       </c>
       <c r="L96" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M96" s="64" t="s">
         <v>432</v>
@@ -15303,16 +15339,16 @@
       </c>
       <c r="O96" s="65"/>
       <c r="P96" s="65" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="133"/>
+      <c r="B97" s="132"/>
       <c r="C97" s="65"/>
-      <c r="D97" s="158" t="s">
-        <v>678</v>
-      </c>
-      <c r="E97" s="138"/>
+      <c r="D97" s="150" t="s">
+        <v>675</v>
+      </c>
+      <c r="E97" s="137"/>
       <c r="F97" s="64"/>
       <c r="G97" s="64"/>
       <c r="H97" s="64"/>
@@ -15324,7 +15360,7 @@
         <v>431</v>
       </c>
       <c r="L97" s="64" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M97" s="64" t="s">
         <v>432</v>
@@ -15334,15 +15370,17 @@
       </c>
       <c r="O97" s="65"/>
       <c r="P97" s="65" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="133" t="s">
-        <v>465</v>
+      <c r="B98" s="132" t="s">
+        <v>463</v>
       </c>
       <c r="C98" s="65"/>
-      <c r="D98" s="131"/>
+      <c r="D98" s="147" t="s">
+        <v>681</v>
+      </c>
       <c r="E98" s="64"/>
       <c r="F98" s="64"/>
       <c r="G98" s="64"/>
@@ -15355,7 +15393,7 @@
         <v>431</v>
       </c>
       <c r="L98" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M98" s="64" t="s">
         <v>432</v>
@@ -15365,15 +15403,15 @@
       </c>
       <c r="O98" s="65"/>
       <c r="P98" s="65" t="s">
-        <v>433</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="133" t="s">
-        <v>467</v>
-      </c>
+      <c r="B99" s="132"/>
       <c r="C99" s="65"/>
-      <c r="D99" s="131"/>
+      <c r="D99" s="147" t="s">
+        <v>684</v>
+      </c>
       <c r="E99" s="64"/>
       <c r="F99" s="64"/>
       <c r="G99" s="64"/>
@@ -15386,7 +15424,7 @@
         <v>431</v>
       </c>
       <c r="L99" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M99" s="64" t="s">
         <v>432</v>
@@ -15396,15 +15434,15 @@
       </c>
       <c r="O99" s="65"/>
       <c r="P99" s="65" t="s">
-        <v>434</v>
+        <v>639</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="133" t="s">
-        <v>468</v>
-      </c>
+      <c r="B100" s="132"/>
       <c r="C100" s="65"/>
-      <c r="D100" s="131"/>
+      <c r="D100" s="147" t="s">
+        <v>685</v>
+      </c>
       <c r="E100" s="64"/>
       <c r="F100" s="64"/>
       <c r="G100" s="64"/>
@@ -15417,7 +15455,7 @@
         <v>431</v>
       </c>
       <c r="L100" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M100" s="64" t="s">
         <v>432</v>
@@ -15427,15 +15465,17 @@
       </c>
       <c r="O100" s="65"/>
       <c r="P100" s="65" t="s">
-        <v>435</v>
+        <v>586</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="133" t="s">
-        <v>469</v>
+      <c r="B101" s="132" t="s">
+        <v>464</v>
       </c>
       <c r="C101" s="65"/>
-      <c r="D101" s="131"/>
+      <c r="D101" s="147" t="s">
+        <v>686</v>
+      </c>
       <c r="E101" s="64"/>
       <c r="F101" s="64"/>
       <c r="G101" s="64"/>
@@ -15448,7 +15488,7 @@
         <v>431</v>
       </c>
       <c r="L101" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M101" s="64" t="s">
         <v>432</v>
@@ -15458,15 +15498,15 @@
       </c>
       <c r="O101" s="65"/>
       <c r="P101" s="65" t="s">
-        <v>436</v>
+        <v>587</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="133" t="s">
-        <v>470</v>
-      </c>
+      <c r="B102" s="132"/>
       <c r="C102" s="65"/>
-      <c r="D102" s="131"/>
+      <c r="D102" s="147" t="s">
+        <v>687</v>
+      </c>
       <c r="E102" s="64"/>
       <c r="F102" s="64"/>
       <c r="G102" s="64"/>
@@ -15479,7 +15519,7 @@
         <v>431</v>
       </c>
       <c r="L102" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M102" s="64" t="s">
         <v>432</v>
@@ -15489,15 +15529,15 @@
       </c>
       <c r="O102" s="65"/>
       <c r="P102" s="65" t="s">
-        <v>438</v>
+        <v>595</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="133" t="s">
-        <v>471</v>
-      </c>
+      <c r="B103" s="132"/>
       <c r="C103" s="65"/>
-      <c r="D103" s="131"/>
+      <c r="D103" s="147" t="s">
+        <v>688</v>
+      </c>
       <c r="E103" s="64"/>
       <c r="F103" s="64"/>
       <c r="G103" s="64"/>
@@ -15510,7 +15550,7 @@
         <v>431</v>
       </c>
       <c r="L103" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M103" s="64" t="s">
         <v>432</v>
@@ -15520,15 +15560,17 @@
       </c>
       <c r="O103" s="65"/>
       <c r="P103" s="65" t="s">
-        <v>440</v>
+        <v>596</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="133" t="s">
-        <v>472</v>
+      <c r="B104" s="132" t="s">
+        <v>465</v>
       </c>
       <c r="C104" s="65"/>
-      <c r="D104" s="131"/>
+      <c r="D104" s="147" t="s">
+        <v>689</v>
+      </c>
       <c r="E104" s="64"/>
       <c r="F104" s="64"/>
       <c r="G104" s="64"/>
@@ -15541,7 +15583,7 @@
         <v>431</v>
       </c>
       <c r="L104" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M104" s="64" t="s">
         <v>432</v>
@@ -15551,15 +15593,15 @@
       </c>
       <c r="O104" s="65"/>
       <c r="P104" s="65" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="133" t="s">
-        <v>473</v>
-      </c>
+      <c r="B105" s="132"/>
       <c r="C105" s="65"/>
-      <c r="D105" s="131"/>
+      <c r="D105" s="147" t="s">
+        <v>690</v>
+      </c>
       <c r="E105" s="64"/>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
@@ -15572,7 +15614,7 @@
         <v>431</v>
       </c>
       <c r="L105" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M105" s="64" t="s">
         <v>432</v>
@@ -15582,15 +15624,15 @@
       </c>
       <c r="O105" s="65"/>
       <c r="P105" s="65" t="s">
-        <v>444</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="133" t="s">
-        <v>474</v>
-      </c>
+      <c r="B106" s="132"/>
       <c r="C106" s="65"/>
-      <c r="D106" s="131"/>
+      <c r="D106" s="147" t="s">
+        <v>691</v>
+      </c>
       <c r="E106" s="64"/>
       <c r="F106" s="64"/>
       <c r="G106" s="64"/>
@@ -15603,7 +15645,7 @@
         <v>431</v>
       </c>
       <c r="L106" s="64" t="s">
-        <v>466</v>
+        <v>682</v>
       </c>
       <c r="M106" s="64" t="s">
         <v>432</v>
@@ -15613,266 +15655,795 @@
       </c>
       <c r="O106" s="65"/>
       <c r="P106" s="65" t="s">
-        <v>446</v>
+        <v>588</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="152"/>
-      <c r="C107" s="153"/>
-      <c r="D107" s="154"/>
-      <c r="E107" s="155"/>
-      <c r="F107" s="155"/>
-      <c r="G107" s="155"/>
-      <c r="H107" s="155"/>
-      <c r="I107" s="155"/>
-      <c r="J107" s="153"/>
-      <c r="K107" s="155"/>
-      <c r="L107" s="155"/>
-      <c r="M107" s="155"/>
-      <c r="N107" s="155"/>
-      <c r="O107" s="153"/>
-      <c r="P107" s="153"/>
-    </row>
-    <row r="108" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="152"/>
-      <c r="C108" s="153"/>
-      <c r="D108" s="154"/>
-      <c r="E108" s="155"/>
-      <c r="F108" s="155"/>
-      <c r="G108" s="155"/>
-      <c r="H108" s="155"/>
-      <c r="I108" s="155"/>
-      <c r="J108" s="153"/>
-      <c r="K108" s="155"/>
-      <c r="L108" s="155"/>
-      <c r="M108" s="155"/>
-      <c r="N108" s="155"/>
-      <c r="O108" s="153"/>
-      <c r="P108" s="153"/>
-    </row>
-    <row r="109" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="152"/>
-      <c r="C109" s="153"/>
-      <c r="D109" s="154"/>
-      <c r="E109" s="155"/>
-      <c r="F109" s="155"/>
-      <c r="G109" s="155"/>
-      <c r="H109" s="155"/>
-      <c r="I109" s="155"/>
-      <c r="J109" s="153"/>
-      <c r="K109" s="155"/>
-      <c r="L109" s="155"/>
-      <c r="M109" s="155"/>
-      <c r="N109" s="155"/>
-      <c r="O109" s="153"/>
-      <c r="P109" s="153"/>
-    </row>
-    <row r="110" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="152"/>
-      <c r="C110" s="153"/>
-      <c r="D110" s="154"/>
-      <c r="E110" s="155"/>
-      <c r="F110" s="155"/>
-      <c r="G110" s="155"/>
-      <c r="H110" s="155"/>
-      <c r="I110" s="155"/>
-      <c r="J110" s="153"/>
-      <c r="K110" s="155"/>
-      <c r="L110" s="155"/>
-      <c r="M110" s="155"/>
-      <c r="N110" s="155"/>
-      <c r="O110" s="153"/>
-      <c r="P110" s="153"/>
-    </row>
-    <row r="111" spans="2:16" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="107"/>
-      <c r="C111" s="108"/>
-      <c r="D111" s="108"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="109"/>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="108"/>
-      <c r="K111" s="109"/>
-      <c r="L111" s="109"/>
-      <c r="M111" s="109"/>
-      <c r="N111" s="109"/>
-      <c r="O111" s="108"/>
-      <c r="P111" s="108"/>
-    </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="89"/>
-      <c r="C112" s="91" t="s">
+      <c r="B107" s="132"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="147" t="s">
+        <v>692</v>
+      </c>
+      <c r="E107" s="64"/>
+      <c r="F107" s="64"/>
+      <c r="G107" s="64"/>
+      <c r="H107" s="64"/>
+      <c r="I107" s="64"/>
+      <c r="J107" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K107" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L107" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M107" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N107" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O107" s="65"/>
+      <c r="P107" s="65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="132" t="s">
+        <v>466</v>
+      </c>
+      <c r="C108" s="65"/>
+      <c r="D108" s="147" t="s">
+        <v>693</v>
+      </c>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="64"/>
+      <c r="I108" s="64"/>
+      <c r="J108" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K108" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L108" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M108" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N108" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O108" s="65"/>
+      <c r="P108" s="65" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="132"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="147" t="s">
+        <v>694</v>
+      </c>
+      <c r="E109" s="64"/>
+      <c r="F109" s="64"/>
+      <c r="G109" s="64"/>
+      <c r="H109" s="64"/>
+      <c r="I109" s="64"/>
+      <c r="J109" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K109" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L109" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M109" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N109" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O109" s="65"/>
+      <c r="P109" s="65" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="132"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="147" t="s">
+        <v>695</v>
+      </c>
+      <c r="E110" s="64"/>
+      <c r="F110" s="64"/>
+      <c r="G110" s="64"/>
+      <c r="H110" s="64"/>
+      <c r="I110" s="64"/>
+      <c r="J110" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K110" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L110" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M110" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N110" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O110" s="65"/>
+      <c r="P110" s="65" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="132" t="s">
+        <v>467</v>
+      </c>
+      <c r="C111" s="65"/>
+      <c r="D111" s="147" t="s">
+        <v>696</v>
+      </c>
+      <c r="E111" s="64"/>
+      <c r="F111" s="64"/>
+      <c r="G111" s="64"/>
+      <c r="H111" s="64"/>
+      <c r="I111" s="64"/>
+      <c r="J111" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K111" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L111" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M111" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N111" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O111" s="65"/>
+      <c r="P111" s="65" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="132"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="147" t="s">
+        <v>697</v>
+      </c>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
+      <c r="H112" s="64"/>
+      <c r="I112" s="64"/>
+      <c r="J112" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K112" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L112" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M112" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N112" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O112" s="65"/>
+      <c r="P112" s="65" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="132"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="147" t="s">
+        <v>698</v>
+      </c>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
+      <c r="H113" s="64"/>
+      <c r="I113" s="64"/>
+      <c r="J113" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K113" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L113" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M113" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N113" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O113" s="65"/>
+      <c r="P113" s="65" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="132"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="147" t="s">
+        <v>699</v>
+      </c>
+      <c r="E114" s="64"/>
+      <c r="F114" s="64"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="64"/>
+      <c r="I114" s="64"/>
+      <c r="J114" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K114" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L114" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M114" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N114" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O114" s="65"/>
+      <c r="P114" s="65" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="132" t="s">
+        <v>468</v>
+      </c>
+      <c r="C115" s="65"/>
+      <c r="D115" s="147" t="s">
+        <v>700</v>
+      </c>
+      <c r="E115" s="64"/>
+      <c r="F115" s="64"/>
+      <c r="G115" s="64"/>
+      <c r="H115" s="64"/>
+      <c r="I115" s="64"/>
+      <c r="J115" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K115" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L115" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M115" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N115" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O115" s="65"/>
+      <c r="P115" s="65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="132"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="147" t="s">
+        <v>701</v>
+      </c>
+      <c r="E116" s="64"/>
+      <c r="F116" s="64"/>
+      <c r="G116" s="64"/>
+      <c r="H116" s="64"/>
+      <c r="I116" s="64"/>
+      <c r="J116" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K116" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L116" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M116" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N116" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O116" s="65"/>
+      <c r="P116" s="65" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="132"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="147" t="s">
+        <v>702</v>
+      </c>
+      <c r="E117" s="64"/>
+      <c r="F117" s="64"/>
+      <c r="G117" s="64"/>
+      <c r="H117" s="64"/>
+      <c r="I117" s="64"/>
+      <c r="J117" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K117" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L117" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M117" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N117" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O117" s="65"/>
+      <c r="P117" s="65" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="132"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="147" t="s">
+        <v>703</v>
+      </c>
+      <c r="E118" s="64"/>
+      <c r="F118" s="64"/>
+      <c r="G118" s="64"/>
+      <c r="H118" s="64"/>
+      <c r="I118" s="64"/>
+      <c r="J118" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K118" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L118" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M118" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N118" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O118" s="65"/>
+      <c r="P118" s="65" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="132" t="s">
+        <v>469</v>
+      </c>
+      <c r="C119" s="65"/>
+      <c r="D119" s="147" t="s">
+        <v>704</v>
+      </c>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
+      <c r="H119" s="64"/>
+      <c r="I119" s="64"/>
+      <c r="J119" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K119" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L119" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M119" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N119" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O119" s="65"/>
+      <c r="P119" s="65" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="132"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="147" t="s">
+        <v>705</v>
+      </c>
+      <c r="E120" s="64"/>
+      <c r="F120" s="64"/>
+      <c r="G120" s="64"/>
+      <c r="H120" s="64"/>
+      <c r="I120" s="64"/>
+      <c r="J120" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K120" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L120" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M120" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N120" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O120" s="65"/>
+      <c r="P120" s="65" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="132" t="s">
+        <v>470</v>
+      </c>
+      <c r="C121" s="65"/>
+      <c r="D121" s="147" t="s">
+        <v>706</v>
+      </c>
+      <c r="E121" s="64"/>
+      <c r="F121" s="64"/>
+      <c r="G121" s="64"/>
+      <c r="H121" s="64"/>
+      <c r="I121" s="64"/>
+      <c r="J121" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K121" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L121" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M121" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N121" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O121" s="65"/>
+      <c r="P121" s="65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="132"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="147" t="s">
+        <v>707</v>
+      </c>
+      <c r="E122" s="64"/>
+      <c r="F122" s="64"/>
+      <c r="G122" s="64"/>
+      <c r="H122" s="64"/>
+      <c r="I122" s="64"/>
+      <c r="J122" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K122" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L122" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M122" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N122" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O122" s="65"/>
+      <c r="P122" s="65" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="132" t="s">
+        <v>471</v>
+      </c>
+      <c r="C123" s="65"/>
+      <c r="D123" s="147" t="s">
+        <v>708</v>
+      </c>
+      <c r="E123" s="64"/>
+      <c r="F123" s="64"/>
+      <c r="G123" s="64"/>
+      <c r="H123" s="64"/>
+      <c r="I123" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="J123" s="65"/>
+      <c r="K123" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L123" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M123" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N123" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O123" s="65"/>
+      <c r="P123" s="65" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="132"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="147" t="s">
+        <v>709</v>
+      </c>
+      <c r="E124" s="64"/>
+      <c r="F124" s="64"/>
+      <c r="G124" s="64"/>
+      <c r="H124" s="64"/>
+      <c r="I124" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="J124" s="65"/>
+      <c r="K124" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L124" s="64" t="s">
+        <v>682</v>
+      </c>
+      <c r="M124" s="64" t="s">
+        <v>432</v>
+      </c>
+      <c r="N124" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="O124" s="65"/>
+      <c r="P124" s="65" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="107"/>
+      <c r="C125" s="108"/>
+      <c r="D125" s="144"/>
+      <c r="E125" s="109"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="109"/>
+      <c r="H125" s="109"/>
+      <c r="I125" s="109"/>
+      <c r="J125" s="108"/>
+      <c r="K125" s="109"/>
+      <c r="L125" s="109"/>
+      <c r="M125" s="109"/>
+      <c r="N125" s="109"/>
+      <c r="O125" s="108"/>
+      <c r="P125" s="108"/>
+    </row>
+    <row r="126" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="89"/>
+      <c r="C126" s="91" t="s">
         <v>297</v>
       </c>
-      <c r="D112" s="91"/>
-      <c r="E112" s="92">
+      <c r="D126" s="91"/>
+      <c r="E126" s="92">
         <v>0</v>
       </c>
-      <c r="F112" s="92">
+      <c r="F126" s="92">
         <v>0</v>
       </c>
-      <c r="G112" s="92">
+      <c r="G126" s="92">
         <v>0</v>
       </c>
-      <c r="H112" s="92">
+      <c r="H126" s="92">
         <v>0</v>
       </c>
-      <c r="I112" s="92">
-        <v>0</v>
-      </c>
-      <c r="J112" s="92">
-        <v>36</v>
-      </c>
-      <c r="K112" s="93"/>
-      <c r="L112" s="93"/>
-      <c r="M112" s="93"/>
-      <c r="N112" s="90"/>
-      <c r="O112" s="90"/>
-      <c r="P112" s="90"/>
-    </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="90"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="93"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
-      <c r="G113" s="93"/>
-      <c r="H113" s="93"/>
-      <c r="I113" s="93"/>
-      <c r="J113" s="93"/>
-      <c r="K113" s="93"/>
-      <c r="L113" s="93"/>
-      <c r="M113" s="93"/>
-      <c r="N113" s="90"/>
-      <c r="O113" s="90"/>
-      <c r="P113" s="90"/>
-    </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B114" s="90"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="93"/>
-      <c r="E114" s="94"/>
-      <c r="F114" s="94"/>
-      <c r="G114" s="94"/>
-      <c r="H114" s="94"/>
-      <c r="I114" s="94"/>
-      <c r="J114" s="95" t="s">
+      <c r="I126" s="92">
+        <v>2</v>
+      </c>
+      <c r="J126" s="92">
+        <v>118</v>
+      </c>
+      <c r="K126" s="93"/>
+      <c r="L126" s="93"/>
+      <c r="M126" s="93"/>
+      <c r="N126" s="90"/>
+      <c r="O126" s="90"/>
+      <c r="P126" s="90"/>
+    </row>
+    <row r="127" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="90"/>
+      <c r="C127" s="91"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="93"/>
+      <c r="F127" s="93"/>
+      <c r="G127" s="93"/>
+      <c r="H127" s="93"/>
+      <c r="I127" s="93"/>
+      <c r="J127" s="93"/>
+      <c r="K127" s="93"/>
+      <c r="L127" s="93"/>
+      <c r="M127" s="93"/>
+      <c r="N127" s="90"/>
+      <c r="O127" s="90"/>
+      <c r="P127" s="90"/>
+    </row>
+    <row r="128" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="90"/>
+      <c r="C128" s="90"/>
+      <c r="D128" s="93"/>
+      <c r="E128" s="94"/>
+      <c r="F128" s="94"/>
+      <c r="G128" s="94"/>
+      <c r="H128" s="94"/>
+      <c r="I128" s="94"/>
+      <c r="J128" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="K114" s="96">
-        <v>36</v>
-      </c>
-      <c r="L114" s="93"/>
-      <c r="M114" s="93"/>
-      <c r="N114" s="90"/>
-      <c r="O114" s="90"/>
-      <c r="P114" s="90"/>
+      <c r="K128" s="96">
+        <v>120</v>
+      </c>
+      <c r="L128" s="93"/>
+      <c r="M128" s="93"/>
+      <c r="N128" s="90"/>
+      <c r="O128" s="90"/>
+      <c r="P128" s="90"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" location="'Metadatos V'!B4" xr:uid="{0BD1436B-6291-47FC-8FE2-9F631D4A5D8B}"/>
-    <hyperlink ref="D6" r:id="rId2" location="'Metadatos V'!B5" xr:uid="{98012A51-0003-4C45-ADC0-B25C4082F0F6}"/>
-    <hyperlink ref="D7" r:id="rId3" location="'Metadatos V'!B6" xr:uid="{09CB2D60-9401-469B-A76D-4B52FCF147E7}"/>
-    <hyperlink ref="D8" r:id="rId4" location="'Metadatos V'!B7" xr:uid="{06441420-AF16-4817-80DD-783F86540945}"/>
-    <hyperlink ref="D9" r:id="rId5" location="'Metadatos V'!B8" xr:uid="{A0128460-B47C-4750-BD62-F7D0DD2256CB}"/>
-    <hyperlink ref="D10" r:id="rId6" location="'Metadatos V'!B9" xr:uid="{88F31584-2C7F-4A2B-B050-9A2F5B51DAE3}"/>
-    <hyperlink ref="D11" r:id="rId7" location="'Metadatos V'!B10" xr:uid="{BFFCD561-ECA6-4E38-A05E-9E9D7C3E00E3}"/>
-    <hyperlink ref="D12" r:id="rId8" location="'Metadatos V'!B11" xr:uid="{622BBCCC-05B3-420D-BCE0-22E89EAB2F59}"/>
-    <hyperlink ref="D13" r:id="rId9" location="'Metadatos V'!B12" xr:uid="{86B5AC53-90B9-4298-8F17-CCA00DE85D36}"/>
-    <hyperlink ref="D14" r:id="rId10" location="'Metadatos V'!B13" xr:uid="{A1E1AE46-F14D-49E5-88B1-E1778D6E85EC}"/>
-    <hyperlink ref="D15" r:id="rId11" location="'Metadatos V'!B14" xr:uid="{E5A504A1-A0E7-41DB-BDC0-D3972E993224}"/>
-    <hyperlink ref="D16" r:id="rId12" location="'Metadatos V'!B15" xr:uid="{8AAA86F4-6B02-4767-BD7F-87D3FA8737F8}"/>
-    <hyperlink ref="D17" r:id="rId13" location="'Metadatos V'!B16" xr:uid="{D945EC01-224F-429C-91BE-A6AE3AF675EE}"/>
-    <hyperlink ref="D18" r:id="rId14" location="'Metadatos V'!B17" xr:uid="{F74010C6-48AF-421F-8CB5-9ECD4F69827F}"/>
-    <hyperlink ref="D19" r:id="rId15" location="'Metadatos V'!B18" xr:uid="{85B568FA-D77E-4E0C-A20C-16302F6445B6}"/>
-    <hyperlink ref="D20" r:id="rId16" location="'Metadatos V'!B19" xr:uid="{0D0AC1A1-23D3-4C7A-B9A6-95A52943F935}"/>
-    <hyperlink ref="D21" r:id="rId17" location="'Metadatos V'!B20" xr:uid="{91EB44F3-FDCD-446C-B423-521EC3E08CFC}"/>
-    <hyperlink ref="D22" r:id="rId18" location="'Metadatos V'!B21" xr:uid="{7CC451FE-01F6-4AAD-8761-EB362C8B93AB}"/>
-    <hyperlink ref="D23" r:id="rId19" location="'Metadatos V'!B22" xr:uid="{8E5B01BD-8506-4B2A-820D-3C8778A072C9}"/>
-    <hyperlink ref="D24" r:id="rId20" location="'Metadatos V'!B23" xr:uid="{B38C39CE-9F9F-4FE0-AACD-A1B4F3B69E2E}"/>
-    <hyperlink ref="D25" r:id="rId21" location="'Metadatos V'!B24" xr:uid="{66FB0936-72FB-40BF-9F43-22388C20062F}"/>
-    <hyperlink ref="D26" r:id="rId22" location="'Metadatos V'!B25" xr:uid="{5D379C2D-D0F3-4425-985E-CDEF94335E2E}"/>
-    <hyperlink ref="D27" r:id="rId23" location="'Metadatos V'!B26" xr:uid="{1249F71D-4AB4-4CD9-A227-C6B0F2C3B228}"/>
-    <hyperlink ref="D28" r:id="rId24" location="'Metadatos V'!B27" xr:uid="{4260577E-DC60-47E1-BAB4-568E61FA7E8A}"/>
-    <hyperlink ref="D29" r:id="rId25" location="'Metadatos V'!B28" xr:uid="{45141514-FCF0-4841-BEEE-BE087102CF59}"/>
-    <hyperlink ref="D30" r:id="rId26" location="'Metadatos V'!B29" xr:uid="{89EF11CF-14B3-4C98-9531-04E18ECDF7D1}"/>
-    <hyperlink ref="D31" r:id="rId27" location="'Metadatos V'!B30" xr:uid="{BA2E6FF6-DDEE-4EC6-B5C6-D5D998337350}"/>
-    <hyperlink ref="D32" r:id="rId28" location="'Metadatos V'!B31" xr:uid="{F2A50E4B-136B-44E5-8F43-847EBDD8F1AC}"/>
-    <hyperlink ref="D33" r:id="rId29" location="'Metadatos V'!B32" xr:uid="{F1D0BDE0-B3E8-4C6D-A376-FA6E21D2EE2D}"/>
-    <hyperlink ref="D34" r:id="rId30" location="'Metadatos V'!B33" xr:uid="{8FA923E8-C75C-4DAD-835A-7B7C5B507A30}"/>
-    <hyperlink ref="D35" r:id="rId31" location="'Metadatos V'!B34" xr:uid="{B5999E1E-211B-4435-BB6C-42AFE3F80781}"/>
-    <hyperlink ref="D36" r:id="rId32" location="'Metadatos V'!B35" xr:uid="{26BB993F-1B41-4033-BF0E-ED5CF3051DDC}"/>
-    <hyperlink ref="D37" r:id="rId33" location="'Metadatos V'!B36" xr:uid="{5DC6534B-D04D-4242-9646-F0FAA0291387}"/>
-    <hyperlink ref="D38" r:id="rId34" location="'Metadatos V'!B37" xr:uid="{B7E9ACDF-9AE5-430A-89B4-7F4FC6DAD00D}"/>
-    <hyperlink ref="D39" r:id="rId35" location="'Metadatos V'!B38" xr:uid="{F81FCAB0-12FE-4C77-8F6C-E71C9F83A220}"/>
-    <hyperlink ref="D40" r:id="rId36" location="'Metadatos V'!B39" xr:uid="{E8EF32C9-65F3-458A-BB02-2F5B85A0E865}"/>
-    <hyperlink ref="D41" r:id="rId37" location="'Metadatos V'!B40" xr:uid="{FE8F22C0-A4ED-4DC9-8FE4-F5193CB430A8}"/>
-    <hyperlink ref="D42" r:id="rId38" location="'Metadatos V'!B41" xr:uid="{611CCAD4-E3D3-48C6-AA4B-42B238D619DF}"/>
-    <hyperlink ref="D43" r:id="rId39" location="'Metadatos V'!B42" xr:uid="{4431A1B8-44C8-466A-AE56-0F168CB9B636}"/>
-    <hyperlink ref="D44" r:id="rId40" location="'Metadatos V'!B43" xr:uid="{EB1F7E80-0D83-4458-AE23-369FD416E4D8}"/>
-    <hyperlink ref="D45" r:id="rId41" location="'Metadatos V'!B44" xr:uid="{4EB72B41-4A3D-4D69-BD0F-5B675CC32D1A}"/>
-    <hyperlink ref="D46" r:id="rId42" location="'Metadatos V'!B45" xr:uid="{DFC2FAED-C44D-4B6E-9977-7627939B79FB}"/>
-    <hyperlink ref="D47" r:id="rId43" location="'Metadatos V'!B46" xr:uid="{758CD3FF-D014-479D-AA40-5B6F2D399B81}"/>
-    <hyperlink ref="D48" r:id="rId44" location="'Metadatos V'!B47" xr:uid="{C73B7DC1-C05D-4BBA-A740-F1E59C8CF20D}"/>
-    <hyperlink ref="D49" r:id="rId45" location="'Metadatos V'!B48" xr:uid="{8F709861-DF23-4922-82A3-5F98509FC099}"/>
-    <hyperlink ref="D50" r:id="rId46" location="'Metadatos V'!B49" xr:uid="{F3A3531F-67C1-4B8F-81C1-6AC88D0871E5}"/>
-    <hyperlink ref="D51" r:id="rId47" location="'Metadatos V'!B50" xr:uid="{EB39E6AD-04AC-4307-9F1C-70ABEBE2A1C7}"/>
-    <hyperlink ref="D52" r:id="rId48" location="'Metadatos V'!B51" xr:uid="{331F9CC0-B011-4423-9B7D-ADC49A168239}"/>
-    <hyperlink ref="D53" r:id="rId49" location="'Metadatos V'!B52" xr:uid="{0A40D78E-4DC0-4F2C-959B-3F41165C5074}"/>
-    <hyperlink ref="D54" r:id="rId50" location="'Metadatos V'!B53" xr:uid="{13D20A73-E747-4FA4-80E4-065483949905}"/>
-    <hyperlink ref="D55" r:id="rId51" location="'Metadatos V'!B54" xr:uid="{E039E482-93C8-4D11-837C-09A0D06B09FB}"/>
-    <hyperlink ref="D56" r:id="rId52" location="'Metadatos V'!B55" xr:uid="{869122C2-96B0-4932-AF49-CB7D5A8C4C10}"/>
-    <hyperlink ref="D57" r:id="rId53" location="'Metadatos V'!B56" xr:uid="{D9F5CA8F-4875-4DFE-A5AB-0C0F4678D467}"/>
-    <hyperlink ref="D58" r:id="rId54" location="'Metadatos V'!B57" xr:uid="{264FD871-64FA-4A24-B82D-3355988CBB39}"/>
-    <hyperlink ref="D59" r:id="rId55" location="'Metadatos V'!B58" xr:uid="{42574E0D-98E1-43C0-ACD1-72370EC18DA2}"/>
-    <hyperlink ref="D60" r:id="rId56" location="'Metadatos V'!B59" xr:uid="{41B6464B-6A96-44E4-BD36-A338F82E7021}"/>
-    <hyperlink ref="D61" r:id="rId57" location="'Metadatos V'!B60" xr:uid="{867385BA-5C99-4E73-8BEE-1E3EE123B5D4}"/>
-    <hyperlink ref="D62" r:id="rId58" location="'Metadatos V'!B61" xr:uid="{F68D4250-64DB-493A-820D-EE086A8A1CFC}"/>
-    <hyperlink ref="D63" r:id="rId59" location="'Metadatos V'!B62" xr:uid="{9998FF29-5F84-40EF-A583-87AB3A11616B}"/>
-    <hyperlink ref="D64" r:id="rId60" location="'Metadatos V'!B63" xr:uid="{2D7BC5DC-DB25-4B12-BE19-C56B4010454C}"/>
-    <hyperlink ref="D65" r:id="rId61" location="'Metadatos V'!B64" xr:uid="{44577E2E-2F0A-49D9-877E-D9F61621996C}"/>
-    <hyperlink ref="D66" r:id="rId62" location="'Metadatos V'!B65" xr:uid="{44EEC8DB-D498-46B0-B19E-F1F566EDBE39}"/>
-    <hyperlink ref="D67" r:id="rId63" location="'Metadatos V'!B66" xr:uid="{8199C4ED-EFF6-4315-9CDE-92250128AED3}"/>
-    <hyperlink ref="D68" r:id="rId64" location="'Metadatos V'!B67" xr:uid="{18B79F5C-EA24-4AF2-9FAF-E484799F8BFE}"/>
-    <hyperlink ref="D69" r:id="rId65" location="'Metadatos V'!B68" xr:uid="{35DDE0E4-8B2C-4A23-8A15-7CF2E1521818}"/>
-    <hyperlink ref="D70" r:id="rId66" location="'Metadatos V'!B69" xr:uid="{26C5BF2C-FB01-47EF-9C31-6B17F46D90FF}"/>
-    <hyperlink ref="D71" r:id="rId67" location="'Metadatos V'!B70" xr:uid="{9EFBF60B-3B9D-45EE-B242-727E79055DED}"/>
-    <hyperlink ref="D72" r:id="rId68" location="'Metadatos V'!B71" xr:uid="{2F1A0FBF-9C77-4DA1-9C7C-98E10D9E5AFB}"/>
-    <hyperlink ref="D73" r:id="rId69" location="'Metadatos V'!B72" xr:uid="{C2E1E592-46AF-4C8A-A4B7-8FF88E4007B0}"/>
-    <hyperlink ref="D74" r:id="rId70" location="'Metadatos V'!B73" xr:uid="{785DE42C-B157-4AAF-BF87-D76866B21304}"/>
-    <hyperlink ref="D75" r:id="rId71" location="'Metadatos V'!B74" xr:uid="{C09A90FF-DADA-4A81-9FC5-8581EE1408A0}"/>
-    <hyperlink ref="D76" r:id="rId72" location="'Metadatos V'!B75" xr:uid="{2E4EE3F5-DFE9-4B74-88EF-B065F0819BCB}"/>
-    <hyperlink ref="D77" r:id="rId73" location="'Metadatos V'!B76" xr:uid="{8071A742-22DE-4022-8A1B-52445D0BAD00}"/>
-    <hyperlink ref="D78" r:id="rId74" location="'Metadatos V'!B77" xr:uid="{9E0953FC-5411-4582-80EF-99E3EB9BFB03}"/>
-    <hyperlink ref="D79" r:id="rId75" location="'Metadatos V'!B78" xr:uid="{957EA248-779F-411D-9C92-33F90FAC01ED}"/>
-    <hyperlink ref="D80" r:id="rId76" location="'Metadatos V'!B79" xr:uid="{F3D2E0A7-4E78-4942-8603-6AC081E091A8}"/>
-    <hyperlink ref="D81" r:id="rId77" location="'Metadatos V'!B80" xr:uid="{0EEC220E-32ED-4517-98FD-14B91A6988DD}"/>
-    <hyperlink ref="D82" r:id="rId78" location="'Metadatos V'!B81" xr:uid="{2C845BAC-08CE-4783-8DCD-31B0906A0B71}"/>
-    <hyperlink ref="D83" r:id="rId79" location="'Metadatos V'!B82" xr:uid="{83937E7B-E380-46FC-AE0A-6604D9E367E7}"/>
-    <hyperlink ref="D84" r:id="rId80" location="'Metadatos V'!B83" xr:uid="{8ACBC8AE-0120-43DC-B04D-B281EA18E998}"/>
-    <hyperlink ref="D85" r:id="rId81" location="'Metadatos V'!B84" xr:uid="{C38F7EB3-3A7A-40C6-B1FA-2EB58AF3A860}"/>
-    <hyperlink ref="D86" r:id="rId82" location="'Metadatos V'!B85" xr:uid="{AC369211-1ADF-4F29-8D79-6A5DF8A39E76}"/>
-    <hyperlink ref="D87" r:id="rId83" location="'Metadatos V'!B86" xr:uid="{658C8416-518C-44C5-93D6-C33AE2DEA507}"/>
-    <hyperlink ref="D88" r:id="rId84" location="'Metadatos V'!B87" xr:uid="{07D08CD0-A4E2-4BF0-AEEE-0BDA4C0ED9C2}"/>
-    <hyperlink ref="D89" r:id="rId85" location="'Metadatos V'!B88" xr:uid="{8ED3EED8-8124-4AE9-893A-6789CA7BA82B}"/>
-    <hyperlink ref="D90" r:id="rId86" location="'Metadatos V'!B89" xr:uid="{5D9DDE3F-C4CE-4306-850B-28A6F2933129}"/>
-    <hyperlink ref="D91" r:id="rId87" location="'Metadatos V'!B90" xr:uid="{6DCF71A9-ACB2-40E1-8C16-B38C3ADDFBF3}"/>
-    <hyperlink ref="D92" r:id="rId88" location="'Metadatos V'!B91" xr:uid="{AAEE01E7-70F7-44BE-89AB-1103E0EED55F}"/>
-    <hyperlink ref="D93" r:id="rId89" location="'Metadatos V'!B92" xr:uid="{D3BC58EF-0F32-4625-900A-22DC20676723}"/>
-    <hyperlink ref="D94" r:id="rId90" location="'Metadatos V'!B93" xr:uid="{5F6FC726-F8A8-4339-804D-7A9044E1D5B0}"/>
-    <hyperlink ref="D95" r:id="rId91" location="'Metadatos V'!B94" xr:uid="{C6838503-3A6A-4FE0-B3E6-B970FD3F9AB4}"/>
-    <hyperlink ref="D96" r:id="rId92" location="'Metadatos V'!B95" xr:uid="{EBE3EA12-B8C7-4B06-8E77-2413C24BBEEF}"/>
-    <hyperlink ref="D97" r:id="rId93" location="'Metadatos V'!B96" xr:uid="{58806871-1A47-4734-8C4F-F8703FF8C055}"/>
+    <hyperlink ref="D5" r:id="rId1" location="'Metadatos V'!B4"/>
+    <hyperlink ref="D6" r:id="rId2" location="'Metadatos V'!B5"/>
+    <hyperlink ref="D7" r:id="rId3" location="'Metadatos V'!B6"/>
+    <hyperlink ref="D8" r:id="rId4" location="'Metadatos V'!B7"/>
+    <hyperlink ref="D9" r:id="rId5" location="'Metadatos V'!B8"/>
+    <hyperlink ref="D10" r:id="rId6" location="'Metadatos V'!B9"/>
+    <hyperlink ref="D11" r:id="rId7" location="'Metadatos V'!B10"/>
+    <hyperlink ref="D12" r:id="rId8" location="'Metadatos V'!B11"/>
+    <hyperlink ref="D13" r:id="rId9" location="'Metadatos V'!B12"/>
+    <hyperlink ref="D14" r:id="rId10" location="'Metadatos V'!B13"/>
+    <hyperlink ref="D15" r:id="rId11" location="'Metadatos V'!B14"/>
+    <hyperlink ref="D16" r:id="rId12" location="'Metadatos V'!B15"/>
+    <hyperlink ref="D17" r:id="rId13" location="'Metadatos V'!B16"/>
+    <hyperlink ref="D18" r:id="rId14" location="'Metadatos V'!B17"/>
+    <hyperlink ref="D19" r:id="rId15" location="'Metadatos V'!B18"/>
+    <hyperlink ref="D20" r:id="rId16" location="'Metadatos V'!B19"/>
+    <hyperlink ref="D21" r:id="rId17" location="'Metadatos V'!B20"/>
+    <hyperlink ref="D22" r:id="rId18" location="'Metadatos V'!B21"/>
+    <hyperlink ref="D23" r:id="rId19" location="'Metadatos V'!B22"/>
+    <hyperlink ref="D24" r:id="rId20" location="'Metadatos V'!B23"/>
+    <hyperlink ref="D25" r:id="rId21" location="'Metadatos V'!B24"/>
+    <hyperlink ref="D26" r:id="rId22" location="'Metadatos V'!B25"/>
+    <hyperlink ref="D27" r:id="rId23" location="'Metadatos V'!B26"/>
+    <hyperlink ref="D28" r:id="rId24" location="'Metadatos V'!B27"/>
+    <hyperlink ref="D29" r:id="rId25" location="'Metadatos V'!B28"/>
+    <hyperlink ref="D30" r:id="rId26" location="'Metadatos V'!B29"/>
+    <hyperlink ref="D31" r:id="rId27" location="'Metadatos V'!B30"/>
+    <hyperlink ref="D32" r:id="rId28" location="'Metadatos V'!B31"/>
+    <hyperlink ref="D33" r:id="rId29" location="'Metadatos V'!B32"/>
+    <hyperlink ref="D34" r:id="rId30" location="'Metadatos V'!B33"/>
+    <hyperlink ref="D35" r:id="rId31" location="'Metadatos V'!B34"/>
+    <hyperlink ref="D36" r:id="rId32" location="'Metadatos V'!B35"/>
+    <hyperlink ref="D37" r:id="rId33" location="'Metadatos V'!B36"/>
+    <hyperlink ref="D38" r:id="rId34" location="'Metadatos V'!B37"/>
+    <hyperlink ref="D39" r:id="rId35" location="'Metadatos V'!B38"/>
+    <hyperlink ref="D40" r:id="rId36" location="'Metadatos V'!B39"/>
+    <hyperlink ref="D41" r:id="rId37" location="'Metadatos V'!B40"/>
+    <hyperlink ref="D42" r:id="rId38" location="'Metadatos V'!B41"/>
+    <hyperlink ref="D43" r:id="rId39" location="'Metadatos V'!B42"/>
+    <hyperlink ref="D44" r:id="rId40" location="'Metadatos V'!B43"/>
+    <hyperlink ref="D45" r:id="rId41" location="'Metadatos V'!B44"/>
+    <hyperlink ref="D46" r:id="rId42" location="'Metadatos V'!B45"/>
+    <hyperlink ref="D47" r:id="rId43" location="'Metadatos V'!B46"/>
+    <hyperlink ref="D48" r:id="rId44" location="'Metadatos V'!B47"/>
+    <hyperlink ref="D49" r:id="rId45" location="'Metadatos V'!B48"/>
+    <hyperlink ref="D50" r:id="rId46" location="'Metadatos V'!B49"/>
+    <hyperlink ref="D51" r:id="rId47" location="'Metadatos V'!B50"/>
+    <hyperlink ref="D52" r:id="rId48" location="'Metadatos V'!B51"/>
+    <hyperlink ref="D53" r:id="rId49" location="'Metadatos V'!B52"/>
+    <hyperlink ref="D54" r:id="rId50" location="'Metadatos V'!B53"/>
+    <hyperlink ref="D55" r:id="rId51" location="'Metadatos V'!B54"/>
+    <hyperlink ref="D56" r:id="rId52" location="'Metadatos V'!B55"/>
+    <hyperlink ref="D57" r:id="rId53" location="'Metadatos V'!B56"/>
+    <hyperlink ref="D58" r:id="rId54" location="'Metadatos V'!B57"/>
+    <hyperlink ref="D59" r:id="rId55" location="'Metadatos V'!B58"/>
+    <hyperlink ref="D60" r:id="rId56" location="'Metadatos V'!B59"/>
+    <hyperlink ref="D61" r:id="rId57" location="'Metadatos V'!B60"/>
+    <hyperlink ref="D62" r:id="rId58" location="'Metadatos V'!B61"/>
+    <hyperlink ref="D63" r:id="rId59" location="'Metadatos V'!B62"/>
+    <hyperlink ref="D64" r:id="rId60" location="'Metadatos V'!B63"/>
+    <hyperlink ref="D65" r:id="rId61" location="'Metadatos V'!B64"/>
+    <hyperlink ref="D66" r:id="rId62" location="'Metadatos V'!B65"/>
+    <hyperlink ref="D67" r:id="rId63" location="'Metadatos V'!B66"/>
+    <hyperlink ref="D68" r:id="rId64" location="'Metadatos V'!B67"/>
+    <hyperlink ref="D69" r:id="rId65" location="'Metadatos V'!B68"/>
+    <hyperlink ref="D70" r:id="rId66" location="'Metadatos V'!B69"/>
+    <hyperlink ref="D71" r:id="rId67" location="'Metadatos V'!B70"/>
+    <hyperlink ref="D72" r:id="rId68" location="'Metadatos V'!B71"/>
+    <hyperlink ref="D73" r:id="rId69" location="'Metadatos V'!B72"/>
+    <hyperlink ref="D74" r:id="rId70" location="'Metadatos V'!B73"/>
+    <hyperlink ref="D75" r:id="rId71" location="'Metadatos V'!B74"/>
+    <hyperlink ref="D76" r:id="rId72" location="'Metadatos V'!B75"/>
+    <hyperlink ref="D77" r:id="rId73" location="'Metadatos V'!B76"/>
+    <hyperlink ref="D78" r:id="rId74" location="'Metadatos V'!B77"/>
+    <hyperlink ref="D79" r:id="rId75" location="'Metadatos V'!B78"/>
+    <hyperlink ref="D80" r:id="rId76" location="'Metadatos V'!B79"/>
+    <hyperlink ref="D81" r:id="rId77" location="'Metadatos V'!B80"/>
+    <hyperlink ref="D82" r:id="rId78" location="'Metadatos V'!B81"/>
+    <hyperlink ref="D83" r:id="rId79" location="'Metadatos V'!B82"/>
+    <hyperlink ref="D84" r:id="rId80" location="'Metadatos V'!B83"/>
+    <hyperlink ref="D85" r:id="rId81" location="'Metadatos V'!B84"/>
+    <hyperlink ref="D86" r:id="rId82" location="'Metadatos V'!B85"/>
+    <hyperlink ref="D87" r:id="rId83" location="'Metadatos V'!B86"/>
+    <hyperlink ref="D88" r:id="rId84" location="'Metadatos V'!B87"/>
+    <hyperlink ref="D89" r:id="rId85" location="'Metadatos V'!B88"/>
+    <hyperlink ref="D90" r:id="rId86" location="'Metadatos V'!B89"/>
+    <hyperlink ref="D91" r:id="rId87" location="'Metadatos V'!B90"/>
+    <hyperlink ref="D92" r:id="rId88" location="'Metadatos V'!B91"/>
+    <hyperlink ref="D93" r:id="rId89" location="'Metadatos V'!B92"/>
+    <hyperlink ref="D94" r:id="rId90" location="'Metadatos V'!B93"/>
+    <hyperlink ref="D95" r:id="rId91" location="'Metadatos V'!B94"/>
+    <hyperlink ref="D96" r:id="rId92" location="'Metadatos V'!B95"/>
+    <hyperlink ref="D97" r:id="rId93" location="'Metadatos V'!B96"/>
+    <hyperlink ref="D98" r:id="rId94" location="'Metadatos V'!B97"/>
+    <hyperlink ref="D99" r:id="rId95" location="'Metadatos V'!B98"/>
+    <hyperlink ref="D100" r:id="rId96" location="'Metadatos V'!B99"/>
+    <hyperlink ref="D101" r:id="rId97" location="'Metadatos V'!B100"/>
+    <hyperlink ref="D102" r:id="rId98" location="'Metadatos V'!B101"/>
+    <hyperlink ref="D103" r:id="rId99" location="'Metadatos V'!B102"/>
+    <hyperlink ref="D104" r:id="rId100" location="'Metadatos V'!B103"/>
+    <hyperlink ref="D105" r:id="rId101" location="'Metadatos V'!B104"/>
+    <hyperlink ref="D106" r:id="rId102" location="'Metadatos V'!B105"/>
+    <hyperlink ref="D107" r:id="rId103" location="'Metadatos V'!B106"/>
+    <hyperlink ref="D108" r:id="rId104" location="'Metadatos V'!B107"/>
+    <hyperlink ref="D109" r:id="rId105" location="'Metadatos V'!B108"/>
+    <hyperlink ref="D110" r:id="rId106" location="'Metadatos V'!B109"/>
+    <hyperlink ref="D111" r:id="rId107" location="'Metadatos V'!B110"/>
+    <hyperlink ref="D112" r:id="rId108" location="'Metadatos V'!B111"/>
+    <hyperlink ref="D113" r:id="rId109" location="'Metadatos V'!B112"/>
+    <hyperlink ref="D114" r:id="rId110" location="'Metadatos V'!B113"/>
+    <hyperlink ref="D115" r:id="rId111" location="'Metadatos V'!B114"/>
+    <hyperlink ref="D116" r:id="rId112" location="'Metadatos V'!B115"/>
+    <hyperlink ref="D117" r:id="rId113" location="'Metadatos V'!B116"/>
+    <hyperlink ref="D118" r:id="rId114" location="'Metadatos V'!B117"/>
+    <hyperlink ref="D119" r:id="rId115" location="'Metadatos V'!B118"/>
+    <hyperlink ref="D120" r:id="rId116" location="'Metadatos V'!B119"/>
+    <hyperlink ref="D121" r:id="rId117" location="'Metadatos V'!B120"/>
+    <hyperlink ref="D122" r:id="rId118" location="'Metadatos V'!B121"/>
+    <hyperlink ref="D123" r:id="rId119" location="'Metadatos V'!B122"/>
+    <hyperlink ref="D124" r:id="rId120" location="'Metadatos V'!B123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
@@ -15897,7 +16468,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -15997,10 +16568,10 @@
         <v>285</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -16018,18 +16589,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="56" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="134"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="65"/>
       <c r="D6" s="130" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -16047,11 +16618,11 @@
         <v>207</v>
       </c>
       <c r="N6" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="62" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -16059,10 +16630,10 @@
         <v>292</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -16080,20 +16651,20 @@
         <v>207</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="62" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="134"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="100">
         <v>2</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -16111,20 +16682,20 @@
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="62" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="134"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -16142,11 +16713,11 @@
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="62" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16157,7 +16728,7 @@
         <v>420</v>
       </c>
       <c r="D10" s="130" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -16175,11 +16746,11 @@
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="62" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16190,7 +16761,7 @@
         <v>420</v>
       </c>
       <c r="D11" s="130" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -16208,22 +16779,22 @@
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="62" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="127" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C12" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D12" s="130" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -16243,16 +16814,16 @@
       <c r="N12" s="64"/>
       <c r="O12" s="65"/>
       <c r="P12" s="62" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="134"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="100">
         <v>8</v>
       </c>
       <c r="D13" s="130" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>200</v>
@@ -16270,24 +16841,24 @@
         <v>207</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O13" s="65" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P13" s="62" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C14" s="100">
         <v>2</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -16305,20 +16876,20 @@
       </c>
       <c r="M14" s="64"/>
       <c r="N14" s="64" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="62" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="134"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="100" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D15" s="130" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -16336,16 +16907,16 @@
       <c r="N15" s="64"/>
       <c r="O15" s="65"/>
       <c r="P15" s="62" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="134"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="100" t="s">
+        <v>498</v>
+      </c>
+      <c r="D16" s="130" t="s">
         <v>501</v>
-      </c>
-      <c r="D16" s="130" t="s">
-        <v>504</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -16363,18 +16934,18 @@
       <c r="N16" s="64"/>
       <c r="O16" s="65"/>
       <c r="P16" s="62" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="127" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C17" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D17" s="130" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -16392,22 +16963,22 @@
       </c>
       <c r="M17" s="64"/>
       <c r="N17" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="62" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="127" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C18" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="130" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -16425,11 +16996,11 @@
         <v>207</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="62" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16438,7 +17009,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="130" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -16456,22 +17027,22 @@
         <v>207</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="62" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C20" s="100">
         <v>1</v>
       </c>
       <c r="D20" s="130" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -16489,22 +17060,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="62" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="127" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C21" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D21" s="130" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -16522,22 +17093,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="62" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="127" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C22" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D22" s="130" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -16555,22 +17126,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="62" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="127" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C23" s="100">
         <v>2</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>200</v>
@@ -16588,20 +17159,20 @@
         <v>207</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="62" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="134"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -16619,20 +17190,20 @@
         <v>207</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="62" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="134"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -16650,22 +17221,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="62" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="134" t="s">
-        <v>526</v>
+      <c r="B26" s="133" t="s">
+        <v>523</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -16683,22 +17254,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="62" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="134" t="s">
-        <v>530</v>
+      <c r="B27" s="133" t="s">
+        <v>527</v>
       </c>
       <c r="C27" s="100" t="s">
         <v>420</v>
       </c>
       <c r="D27" s="130" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -16718,16 +17289,16 @@
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
       <c r="P27" s="62" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="134" t="s">
-        <v>533</v>
+      <c r="B28" s="133" t="s">
+        <v>530</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="130" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -16745,16 +17316,16 @@
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
       <c r="P28" s="62" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="134" t="s">
-        <v>536</v>
+      <c r="B29" s="133" t="s">
+        <v>533</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="130" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -16772,16 +17343,16 @@
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
       <c r="P29" s="62" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="134" t="s">
-        <v>539</v>
+      <c r="B30" s="133" t="s">
+        <v>536</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="130" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>200</v>
@@ -16799,16 +17370,16 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
       <c r="P30" s="62" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="134" t="s">
-        <v>542</v>
+      <c r="B31" s="133" t="s">
+        <v>539</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="130" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>200</v>
@@ -16825,19 +17396,19 @@
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
       <c r="O31" s="65" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P31" s="62" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="134" t="s">
-        <v>545</v>
+      <c r="B32" s="133" t="s">
+        <v>542</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="130" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E32" s="64" t="s">
         <v>200</v>
@@ -16854,19 +17425,19 @@
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P32" s="62" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="134" t="s">
-        <v>548</v>
+      <c r="B33" s="133" t="s">
+        <v>545</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="130" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -16884,7 +17455,7 @@
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
       <c r="P33" s="62" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="617" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="710">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>&gt;60</t>
   </si>
   <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>H-001</t>
   </si>
   <si>
@@ -1432,9 +1429,6 @@
     <t>Sonido de eleccion de una opcion</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5 </t>
-  </si>
-  <si>
     <t>H-009</t>
   </si>
   <si>
@@ -1669,9 +1663,6 @@
     <t>Colision con un item</t>
   </si>
   <si>
-    <t>D-006</t>
-  </si>
-  <si>
     <t>Sonido de golpeo de patines al suelo.  Aumenta la frecuencia respecto a la velocidad del personaje</t>
   </si>
   <si>
@@ -1774,12 +1765,6 @@
     <t>1.18</t>
   </si>
   <si>
-    <t>M-007</t>
-  </si>
-  <si>
-    <t>Musica de victoria</t>
-  </si>
-  <si>
     <t>1.19</t>
   </si>
   <si>
@@ -2282,6 +2267,21 @@
   </si>
   <si>
     <t>V-495</t>
+  </si>
+  <si>
+    <t>Sonido selección de personaje</t>
+  </si>
+  <si>
+    <t>H-012</t>
+  </si>
+  <si>
+    <t>H-013</t>
+  </si>
+  <si>
+    <t>Sonido de victoria</t>
+  </si>
+  <si>
+    <t>H-014</t>
   </si>
 </sst>
 </file>
@@ -3634,7 +3634,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3821,19 +3820,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>118</c:v>
@@ -3869,7 +3868,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4448,7 +4446,7 @@
       </c>
       <c r="C8" s="17">
         <f>Niveles!E41</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="17">
         <f>Niveles!F41</f>
@@ -4456,7 +4454,7 @@
       </c>
       <c r="E8" s="17">
         <f>Niveles!G41</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" s="17">
         <f>Niveles!H41</f>
@@ -4464,7 +4462,7 @@
       </c>
       <c r="G8" s="17">
         <f>Niveles!I41</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="17">
         <f>Niveles!J41</f>
@@ -4501,7 +4499,7 @@
       </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:I11" si="0">SUM(C4:C10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
@@ -4509,7 +4507,7 @@
       </c>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="0"/>
@@ -4517,7 +4515,7 @@
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="0"/>
@@ -4567,7 +4565,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -4645,7 +4643,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -4670,7 +4668,7 @@
         <v>414</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -4687,10 +4685,10 @@
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
       <c r="O5" s="56" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="P5" s="56" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -11782,7 +11780,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -11936,11 +11934,9 @@
       <c r="B6" s="127" t="s">
         <v>292</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="100"/>
+      <c r="D6" s="134" t="s">
         <v>415</v>
-      </c>
-      <c r="D6" s="134" t="s">
-        <v>416</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -11954,7 +11950,7 @@
         <v>287</v>
       </c>
       <c r="L6" s="63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M6" s="63"/>
       <c r="N6" s="63" t="s">
@@ -11962,18 +11958,16 @@
       </c>
       <c r="O6" s="62"/>
       <c r="P6" s="62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="127" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="100" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="134" t="s">
         <v>420</v>
-      </c>
-      <c r="D7" s="134" t="s">
-        <v>421</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -11987,7 +11981,7 @@
         <v>287</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M7" s="63"/>
       <c r="N7" s="63" t="s">
@@ -11995,18 +11989,16 @@
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="62" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="127" t="s">
+        <v>422</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="134" t="s">
         <v>423</v>
-      </c>
-      <c r="C8" s="100" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="130" t="s">
-        <v>424</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="63"/>
@@ -12020,7 +12012,7 @@
         <v>287</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M8" s="63"/>
       <c r="N8" s="63" t="s">
@@ -12028,18 +12020,16 @@
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="62" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="128" t="s">
+        <v>433</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="135" t="s">
         <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="114" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>427</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
@@ -12053,7 +12043,7 @@
         <v>287</v>
       </c>
       <c r="L9" s="101" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M9" s="102"/>
       <c r="N9" s="101" t="s">
@@ -12061,25 +12051,39 @@
       </c>
       <c r="O9" s="123"/>
       <c r="P9" s="125" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="103"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="B10" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="135" t="s">
+        <v>706</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="101" t="s">
+        <v>202</v>
+      </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="101" t="s">
+        <v>287</v>
+      </c>
+      <c r="L10" s="101" t="s">
+        <v>416</v>
+      </c>
+      <c r="M10" s="102"/>
+      <c r="N10" s="101" t="s">
+        <v>289</v>
+      </c>
+      <c r="O10" s="123"/>
+      <c r="P10" s="125" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="103"/>
@@ -12308,6 +12312,8 @@
     <hyperlink ref="D6" r:id="rId1" location="'Metadatos H'!B4"/>
     <hyperlink ref="D7" r:id="rId2" location="'Metadatos H'!B5"/>
     <hyperlink ref="D9" r:id="rId3" location="'Metadatos H'!B6"/>
+    <hyperlink ref="D10" r:id="rId4" location="'Metadatos H'!B7"/>
+    <hyperlink ref="D8" r:id="rId5" location="'Metadatos H'!B8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -12318,7 +12324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
@@ -12341,7 +12347,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -12419,7 +12425,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="99" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -12442,7 +12448,7 @@
       </c>
       <c r="C5" s="59"/>
       <c r="D5" s="145" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -12453,27 +12459,27 @@
         <v>204</v>
       </c>
       <c r="K5" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L5" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M5" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N5" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="143" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="140"/>
       <c r="C6" s="141"/>
       <c r="D6" s="146" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E6" s="138"/>
       <c r="F6" s="138"/>
@@ -12484,20 +12490,20 @@
         <v>204</v>
       </c>
       <c r="K6" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L6" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M6" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N6" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O6" s="141"/>
       <c r="P6" s="141" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12506,7 +12512,7 @@
       </c>
       <c r="C7" s="65"/>
       <c r="D7" s="147" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -12517,27 +12523,27 @@
         <v>204</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L7" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M7" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N7" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="65" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="132"/>
       <c r="C8" s="65"/>
       <c r="D8" s="147" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -12548,27 +12554,27 @@
         <v>204</v>
       </c>
       <c r="K8" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L8" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M8" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N8" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="65" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="132"/>
       <c r="C9" s="65"/>
       <c r="D9" s="147" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -12579,27 +12585,27 @@
         <v>204</v>
       </c>
       <c r="K9" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L9" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M9" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N9" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="65" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="132"/>
       <c r="C10" s="65"/>
       <c r="D10" s="147" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -12610,27 +12616,27 @@
         <v>204</v>
       </c>
       <c r="K10" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L10" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M10" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N10" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="65" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="132"/>
       <c r="C11" s="65"/>
       <c r="D11" s="147" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -12641,29 +12647,29 @@
         <v>204</v>
       </c>
       <c r="K11" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L11" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M11" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N11" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="65" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="147" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -12674,27 +12680,27 @@
         <v>204</v>
       </c>
       <c r="K12" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L12" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M12" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N12" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O12" s="65"/>
       <c r="P12" s="65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="132"/>
       <c r="C13" s="65"/>
       <c r="D13" s="147" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -12705,27 +12711,27 @@
         <v>204</v>
       </c>
       <c r="K13" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L13" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M13" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N13" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="132"/>
       <c r="C14" s="65"/>
       <c r="D14" s="147" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -12736,27 +12742,27 @@
         <v>204</v>
       </c>
       <c r="K14" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L14" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M14" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N14" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="65" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="132"/>
       <c r="C15" s="65"/>
       <c r="D15" s="147" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -12767,29 +12773,29 @@
         <v>204</v>
       </c>
       <c r="K15" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L15" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M15" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N15" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O15" s="65"/>
       <c r="P15" s="65" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="132" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="147" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -12800,27 +12806,27 @@
         <v>204</v>
       </c>
       <c r="K16" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L16" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M16" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N16" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O16" s="65"/>
       <c r="P16" s="65" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="132"/>
       <c r="C17" s="65"/>
       <c r="D17" s="147" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -12831,27 +12837,27 @@
         <v>204</v>
       </c>
       <c r="K17" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L17" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M17" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N17" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="65" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="132"/>
       <c r="C18" s="65"/>
       <c r="D18" s="147" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -12862,27 +12868,27 @@
         <v>204</v>
       </c>
       <c r="K18" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L18" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M18" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N18" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="65" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="132"/>
       <c r="C19" s="65"/>
       <c r="D19" s="147" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -12893,29 +12899,29 @@
         <v>204</v>
       </c>
       <c r="K19" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L19" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M19" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N19" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="132" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C20" s="65"/>
       <c r="D20" s="147" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -12926,27 +12932,27 @@
         <v>204</v>
       </c>
       <c r="K20" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L20" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M20" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N20" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="65" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="132"/>
       <c r="C21" s="65"/>
       <c r="D21" s="147" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -12957,27 +12963,27 @@
         <v>204</v>
       </c>
       <c r="K21" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L21" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M21" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N21" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="65" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="132"/>
       <c r="C22" s="65"/>
       <c r="D22" s="147" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -12988,27 +12994,27 @@
         <v>204</v>
       </c>
       <c r="K22" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L22" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M22" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N22" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="132"/>
       <c r="C23" s="65"/>
       <c r="D23" s="147" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -13019,29 +13025,29 @@
         <v>204</v>
       </c>
       <c r="K23" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L23" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M23" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N23" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="65" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="132" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="147" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -13052,27 +13058,27 @@
         <v>204</v>
       </c>
       <c r="K24" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L24" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M24" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N24" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="132"/>
       <c r="C25" s="65"/>
       <c r="D25" s="147" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -13083,27 +13089,27 @@
         <v>204</v>
       </c>
       <c r="K25" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L25" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M25" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N25" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="65" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="132"/>
       <c r="C26" s="65"/>
       <c r="D26" s="147" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -13114,29 +13120,29 @@
         <v>204</v>
       </c>
       <c r="K26" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L26" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M26" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N26" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="65" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="132" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C27" s="65"/>
       <c r="D27" s="147" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -13147,27 +13153,27 @@
         <v>204</v>
       </c>
       <c r="K27" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L27" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M27" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N27" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O27" s="65"/>
       <c r="P27" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="132"/>
       <c r="C28" s="65"/>
       <c r="D28" s="147" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -13178,29 +13184,29 @@
         <v>204</v>
       </c>
       <c r="K28" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L28" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M28" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N28" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O28" s="65"/>
       <c r="P28" s="65" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="132" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="147" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -13211,27 +13217,27 @@
         <v>204</v>
       </c>
       <c r="K29" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L29" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M29" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N29" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O29" s="65"/>
       <c r="P29" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="132"/>
       <c r="C30" s="65"/>
       <c r="D30" s="147" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="E30" s="64"/>
       <c r="F30" s="64"/>
@@ -13242,29 +13248,29 @@
         <v>204</v>
       </c>
       <c r="K30" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L30" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M30" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N30" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O30" s="65"/>
       <c r="P30" s="65" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="147" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="E31" s="64"/>
       <c r="F31" s="64"/>
@@ -13275,27 +13281,27 @@
         <v>204</v>
       </c>
       <c r="K31" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L31" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M31" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N31" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O31" s="65"/>
       <c r="P31" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="132"/>
       <c r="C32" s="65"/>
       <c r="D32" s="147" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E32" s="64"/>
       <c r="F32" s="64"/>
@@ -13306,27 +13312,27 @@
         <v>204</v>
       </c>
       <c r="K32" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L32" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M32" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N32" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O32" s="65"/>
       <c r="P32" s="65" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="132"/>
       <c r="C33" s="65"/>
       <c r="D33" s="147" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -13337,27 +13343,27 @@
         <v>204</v>
       </c>
       <c r="K33" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L33" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M33" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N33" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O33" s="65"/>
       <c r="P33" s="65" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="132"/>
       <c r="C34" s="65"/>
       <c r="D34" s="147" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="64"/>
@@ -13368,27 +13374,27 @@
         <v>204</v>
       </c>
       <c r="K34" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L34" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M34" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N34" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O34" s="65"/>
       <c r="P34" s="65" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="132"/>
       <c r="C35" s="65"/>
       <c r="D35" s="147" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E35" s="64"/>
       <c r="F35" s="64"/>
@@ -13399,27 +13405,27 @@
         <v>204</v>
       </c>
       <c r="K35" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L35" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M35" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N35" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O35" s="65"/>
       <c r="P35" s="65" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="132"/>
       <c r="C36" s="65"/>
       <c r="D36" s="147" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E36" s="64"/>
       <c r="F36" s="64"/>
@@ -13430,29 +13436,29 @@
         <v>204</v>
       </c>
       <c r="K36" s="136" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L36" s="139" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M36" s="137" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N36" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O36" s="65"/>
       <c r="P36" s="65" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="132" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C37" s="65"/>
       <c r="D37" s="147" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E37" s="64"/>
       <c r="F37" s="64"/>
@@ -13463,27 +13469,27 @@
         <v>204</v>
       </c>
       <c r="K37" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L37" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M37" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N37" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O37" s="65"/>
       <c r="P37" s="65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="132"/>
       <c r="C38" s="65"/>
       <c r="D38" s="147" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="64"/>
@@ -13494,27 +13500,27 @@
         <v>204</v>
       </c>
       <c r="K38" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L38" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M38" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N38" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O38" s="65"/>
       <c r="P38" s="65" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="132"/>
       <c r="C39" s="65"/>
       <c r="D39" s="147" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E39" s="64"/>
       <c r="F39" s="64"/>
@@ -13525,29 +13531,29 @@
         <v>204</v>
       </c>
       <c r="K39" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L39" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M39" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N39" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O39" s="65"/>
       <c r="P39" s="65" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="132" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C40" s="65"/>
       <c r="D40" s="147" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E40" s="64"/>
       <c r="F40" s="64"/>
@@ -13558,27 +13564,27 @@
         <v>204</v>
       </c>
       <c r="K40" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L40" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M40" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N40" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O40" s="65"/>
       <c r="P40" s="65" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="132"/>
       <c r="C41" s="65"/>
       <c r="D41" s="147" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E41" s="64"/>
       <c r="F41" s="64"/>
@@ -13589,27 +13595,27 @@
         <v>204</v>
       </c>
       <c r="K41" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L41" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M41" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N41" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O41" s="65"/>
       <c r="P41" s="65" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="132"/>
       <c r="C42" s="65"/>
       <c r="D42" s="147" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E42" s="64"/>
       <c r="F42" s="64"/>
@@ -13620,27 +13626,27 @@
         <v>204</v>
       </c>
       <c r="K42" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L42" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M42" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N42" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O42" s="65"/>
       <c r="P42" s="65" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="132"/>
       <c r="C43" s="65"/>
       <c r="D43" s="147" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E43" s="64"/>
       <c r="F43" s="64"/>
@@ -13651,29 +13657,29 @@
         <v>204</v>
       </c>
       <c r="K43" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L43" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M43" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N43" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O43" s="65"/>
       <c r="P43" s="65" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="132" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C44" s="65"/>
       <c r="D44" s="147" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E44" s="64"/>
       <c r="F44" s="64"/>
@@ -13684,27 +13690,27 @@
         <v>204</v>
       </c>
       <c r="K44" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L44" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M44" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N44" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O44" s="65"/>
       <c r="P44" s="65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="132"/>
       <c r="C45" s="65"/>
       <c r="D45" s="147" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="64"/>
@@ -13715,27 +13721,27 @@
         <v>204</v>
       </c>
       <c r="K45" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L45" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M45" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N45" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O45" s="65"/>
       <c r="P45" s="65" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="132"/>
       <c r="C46" s="65"/>
       <c r="D46" s="147" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
@@ -13746,29 +13752,29 @@
         <v>204</v>
       </c>
       <c r="K46" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L46" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M46" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N46" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O46" s="65"/>
       <c r="P46" s="65" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="132" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C47" s="65"/>
       <c r="D47" s="147" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E47" s="64"/>
       <c r="F47" s="64"/>
@@ -13779,27 +13785,27 @@
         <v>204</v>
       </c>
       <c r="K47" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L47" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M47" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N47" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O47" s="65"/>
       <c r="P47" s="65" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="132"/>
       <c r="C48" s="65"/>
       <c r="D48" s="147" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E48" s="64"/>
       <c r="F48" s="64"/>
@@ -13810,27 +13816,27 @@
         <v>204</v>
       </c>
       <c r="K48" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L48" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M48" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N48" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O48" s="65"/>
       <c r="P48" s="65" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="132"/>
       <c r="C49" s="65"/>
       <c r="D49" s="147" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E49" s="64"/>
       <c r="F49" s="64"/>
@@ -13841,27 +13847,27 @@
         <v>204</v>
       </c>
       <c r="K49" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L49" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M49" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N49" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O49" s="65"/>
       <c r="P49" s="65" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="132"/>
       <c r="C50" s="65"/>
       <c r="D50" s="147" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E50" s="64"/>
       <c r="F50" s="64"/>
@@ -13872,29 +13878,29 @@
         <v>204</v>
       </c>
       <c r="K50" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L50" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M50" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N50" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O50" s="65"/>
       <c r="P50" s="65" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="132" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C51" s="65"/>
       <c r="D51" s="147" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E51" s="64"/>
       <c r="F51" s="64"/>
@@ -13905,27 +13911,27 @@
         <v>204</v>
       </c>
       <c r="K51" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L51" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M51" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N51" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O51" s="65"/>
       <c r="P51" s="65" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="132"/>
       <c r="C52" s="65"/>
       <c r="D52" s="147" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E52" s="64"/>
       <c r="F52" s="64"/>
@@ -13936,29 +13942,29 @@
         <v>204</v>
       </c>
       <c r="K52" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L52" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M52" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N52" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O52" s="65"/>
       <c r="P52" s="65" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="132" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C53" s="65"/>
       <c r="D53" s="147" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E53" s="64"/>
       <c r="F53" s="64"/>
@@ -13969,27 +13975,27 @@
         <v>204</v>
       </c>
       <c r="K53" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L53" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M53" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N53" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O53" s="65"/>
       <c r="P53" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="132"/>
       <c r="C54" s="65"/>
       <c r="D54" s="147" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E54" s="64"/>
       <c r="F54" s="64"/>
@@ -14000,27 +14006,27 @@
         <v>204</v>
       </c>
       <c r="K54" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L54" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M54" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N54" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O54" s="65"/>
       <c r="P54" s="65" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="132"/>
       <c r="C55" s="65"/>
       <c r="D55" s="147" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E55" s="64"/>
       <c r="F55" s="64"/>
@@ -14031,27 +14037,27 @@
         <v>204</v>
       </c>
       <c r="K55" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L55" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M55" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N55" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O55" s="65"/>
       <c r="P55" s="65" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="132"/>
       <c r="C56" s="65"/>
       <c r="D56" s="147" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E56" s="64"/>
       <c r="F56" s="64"/>
@@ -14062,29 +14068,29 @@
         <v>204</v>
       </c>
       <c r="K56" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L56" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M56" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N56" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O56" s="65"/>
       <c r="P56" s="65" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="132" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="147" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E57" s="64"/>
       <c r="F57" s="64"/>
@@ -14095,27 +14101,27 @@
         <v>204</v>
       </c>
       <c r="K57" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L57" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M57" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N57" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O57" s="65"/>
       <c r="P57" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="132"/>
       <c r="C58" s="65"/>
       <c r="D58" s="147" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E58" s="64"/>
       <c r="F58" s="64"/>
@@ -14126,27 +14132,27 @@
         <v>204</v>
       </c>
       <c r="K58" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L58" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M58" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N58" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O58" s="65"/>
       <c r="P58" s="65" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="132"/>
       <c r="C59" s="65"/>
       <c r="D59" s="147" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E59" s="64"/>
       <c r="F59" s="64"/>
@@ -14157,29 +14163,29 @@
         <v>204</v>
       </c>
       <c r="K59" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L59" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M59" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N59" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O59" s="65"/>
       <c r="P59" s="65" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="132" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="147" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E60" s="64"/>
       <c r="F60" s="64"/>
@@ -14190,27 +14196,27 @@
         <v>204</v>
       </c>
       <c r="K60" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L60" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M60" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N60" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O60" s="65"/>
       <c r="P60" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="132"/>
       <c r="C61" s="65"/>
       <c r="D61" s="147" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E61" s="64"/>
       <c r="F61" s="64"/>
@@ -14221,29 +14227,29 @@
         <v>204</v>
       </c>
       <c r="K61" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L61" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M61" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N61" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O61" s="65"/>
       <c r="P61" s="65" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="132" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="147" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E62" s="64"/>
       <c r="F62" s="64"/>
@@ -14254,27 +14260,27 @@
         <v>204</v>
       </c>
       <c r="K62" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L62" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M62" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N62" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O62" s="65"/>
       <c r="P62" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="132"/>
       <c r="C63" s="65"/>
       <c r="D63" s="147" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E63" s="64"/>
       <c r="F63" s="64"/>
@@ -14285,29 +14291,29 @@
         <v>204</v>
       </c>
       <c r="K63" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L63" s="64" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M63" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N63" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O63" s="65"/>
       <c r="P63" s="65" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="132" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="148" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E64" s="137"/>
       <c r="F64" s="64"/>
@@ -14318,27 +14324,27 @@
         <v>204</v>
       </c>
       <c r="K64" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L64" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M64" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N64" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O64" s="65"/>
       <c r="P64" s="65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="132"/>
       <c r="C65" s="65"/>
       <c r="D65" s="149" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E65" s="137"/>
       <c r="F65" s="64"/>
@@ -14349,29 +14355,29 @@
         <v>204</v>
       </c>
       <c r="K65" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L65" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M65" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N65" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O65" s="65"/>
       <c r="P65" s="65" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="132" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C66" s="65"/>
       <c r="D66" s="149" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E66" s="137"/>
       <c r="F66" s="64"/>
@@ -14382,27 +14388,27 @@
         <v>204</v>
       </c>
       <c r="K66" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L66" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M66" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N66" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O66" s="65"/>
       <c r="P66" s="65" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="132"/>
       <c r="C67" s="65"/>
       <c r="D67" s="149" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E67" s="137"/>
       <c r="F67" s="64"/>
@@ -14413,27 +14419,27 @@
         <v>204</v>
       </c>
       <c r="K67" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L67" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M67" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N67" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O67" s="65"/>
       <c r="P67" s="65" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="132"/>
       <c r="C68" s="65"/>
       <c r="D68" s="149" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E68" s="137"/>
       <c r="F68" s="64"/>
@@ -14444,27 +14450,27 @@
         <v>204</v>
       </c>
       <c r="K68" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M68" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N68" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O68" s="65"/>
       <c r="P68" s="65" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="132"/>
       <c r="C69" s="65"/>
       <c r="D69" s="149" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E69" s="137"/>
       <c r="F69" s="64"/>
@@ -14475,29 +14481,29 @@
         <v>204</v>
       </c>
       <c r="K69" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L69" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M69" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N69" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O69" s="65"/>
       <c r="P69" s="65" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B70" s="132" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C70" s="65"/>
       <c r="D70" s="149" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E70" s="137"/>
       <c r="F70" s="64"/>
@@ -14508,27 +14514,27 @@
         <v>204</v>
       </c>
       <c r="K70" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L70" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M70" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N70" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O70" s="65"/>
       <c r="P70" s="65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="132"/>
       <c r="C71" s="65"/>
       <c r="D71" s="149" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E71" s="137"/>
       <c r="F71" s="64"/>
@@ -14539,29 +14545,29 @@
         <v>204</v>
       </c>
       <c r="K71" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L71" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M71" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N71" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O71" s="65"/>
       <c r="P71" s="65" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="132" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C72" s="65"/>
       <c r="D72" s="149" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E72" s="137"/>
       <c r="F72" s="64"/>
@@ -14572,27 +14578,27 @@
         <v>204</v>
       </c>
       <c r="K72" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L72" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M72" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N72" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O72" s="65"/>
       <c r="P72" s="65" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="132"/>
       <c r="C73" s="65"/>
       <c r="D73" s="149" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E73" s="137"/>
       <c r="F73" s="64"/>
@@ -14603,27 +14609,27 @@
         <v>204</v>
       </c>
       <c r="K73" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L73" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M73" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N73" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O73" s="65"/>
       <c r="P73" s="65" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="132"/>
       <c r="C74" s="65"/>
       <c r="D74" s="149" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E74" s="137"/>
       <c r="F74" s="64"/>
@@ -14634,27 +14640,27 @@
         <v>204</v>
       </c>
       <c r="K74" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L74" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M74" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N74" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O74" s="65"/>
       <c r="P74" s="65" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="132"/>
       <c r="C75" s="65"/>
       <c r="D75" s="149" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E75" s="137"/>
       <c r="F75" s="64"/>
@@ -14665,27 +14671,27 @@
         <v>204</v>
       </c>
       <c r="K75" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L75" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M75" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N75" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O75" s="65"/>
       <c r="P75" s="65" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="132"/>
       <c r="C76" s="65"/>
       <c r="D76" s="149" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E76" s="137"/>
       <c r="F76" s="64"/>
@@ -14696,29 +14702,29 @@
         <v>204</v>
       </c>
       <c r="K76" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L76" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M76" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N76" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O76" s="65"/>
       <c r="P76" s="65" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="132" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C77" s="65"/>
       <c r="D77" s="149" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E77" s="137"/>
       <c r="F77" s="64"/>
@@ -14729,27 +14735,27 @@
         <v>204</v>
       </c>
       <c r="K77" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L77" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M77" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N77" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O77" s="65"/>
       <c r="P77" s="65" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="132"/>
       <c r="C78" s="65"/>
       <c r="D78" s="149" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E78" s="137"/>
       <c r="F78" s="64"/>
@@ -14760,27 +14766,27 @@
         <v>204</v>
       </c>
       <c r="K78" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L78" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M78" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N78" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O78" s="65"/>
       <c r="P78" s="65" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="132"/>
       <c r="C79" s="65"/>
       <c r="D79" s="149" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E79" s="137"/>
       <c r="F79" s="64"/>
@@ -14791,27 +14797,27 @@
         <v>204</v>
       </c>
       <c r="K79" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L79" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M79" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N79" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O79" s="65"/>
       <c r="P79" s="65" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="132"/>
       <c r="C80" s="65"/>
       <c r="D80" s="149" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E80" s="137"/>
       <c r="F80" s="64"/>
@@ -14822,27 +14828,27 @@
         <v>204</v>
       </c>
       <c r="K80" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L80" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M80" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N80" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O80" s="65"/>
       <c r="P80" s="65" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B81" s="132"/>
       <c r="C81" s="65"/>
       <c r="D81" s="149" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E81" s="137"/>
       <c r="F81" s="64"/>
@@ -14853,27 +14859,27 @@
         <v>204</v>
       </c>
       <c r="K81" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L81" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M81" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N81" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O81" s="65"/>
       <c r="P81" s="65" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="132"/>
       <c r="C82" s="65"/>
       <c r="D82" s="149" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E82" s="137"/>
       <c r="F82" s="64"/>
@@ -14884,29 +14890,29 @@
         <v>204</v>
       </c>
       <c r="K82" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L82" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M82" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N82" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O82" s="65"/>
       <c r="P82" s="65" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="132" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C83" s="65"/>
       <c r="D83" s="149" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E83" s="137"/>
       <c r="F83" s="64"/>
@@ -14917,27 +14923,27 @@
         <v>204</v>
       </c>
       <c r="K83" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L83" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M83" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N83" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O83" s="65"/>
       <c r="P83" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="132"/>
       <c r="C84" s="65"/>
       <c r="D84" s="149" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E84" s="137"/>
       <c r="F84" s="64"/>
@@ -14948,27 +14954,27 @@
         <v>204</v>
       </c>
       <c r="K84" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L84" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M84" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N84" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O84" s="65"/>
       <c r="P84" s="65" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B85" s="132"/>
       <c r="C85" s="65"/>
       <c r="D85" s="149" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E85" s="137"/>
       <c r="F85" s="64"/>
@@ -14979,27 +14985,27 @@
         <v>204</v>
       </c>
       <c r="K85" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L85" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M85" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N85" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O85" s="65"/>
       <c r="P85" s="65" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="132"/>
       <c r="C86" s="65"/>
       <c r="D86" s="149" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E86" s="137"/>
       <c r="F86" s="64"/>
@@ -15010,29 +15016,29 @@
         <v>204</v>
       </c>
       <c r="K86" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L86" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M86" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N86" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O86" s="65"/>
       <c r="P86" s="65" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="132" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C87" s="65"/>
       <c r="D87" s="149" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E87" s="137"/>
       <c r="F87" s="64"/>
@@ -15043,27 +15049,27 @@
         <v>204</v>
       </c>
       <c r="K87" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L87" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M87" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N87" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O87" s="65"/>
       <c r="P87" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="132"/>
       <c r="C88" s="65"/>
       <c r="D88" s="149" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E88" s="137"/>
       <c r="F88" s="64"/>
@@ -15074,29 +15080,29 @@
         <v>204</v>
       </c>
       <c r="K88" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L88" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M88" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N88" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O88" s="65"/>
       <c r="P88" s="65" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="132" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C89" s="65"/>
       <c r="D89" s="149" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E89" s="137"/>
       <c r="F89" s="64"/>
@@ -15107,27 +15113,27 @@
         <v>204</v>
       </c>
       <c r="K89" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L89" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M89" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N89" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O89" s="65"/>
       <c r="P89" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="132"/>
       <c r="C90" s="65"/>
       <c r="D90" s="149" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E90" s="137"/>
       <c r="F90" s="64"/>
@@ -15138,27 +15144,27 @@
         <v>204</v>
       </c>
       <c r="K90" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L90" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M90" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N90" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O90" s="65"/>
       <c r="P90" s="65" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="132"/>
       <c r="C91" s="65"/>
       <c r="D91" s="149" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E91" s="137"/>
       <c r="F91" s="64"/>
@@ -15169,29 +15175,29 @@
         <v>204</v>
       </c>
       <c r="K91" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L91" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M91" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N91" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O91" s="65"/>
       <c r="P91" s="65" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="132" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C92" s="65"/>
       <c r="D92" s="149" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="E92" s="137"/>
       <c r="F92" s="64"/>
@@ -15202,27 +15208,27 @@
         <v>204</v>
       </c>
       <c r="K92" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L92" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M92" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N92" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O92" s="65"/>
       <c r="P92" s="65" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="132"/>
       <c r="C93" s="65"/>
       <c r="D93" s="149" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E93" s="137"/>
       <c r="F93" s="64"/>
@@ -15233,27 +15239,27 @@
         <v>204</v>
       </c>
       <c r="K93" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L93" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M93" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N93" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O93" s="65"/>
       <c r="P93" s="65" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="132"/>
       <c r="C94" s="65"/>
       <c r="D94" s="149" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E94" s="137"/>
       <c r="F94" s="64"/>
@@ -15264,27 +15270,27 @@
         <v>204</v>
       </c>
       <c r="K94" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L94" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M94" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N94" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O94" s="65"/>
       <c r="P94" s="65" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="132"/>
       <c r="C95" s="65"/>
       <c r="D95" s="149" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E95" s="137"/>
       <c r="F95" s="64"/>
@@ -15295,27 +15301,27 @@
         <v>204</v>
       </c>
       <c r="K95" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L95" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M95" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N95" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O95" s="65"/>
       <c r="P95" s="65" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="132"/>
       <c r="C96" s="65"/>
       <c r="D96" s="149" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E96" s="137"/>
       <c r="F96" s="64"/>
@@ -15326,27 +15332,27 @@
         <v>204</v>
       </c>
       <c r="K96" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L96" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M96" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N96" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O96" s="65"/>
       <c r="P96" s="65" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="132"/>
       <c r="C97" s="65"/>
       <c r="D97" s="150" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E97" s="137"/>
       <c r="F97" s="64"/>
@@ -15357,29 +15363,29 @@
         <v>204</v>
       </c>
       <c r="K97" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L97" s="64" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M97" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N97" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O97" s="65"/>
       <c r="P97" s="65" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="132" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C98" s="65"/>
       <c r="D98" s="147" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="E98" s="64"/>
       <c r="F98" s="64"/>
@@ -15390,27 +15396,27 @@
         <v>204</v>
       </c>
       <c r="K98" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L98" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M98" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N98" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O98" s="65"/>
       <c r="P98" s="65" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="132"/>
       <c r="C99" s="65"/>
       <c r="D99" s="147" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E99" s="64"/>
       <c r="F99" s="64"/>
@@ -15421,27 +15427,27 @@
         <v>204</v>
       </c>
       <c r="K99" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L99" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M99" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N99" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O99" s="65"/>
       <c r="P99" s="65" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="132"/>
       <c r="C100" s="65"/>
       <c r="D100" s="147" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E100" s="64"/>
       <c r="F100" s="64"/>
@@ -15452,29 +15458,29 @@
         <v>204</v>
       </c>
       <c r="K100" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L100" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M100" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N100" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O100" s="65"/>
       <c r="P100" s="65" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="132" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C101" s="65"/>
       <c r="D101" s="147" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="E101" s="64"/>
       <c r="F101" s="64"/>
@@ -15485,27 +15491,27 @@
         <v>204</v>
       </c>
       <c r="K101" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L101" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M101" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N101" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O101" s="65"/>
       <c r="P101" s="65" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="132"/>
       <c r="C102" s="65"/>
       <c r="D102" s="147" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E102" s="64"/>
       <c r="F102" s="64"/>
@@ -15516,27 +15522,27 @@
         <v>204</v>
       </c>
       <c r="K102" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L102" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M102" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N102" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O102" s="65"/>
       <c r="P102" s="65" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="132"/>
       <c r="C103" s="65"/>
       <c r="D103" s="147" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E103" s="64"/>
       <c r="F103" s="64"/>
@@ -15547,29 +15553,29 @@
         <v>204</v>
       </c>
       <c r="K103" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L103" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M103" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N103" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O103" s="65"/>
       <c r="P103" s="65" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="132" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C104" s="65"/>
       <c r="D104" s="147" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E104" s="64"/>
       <c r="F104" s="64"/>
@@ -15580,27 +15586,27 @@
         <v>204</v>
       </c>
       <c r="K104" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L104" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M104" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N104" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O104" s="65"/>
       <c r="P104" s="65" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="132"/>
       <c r="C105" s="65"/>
       <c r="D105" s="147" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E105" s="64"/>
       <c r="F105" s="64"/>
@@ -15611,27 +15617,27 @@
         <v>204</v>
       </c>
       <c r="K105" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L105" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M105" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N105" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O105" s="65"/>
       <c r="P105" s="65" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="132"/>
       <c r="C106" s="65"/>
       <c r="D106" s="147" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="E106" s="64"/>
       <c r="F106" s="64"/>
@@ -15642,27 +15648,27 @@
         <v>204</v>
       </c>
       <c r="K106" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L106" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M106" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N106" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O106" s="65"/>
       <c r="P106" s="65" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="132"/>
       <c r="C107" s="65"/>
       <c r="D107" s="147" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E107" s="64"/>
       <c r="F107" s="64"/>
@@ -15673,29 +15679,29 @@
         <v>204</v>
       </c>
       <c r="K107" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L107" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M107" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N107" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O107" s="65"/>
       <c r="P107" s="65" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="132" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C108" s="65"/>
       <c r="D108" s="147" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E108" s="64"/>
       <c r="F108" s="64"/>
@@ -15706,27 +15712,27 @@
         <v>204</v>
       </c>
       <c r="K108" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L108" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M108" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N108" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O108" s="65"/>
       <c r="P108" s="65" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="132"/>
       <c r="C109" s="65"/>
       <c r="D109" s="147" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E109" s="64"/>
       <c r="F109" s="64"/>
@@ -15737,27 +15743,27 @@
         <v>204</v>
       </c>
       <c r="K109" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L109" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M109" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N109" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O109" s="65"/>
       <c r="P109" s="65" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="132"/>
       <c r="C110" s="65"/>
       <c r="D110" s="147" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E110" s="64"/>
       <c r="F110" s="64"/>
@@ -15768,29 +15774,29 @@
         <v>204</v>
       </c>
       <c r="K110" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L110" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M110" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N110" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O110" s="65"/>
       <c r="P110" s="65" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="132" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C111" s="65"/>
       <c r="D111" s="147" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E111" s="64"/>
       <c r="F111" s="64"/>
@@ -15801,27 +15807,27 @@
         <v>204</v>
       </c>
       <c r="K111" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L111" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M111" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N111" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O111" s="65"/>
       <c r="P111" s="65" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="132"/>
       <c r="C112" s="65"/>
       <c r="D112" s="147" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="E112" s="64"/>
       <c r="F112" s="64"/>
@@ -15832,27 +15838,27 @@
         <v>204</v>
       </c>
       <c r="K112" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L112" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M112" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N112" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O112" s="65"/>
       <c r="P112" s="65" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="132"/>
       <c r="C113" s="65"/>
       <c r="D113" s="147" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E113" s="64"/>
       <c r="F113" s="64"/>
@@ -15863,27 +15869,27 @@
         <v>204</v>
       </c>
       <c r="K113" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L113" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M113" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N113" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O113" s="65"/>
       <c r="P113" s="65" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="132"/>
       <c r="C114" s="65"/>
       <c r="D114" s="147" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E114" s="64"/>
       <c r="F114" s="64"/>
@@ -15894,29 +15900,29 @@
         <v>204</v>
       </c>
       <c r="K114" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L114" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M114" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N114" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O114" s="65"/>
       <c r="P114" s="65" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="132" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C115" s="65"/>
       <c r="D115" s="147" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E115" s="64"/>
       <c r="F115" s="64"/>
@@ -15927,27 +15933,27 @@
         <v>204</v>
       </c>
       <c r="K115" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L115" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M115" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N115" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O115" s="65"/>
       <c r="P115" s="65" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="132"/>
       <c r="C116" s="65"/>
       <c r="D116" s="147" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E116" s="64"/>
       <c r="F116" s="64"/>
@@ -15958,27 +15964,27 @@
         <v>204</v>
       </c>
       <c r="K116" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L116" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M116" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N116" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O116" s="65"/>
       <c r="P116" s="65" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="132"/>
       <c r="C117" s="65"/>
       <c r="D117" s="147" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E117" s="64"/>
       <c r="F117" s="64"/>
@@ -15989,27 +15995,27 @@
         <v>204</v>
       </c>
       <c r="K117" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L117" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M117" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N117" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O117" s="65"/>
       <c r="P117" s="65" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="132"/>
       <c r="C118" s="65"/>
       <c r="D118" s="147" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E118" s="64"/>
       <c r="F118" s="64"/>
@@ -16020,29 +16026,29 @@
         <v>204</v>
       </c>
       <c r="K118" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L118" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M118" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N118" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O118" s="65"/>
       <c r="P118" s="65" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="132" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C119" s="65"/>
       <c r="D119" s="147" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E119" s="64"/>
       <c r="F119" s="64"/>
@@ -16053,27 +16059,27 @@
         <v>204</v>
       </c>
       <c r="K119" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L119" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M119" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N119" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O119" s="65"/>
       <c r="P119" s="65" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="132"/>
       <c r="C120" s="65"/>
       <c r="D120" s="147" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="E120" s="64"/>
       <c r="F120" s="64"/>
@@ -16084,29 +16090,29 @@
         <v>204</v>
       </c>
       <c r="K120" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L120" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M120" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N120" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O120" s="65"/>
       <c r="P120" s="65" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="132" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C121" s="65"/>
       <c r="D121" s="147" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="E121" s="64"/>
       <c r="F121" s="64"/>
@@ -16117,27 +16123,27 @@
         <v>204</v>
       </c>
       <c r="K121" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L121" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M121" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N121" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O121" s="65"/>
       <c r="P121" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="132"/>
       <c r="C122" s="65"/>
       <c r="D122" s="147" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E122" s="64"/>
       <c r="F122" s="64"/>
@@ -16148,29 +16154,29 @@
         <v>204</v>
       </c>
       <c r="K122" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L122" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M122" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N122" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O122" s="65"/>
       <c r="P122" s="65" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="132" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C123" s="65"/>
       <c r="D123" s="147" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E123" s="64"/>
       <c r="F123" s="64"/>
@@ -16181,27 +16187,27 @@
       </c>
       <c r="J123" s="65"/>
       <c r="K123" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L123" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M123" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N123" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O123" s="65"/>
       <c r="P123" s="65" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="132"/>
       <c r="C124" s="65"/>
       <c r="D124" s="147" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="E124" s="64"/>
       <c r="F124" s="64"/>
@@ -16212,20 +16218,20 @@
       </c>
       <c r="J124" s="65"/>
       <c r="K124" s="64" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L124" s="64" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="M124" s="64" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N124" s="64" t="s">
         <v>220</v>
       </c>
       <c r="O124" s="65"/>
       <c r="P124" s="65" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="125" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -16446,8 +16452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -16456,7 +16462,8 @@
     <col min="2" max="2" width="9.28515625" style="32" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" style="32" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="32" customWidth="1"/>
-    <col min="5" max="9" width="2" style="32" customWidth="1"/>
+    <col min="5" max="8" width="2" style="32" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="32" customWidth="1"/>
     <col min="10" max="10" width="3.85546875" style="32" customWidth="1"/>
     <col min="11" max="11" width="7.28515625" style="32" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" style="32" customWidth="1"/>
@@ -16468,7 +16475,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>409</v>
@@ -16568,10 +16575,10 @@
         <v>285</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D5" s="129" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
@@ -16589,18 +16596,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O5" s="59"/>
       <c r="P5" s="56" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="133"/>
       <c r="C6" s="65"/>
       <c r="D6" s="130" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E6" s="64"/>
       <c r="F6" s="64"/>
@@ -16618,11 +16625,11 @@
         <v>207</v>
       </c>
       <c r="N6" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O6" s="65"/>
       <c r="P6" s="62" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -16630,10 +16637,10 @@
         <v>292</v>
       </c>
       <c r="C7" s="100" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D7" s="130" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E7" s="64"/>
       <c r="F7" s="64"/>
@@ -16651,11 +16658,11 @@
         <v>207</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O7" s="65"/>
       <c r="P7" s="62" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -16664,7 +16671,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="130" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E8" s="64"/>
       <c r="F8" s="64"/>
@@ -16678,24 +16685,24 @@
         <v>287</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O8" s="65"/>
       <c r="P8" s="62" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="133"/>
       <c r="C9" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D9" s="130" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E9" s="64"/>
       <c r="F9" s="64"/>
@@ -16709,26 +16716,26 @@
         <v>287</v>
       </c>
       <c r="L9" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O9" s="65"/>
       <c r="P9" s="62" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="127" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="C10" s="100" t="s">
-        <v>420</v>
-      </c>
       <c r="D10" s="130" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E10" s="64"/>
       <c r="F10" s="64"/>
@@ -16742,26 +16749,26 @@
         <v>287</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O10" s="65"/>
       <c r="P10" s="62" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="127" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C11" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D11" s="130" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E11" s="64"/>
       <c r="F11" s="64"/>
@@ -16775,26 +16782,26 @@
         <v>287</v>
       </c>
       <c r="L11" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O11" s="65"/>
       <c r="P11" s="62" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="127" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C12" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D12" s="130" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -16808,13 +16815,13 @@
         <v>287</v>
       </c>
       <c r="L12" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M12" s="64"/>
       <c r="N12" s="64"/>
       <c r="O12" s="65"/>
       <c r="P12" s="62" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -16823,7 +16830,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="130" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>200</v>
@@ -16841,24 +16848,24 @@
         <v>207</v>
       </c>
       <c r="N13" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O13" s="65" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P13" s="62" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C14" s="100">
         <v>2</v>
       </c>
       <c r="D14" s="130" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -16872,24 +16879,24 @@
         <v>287</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M14" s="64"/>
       <c r="N14" s="64" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O14" s="65"/>
       <c r="P14" s="62" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="133"/>
       <c r="C15" s="100" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D15" s="130" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -16907,16 +16914,16 @@
       <c r="N15" s="64"/>
       <c r="O15" s="65"/>
       <c r="P15" s="62" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="133"/>
       <c r="C16" s="100" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D16" s="130" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -16934,18 +16941,18 @@
       <c r="N16" s="64"/>
       <c r="O16" s="65"/>
       <c r="P16" s="62" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="127" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D17" s="130" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -16959,34 +16966,32 @@
         <v>287</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M17" s="64"/>
       <c r="N17" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O17" s="65"/>
       <c r="P17" s="62" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="127" t="s">
-        <v>441</v>
-      </c>
-      <c r="C18" s="100" t="s">
-        <v>420</v>
-      </c>
-      <c r="D18" s="130" t="s">
-        <v>505</v>
+        <v>439</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="134" t="s">
+        <v>707</v>
       </c>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
+      <c r="G18" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="H18" s="64"/>
-      <c r="I18" s="64" t="s">
-        <v>282</v>
-      </c>
+      <c r="I18" s="64"/>
       <c r="J18" s="65"/>
       <c r="K18" s="64" t="s">
         <v>205</v>
@@ -16996,20 +17001,18 @@
         <v>207</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O18" s="65"/>
       <c r="P18" s="62" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="127"/>
-      <c r="C19" s="100">
-        <v>1</v>
-      </c>
-      <c r="D19" s="130" t="s">
-        <v>507</v>
+      <c r="C19" s="100"/>
+      <c r="D19" s="134" t="s">
+        <v>504</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -17027,22 +17030,22 @@
         <v>207</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="62" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="127" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C20" s="100">
         <v>1</v>
       </c>
       <c r="D20" s="130" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -17060,22 +17063,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O20" s="65"/>
       <c r="P20" s="62" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="127" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D21" s="130" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -17093,22 +17096,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O21" s="65"/>
       <c r="P21" s="62" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="127" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D22" s="130" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -17126,22 +17129,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="62" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="127" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C23" s="100">
         <v>2</v>
       </c>
       <c r="D23" s="130" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>200</v>
@@ -17159,20 +17162,20 @@
         <v>207</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O23" s="65"/>
       <c r="P23" s="62" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="133"/>
       <c r="C24" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D24" s="130" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -17190,20 +17193,20 @@
         <v>207</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O24" s="65"/>
       <c r="P24" s="62" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="133"/>
       <c r="C25" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D25" s="130" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -17221,22 +17224,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O25" s="65"/>
       <c r="P25" s="62" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="133" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C26" s="100">
         <v>1</v>
       </c>
       <c r="D26" s="130" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -17254,22 +17257,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O26" s="65"/>
       <c r="P26" s="62" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="133" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D27" s="130" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="64"/>
@@ -17289,16 +17292,16 @@
       <c r="N27" s="64"/>
       <c r="O27" s="65"/>
       <c r="P27" s="62" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="133" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C28" s="65"/>
       <c r="D28" s="130" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E28" s="64"/>
       <c r="F28" s="64"/>
@@ -17311,21 +17314,23 @@
       <c r="K28" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="L28" s="64"/>
+      <c r="L28" s="64" t="s">
+        <v>416</v>
+      </c>
       <c r="M28" s="64"/>
       <c r="N28" s="64"/>
       <c r="O28" s="65"/>
       <c r="P28" s="62" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="133" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C29" s="65"/>
-      <c r="D29" s="130" t="s">
-        <v>534</v>
+      <c r="D29" s="134" t="s">
+        <v>531</v>
       </c>
       <c r="E29" s="64"/>
       <c r="F29" s="64"/>
@@ -17338,21 +17343,23 @@
       <c r="K29" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="L29" s="64"/>
+      <c r="L29" s="64" t="s">
+        <v>416</v>
+      </c>
       <c r="M29" s="64"/>
       <c r="N29" s="64"/>
       <c r="O29" s="65"/>
       <c r="P29" s="62" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="133" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C30" s="65"/>
       <c r="D30" s="130" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E30" s="64" t="s">
         <v>200</v>
@@ -17370,45 +17377,45 @@
       <c r="N30" s="64"/>
       <c r="O30" s="65"/>
       <c r="P30" s="62" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="133" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C31" s="65"/>
-      <c r="D31" s="130" t="s">
-        <v>540</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>200</v>
-      </c>
+      <c r="D31" s="134" t="s">
+        <v>709</v>
+      </c>
+      <c r="E31" s="64"/>
       <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
+      <c r="G31" s="64" t="s">
+        <v>202</v>
+      </c>
       <c r="H31" s="64"/>
       <c r="I31" s="64"/>
       <c r="J31" s="78"/>
       <c r="K31" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="L31" s="64"/>
+      <c r="L31" s="64" t="s">
+        <v>416</v>
+      </c>
       <c r="M31" s="64"/>
       <c r="N31" s="64"/>
-      <c r="O31" s="65" t="s">
-        <v>493</v>
-      </c>
+      <c r="O31" s="65"/>
       <c r="P31" s="62" t="s">
-        <v>541</v>
+        <v>708</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="133" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="130" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E32" s="64" t="s">
         <v>200</v>
@@ -17425,19 +17432,19 @@
       <c r="M32" s="64"/>
       <c r="N32" s="64"/>
       <c r="O32" s="65" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="P32" s="62" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="133" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C33" s="65"/>
-      <c r="D33" s="130" t="s">
-        <v>546</v>
+      <c r="D33" s="134" t="s">
+        <v>541</v>
       </c>
       <c r="E33" s="64"/>
       <c r="F33" s="64"/>
@@ -17450,12 +17457,14 @@
       <c r="K33" s="64" t="s">
         <v>287</v>
       </c>
-      <c r="L33" s="64"/>
+      <c r="L33" s="64" t="s">
+        <v>416</v>
+      </c>
       <c r="M33" s="64"/>
       <c r="N33" s="64"/>
       <c r="O33" s="65"/>
       <c r="P33" s="62" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17584,19 +17593,19 @@
       </c>
       <c r="D41" s="91"/>
       <c r="E41" s="92">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F41" s="92">
         <v>0</v>
       </c>
       <c r="G41" s="92">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H41" s="92">
         <v>7</v>
       </c>
       <c r="I41" s="92">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" s="92">
         <v>0</v>
@@ -17647,6 +17656,13 @@
       <c r="P43" s="90"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1" location="'Metadatos H'!B9"/>
+    <hyperlink ref="D29" r:id="rId2" location="'Metadatos H'!B10"/>
+    <hyperlink ref="D18" r:id="rId3" location="'Metadatos H'!B11"/>
+    <hyperlink ref="D19" r:id="rId4" location="'Metadatos H'!B12"/>
+    <hyperlink ref="D31" r:id="rId5" location="'Metadatos H'!B13" display="M-007"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="617" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="617"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -3634,6 +3634,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3868,6 +3869,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3916,7 +3918,7 @@
         <xdr:cNvPr id="2" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4236,7 +4238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -12325,7 +12327,7 @@
   <dimension ref="A1:AMK128"/>
   <sheetViews>
     <sheetView topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -16175,7 +16177,7 @@
         <v>469</v>
       </c>
       <c r="C123" s="65"/>
-      <c r="D123" s="147" t="s">
+      <c r="D123" s="8" t="s">
         <v>703</v>
       </c>
       <c r="E123" s="64"/>
@@ -16206,7 +16208,7 @@
     <row r="124" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="132"/>
       <c r="C124" s="65"/>
-      <c r="D124" s="147" t="s">
+      <c r="D124" s="8" t="s">
         <v>704</v>
       </c>
       <c r="E124" s="64"/>
@@ -16440,11 +16442,9 @@
     <hyperlink ref="D120" r:id="rId116" location="'Metadatos V'!B119"/>
     <hyperlink ref="D121" r:id="rId117" location="'Metadatos V'!B120"/>
     <hyperlink ref="D122" r:id="rId118" location="'Metadatos V'!B121"/>
-    <hyperlink ref="D123" r:id="rId119" location="'Metadatos V'!B122"/>
-    <hyperlink ref="D124" r:id="rId120" location="'Metadatos V'!B123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId119"/>
 </worksheet>
 </file>
 
@@ -16452,7 +16452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="862">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1678,177 +1678,93 @@
     <t>Indeterminado</t>
   </si>
   <si>
-    <t>Voz de seleccion</t>
-  </si>
-  <si>
     <t>V-115</t>
   </si>
   <si>
-    <t>Voz de selección (INGLÉS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-120 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-121 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 1.1</t>
-  </si>
-  <si>
     <t>V-122</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 1.2</t>
-  </si>
-  <si>
     <t>V-125</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 1 (INGLÉS)</t>
-  </si>
-  <si>
     <t>V-126</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 1.1 (INGLÉS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-130 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-131 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-135 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 2 (INGLÉS)</t>
-  </si>
-  <si>
     <t>V-136</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido bien 2.1 (INGLÉS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-140 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-141 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 1.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-145 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 1 (INGLÉS)</t>
-  </si>
-  <si>
     <t>V-146</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 1.1 (INGLÉS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-150 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-151 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 2.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-155 </t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 2 (INGLÉS)</t>
-  </si>
-  <si>
     <t>V-156</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 2.1 (INGLÉS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-160 </t>
   </si>
   <si>
-    <t>Voz emitida cuando haya un choque</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-161 </t>
   </si>
   <si>
-    <t>Voz emitida cuando haya un choque 1</t>
-  </si>
-  <si>
     <t>V-165</t>
   </si>
   <si>
-    <t>Voz emitida cuando haya un choque (INGLÉS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-170 </t>
   </si>
   <si>
-    <t>Victoria</t>
-  </si>
-  <si>
     <t>V-175</t>
   </si>
   <si>
-    <t>Victoria (INGLÉS)</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
     <t xml:space="preserve">V-180 </t>
   </si>
   <si>
-    <t>Derrota</t>
-  </si>
-  <si>
     <t>V-185</t>
   </si>
   <si>
-    <t>Derrota (INGLÉS)</t>
-  </si>
-  <si>
     <t>1.9</t>
   </si>
   <si>
     <t xml:space="preserve">V-190 </t>
   </si>
   <si>
-    <t>Acelerón</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-191 </t>
   </si>
   <si>
-    <t>Acelerón 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">V-192 </t>
   </si>
   <si>
@@ -1864,15 +1780,9 @@
     <t xml:space="preserve">V-196 </t>
   </si>
   <si>
-    <t>Acelerón 1 (INGLÉS)</t>
-  </si>
-  <si>
     <t>V-197</t>
   </si>
   <si>
-    <t>Acelerón 2 (INGLÉS)</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -1885,9 +1795,6 @@
     <t>V-211</t>
   </si>
   <si>
-    <t>Voz de selección 1</t>
-  </si>
-  <si>
     <t>V-215</t>
   </si>
   <si>
@@ -1957,9 +1864,6 @@
     <t>V-266</t>
   </si>
   <si>
-    <t>Voz emitida cuando haya un choque 1 (INGLÉS)</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
@@ -1969,9 +1873,6 @@
     <t>V-271</t>
   </si>
   <si>
-    <t>Victoria 1</t>
-  </si>
-  <si>
     <t>V-275</t>
   </si>
   <si>
@@ -2041,9 +1942,6 @@
     <t>V-342</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 1.2</t>
-  </si>
-  <si>
     <t>V-345</t>
   </si>
   <si>
@@ -2062,9 +1960,6 @@
     <t>V-352</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 2.2</t>
-  </si>
-  <si>
     <t>V-355</t>
   </si>
   <si>
@@ -2074,9 +1969,6 @@
     <t>V-357</t>
   </si>
   <si>
-    <t>Voz de que algo ha salido mal 2.2 (INGLÉS)</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
@@ -2110,9 +2002,6 @@
     <t>V-381</t>
   </si>
   <si>
-    <t>Derrota 1</t>
-  </si>
-  <si>
     <t>V-385</t>
   </si>
   <si>
@@ -2146,9 +2035,6 @@
     <t>Cyborg</t>
   </si>
   <si>
-    <t xml:space="preserve">Voz de selección </t>
-  </si>
-  <si>
     <t>V-411</t>
   </si>
   <si>
@@ -2519,6 +2405,339 @@
   </si>
   <si>
     <t>M-010</t>
+  </si>
+  <si>
+    <t>Voz de selección / "Mis pedos apestan a anarquia"</t>
+  </si>
+  <si>
+    <t>Voz de selección (INGLÉS) / "My farts smells like anarchy"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 / "Atino que alucino"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 / "Me cago en tu cara"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.2 / "Si"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 (INGLÉS) / "Bite the dust"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 (INGLÉS) / "Yes"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 / "Yupii"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1 / "Ahá"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 (INGLÉS) / "Yeeees"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1 (INGLÉS) / "Ahá"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 / "Que te rajo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.1 / "Noo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 (INGLÉS) / "Piss off, wanker"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.1 (INGLÉS) / "Noo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 / "Ahh"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1 / "Ehh"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 (INGLÉS) / "Fuck"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1 (INGLÉS) / "Ahh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque / "Ahh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 / "Hostia la oveja"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque (INGLÉS) / "Shit"</t>
+  </si>
+  <si>
+    <t>Victoria (INGLÉS) / "Punks not dead, bitch!"</t>
+  </si>
+  <si>
+    <t>Derrota / "Debí haberos pinchado las ruedas"</t>
+  </si>
+  <si>
+    <t>Derrota (INGLÉS) / "Next time I will shit on your face"</t>
+  </si>
+  <si>
+    <t>Acelerón / "Speed"</t>
+  </si>
+  <si>
+    <t>Acelerón 1 / "Speeeeeed"</t>
+  </si>
+  <si>
+    <t>Acelerón 2 / "Speeeeeeeeeeeed"</t>
+  </si>
+  <si>
+    <t>Acelerón (INGLÉS) / "Speed"</t>
+  </si>
+  <si>
+    <t>Acelerón 1 (INGLÉS) / "Speeeeeed"</t>
+  </si>
+  <si>
+    <t>Acelerón 2 (INGLÉS) / "Speeeeeeeeeeeed"</t>
+  </si>
+  <si>
+    <t>Voz de selección / "Espero no helarte la sangre"</t>
+  </si>
+  <si>
+    <t>Voz de selección 1 / "Mi cola es mas heavy que una lluvia de hachas"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 / "Hasta luego cocodrilo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 / "Sii"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 (INGLÉS) / "See you later, alligator"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 (INGLÉS) / "Yees"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 / "Patético"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 (INGLÉS) / "Goodbye cocodrile"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1 (INGLÉS) / "Pathetic"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 / "Ñam"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 (INGLÉS) / "I will eat you"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 / "Gruñido de cocodrilo (efecto de sonido)"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 (INGLÉS) / "Gruñido de cocodrilo (efecto de sonido)"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque / "Agh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 / "Argh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque (INGLÉS) / "Agh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 (INGLÉS) / "Argh"</t>
+  </si>
+  <si>
+    <t>Victoria / "Os habeis perdido con mis curvas?"</t>
+  </si>
+  <si>
+    <t>Victoria / "El punk no ha muerto! jajajaj"</t>
+  </si>
+  <si>
+    <t>Victoria (INGLÉS) / "Easy peasy Leamon Squeezy"</t>
+  </si>
+  <si>
+    <t>Derrota / "Tu cara va a tener una charla con mis puños"</t>
+  </si>
+  <si>
+    <t>Derrota (INGLÉS) / "Your face is gonna have a sweet talk with my knuckles"</t>
+  </si>
+  <si>
+    <t>Acelerón / "Rugido (efecto sonido)"</t>
+  </si>
+  <si>
+    <t>Acelerón (INGLÉS) / "Rugido (efecto sonido)"</t>
+  </si>
+  <si>
+    <t>Voz de selección / “Sala-gadoola-menchicka-boo-la bibbidi-bobbidi-boo”</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 / "Ahhjajaja"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 / "Siii"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 (INGLÉS) / "Ahhjajaja"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 (INGLÉS) / "Yeees"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 / "Maravilloso"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 (INGLÉS) / "I put a spell on you"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 / "Arderás"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.1 / "Mardisión hitana pa ti"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.2 / "Noo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 (INGLÉS) / "Go to hell"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 / "Malditoo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.2 / "Ehh"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 (INGLÉS) / "You will burn"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1 (INGLÉS) / "Aghhh"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.2 (INGLÉS) / "Ohh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 / "Ahh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque (INGLÉS) / "Ahh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 (INGLÉS) / "Ahh"</t>
+  </si>
+  <si>
+    <t>Victoria / "Ahora pudrios en el infierno muajajaj"</t>
+  </si>
+  <si>
+    <t>Victoria (INGLÉS) / "And now your souls will burn in hell!"</t>
+  </si>
+  <si>
+    <t>Derrota / "In Nomine Dei Nostri Satanas, Luciferi Excelsi (cada vez más amenazante)"</t>
+  </si>
+  <si>
+    <t>Derrota 1 / "Nos vemos en el infierno"</t>
+  </si>
+  <si>
+    <t>Derrota (INGLÉS) / "In Nomine Dei Nostri Satanas, Luciferi Excelsi (cada vez más amenazante)"</t>
+  </si>
+  <si>
+    <t>Acelerón / "Wiiii"</t>
+  </si>
+  <si>
+    <t>Acelerón 1 / "Yujuuu"</t>
+  </si>
+  <si>
+    <t>Acelerón 2 / "Yujuuu"</t>
+  </si>
+  <si>
+    <t>Acelerón (INGLÉS) / "Wiii"</t>
+  </si>
+  <si>
+    <t>Acelerón 1 (INGLÉS) / "Yujuuu"</t>
+  </si>
+  <si>
+    <t>Acelerón 2 (INGLÉS) / "Yujuuu"</t>
+  </si>
+  <si>
+    <t>Voz de selección / "No hay ninguna ley que me impida ganar, humano"</t>
+  </si>
+  <si>
+    <t>Voz de selección 1 / "¿Sueñan los humanos con ovejas eléctricas?"</t>
+  </si>
+  <si>
+    <t>Victoria 1 / "Que pasa, ¿os han deslumbrado mis escamas? jajajaj"</t>
+  </si>
+  <si>
+    <t>Voz de selección (INGLÉS) / "¿Got a toothpick? I have got some loser between my teeth"</t>
+  </si>
+  <si>
+    <t>Voz de selección (INGLÉS) / ¿Do you think we dream of electric sheeps?</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 / "Estaba calculado"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1 (INGLÉS) / "jejejej Numbers don´t lie"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 1.1 (INGLÉS) / "Calculated"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 / "Estás obsoleto"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1 / "Sii"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2 (INGLÉS) / "Failure avoided"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido bien 2.1 (INGLÉS) / "Yees"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 / "Ahhh"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1.1 / "Maldita chatarra"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 1 (INGLÉS) / "Ahh"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 / "Error fatal"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1 / "Noo"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2 (INGLÉS) / "Fatal error"</t>
+  </si>
+  <si>
+    <t>Voz de que algo ha salido mal 2.1 (INGLÉS) / "Noo"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque / "Aghh"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 / "Gruñido robótico (efecto sonido)"</t>
+  </si>
+  <si>
+    <t>Voz emitida cuando haya un choque 1 (INGLÉS) / "Gruñido robótico (efecto sonido)"</t>
+  </si>
+  <si>
+    <t>Victoria / "La base de datos de perdedores ha sido actualizada"</t>
+  </si>
+  <si>
+    <t>Victoria (INGLÉS) / "Losers database has been updated"</t>
+  </si>
+  <si>
+    <t>Derrota / "Gameee Oveer"</t>
+  </si>
+  <si>
+    <t>Derrota (INGLÉS) / "Gameee Oveer"</t>
   </si>
 </sst>
 </file>
@@ -3948,21 +4167,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4063,6 +4267,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4183,7 +4402,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4394,7 +4612,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5046,7 +5263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5068,7 +5285,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -5146,7 +5363,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -5164,14 +5381,14 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="174" t="s">
+      <c r="C5" s="169" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="182" t="s">
-        <v>782</v>
+      <c r="D5" s="177" t="s">
+        <v>744</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -5188,10 +5405,10 @@
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
-        <v>783</v>
+        <v>745</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>784</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5201,8 +5418,8 @@
       <c r="C6" s="100" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="180" t="s">
-        <v>786</v>
+      <c r="D6" s="175" t="s">
+        <v>748</v>
       </c>
       <c r="E6" s="141" t="s">
         <v>200</v>
@@ -5212,17 +5429,17 @@
       <c r="H6" s="131"/>
       <c r="I6" s="131"/>
       <c r="J6" s="131"/>
-      <c r="K6" s="183" t="s">
+      <c r="K6" s="178" t="s">
         <v>289</v>
       </c>
       <c r="L6" s="141"/>
       <c r="M6" s="141"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141" t="s">
-        <v>783</v>
-      </c>
-      <c r="P6" s="184" t="s">
-        <v>785</v>
+        <v>745</v>
+      </c>
+      <c r="P6" s="179" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5232,8 +5449,8 @@
       <c r="C7" s="142" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="181" t="s">
-        <v>788</v>
+      <c r="D7" s="176" t="s">
+        <v>750</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>200</v>
@@ -5243,17 +5460,17 @@
       <c r="H7" s="131"/>
       <c r="I7" s="131"/>
       <c r="J7" s="131"/>
-      <c r="K7" s="183" t="s">
+      <c r="K7" s="178" t="s">
         <v>289</v>
       </c>
       <c r="L7" s="141"/>
       <c r="M7" s="141"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141" t="s">
-        <v>783</v>
-      </c>
-      <c r="P7" s="184" t="s">
-        <v>787</v>
+        <v>745</v>
+      </c>
+      <c r="P7" s="179" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,7 +5487,7 @@
       <c r="L8" s="111"/>
       <c r="M8" s="102"/>
       <c r="N8" s="102"/>
-      <c r="O8" s="185"/>
+      <c r="O8" s="180"/>
       <c r="P8" s="113"/>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5287,7 +5504,7 @@
       <c r="L9" s="111"/>
       <c r="M9" s="102"/>
       <c r="N9" s="102"/>
-      <c r="O9" s="186"/>
+      <c r="O9" s="181"/>
       <c r="P9" s="113"/>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5304,7 +5521,7 @@
       <c r="L10" s="111"/>
       <c r="M10" s="102"/>
       <c r="N10" s="102"/>
-      <c r="O10" s="186"/>
+      <c r="O10" s="181"/>
       <c r="P10" s="113"/>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5321,7 +5538,7 @@
       <c r="L11" s="111"/>
       <c r="M11" s="102"/>
       <c r="N11" s="102"/>
-      <c r="O11" s="186"/>
+      <c r="O11" s="181"/>
       <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5338,7 +5555,7 @@
       <c r="L12" s="111"/>
       <c r="M12" s="102"/>
       <c r="N12" s="102"/>
-      <c r="O12" s="186"/>
+      <c r="O12" s="181"/>
       <c r="P12" s="113"/>
     </row>
     <row r="13" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5355,7 +5572,7 @@
       <c r="L13" s="111"/>
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
-      <c r="O13" s="186"/>
+      <c r="O13" s="181"/>
       <c r="P13" s="113"/>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5372,7 +5589,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="102"/>
       <c r="N14" s="102"/>
-      <c r="O14" s="186"/>
+      <c r="O14" s="181"/>
       <c r="P14" s="113"/>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5389,7 +5606,7 @@
       <c r="L15" s="111"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="186"/>
+      <c r="O15" s="181"/>
       <c r="P15" s="113"/>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5406,7 +5623,7 @@
       <c r="L16" s="111"/>
       <c r="M16" s="102"/>
       <c r="N16" s="102"/>
-      <c r="O16" s="186"/>
+      <c r="O16" s="181"/>
       <c r="P16" s="113"/>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5423,7 +5640,7 @@
       <c r="L17" s="111"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
-      <c r="O17" s="186"/>
+      <c r="O17" s="181"/>
       <c r="P17" s="113"/>
     </row>
     <row r="18" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5440,7 +5657,7 @@
       <c r="L18" s="111"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102"/>
-      <c r="O18" s="187"/>
+      <c r="O18" s="182"/>
       <c r="P18" s="113"/>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5457,7 +5674,7 @@
       <c r="L19" s="120"/>
       <c r="M19" s="119"/>
       <c r="N19" s="119"/>
-      <c r="O19" s="188"/>
+      <c r="O19" s="183"/>
       <c r="P19" s="122"/>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5568,82 +5785,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="185" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="147" t="s">
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="186" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
@@ -5653,15 +5870,15 @@
       <c r="E4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="186"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -7729,79 +7946,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="184" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="185" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146" t="s">
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="185" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="146" t="s">
+      <c r="N3" s="185" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -7817,12 +8034,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -10245,82 +10462,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="184" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="187" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="188" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="146" t="s">
+      <c r="G3" s="185" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="146" t="s">
+      <c r="H3" s="185" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="146" t="s">
+      <c r="I3" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="185" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="147" t="s">
+      <c r="N3" s="186" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="185"/>
       <c r="C4" s="92" t="s">
         <v>31</v>
       </c>
@@ -10330,15 +10547,15 @@
       <c r="E4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="147"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="186"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -11641,79 +11858,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="184" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="145"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="145"/>
-      <c r="N2" s="145"/>
+      <c r="A2" s="184"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="146" t="s">
+      <c r="B3" s="185" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="185" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146" t="s">
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="146" t="s">
+      <c r="J3" s="185" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="146" t="s">
+      <c r="K3" s="185" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="146" t="s">
+      <c r="L3" s="185" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="146" t="s">
+      <c r="M3" s="185" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="146" t="s">
+      <c r="N3" s="185" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="147"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -11729,12 +11946,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146"/>
-      <c r="M4" s="146"/>
-      <c r="N4" s="146"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -12852,13 +13069,13 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="174" t="s">
+      <c r="C5" s="169" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="160" t="s">
         <v>478</v>
       </c>
       <c r="E5" s="57" t="s">
@@ -12868,7 +13085,7 @@
       <c r="G5" s="94"/>
       <c r="H5" s="94"/>
       <c r="I5" s="94"/>
-      <c r="J5" s="151"/>
+      <c r="J5" s="146"/>
       <c r="K5" s="57" t="s">
         <v>289</v>
       </c>
@@ -12879,7 +13096,7 @@
       <c r="N5" s="58" t="s">
         <v>480</v>
       </c>
-      <c r="O5" s="172" t="s">
+      <c r="O5" s="167" t="s">
         <v>481</v>
       </c>
       <c r="P5" s="60" t="s">
@@ -12887,11 +13104,11 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="158" t="s">
         <v>483</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="160" t="s">
+      <c r="C6" s="165"/>
+      <c r="D6" s="155" t="s">
         <v>484</v>
       </c>
       <c r="E6" s="128"/>
@@ -12912,17 +13129,17 @@
       <c r="N6" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="O6" s="173"/>
+      <c r="O6" s="168"/>
       <c r="P6" s="67" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="158" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="160" t="s">
+      <c r="C7" s="165"/>
+      <c r="D7" s="155" t="s">
         <v>488</v>
       </c>
       <c r="E7" s="128"/>
@@ -12949,11 +13166,11 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="158" t="s">
         <v>490</v>
       </c>
       <c r="C8" s="98"/>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="145" t="s">
         <v>491</v>
       </c>
       <c r="E8" s="99"/>
@@ -12974,7 +13191,7 @@
       <c r="N8" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="O8" s="173"/>
+      <c r="O8" s="168"/>
       <c r="P8" s="67" t="s">
         <v>492</v>
       </c>
@@ -12984,7 +13201,7 @@
         <v>493</v>
       </c>
       <c r="C9" s="98"/>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="145" t="s">
         <v>494</v>
       </c>
       <c r="E9" s="104"/>
@@ -13015,7 +13232,7 @@
         <v>496</v>
       </c>
       <c r="C10" s="98"/>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="145" t="s">
         <v>497</v>
       </c>
       <c r="E10" s="104"/>
@@ -13042,11 +13259,11 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="158" t="s">
         <v>499</v>
       </c>
       <c r="C11" s="98"/>
-      <c r="D11" s="150" t="s">
+      <c r="D11" s="145" t="s">
         <v>500</v>
       </c>
       <c r="E11" s="96" t="s">
@@ -13299,8 +13516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P122" sqref="P122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -13316,7 +13533,7 @@
     <col min="13" max="13" width="12.5703125" style="32" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="32" customWidth="1"/>
     <col min="15" max="15" width="22.7109375" style="32" customWidth="1"/>
-    <col min="16" max="16" width="43.140625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="85.28515625" style="32" customWidth="1"/>
     <col min="17" max="1025" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
@@ -13410,10 +13627,10 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="124"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="177"/>
+      <c r="K4" s="170"/>
+      <c r="L4" s="171"/>
+      <c r="M4" s="171"/>
+      <c r="N4" s="172"/>
       <c r="O4" s="48"/>
       <c r="P4" s="53"/>
     </row>
@@ -13421,11 +13638,11 @@
       <c r="B5" s="125" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="158" t="s">
+      <c r="C5" s="146"/>
+      <c r="D5" s="153" t="s">
         <v>504</v>
       </c>
-      <c r="E5" s="154"/>
+      <c r="E5" s="149"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
       <c r="H5" s="94"/>
@@ -13433,13 +13650,13 @@
       <c r="J5" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="178" t="s">
+      <c r="K5" s="173" t="s">
         <v>505</v>
       </c>
-      <c r="L5" s="179" t="s">
+      <c r="L5" s="174" t="s">
         <v>506</v>
       </c>
-      <c r="M5" s="154" t="s">
+      <c r="M5" s="149" t="s">
         <v>507</v>
       </c>
       <c r="N5" s="94" t="s">
@@ -13447,16 +13664,16 @@
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="129" t="s">
-        <v>508</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="130"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="159" t="s">
-        <v>509</v>
-      </c>
-      <c r="E6" s="155"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="154" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="150"/>
       <c r="F6" s="131"/>
       <c r="G6" s="131"/>
       <c r="H6" s="131"/>
@@ -13478,7 +13695,7 @@
       </c>
       <c r="O6" s="126"/>
       <c r="P6" s="126" t="s">
-        <v>510</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13486,8 +13703,8 @@
         <v>483</v>
       </c>
       <c r="C7" s="127"/>
-      <c r="D7" s="160" t="s">
-        <v>511</v>
+      <c r="D7" s="155" t="s">
+        <v>509</v>
       </c>
       <c r="E7" s="128"/>
       <c r="F7" s="96"/>
@@ -13511,14 +13728,14 @@
       </c>
       <c r="O7" s="97"/>
       <c r="P7" s="97" t="s">
-        <v>512</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="132"/>
       <c r="C8" s="127"/>
-      <c r="D8" s="160" t="s">
-        <v>513</v>
+      <c r="D8" s="155" t="s">
+        <v>510</v>
       </c>
       <c r="E8" s="128"/>
       <c r="F8" s="96"/>
@@ -13542,14 +13759,14 @@
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="97" t="s">
-        <v>514</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="132"/>
       <c r="C9" s="127"/>
-      <c r="D9" s="160" t="s">
-        <v>515</v>
+      <c r="D9" s="155" t="s">
+        <v>511</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="96"/>
@@ -13573,14 +13790,14 @@
       </c>
       <c r="O9" s="97"/>
       <c r="P9" s="97" t="s">
-        <v>516</v>
+        <v>755</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="132"/>
       <c r="C10" s="127"/>
-      <c r="D10" s="160" t="s">
-        <v>517</v>
+      <c r="D10" s="155" t="s">
+        <v>512</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="96"/>
@@ -13604,14 +13821,14 @@
       </c>
       <c r="O10" s="97"/>
       <c r="P10" s="97" t="s">
-        <v>518</v>
+        <v>756</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="132"/>
       <c r="C11" s="127"/>
-      <c r="D11" s="160" t="s">
-        <v>519</v>
+      <c r="D11" s="155" t="s">
+        <v>513</v>
       </c>
       <c r="E11" s="128"/>
       <c r="F11" s="96"/>
@@ -13635,7 +13852,7 @@
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="97" t="s">
-        <v>520</v>
+        <v>757</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13643,8 +13860,8 @@
         <v>487</v>
       </c>
       <c r="C12" s="127"/>
-      <c r="D12" s="160" t="s">
-        <v>521</v>
+      <c r="D12" s="155" t="s">
+        <v>514</v>
       </c>
       <c r="E12" s="128"/>
       <c r="F12" s="96"/>
@@ -13668,14 +13885,14 @@
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="97" t="s">
-        <v>522</v>
+        <v>758</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="132"/>
       <c r="C13" s="127"/>
-      <c r="D13" s="160" t="s">
-        <v>523</v>
+      <c r="D13" s="155" t="s">
+        <v>515</v>
       </c>
       <c r="E13" s="128"/>
       <c r="F13" s="96"/>
@@ -13699,14 +13916,14 @@
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="97" t="s">
-        <v>524</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="132"/>
       <c r="C14" s="127"/>
-      <c r="D14" s="160" t="s">
-        <v>525</v>
+      <c r="D14" s="155" t="s">
+        <v>516</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
@@ -13730,14 +13947,14 @@
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="97" t="s">
-        <v>526</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="132"/>
       <c r="C15" s="127"/>
-      <c r="D15" s="160" t="s">
-        <v>527</v>
+      <c r="D15" s="155" t="s">
+        <v>517</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -13761,7 +13978,7 @@
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97" t="s">
-        <v>528</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13769,8 +13986,8 @@
         <v>490</v>
       </c>
       <c r="C16" s="127"/>
-      <c r="D16" s="160" t="s">
-        <v>529</v>
+      <c r="D16" s="155" t="s">
+        <v>518</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -13794,14 +14011,14 @@
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>530</v>
+        <v>762</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="132"/>
       <c r="C17" s="127"/>
-      <c r="D17" s="160" t="s">
-        <v>531</v>
+      <c r="D17" s="155" t="s">
+        <v>519</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -13825,14 +14042,14 @@
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="97" t="s">
-        <v>532</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
       <c r="C18" s="127"/>
-      <c r="D18" s="160" t="s">
-        <v>533</v>
+      <c r="D18" s="155" t="s">
+        <v>520</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -13856,14 +14073,14 @@
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="97" t="s">
-        <v>534</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="132"/>
       <c r="C19" s="127"/>
-      <c r="D19" s="160" t="s">
-        <v>535</v>
+      <c r="D19" s="155" t="s">
+        <v>521</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -13887,7 +14104,7 @@
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="97" t="s">
-        <v>536</v>
+        <v>765</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13895,8 +14112,8 @@
         <v>493</v>
       </c>
       <c r="C20" s="127"/>
-      <c r="D20" s="160" t="s">
-        <v>537</v>
+      <c r="D20" s="155" t="s">
+        <v>522</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
@@ -13920,14 +14137,14 @@
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>538</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="132"/>
       <c r="C21" s="127"/>
-      <c r="D21" s="160" t="s">
-        <v>539</v>
+      <c r="D21" s="155" t="s">
+        <v>523</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -13951,14 +14168,14 @@
       </c>
       <c r="O21" s="97"/>
       <c r="P21" s="97" t="s">
-        <v>540</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
       <c r="C22" s="127"/>
-      <c r="D22" s="160" t="s">
-        <v>541</v>
+      <c r="D22" s="155" t="s">
+        <v>524</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="96"/>
@@ -13982,14 +14199,14 @@
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="97" t="s">
-        <v>542</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="132"/>
       <c r="C23" s="127"/>
-      <c r="D23" s="160" t="s">
-        <v>543</v>
+      <c r="D23" s="155" t="s">
+        <v>525</v>
       </c>
       <c r="E23" s="128"/>
       <c r="F23" s="96"/>
@@ -14013,7 +14230,7 @@
       </c>
       <c r="O23" s="97"/>
       <c r="P23" s="97" t="s">
-        <v>544</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14021,8 +14238,8 @@
         <v>496</v>
       </c>
       <c r="C24" s="127"/>
-      <c r="D24" s="160" t="s">
-        <v>545</v>
+      <c r="D24" s="155" t="s">
+        <v>526</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
@@ -14046,14 +14263,14 @@
       </c>
       <c r="O24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>546</v>
+        <v>770</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
       <c r="C25" s="127"/>
-      <c r="D25" s="160" t="s">
-        <v>547</v>
+      <c r="D25" s="155" t="s">
+        <v>527</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
@@ -14077,14 +14294,14 @@
       </c>
       <c r="O25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>548</v>
+        <v>771</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
       <c r="C26" s="127"/>
-      <c r="D26" s="160" t="s">
-        <v>549</v>
+      <c r="D26" s="155" t="s">
+        <v>528</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
@@ -14108,7 +14325,7 @@
       </c>
       <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
-        <v>550</v>
+        <v>772</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14116,8 +14333,8 @@
         <v>499</v>
       </c>
       <c r="C27" s="127"/>
-      <c r="D27" s="160" t="s">
-        <v>551</v>
+      <c r="D27" s="155" t="s">
+        <v>529</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
@@ -14141,14 +14358,14 @@
       </c>
       <c r="O27" s="97"/>
       <c r="P27" s="97" t="s">
-        <v>552</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
       <c r="C28" s="127"/>
-      <c r="D28" s="160" t="s">
-        <v>553</v>
+      <c r="D28" s="155" t="s">
+        <v>530</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="96"/>
@@ -14172,16 +14389,16 @@
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>554</v>
+        <v>773</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="132" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C29" s="127"/>
-      <c r="D29" s="160" t="s">
-        <v>556</v>
+      <c r="D29" s="155" t="s">
+        <v>532</v>
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="96"/>
@@ -14205,14 +14422,14 @@
       </c>
       <c r="O29" s="97"/>
       <c r="P29" s="97" t="s">
-        <v>557</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="132"/>
       <c r="C30" s="127"/>
-      <c r="D30" s="160" t="s">
-        <v>558</v>
+      <c r="D30" s="155" t="s">
+        <v>533</v>
       </c>
       <c r="E30" s="128"/>
       <c r="F30" s="96"/>
@@ -14236,16 +14453,16 @@
       </c>
       <c r="O30" s="97"/>
       <c r="P30" s="97" t="s">
-        <v>559</v>
+        <v>775</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="132" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C31" s="127"/>
-      <c r="D31" s="160" t="s">
-        <v>561</v>
+      <c r="D31" s="155" t="s">
+        <v>535</v>
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="96"/>
@@ -14269,14 +14486,14 @@
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="97" t="s">
-        <v>562</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
       <c r="C32" s="127"/>
-      <c r="D32" s="160" t="s">
-        <v>563</v>
+      <c r="D32" s="155" t="s">
+        <v>536</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="96"/>
@@ -14300,14 +14517,14 @@
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>564</v>
+        <v>777</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
       <c r="C33" s="127"/>
-      <c r="D33" s="160" t="s">
-        <v>565</v>
+      <c r="D33" s="155" t="s">
+        <v>537</v>
       </c>
       <c r="E33" s="128"/>
       <c r="F33" s="96"/>
@@ -14331,14 +14548,14 @@
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="97" t="s">
-        <v>566</v>
+        <v>778</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="132"/>
       <c r="C34" s="127"/>
-      <c r="D34" s="160" t="s">
-        <v>567</v>
+      <c r="D34" s="155" t="s">
+        <v>539</v>
       </c>
       <c r="E34" s="128"/>
       <c r="F34" s="96"/>
@@ -14362,14 +14579,14 @@
       </c>
       <c r="O34" s="97"/>
       <c r="P34" s="97" t="s">
-        <v>568</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="132"/>
       <c r="C35" s="127"/>
-      <c r="D35" s="160" t="s">
-        <v>569</v>
+      <c r="D35" s="155" t="s">
+        <v>541</v>
       </c>
       <c r="E35" s="128"/>
       <c r="F35" s="96"/>
@@ -14393,14 +14610,14 @@
       </c>
       <c r="O35" s="97"/>
       <c r="P35" s="97" t="s">
-        <v>570</v>
+        <v>780</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="132"/>
       <c r="C36" s="127"/>
-      <c r="D36" s="160" t="s">
-        <v>571</v>
+      <c r="D36" s="155" t="s">
+        <v>542</v>
       </c>
       <c r="E36" s="128"/>
       <c r="F36" s="96"/>
@@ -14424,16 +14641,16 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97" t="s">
-        <v>572</v>
+        <v>781</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="132" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C37" s="127"/>
-      <c r="D37" s="160" t="s">
-        <v>574</v>
+      <c r="D37" s="155" t="s">
+        <v>544</v>
       </c>
       <c r="E37" s="128"/>
       <c r="F37" s="96"/>
@@ -14447,7 +14664,7 @@
         <v>505</v>
       </c>
       <c r="L37" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M37" s="96" t="s">
         <v>507</v>
@@ -14457,14 +14674,14 @@
       </c>
       <c r="O37" s="97"/>
       <c r="P37" s="97" t="s">
-        <v>508</v>
+        <v>782</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="132"/>
       <c r="C38" s="127"/>
-      <c r="D38" s="160" t="s">
-        <v>576</v>
+      <c r="D38" s="155" t="s">
+        <v>546</v>
       </c>
       <c r="E38" s="128"/>
       <c r="F38" s="96"/>
@@ -14478,7 +14695,7 @@
         <v>505</v>
       </c>
       <c r="L38" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M38" s="96" t="s">
         <v>507</v>
@@ -14488,14 +14705,14 @@
       </c>
       <c r="O38" s="97"/>
       <c r="P38" s="97" t="s">
-        <v>577</v>
+        <v>783</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="132"/>
       <c r="C39" s="127"/>
-      <c r="D39" s="160" t="s">
-        <v>578</v>
+      <c r="D39" s="155" t="s">
+        <v>547</v>
       </c>
       <c r="E39" s="128"/>
       <c r="F39" s="96"/>
@@ -14509,7 +14726,7 @@
         <v>505</v>
       </c>
       <c r="L39" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M39" s="96" t="s">
         <v>507</v>
@@ -14519,16 +14736,16 @@
       </c>
       <c r="O39" s="97"/>
       <c r="P39" s="97" t="s">
-        <v>510</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="132" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="C40" s="127"/>
-      <c r="D40" s="160" t="s">
-        <v>580</v>
+      <c r="D40" s="155" t="s">
+        <v>549</v>
       </c>
       <c r="E40" s="128"/>
       <c r="F40" s="96"/>
@@ -14542,7 +14759,7 @@
         <v>505</v>
       </c>
       <c r="L40" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M40" s="96" t="s">
         <v>507</v>
@@ -14552,14 +14769,14 @@
       </c>
       <c r="O40" s="97"/>
       <c r="P40" s="97" t="s">
-        <v>512</v>
+        <v>784</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="132"/>
       <c r="C41" s="127"/>
-      <c r="D41" s="160" t="s">
-        <v>581</v>
+      <c r="D41" s="155" t="s">
+        <v>550</v>
       </c>
       <c r="E41" s="128"/>
       <c r="F41" s="96"/>
@@ -14573,7 +14790,7 @@
         <v>505</v>
       </c>
       <c r="L41" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M41" s="96" t="s">
         <v>507</v>
@@ -14583,14 +14800,14 @@
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="97" t="s">
-        <v>514</v>
+        <v>785</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="132"/>
       <c r="C42" s="127"/>
-      <c r="D42" s="160" t="s">
-        <v>582</v>
+      <c r="D42" s="155" t="s">
+        <v>551</v>
       </c>
       <c r="E42" s="128"/>
       <c r="F42" s="96"/>
@@ -14604,7 +14821,7 @@
         <v>505</v>
       </c>
       <c r="L42" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M42" s="96" t="s">
         <v>507</v>
@@ -14614,14 +14831,14 @@
       </c>
       <c r="O42" s="97"/>
       <c r="P42" s="97" t="s">
-        <v>518</v>
+        <v>786</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="132"/>
       <c r="C43" s="127"/>
-      <c r="D43" s="160" t="s">
-        <v>583</v>
+      <c r="D43" s="155" t="s">
+        <v>552</v>
       </c>
       <c r="E43" s="128"/>
       <c r="F43" s="96"/>
@@ -14635,7 +14852,7 @@
         <v>505</v>
       </c>
       <c r="L43" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M43" s="96" t="s">
         <v>507</v>
@@ -14645,16 +14862,16 @@
       </c>
       <c r="O43" s="97"/>
       <c r="P43" s="97" t="s">
-        <v>520</v>
+        <v>787</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="132" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="C44" s="127"/>
-      <c r="D44" s="160" t="s">
-        <v>585</v>
+      <c r="D44" s="155" t="s">
+        <v>554</v>
       </c>
       <c r="E44" s="128"/>
       <c r="F44" s="96"/>
@@ -14668,7 +14885,7 @@
         <v>505</v>
       </c>
       <c r="L44" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M44" s="96" t="s">
         <v>507</v>
@@ -14678,14 +14895,14 @@
       </c>
       <c r="O44" s="97"/>
       <c r="P44" s="97" t="s">
-        <v>522</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="132"/>
       <c r="C45" s="127"/>
-      <c r="D45" s="160" t="s">
-        <v>586</v>
+      <c r="D45" s="155" t="s">
+        <v>555</v>
       </c>
       <c r="E45" s="128"/>
       <c r="F45" s="96"/>
@@ -14699,7 +14916,7 @@
         <v>505</v>
       </c>
       <c r="L45" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M45" s="96" t="s">
         <v>507</v>
@@ -14709,14 +14926,14 @@
       </c>
       <c r="O45" s="97"/>
       <c r="P45" s="97" t="s">
-        <v>526</v>
+        <v>789</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="132"/>
       <c r="C46" s="127"/>
-      <c r="D46" s="160" t="s">
-        <v>587</v>
+      <c r="D46" s="155" t="s">
+        <v>556</v>
       </c>
       <c r="E46" s="128"/>
       <c r="F46" s="96"/>
@@ -14730,7 +14947,7 @@
         <v>505</v>
       </c>
       <c r="L46" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M46" s="96" t="s">
         <v>507</v>
@@ -14740,16 +14957,16 @@
       </c>
       <c r="O46" s="97"/>
       <c r="P46" s="97" t="s">
-        <v>528</v>
+        <v>790</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="132" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="C47" s="127"/>
-      <c r="D47" s="160" t="s">
-        <v>589</v>
+      <c r="D47" s="155" t="s">
+        <v>558</v>
       </c>
       <c r="E47" s="128"/>
       <c r="F47" s="96"/>
@@ -14763,7 +14980,7 @@
         <v>505</v>
       </c>
       <c r="L47" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M47" s="96" t="s">
         <v>507</v>
@@ -14773,14 +14990,14 @@
       </c>
       <c r="O47" s="97"/>
       <c r="P47" s="97" t="s">
-        <v>530</v>
+        <v>791</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="132"/>
       <c r="C48" s="127"/>
-      <c r="D48" s="160" t="s">
-        <v>590</v>
+      <c r="D48" s="155" t="s">
+        <v>559</v>
       </c>
       <c r="E48" s="128"/>
       <c r="F48" s="96"/>
@@ -14794,7 +15011,7 @@
         <v>505</v>
       </c>
       <c r="L48" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M48" s="96" t="s">
         <v>507</v>
@@ -14804,14 +15021,14 @@
       </c>
       <c r="O48" s="97"/>
       <c r="P48" s="97" t="s">
-        <v>532</v>
+        <v>763</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="132"/>
       <c r="C49" s="127"/>
-      <c r="D49" s="160" t="s">
-        <v>591</v>
+      <c r="D49" s="155" t="s">
+        <v>560</v>
       </c>
       <c r="E49" s="128"/>
       <c r="F49" s="96"/>
@@ -14825,7 +15042,7 @@
         <v>505</v>
       </c>
       <c r="L49" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M49" s="96" t="s">
         <v>507</v>
@@ -14835,14 +15052,14 @@
       </c>
       <c r="O49" s="97"/>
       <c r="P49" s="97" t="s">
-        <v>534</v>
+        <v>792</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="132"/>
       <c r="C50" s="127"/>
-      <c r="D50" s="160" t="s">
-        <v>592</v>
+      <c r="D50" s="155" t="s">
+        <v>561</v>
       </c>
       <c r="E50" s="128"/>
       <c r="F50" s="96"/>
@@ -14856,7 +15073,7 @@
         <v>505</v>
       </c>
       <c r="L50" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M50" s="96" t="s">
         <v>507</v>
@@ -14866,16 +15083,16 @@
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="97" t="s">
-        <v>536</v>
+        <v>765</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="132" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="C51" s="127"/>
-      <c r="D51" s="160" t="s">
-        <v>594</v>
+      <c r="D51" s="155" t="s">
+        <v>563</v>
       </c>
       <c r="E51" s="128"/>
       <c r="F51" s="96"/>
@@ -14889,7 +15106,7 @@
         <v>505</v>
       </c>
       <c r="L51" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M51" s="96" t="s">
         <v>507</v>
@@ -14899,14 +15116,14 @@
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="97" t="s">
-        <v>538</v>
+        <v>793</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="132"/>
       <c r="C52" s="127"/>
-      <c r="D52" s="160" t="s">
-        <v>595</v>
+      <c r="D52" s="155" t="s">
+        <v>564</v>
       </c>
       <c r="E52" s="128"/>
       <c r="F52" s="96"/>
@@ -14920,7 +15137,7 @@
         <v>505</v>
       </c>
       <c r="L52" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M52" s="96" t="s">
         <v>507</v>
@@ -14930,16 +15147,16 @@
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>542</v>
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="132" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="C53" s="127"/>
-      <c r="D53" s="160" t="s">
-        <v>597</v>
+      <c r="D53" s="155" t="s">
+        <v>566</v>
       </c>
       <c r="E53" s="128"/>
       <c r="F53" s="96"/>
@@ -14953,7 +15170,7 @@
         <v>505</v>
       </c>
       <c r="L53" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M53" s="96" t="s">
         <v>507</v>
@@ -14963,14 +15180,14 @@
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="97" t="s">
-        <v>546</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="132"/>
       <c r="C54" s="127"/>
-      <c r="D54" s="160" t="s">
-        <v>598</v>
+      <c r="D54" s="155" t="s">
+        <v>567</v>
       </c>
       <c r="E54" s="128"/>
       <c r="F54" s="96"/>
@@ -14984,7 +15201,7 @@
         <v>505</v>
       </c>
       <c r="L54" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M54" s="96" t="s">
         <v>507</v>
@@ -14994,14 +15211,14 @@
       </c>
       <c r="O54" s="97"/>
       <c r="P54" s="97" t="s">
-        <v>548</v>
+        <v>796</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="132"/>
       <c r="C55" s="127"/>
-      <c r="D55" s="160" t="s">
-        <v>599</v>
+      <c r="D55" s="155" t="s">
+        <v>568</v>
       </c>
       <c r="E55" s="128"/>
       <c r="F55" s="96"/>
@@ -15015,7 +15232,7 @@
         <v>505</v>
       </c>
       <c r="L55" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M55" s="96" t="s">
         <v>507</v>
@@ -15025,14 +15242,14 @@
       </c>
       <c r="O55" s="97"/>
       <c r="P55" s="97" t="s">
-        <v>550</v>
+        <v>797</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="132"/>
       <c r="C56" s="127"/>
-      <c r="D56" s="160" t="s">
-        <v>600</v>
+      <c r="D56" s="155" t="s">
+        <v>569</v>
       </c>
       <c r="E56" s="128"/>
       <c r="F56" s="96"/>
@@ -15046,7 +15263,7 @@
         <v>505</v>
       </c>
       <c r="L56" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M56" s="96" t="s">
         <v>507</v>
@@ -15056,16 +15273,16 @@
       </c>
       <c r="O56" s="97"/>
       <c r="P56" s="97" t="s">
-        <v>601</v>
+        <v>798</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="132" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="C57" s="127"/>
-      <c r="D57" s="160" t="s">
-        <v>603</v>
+      <c r="D57" s="155" t="s">
+        <v>571</v>
       </c>
       <c r="E57" s="128"/>
       <c r="F57" s="96"/>
@@ -15079,7 +15296,7 @@
         <v>505</v>
       </c>
       <c r="L57" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M57" s="96" t="s">
         <v>507</v>
@@ -15089,14 +15306,14 @@
       </c>
       <c r="O57" s="97"/>
       <c r="P57" s="97" t="s">
-        <v>552</v>
+        <v>799</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="132"/>
       <c r="C58" s="127"/>
-      <c r="D58" s="160" t="s">
-        <v>604</v>
+      <c r="D58" s="155" t="s">
+        <v>572</v>
       </c>
       <c r="E58" s="128"/>
       <c r="F58" s="96"/>
@@ -15110,7 +15327,7 @@
         <v>505</v>
       </c>
       <c r="L58" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M58" s="96" t="s">
         <v>507</v>
@@ -15120,14 +15337,14 @@
       </c>
       <c r="O58" s="97"/>
       <c r="P58" s="97" t="s">
-        <v>605</v>
+        <v>838</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="132"/>
       <c r="C59" s="127"/>
-      <c r="D59" s="160" t="s">
-        <v>606</v>
+      <c r="D59" s="155" t="s">
+        <v>573</v>
       </c>
       <c r="E59" s="128"/>
       <c r="F59" s="96"/>
@@ -15141,7 +15358,7 @@
         <v>505</v>
       </c>
       <c r="L59" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M59" s="96" t="s">
         <v>507</v>
@@ -15151,16 +15368,16 @@
       </c>
       <c r="O59" s="97"/>
       <c r="P59" s="97" t="s">
-        <v>554</v>
+        <v>801</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="132" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="C60" s="127"/>
-      <c r="D60" s="160" t="s">
-        <v>608</v>
+      <c r="D60" s="155" t="s">
+        <v>575</v>
       </c>
       <c r="E60" s="128"/>
       <c r="F60" s="96"/>
@@ -15174,7 +15391,7 @@
         <v>505</v>
       </c>
       <c r="L60" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M60" s="96" t="s">
         <v>507</v>
@@ -15184,14 +15401,14 @@
       </c>
       <c r="O60" s="97"/>
       <c r="P60" s="97" t="s">
-        <v>557</v>
+        <v>802</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="132"/>
       <c r="C61" s="127"/>
-      <c r="D61" s="160" t="s">
-        <v>609</v>
+      <c r="D61" s="155" t="s">
+        <v>576</v>
       </c>
       <c r="E61" s="128"/>
       <c r="F61" s="96"/>
@@ -15205,7 +15422,7 @@
         <v>505</v>
       </c>
       <c r="L61" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M61" s="96" t="s">
         <v>507</v>
@@ -15215,16 +15432,16 @@
       </c>
       <c r="O61" s="97"/>
       <c r="P61" s="97" t="s">
-        <v>559</v>
+        <v>803</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="132" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="C62" s="127"/>
-      <c r="D62" s="160" t="s">
-        <v>611</v>
+      <c r="D62" s="155" t="s">
+        <v>578</v>
       </c>
       <c r="E62" s="128"/>
       <c r="F62" s="96"/>
@@ -15238,7 +15455,7 @@
         <v>505</v>
       </c>
       <c r="L62" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M62" s="96" t="s">
         <v>507</v>
@@ -15248,14 +15465,14 @@
       </c>
       <c r="O62" s="97"/>
       <c r="P62" s="97" t="s">
-        <v>562</v>
+        <v>804</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="132"/>
       <c r="C63" s="127"/>
-      <c r="D63" s="160" t="s">
-        <v>612</v>
+      <c r="D63" s="155" t="s">
+        <v>579</v>
       </c>
       <c r="E63" s="128"/>
       <c r="F63" s="96"/>
@@ -15269,7 +15486,7 @@
         <v>505</v>
       </c>
       <c r="L63" s="96" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="M63" s="96" t="s">
         <v>507</v>
@@ -15279,16 +15496,16 @@
       </c>
       <c r="O63" s="97"/>
       <c r="P63" s="97" t="s">
-        <v>568</v>
+        <v>805</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="132" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="C64" s="99"/>
-      <c r="D64" s="150" t="s">
-        <v>614</v>
+      <c r="D64" s="145" t="s">
+        <v>581</v>
       </c>
       <c r="E64" s="128"/>
       <c r="F64" s="96"/>
@@ -15302,7 +15519,7 @@
         <v>505</v>
       </c>
       <c r="L64" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M64" s="96" t="s">
         <v>507</v>
@@ -15312,14 +15529,14 @@
       </c>
       <c r="O64" s="97"/>
       <c r="P64" s="97" t="s">
-        <v>508</v>
+        <v>806</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="132"/>
       <c r="C65" s="99"/>
-      <c r="D65" s="150" t="s">
-        <v>616</v>
+      <c r="D65" s="145" t="s">
+        <v>583</v>
       </c>
       <c r="E65" s="128"/>
       <c r="F65" s="96"/>
@@ -15333,7 +15550,7 @@
         <v>505</v>
       </c>
       <c r="L65" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M65" s="96" t="s">
         <v>507</v>
@@ -15343,16 +15560,16 @@
       </c>
       <c r="O65" s="97"/>
       <c r="P65" s="97" t="s">
-        <v>508</v>
+        <v>806</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="132" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="C66" s="99"/>
-      <c r="D66" s="150" t="s">
-        <v>618</v>
+      <c r="D66" s="145" t="s">
+        <v>585</v>
       </c>
       <c r="E66" s="128"/>
       <c r="F66" s="96"/>
@@ -15366,7 +15583,7 @@
         <v>505</v>
       </c>
       <c r="L66" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M66" s="96" t="s">
         <v>507</v>
@@ -15376,14 +15593,14 @@
       </c>
       <c r="O66" s="97"/>
       <c r="P66" s="97" t="s">
-        <v>512</v>
+        <v>807</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="132"/>
       <c r="C67" s="99"/>
-      <c r="D67" s="150" t="s">
-        <v>619</v>
+      <c r="D67" s="145" t="s">
+        <v>586</v>
       </c>
       <c r="E67" s="128"/>
       <c r="F67" s="96"/>
@@ -15397,7 +15614,7 @@
         <v>505</v>
       </c>
       <c r="L67" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M67" s="96" t="s">
         <v>507</v>
@@ -15407,14 +15624,14 @@
       </c>
       <c r="O67" s="97"/>
       <c r="P67" s="97" t="s">
-        <v>514</v>
+        <v>808</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="132"/>
       <c r="C68" s="99"/>
-      <c r="D68" s="150" t="s">
-        <v>620</v>
+      <c r="D68" s="145" t="s">
+        <v>587</v>
       </c>
       <c r="E68" s="128"/>
       <c r="F68" s="96"/>
@@ -15428,7 +15645,7 @@
         <v>505</v>
       </c>
       <c r="L68" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M68" s="96" t="s">
         <v>507</v>
@@ -15438,14 +15655,14 @@
       </c>
       <c r="O68" s="97"/>
       <c r="P68" s="97" t="s">
-        <v>518</v>
+        <v>809</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="132"/>
       <c r="C69" s="99"/>
-      <c r="D69" s="150" t="s">
-        <v>621</v>
+      <c r="D69" s="145" t="s">
+        <v>588</v>
       </c>
       <c r="E69" s="128"/>
       <c r="F69" s="96"/>
@@ -15459,7 +15676,7 @@
         <v>505</v>
       </c>
       <c r="L69" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M69" s="96" t="s">
         <v>507</v>
@@ -15469,16 +15686,16 @@
       </c>
       <c r="O69" s="97"/>
       <c r="P69" s="97" t="s">
-        <v>520</v>
+        <v>810</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="132" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="C70" s="99"/>
-      <c r="D70" s="150" t="s">
-        <v>623</v>
+      <c r="D70" s="145" t="s">
+        <v>590</v>
       </c>
       <c r="E70" s="128"/>
       <c r="F70" s="96"/>
@@ -15492,7 +15709,7 @@
         <v>505</v>
       </c>
       <c r="L70" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M70" s="96" t="s">
         <v>507</v>
@@ -15502,14 +15719,14 @@
       </c>
       <c r="O70" s="97"/>
       <c r="P70" s="97" t="s">
-        <v>522</v>
+        <v>811</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="132"/>
       <c r="C71" s="99"/>
-      <c r="D71" s="150" t="s">
-        <v>624</v>
+      <c r="D71" s="145" t="s">
+        <v>591</v>
       </c>
       <c r="E71" s="128"/>
       <c r="F71" s="96"/>
@@ -15523,7 +15740,7 @@
         <v>505</v>
       </c>
       <c r="L71" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M71" s="96" t="s">
         <v>507</v>
@@ -15533,16 +15750,16 @@
       </c>
       <c r="O71" s="97"/>
       <c r="P71" s="97" t="s">
-        <v>526</v>
+        <v>812</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="132" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="C72" s="99"/>
-      <c r="D72" s="150" t="s">
-        <v>626</v>
+      <c r="D72" s="145" t="s">
+        <v>593</v>
       </c>
       <c r="E72" s="128"/>
       <c r="F72" s="96"/>
@@ -15556,7 +15773,7 @@
         <v>505</v>
       </c>
       <c r="L72" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M72" s="96" t="s">
         <v>507</v>
@@ -15566,14 +15783,14 @@
       </c>
       <c r="O72" s="97"/>
       <c r="P72" s="97" t="s">
-        <v>530</v>
+        <v>813</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="132"/>
       <c r="C73" s="99"/>
-      <c r="D73" s="150" t="s">
-        <v>627</v>
+      <c r="D73" s="145" t="s">
+        <v>594</v>
       </c>
       <c r="E73" s="128"/>
       <c r="F73" s="96"/>
@@ -15587,7 +15804,7 @@
         <v>505</v>
       </c>
       <c r="L73" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M73" s="96" t="s">
         <v>507</v>
@@ -15597,14 +15814,14 @@
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="97" t="s">
-        <v>532</v>
+        <v>814</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="132"/>
       <c r="C74" s="99"/>
-      <c r="D74" s="150" t="s">
-        <v>628</v>
+      <c r="D74" s="145" t="s">
+        <v>595</v>
       </c>
       <c r="E74" s="128"/>
       <c r="F74" s="96"/>
@@ -15618,7 +15835,7 @@
         <v>505</v>
       </c>
       <c r="L74" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M74" s="96" t="s">
         <v>507</v>
@@ -15628,14 +15845,14 @@
       </c>
       <c r="O74" s="97"/>
       <c r="P74" s="97" t="s">
-        <v>629</v>
+        <v>815</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="132"/>
       <c r="C75" s="99"/>
-      <c r="D75" s="150" t="s">
-        <v>630</v>
+      <c r="D75" s="145" t="s">
+        <v>596</v>
       </c>
       <c r="E75" s="128"/>
       <c r="F75" s="96"/>
@@ -15649,7 +15866,7 @@
         <v>505</v>
       </c>
       <c r="L75" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M75" s="96" t="s">
         <v>507</v>
@@ -15659,14 +15876,14 @@
       </c>
       <c r="O75" s="97"/>
       <c r="P75" s="97" t="s">
-        <v>534</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="132"/>
       <c r="C76" s="99"/>
-      <c r="D76" s="150" t="s">
-        <v>631</v>
+      <c r="D76" s="145" t="s">
+        <v>597</v>
       </c>
       <c r="E76" s="128"/>
       <c r="F76" s="96"/>
@@ -15680,7 +15897,7 @@
         <v>505</v>
       </c>
       <c r="L76" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M76" s="96" t="s">
         <v>507</v>
@@ -15690,16 +15907,16 @@
       </c>
       <c r="O76" s="97"/>
       <c r="P76" s="97" t="s">
-        <v>536</v>
+        <v>765</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="132" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
       <c r="C77" s="99"/>
-      <c r="D77" s="150" t="s">
-        <v>633</v>
+      <c r="D77" s="145" t="s">
+        <v>599</v>
       </c>
       <c r="E77" s="128"/>
       <c r="F77" s="96"/>
@@ -15713,7 +15930,7 @@
         <v>505</v>
       </c>
       <c r="L77" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M77" s="96" t="s">
         <v>507</v>
@@ -15723,14 +15940,14 @@
       </c>
       <c r="O77" s="97"/>
       <c r="P77" s="97" t="s">
-        <v>538</v>
+        <v>817</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="132"/>
       <c r="C78" s="99"/>
-      <c r="D78" s="150" t="s">
-        <v>634</v>
+      <c r="D78" s="145" t="s">
+        <v>600</v>
       </c>
       <c r="E78" s="128"/>
       <c r="F78" s="96"/>
@@ -15744,7 +15961,7 @@
         <v>505</v>
       </c>
       <c r="L78" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M78" s="96" t="s">
         <v>507</v>
@@ -15754,14 +15971,14 @@
       </c>
       <c r="O78" s="97"/>
       <c r="P78" s="97" t="s">
-        <v>540</v>
+        <v>767</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="132"/>
       <c r="C79" s="99"/>
-      <c r="D79" s="150" t="s">
-        <v>635</v>
+      <c r="D79" s="145" t="s">
+        <v>601</v>
       </c>
       <c r="E79" s="128"/>
       <c r="F79" s="96"/>
@@ -15775,7 +15992,7 @@
         <v>505</v>
       </c>
       <c r="L79" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M79" s="96" t="s">
         <v>507</v>
@@ -15785,14 +16002,14 @@
       </c>
       <c r="O79" s="97"/>
       <c r="P79" s="97" t="s">
-        <v>636</v>
+        <v>818</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="132"/>
       <c r="C80" s="99"/>
-      <c r="D80" s="150" t="s">
-        <v>637</v>
+      <c r="D80" s="145" t="s">
+        <v>602</v>
       </c>
       <c r="E80" s="128"/>
       <c r="F80" s="96"/>
@@ -15806,7 +16023,7 @@
         <v>505</v>
       </c>
       <c r="L80" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M80" s="96" t="s">
         <v>507</v>
@@ -15816,14 +16033,14 @@
       </c>
       <c r="O80" s="97"/>
       <c r="P80" s="97" t="s">
-        <v>542</v>
+        <v>819</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="132"/>
       <c r="C81" s="99"/>
-      <c r="D81" s="150" t="s">
-        <v>638</v>
+      <c r="D81" s="145" t="s">
+        <v>603</v>
       </c>
       <c r="E81" s="128"/>
       <c r="F81" s="96"/>
@@ -15837,7 +16054,7 @@
         <v>505</v>
       </c>
       <c r="L81" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M81" s="96" t="s">
         <v>507</v>
@@ -15847,14 +16064,14 @@
       </c>
       <c r="O81" s="97"/>
       <c r="P81" s="97" t="s">
-        <v>544</v>
+        <v>820</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="132"/>
       <c r="C82" s="99"/>
-      <c r="D82" s="150" t="s">
-        <v>639</v>
+      <c r="D82" s="145" t="s">
+        <v>604</v>
       </c>
       <c r="E82" s="128"/>
       <c r="F82" s="96"/>
@@ -15868,7 +16085,7 @@
         <v>505</v>
       </c>
       <c r="L82" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M82" s="96" t="s">
         <v>507</v>
@@ -15878,16 +16095,16 @@
       </c>
       <c r="O82" s="97"/>
       <c r="P82" s="97" t="s">
-        <v>640</v>
+        <v>821</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="132" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="C83" s="99"/>
-      <c r="D83" s="150" t="s">
-        <v>642</v>
+      <c r="D83" s="145" t="s">
+        <v>606</v>
       </c>
       <c r="E83" s="128"/>
       <c r="F83" s="96"/>
@@ -15901,7 +16118,7 @@
         <v>505</v>
       </c>
       <c r="L83" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M83" s="96" t="s">
         <v>507</v>
@@ -15911,14 +16128,14 @@
       </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97" t="s">
-        <v>546</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="132"/>
       <c r="C84" s="99"/>
-      <c r="D84" s="150" t="s">
-        <v>643</v>
+      <c r="D84" s="145" t="s">
+        <v>607</v>
       </c>
       <c r="E84" s="128"/>
       <c r="F84" s="96"/>
@@ -15932,7 +16149,7 @@
         <v>505</v>
       </c>
       <c r="L84" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M84" s="96" t="s">
         <v>507</v>
@@ -15942,14 +16159,14 @@
       </c>
       <c r="O84" s="97"/>
       <c r="P84" s="97" t="s">
-        <v>548</v>
+        <v>822</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="132"/>
       <c r="C85" s="99"/>
-      <c r="D85" s="150" t="s">
-        <v>644</v>
+      <c r="D85" s="145" t="s">
+        <v>608</v>
       </c>
       <c r="E85" s="128"/>
       <c r="F85" s="96"/>
@@ -15963,7 +16180,7 @@
         <v>505</v>
       </c>
       <c r="L85" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M85" s="96" t="s">
         <v>507</v>
@@ -15973,14 +16190,14 @@
       </c>
       <c r="O85" s="97"/>
       <c r="P85" s="97" t="s">
-        <v>550</v>
+        <v>823</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="132"/>
       <c r="C86" s="99"/>
-      <c r="D86" s="150" t="s">
-        <v>645</v>
+      <c r="D86" s="145" t="s">
+        <v>609</v>
       </c>
       <c r="E86" s="128"/>
       <c r="F86" s="96"/>
@@ -15994,7 +16211,7 @@
         <v>505</v>
       </c>
       <c r="L86" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M86" s="96" t="s">
         <v>507</v>
@@ -16004,16 +16221,16 @@
       </c>
       <c r="O86" s="97"/>
       <c r="P86" s="97" t="s">
-        <v>601</v>
+        <v>824</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="132" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="C87" s="99"/>
-      <c r="D87" s="150" t="s">
-        <v>647</v>
+      <c r="D87" s="145" t="s">
+        <v>611</v>
       </c>
       <c r="E87" s="128"/>
       <c r="F87" s="96"/>
@@ -16027,7 +16244,7 @@
         <v>505</v>
       </c>
       <c r="L87" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M87" s="96" t="s">
         <v>507</v>
@@ -16037,14 +16254,14 @@
       </c>
       <c r="O87" s="97"/>
       <c r="P87" s="97" t="s">
-        <v>552</v>
+        <v>825</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="132"/>
       <c r="C88" s="99"/>
-      <c r="D88" s="150" t="s">
-        <v>648</v>
+      <c r="D88" s="145" t="s">
+        <v>612</v>
       </c>
       <c r="E88" s="128"/>
       <c r="F88" s="96"/>
@@ -16058,7 +16275,7 @@
         <v>505</v>
       </c>
       <c r="L88" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M88" s="96" t="s">
         <v>507</v>
@@ -16068,16 +16285,16 @@
       </c>
       <c r="O88" s="97"/>
       <c r="P88" s="97" t="s">
-        <v>554</v>
+        <v>826</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="132" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="C89" s="99"/>
-      <c r="D89" s="150" t="s">
-        <v>650</v>
+      <c r="D89" s="145" t="s">
+        <v>614</v>
       </c>
       <c r="E89" s="128"/>
       <c r="F89" s="96"/>
@@ -16091,7 +16308,7 @@
         <v>505</v>
       </c>
       <c r="L89" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M89" s="96" t="s">
         <v>507</v>
@@ -16101,14 +16318,14 @@
       </c>
       <c r="O89" s="97"/>
       <c r="P89" s="97" t="s">
-        <v>557</v>
+        <v>827</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="132"/>
       <c r="C90" s="99"/>
-      <c r="D90" s="150" t="s">
-        <v>651</v>
+      <c r="D90" s="145" t="s">
+        <v>615</v>
       </c>
       <c r="E90" s="128"/>
       <c r="F90" s="96"/>
@@ -16122,7 +16339,7 @@
         <v>505</v>
       </c>
       <c r="L90" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M90" s="96" t="s">
         <v>507</v>
@@ -16132,14 +16349,14 @@
       </c>
       <c r="O90" s="97"/>
       <c r="P90" s="97" t="s">
-        <v>652</v>
+        <v>828</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="132"/>
       <c r="C91" s="99"/>
-      <c r="D91" s="150" t="s">
-        <v>653</v>
+      <c r="D91" s="145" t="s">
+        <v>616</v>
       </c>
       <c r="E91" s="128"/>
       <c r="F91" s="96"/>
@@ -16153,7 +16370,7 @@
         <v>505</v>
       </c>
       <c r="L91" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M91" s="96" t="s">
         <v>507</v>
@@ -16163,16 +16380,16 @@
       </c>
       <c r="O91" s="97"/>
       <c r="P91" s="97" t="s">
-        <v>559</v>
+        <v>829</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="132" t="s">
-        <v>654</v>
+        <v>617</v>
       </c>
       <c r="C92" s="99"/>
-      <c r="D92" s="150" t="s">
-        <v>655</v>
+      <c r="D92" s="145" t="s">
+        <v>618</v>
       </c>
       <c r="E92" s="128"/>
       <c r="F92" s="96"/>
@@ -16186,7 +16403,7 @@
         <v>505</v>
       </c>
       <c r="L92" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M92" s="96" t="s">
         <v>507</v>
@@ -16196,14 +16413,14 @@
       </c>
       <c r="O92" s="97"/>
       <c r="P92" s="97" t="s">
-        <v>562</v>
+        <v>830</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="132"/>
       <c r="C93" s="99"/>
-      <c r="D93" s="150" t="s">
-        <v>656</v>
+      <c r="D93" s="145" t="s">
+        <v>619</v>
       </c>
       <c r="E93" s="128"/>
       <c r="F93" s="96"/>
@@ -16217,7 +16434,7 @@
         <v>505</v>
       </c>
       <c r="L93" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M93" s="96" t="s">
         <v>507</v>
@@ -16227,14 +16444,14 @@
       </c>
       <c r="O93" s="97"/>
       <c r="P93" s="97" t="s">
-        <v>564</v>
+        <v>831</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="132"/>
       <c r="C94" s="99"/>
-      <c r="D94" s="150" t="s">
-        <v>657</v>
+      <c r="D94" s="145" t="s">
+        <v>620</v>
       </c>
       <c r="E94" s="128"/>
       <c r="F94" s="96"/>
@@ -16248,7 +16465,7 @@
         <v>505</v>
       </c>
       <c r="L94" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M94" s="96" t="s">
         <v>507</v>
@@ -16258,14 +16475,14 @@
       </c>
       <c r="O94" s="97"/>
       <c r="P94" s="97" t="s">
-        <v>566</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="132"/>
       <c r="C95" s="99"/>
-      <c r="D95" s="150" t="s">
-        <v>658</v>
+      <c r="D95" s="145" t="s">
+        <v>621</v>
       </c>
       <c r="E95" s="128"/>
       <c r="F95" s="96"/>
@@ -16279,7 +16496,7 @@
         <v>505</v>
       </c>
       <c r="L95" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M95" s="96" t="s">
         <v>507</v>
@@ -16289,14 +16506,14 @@
       </c>
       <c r="O95" s="97"/>
       <c r="P95" s="97" t="s">
-        <v>568</v>
+        <v>833</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="132"/>
       <c r="C96" s="99"/>
-      <c r="D96" s="150" t="s">
-        <v>659</v>
+      <c r="D96" s="145" t="s">
+        <v>622</v>
       </c>
       <c r="E96" s="128"/>
       <c r="F96" s="96"/>
@@ -16310,7 +16527,7 @@
         <v>505</v>
       </c>
       <c r="L96" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M96" s="96" t="s">
         <v>507</v>
@@ -16320,14 +16537,14 @@
       </c>
       <c r="O96" s="97"/>
       <c r="P96" s="97" t="s">
-        <v>570</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="132"/>
       <c r="C97" s="99"/>
-      <c r="D97" s="150" t="s">
-        <v>660</v>
+      <c r="D97" s="145" t="s">
+        <v>623</v>
       </c>
       <c r="E97" s="128"/>
       <c r="F97" s="96"/>
@@ -16341,7 +16558,7 @@
         <v>505</v>
       </c>
       <c r="L97" s="96" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M97" s="96" t="s">
         <v>507</v>
@@ -16351,16 +16568,16 @@
       </c>
       <c r="O97" s="97"/>
       <c r="P97" s="97" t="s">
-        <v>572</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="132" t="s">
-        <v>661</v>
+        <v>624</v>
       </c>
       <c r="C98" s="127"/>
-      <c r="D98" s="160" t="s">
-        <v>662</v>
+      <c r="D98" s="155" t="s">
+        <v>625</v>
       </c>
       <c r="E98" s="128"/>
       <c r="F98" s="96"/>
@@ -16374,7 +16591,7 @@
         <v>505</v>
       </c>
       <c r="L98" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M98" s="96" t="s">
         <v>507</v>
@@ -16384,14 +16601,14 @@
       </c>
       <c r="O98" s="97"/>
       <c r="P98" s="97" t="s">
-        <v>664</v>
+        <v>836</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="132"/>
       <c r="C99" s="127"/>
-      <c r="D99" s="160" t="s">
-        <v>665</v>
+      <c r="D99" s="155" t="s">
+        <v>627</v>
       </c>
       <c r="E99" s="128"/>
       <c r="F99" s="96"/>
@@ -16405,7 +16622,7 @@
         <v>505</v>
       </c>
       <c r="L99" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M99" s="96" t="s">
         <v>507</v>
@@ -16415,14 +16632,14 @@
       </c>
       <c r="O99" s="97"/>
       <c r="P99" s="97" t="s">
-        <v>577</v>
+        <v>837</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="132"/>
       <c r="C100" s="127"/>
-      <c r="D100" s="160" t="s">
-        <v>666</v>
+      <c r="D100" s="155" t="s">
+        <v>628</v>
       </c>
       <c r="E100" s="128"/>
       <c r="F100" s="96"/>
@@ -16436,7 +16653,7 @@
         <v>505</v>
       </c>
       <c r="L100" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M100" s="96" t="s">
         <v>507</v>
@@ -16446,16 +16663,16 @@
       </c>
       <c r="O100" s="97"/>
       <c r="P100" s="97" t="s">
-        <v>510</v>
+        <v>840</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="132" t="s">
-        <v>667</v>
+        <v>629</v>
       </c>
       <c r="C101" s="127"/>
-      <c r="D101" s="160" t="s">
-        <v>668</v>
+      <c r="D101" s="155" t="s">
+        <v>630</v>
       </c>
       <c r="E101" s="128"/>
       <c r="F101" s="96"/>
@@ -16469,7 +16686,7 @@
         <v>505</v>
       </c>
       <c r="L101" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M101" s="96" t="s">
         <v>507</v>
@@ -16479,14 +16696,14 @@
       </c>
       <c r="O101" s="97"/>
       <c r="P101" s="97" t="s">
-        <v>512</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="132"/>
       <c r="C102" s="127"/>
-      <c r="D102" s="160" t="s">
-        <v>669</v>
+      <c r="D102" s="155" t="s">
+        <v>631</v>
       </c>
       <c r="E102" s="128"/>
       <c r="F102" s="96"/>
@@ -16500,7 +16717,7 @@
         <v>505</v>
       </c>
       <c r="L102" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M102" s="96" t="s">
         <v>507</v>
@@ -16510,14 +16727,14 @@
       </c>
       <c r="O102" s="97"/>
       <c r="P102" s="97" t="s">
-        <v>518</v>
+        <v>842</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="132"/>
       <c r="C103" s="127"/>
-      <c r="D103" s="160" t="s">
-        <v>670</v>
+      <c r="D103" s="155" t="s">
+        <v>632</v>
       </c>
       <c r="E103" s="128"/>
       <c r="F103" s="96"/>
@@ -16531,7 +16748,7 @@
         <v>505</v>
       </c>
       <c r="L103" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M103" s="96" t="s">
         <v>507</v>
@@ -16541,16 +16758,16 @@
       </c>
       <c r="O103" s="97"/>
       <c r="P103" s="97" t="s">
-        <v>520</v>
+        <v>843</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="132" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="C104" s="127"/>
-      <c r="D104" s="160" t="s">
-        <v>672</v>
+      <c r="D104" s="155" t="s">
+        <v>634</v>
       </c>
       <c r="E104" s="128"/>
       <c r="F104" s="96"/>
@@ -16564,7 +16781,7 @@
         <v>505</v>
       </c>
       <c r="L104" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M104" s="96" t="s">
         <v>507</v>
@@ -16574,14 +16791,14 @@
       </c>
       <c r="O104" s="97"/>
       <c r="P104" s="97" t="s">
-        <v>522</v>
+        <v>844</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="132"/>
       <c r="C105" s="127"/>
-      <c r="D105" s="160" t="s">
-        <v>673</v>
+      <c r="D105" s="155" t="s">
+        <v>635</v>
       </c>
       <c r="E105" s="128"/>
       <c r="F105" s="96"/>
@@ -16595,7 +16812,7 @@
         <v>505</v>
       </c>
       <c r="L105" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M105" s="96" t="s">
         <v>507</v>
@@ -16605,14 +16822,14 @@
       </c>
       <c r="O105" s="97"/>
       <c r="P105" s="97" t="s">
-        <v>524</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="132"/>
       <c r="C106" s="127"/>
-      <c r="D106" s="160" t="s">
-        <v>674</v>
+      <c r="D106" s="155" t="s">
+        <v>636</v>
       </c>
       <c r="E106" s="128"/>
       <c r="F106" s="96"/>
@@ -16626,7 +16843,7 @@
         <v>505</v>
       </c>
       <c r="L106" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M106" s="96" t="s">
         <v>507</v>
@@ -16636,14 +16853,14 @@
       </c>
       <c r="O106" s="97"/>
       <c r="P106" s="97" t="s">
-        <v>526</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="132"/>
       <c r="C107" s="127"/>
-      <c r="D107" s="160" t="s">
-        <v>675</v>
+      <c r="D107" s="155" t="s">
+        <v>637</v>
       </c>
       <c r="E107" s="128"/>
       <c r="F107" s="96"/>
@@ -16657,7 +16874,7 @@
         <v>505</v>
       </c>
       <c r="L107" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M107" s="96" t="s">
         <v>507</v>
@@ -16667,16 +16884,16 @@
       </c>
       <c r="O107" s="97"/>
       <c r="P107" s="97" t="s">
-        <v>528</v>
+        <v>847</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="132" t="s">
-        <v>676</v>
+        <v>638</v>
       </c>
       <c r="C108" s="127"/>
-      <c r="D108" s="160" t="s">
-        <v>677</v>
+      <c r="D108" s="155" t="s">
+        <v>639</v>
       </c>
       <c r="E108" s="128"/>
       <c r="F108" s="96"/>
@@ -16690,7 +16907,7 @@
         <v>505</v>
       </c>
       <c r="L108" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M108" s="96" t="s">
         <v>507</v>
@@ -16700,14 +16917,14 @@
       </c>
       <c r="O108" s="97"/>
       <c r="P108" s="97" t="s">
-        <v>530</v>
+        <v>848</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="132"/>
       <c r="C109" s="127"/>
-      <c r="D109" s="160" t="s">
-        <v>678</v>
+      <c r="D109" s="155" t="s">
+        <v>640</v>
       </c>
       <c r="E109" s="128"/>
       <c r="F109" s="96"/>
@@ -16721,7 +16938,7 @@
         <v>505</v>
       </c>
       <c r="L109" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M109" s="96" t="s">
         <v>507</v>
@@ -16731,14 +16948,14 @@
       </c>
       <c r="O109" s="97"/>
       <c r="P109" s="97" t="s">
-        <v>532</v>
+        <v>849</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="132"/>
       <c r="C110" s="127"/>
-      <c r="D110" s="160" t="s">
-        <v>679</v>
+      <c r="D110" s="155" t="s">
+        <v>641</v>
       </c>
       <c r="E110" s="128"/>
       <c r="F110" s="96"/>
@@ -16752,7 +16969,7 @@
         <v>505</v>
       </c>
       <c r="L110" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M110" s="96" t="s">
         <v>507</v>
@@ -16762,16 +16979,16 @@
       </c>
       <c r="O110" s="97"/>
       <c r="P110" s="97" t="s">
-        <v>534</v>
+        <v>850</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="132" t="s">
-        <v>680</v>
+        <v>642</v>
       </c>
       <c r="C111" s="127"/>
-      <c r="D111" s="160" t="s">
-        <v>681</v>
+      <c r="D111" s="155" t="s">
+        <v>643</v>
       </c>
       <c r="E111" s="128"/>
       <c r="F111" s="96"/>
@@ -16785,7 +17002,7 @@
         <v>505</v>
       </c>
       <c r="L111" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M111" s="96" t="s">
         <v>507</v>
@@ -16795,14 +17012,14 @@
       </c>
       <c r="O111" s="97"/>
       <c r="P111" s="97" t="s">
-        <v>538</v>
+        <v>851</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="132"/>
       <c r="C112" s="127"/>
-      <c r="D112" s="160" t="s">
-        <v>682</v>
+      <c r="D112" s="155" t="s">
+        <v>644</v>
       </c>
       <c r="E112" s="128"/>
       <c r="F112" s="96"/>
@@ -16816,7 +17033,7 @@
         <v>505</v>
       </c>
       <c r="L112" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M112" s="96" t="s">
         <v>507</v>
@@ -16826,14 +17043,14 @@
       </c>
       <c r="O112" s="97"/>
       <c r="P112" s="97" t="s">
-        <v>540</v>
+        <v>852</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="132"/>
       <c r="C113" s="127"/>
-      <c r="D113" s="160" t="s">
-        <v>683</v>
+      <c r="D113" s="155" t="s">
+        <v>645</v>
       </c>
       <c r="E113" s="128"/>
       <c r="F113" s="96"/>
@@ -16847,7 +17064,7 @@
         <v>505</v>
       </c>
       <c r="L113" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M113" s="96" t="s">
         <v>507</v>
@@ -16857,14 +17074,14 @@
       </c>
       <c r="O113" s="97"/>
       <c r="P113" s="97" t="s">
-        <v>542</v>
+        <v>853</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="132"/>
       <c r="C114" s="127"/>
-      <c r="D114" s="160" t="s">
-        <v>684</v>
+      <c r="D114" s="155" t="s">
+        <v>646</v>
       </c>
       <c r="E114" s="128"/>
       <c r="F114" s="96"/>
@@ -16878,7 +17095,7 @@
         <v>505</v>
       </c>
       <c r="L114" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M114" s="96" t="s">
         <v>507</v>
@@ -16888,16 +17105,16 @@
       </c>
       <c r="O114" s="97"/>
       <c r="P114" s="97" t="s">
-        <v>544</v>
+        <v>854</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="132" t="s">
-        <v>685</v>
+        <v>647</v>
       </c>
       <c r="C115" s="127"/>
-      <c r="D115" s="160" t="s">
-        <v>686</v>
+      <c r="D115" s="155" t="s">
+        <v>648</v>
       </c>
       <c r="E115" s="128"/>
       <c r="F115" s="96"/>
@@ -16911,7 +17128,7 @@
         <v>505</v>
       </c>
       <c r="L115" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M115" s="96" t="s">
         <v>507</v>
@@ -16921,14 +17138,14 @@
       </c>
       <c r="O115" s="97"/>
       <c r="P115" s="97" t="s">
-        <v>546</v>
+        <v>855</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="132"/>
       <c r="C116" s="127"/>
-      <c r="D116" s="160" t="s">
-        <v>687</v>
+      <c r="D116" s="155" t="s">
+        <v>649</v>
       </c>
       <c r="E116" s="128"/>
       <c r="F116" s="96"/>
@@ -16942,7 +17159,7 @@
         <v>505</v>
       </c>
       <c r="L116" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M116" s="96" t="s">
         <v>507</v>
@@ -16952,14 +17169,14 @@
       </c>
       <c r="O116" s="97"/>
       <c r="P116" s="97" t="s">
-        <v>548</v>
+        <v>856</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="132"/>
       <c r="C117" s="127"/>
-      <c r="D117" s="160" t="s">
-        <v>688</v>
+      <c r="D117" s="155" t="s">
+        <v>650</v>
       </c>
       <c r="E117" s="128"/>
       <c r="F117" s="96"/>
@@ -16973,7 +17190,7 @@
         <v>505</v>
       </c>
       <c r="L117" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M117" s="96" t="s">
         <v>507</v>
@@ -16983,14 +17200,14 @@
       </c>
       <c r="O117" s="97"/>
       <c r="P117" s="97" t="s">
-        <v>550</v>
+        <v>823</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="132"/>
       <c r="C118" s="127"/>
-      <c r="D118" s="160" t="s">
-        <v>689</v>
+      <c r="D118" s="155" t="s">
+        <v>651</v>
       </c>
       <c r="E118" s="128"/>
       <c r="F118" s="96"/>
@@ -17004,7 +17221,7 @@
         <v>505</v>
       </c>
       <c r="L118" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M118" s="96" t="s">
         <v>507</v>
@@ -17014,16 +17231,16 @@
       </c>
       <c r="O118" s="97"/>
       <c r="P118" s="97" t="s">
-        <v>601</v>
+        <v>857</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="132" t="s">
-        <v>690</v>
+        <v>652</v>
       </c>
       <c r="C119" s="127"/>
-      <c r="D119" s="160" t="s">
-        <v>691</v>
+      <c r="D119" s="155" t="s">
+        <v>653</v>
       </c>
       <c r="E119" s="128"/>
       <c r="F119" s="96"/>
@@ -17037,7 +17254,7 @@
         <v>505</v>
       </c>
       <c r="L119" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M119" s="96" t="s">
         <v>507</v>
@@ -17047,14 +17264,14 @@
       </c>
       <c r="O119" s="97"/>
       <c r="P119" s="97" t="s">
-        <v>552</v>
+        <v>858</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="132"/>
       <c r="C120" s="127"/>
-      <c r="D120" s="160" t="s">
-        <v>692</v>
+      <c r="D120" s="155" t="s">
+        <v>654</v>
       </c>
       <c r="E120" s="128"/>
       <c r="F120" s="96"/>
@@ -17068,7 +17285,7 @@
         <v>505</v>
       </c>
       <c r="L120" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M120" s="96" t="s">
         <v>507</v>
@@ -17078,16 +17295,16 @@
       </c>
       <c r="O120" s="97"/>
       <c r="P120" s="97" t="s">
-        <v>554</v>
+        <v>859</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="132" t="s">
-        <v>693</v>
+        <v>655</v>
       </c>
       <c r="C121" s="127"/>
-      <c r="D121" s="160" t="s">
-        <v>694</v>
+      <c r="D121" s="155" t="s">
+        <v>656</v>
       </c>
       <c r="E121" s="128"/>
       <c r="F121" s="96"/>
@@ -17101,7 +17318,7 @@
         <v>505</v>
       </c>
       <c r="L121" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M121" s="96" t="s">
         <v>507</v>
@@ -17111,14 +17328,14 @@
       </c>
       <c r="O121" s="97"/>
       <c r="P121" s="97" t="s">
-        <v>557</v>
+        <v>860</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="132"/>
       <c r="C122" s="127"/>
-      <c r="D122" s="160" t="s">
-        <v>695</v>
+      <c r="D122" s="155" t="s">
+        <v>657</v>
       </c>
       <c r="E122" s="128"/>
       <c r="F122" s="96"/>
@@ -17132,7 +17349,7 @@
         <v>505</v>
       </c>
       <c r="L122" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M122" s="96" t="s">
         <v>507</v>
@@ -17142,16 +17359,16 @@
       </c>
       <c r="O122" s="97"/>
       <c r="P122" s="97" t="s">
-        <v>559</v>
+        <v>861</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="132" t="s">
-        <v>696</v>
+        <v>658</v>
       </c>
       <c r="C123" s="99"/>
       <c r="D123" s="104" t="s">
-        <v>697</v>
+        <v>659</v>
       </c>
       <c r="E123" s="99"/>
       <c r="F123" s="96"/>
@@ -17165,7 +17382,7 @@
         <v>505</v>
       </c>
       <c r="L123" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M123" s="96" t="s">
         <v>507</v>
@@ -17175,14 +17392,14 @@
       </c>
       <c r="O123" s="97"/>
       <c r="P123" s="97" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
     </row>
     <row r="124" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="132"/>
       <c r="C124" s="99"/>
       <c r="D124" s="104" t="s">
-        <v>698</v>
+        <v>660</v>
       </c>
       <c r="E124" s="99"/>
       <c r="F124" s="96"/>
@@ -17196,7 +17413,7 @@
         <v>505</v>
       </c>
       <c r="L124" s="96" t="s">
-        <v>663</v>
+        <v>626</v>
       </c>
       <c r="M124" s="96" t="s">
         <v>507</v>
@@ -17206,14 +17423,14 @@
       </c>
       <c r="O124" s="97"/>
       <c r="P124" s="97" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
     </row>
     <row r="125" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="133"/>
-      <c r="C125" s="153"/>
-      <c r="D125" s="157"/>
-      <c r="E125" s="156"/>
+      <c r="C125" s="148"/>
+      <c r="D125" s="152"/>
+      <c r="E125" s="151"/>
       <c r="F125" s="135"/>
       <c r="G125" s="135"/>
       <c r="H125" s="135"/>
@@ -17451,7 +17668,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>699</v>
+        <v>661</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -17547,24 +17764,24 @@
       <c r="P4" s="53"/>
     </row>
     <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="168" t="s">
-        <v>700</v>
-      </c>
-      <c r="D5" s="165" t="s">
-        <v>701</v>
-      </c>
-      <c r="E5" s="154"/>
+      <c r="C5" s="163" t="s">
+        <v>662</v>
+      </c>
+      <c r="D5" s="160" t="s">
+        <v>663</v>
+      </c>
+      <c r="E5" s="149"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
       <c r="H5" s="94"/>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="146" t="s">
         <v>282</v>
       </c>
-      <c r="J5" s="171"/>
-      <c r="K5" s="154" t="s">
+      <c r="J5" s="166"/>
+      <c r="K5" s="149" t="s">
         <v>205</v>
       </c>
       <c r="L5" s="94"/>
@@ -17572,18 +17789,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="94" t="s">
-        <v>702</v>
-      </c>
-      <c r="O5" s="151"/>
+        <v>664</v>
+      </c>
+      <c r="O5" s="146"/>
       <c r="P5" s="60" t="s">
-        <v>703</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="162"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="166" t="s">
-        <v>704</v>
+      <c r="B6" s="157"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="161" t="s">
+        <v>666</v>
       </c>
       <c r="E6" s="128"/>
       <c r="F6" s="96"/>
@@ -17592,7 +17809,7 @@
       <c r="I6" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J6" s="169"/>
+      <c r="J6" s="164"/>
       <c r="K6" s="128" t="s">
         <v>205</v>
       </c>
@@ -17601,22 +17818,22 @@
         <v>207</v>
       </c>
       <c r="N6" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O6" s="127"/>
       <c r="P6" s="67" t="s">
-        <v>705</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="158" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="170" t="s">
-        <v>700</v>
-      </c>
-      <c r="D7" s="166" t="s">
-        <v>706</v>
+      <c r="C7" s="165" t="s">
+        <v>662</v>
+      </c>
+      <c r="D7" s="161" t="s">
+        <v>668</v>
       </c>
       <c r="E7" s="128"/>
       <c r="F7" s="96"/>
@@ -17625,7 +17842,7 @@
         <v>203</v>
       </c>
       <c r="I7" s="127"/>
-      <c r="J7" s="169"/>
+      <c r="J7" s="164"/>
       <c r="K7" s="128" t="s">
         <v>205</v>
       </c>
@@ -17634,20 +17851,20 @@
         <v>207</v>
       </c>
       <c r="N7" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O7" s="127"/>
       <c r="P7" s="67" t="s">
-        <v>707</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="162"/>
-      <c r="C8" s="170">
+      <c r="B8" s="157"/>
+      <c r="C8" s="165">
         <v>2</v>
       </c>
-      <c r="D8" s="166" t="s">
-        <v>708</v>
+      <c r="D8" s="161" t="s">
+        <v>670</v>
       </c>
       <c r="E8" s="128"/>
       <c r="F8" s="96"/>
@@ -17656,7 +17873,7 @@
       <c r="I8" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J8" s="169"/>
+      <c r="J8" s="164"/>
       <c r="K8" s="128" t="s">
         <v>289</v>
       </c>
@@ -17665,20 +17882,20 @@
       </c>
       <c r="M8" s="96"/>
       <c r="N8" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O8" s="127"/>
       <c r="P8" s="67" t="s">
-        <v>709</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="162"/>
-      <c r="C9" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>711</v>
+      <c r="B9" s="157"/>
+      <c r="C9" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>673</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="96"/>
@@ -17687,7 +17904,7 @@
       </c>
       <c r="H9" s="96"/>
       <c r="I9" s="127"/>
-      <c r="J9" s="169"/>
+      <c r="J9" s="164"/>
       <c r="K9" s="128" t="s">
         <v>289</v>
       </c>
@@ -17696,22 +17913,22 @@
       </c>
       <c r="M9" s="96"/>
       <c r="N9" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O9" s="127"/>
       <c r="P9" s="67" t="s">
-        <v>712</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="158" t="s">
         <v>487</v>
       </c>
-      <c r="C10" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D10" s="166" t="s">
-        <v>713</v>
+      <c r="C10" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D10" s="161" t="s">
+        <v>675</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="96"/>
@@ -17720,7 +17937,7 @@
         <v>203</v>
       </c>
       <c r="I10" s="127"/>
-      <c r="J10" s="169"/>
+      <c r="J10" s="164"/>
       <c r="K10" s="128" t="s">
         <v>289</v>
       </c>
@@ -17729,22 +17946,22 @@
       </c>
       <c r="M10" s="96"/>
       <c r="N10" s="96" t="s">
-        <v>714</v>
+        <v>676</v>
       </c>
       <c r="O10" s="127"/>
       <c r="P10" s="67" t="s">
-        <v>715</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="163" t="s">
+      <c r="B11" s="158" t="s">
         <v>490</v>
       </c>
-      <c r="C11" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D11" s="166" t="s">
-        <v>716</v>
+      <c r="C11" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D11" s="161" t="s">
+        <v>678</v>
       </c>
       <c r="E11" s="128"/>
       <c r="F11" s="96"/>
@@ -17753,7 +17970,7 @@
         <v>203</v>
       </c>
       <c r="I11" s="127"/>
-      <c r="J11" s="169"/>
+      <c r="J11" s="164"/>
       <c r="K11" s="128" t="s">
         <v>289</v>
       </c>
@@ -17762,22 +17979,22 @@
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O11" s="127"/>
       <c r="P11" s="67" t="s">
-        <v>717</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="158" t="s">
         <v>493</v>
       </c>
-      <c r="C12" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D12" s="166" t="s">
-        <v>718</v>
+      <c r="C12" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>680</v>
       </c>
       <c r="E12" s="128"/>
       <c r="F12" s="96"/>
@@ -17786,7 +18003,7 @@
       <c r="I12" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="169"/>
+      <c r="J12" s="164"/>
       <c r="K12" s="128" t="s">
         <v>289</v>
       </c>
@@ -17797,16 +18014,16 @@
       <c r="N12" s="96"/>
       <c r="O12" s="127"/>
       <c r="P12" s="67" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="162"/>
-      <c r="C13" s="170">
+      <c r="B13" s="157"/>
+      <c r="C13" s="165">
         <v>8</v>
       </c>
-      <c r="D13" s="166" t="s">
-        <v>720</v>
+      <c r="D13" s="161" t="s">
+        <v>682</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>200</v>
@@ -17815,7 +18032,7 @@
       <c r="G13" s="96"/>
       <c r="H13" s="96"/>
       <c r="I13" s="127"/>
-      <c r="J13" s="169"/>
+      <c r="J13" s="164"/>
       <c r="K13" s="128" t="s">
         <v>205</v>
       </c>
@@ -17824,24 +18041,24 @@
         <v>207</v>
       </c>
       <c r="N13" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O13" s="127" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>722</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="158" t="s">
         <v>496</v>
       </c>
-      <c r="C14" s="170">
+      <c r="C14" s="165">
         <v>2</v>
       </c>
-      <c r="D14" s="166" t="s">
-        <v>723</v>
+      <c r="D14" s="161" t="s">
+        <v>685</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
@@ -17850,7 +18067,7 @@
         <v>203</v>
       </c>
       <c r="I14" s="127"/>
-      <c r="J14" s="169"/>
+      <c r="J14" s="164"/>
       <c r="K14" s="128" t="s">
         <v>289</v>
       </c>
@@ -17859,20 +18076,20 @@
       </c>
       <c r="M14" s="96"/>
       <c r="N14" s="96" t="s">
-        <v>724</v>
+        <v>686</v>
       </c>
       <c r="O14" s="127"/>
       <c r="P14" s="67" t="s">
-        <v>725</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="162"/>
-      <c r="C15" s="170" t="s">
-        <v>726</v>
-      </c>
-      <c r="D15" s="167" t="s">
-        <v>727</v>
+      <c r="B15" s="157"/>
+      <c r="C15" s="165" t="s">
+        <v>688</v>
+      </c>
+      <c r="D15" s="162" t="s">
+        <v>689</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -17881,7 +18098,7 @@
       </c>
       <c r="H15" s="96"/>
       <c r="I15" s="127"/>
-      <c r="J15" s="169"/>
+      <c r="J15" s="164"/>
       <c r="K15" s="128" t="s">
         <v>205</v>
       </c>
@@ -17890,16 +18107,16 @@
       <c r="N15" s="96"/>
       <c r="O15" s="127"/>
       <c r="P15" s="67" t="s">
-        <v>728</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="162"/>
-      <c r="C16" s="170" t="s">
-        <v>726</v>
-      </c>
-      <c r="D16" s="167" t="s">
-        <v>729</v>
+      <c r="B16" s="157"/>
+      <c r="C16" s="165" t="s">
+        <v>688</v>
+      </c>
+      <c r="D16" s="162" t="s">
+        <v>691</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -17908,7 +18125,7 @@
       <c r="I16" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J16" s="169"/>
+      <c r="J16" s="164"/>
       <c r="K16" s="128" t="s">
         <v>289</v>
       </c>
@@ -17919,18 +18136,18 @@
       <c r="N16" s="96"/>
       <c r="O16" s="127"/>
       <c r="P16" s="67" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="163" t="s">
+      <c r="B17" s="158" t="s">
         <v>499</v>
       </c>
-      <c r="C17" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D17" s="167" t="s">
-        <v>731</v>
+      <c r="C17" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D17" s="162" t="s">
+        <v>693</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -17939,7 +18156,7 @@
       </c>
       <c r="H17" s="96"/>
       <c r="I17" s="127"/>
-      <c r="J17" s="169"/>
+      <c r="J17" s="164"/>
       <c r="K17" s="128" t="s">
         <v>289</v>
       </c>
@@ -17948,20 +18165,20 @@
       </c>
       <c r="M17" s="96"/>
       <c r="N17" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O17" s="127"/>
       <c r="P17" s="67" t="s">
-        <v>732</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="163" t="s">
-        <v>555</v>
-      </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="160" t="s">
-        <v>733</v>
+      <c r="B18" s="158" t="s">
+        <v>531</v>
+      </c>
+      <c r="C18" s="165"/>
+      <c r="D18" s="155" t="s">
+        <v>695</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -17970,7 +18187,7 @@
       </c>
       <c r="H18" s="96"/>
       <c r="I18" s="127"/>
-      <c r="J18" s="169"/>
+      <c r="J18" s="164"/>
       <c r="K18" s="128" t="s">
         <v>205</v>
       </c>
@@ -17979,18 +18196,18 @@
         <v>207</v>
       </c>
       <c r="N18" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O18" s="127"/>
       <c r="P18" s="67" t="s">
-        <v>734</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="163"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="160" t="s">
-        <v>735</v>
+      <c r="B19" s="158"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="155" t="s">
+        <v>697</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -17999,7 +18216,7 @@
       </c>
       <c r="H19" s="96"/>
       <c r="I19" s="127"/>
-      <c r="J19" s="169"/>
+      <c r="J19" s="164"/>
       <c r="K19" s="128" t="s">
         <v>205</v>
       </c>
@@ -18008,22 +18225,22 @@
         <v>207</v>
       </c>
       <c r="N19" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O19" s="127"/>
       <c r="P19" s="67" t="s">
-        <v>736</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="163" t="s">
-        <v>560</v>
-      </c>
-      <c r="C20" s="170">
+      <c r="B20" s="158" t="s">
+        <v>534</v>
+      </c>
+      <c r="C20" s="165">
         <v>1</v>
       </c>
-      <c r="D20" s="166" t="s">
-        <v>737</v>
+      <c r="D20" s="161" t="s">
+        <v>699</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
@@ -18032,7 +18249,7 @@
       <c r="I20" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J20" s="169"/>
+      <c r="J20" s="164"/>
       <c r="K20" s="128" t="s">
         <v>205</v>
       </c>
@@ -18041,22 +18258,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O20" s="127"/>
       <c r="P20" s="67" t="s">
-        <v>738</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="163" t="s">
-        <v>739</v>
-      </c>
-      <c r="C21" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D21" s="166" t="s">
-        <v>740</v>
+      <c r="B21" s="158" t="s">
+        <v>701</v>
+      </c>
+      <c r="C21" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D21" s="161" t="s">
+        <v>702</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -18065,7 +18282,7 @@
       <c r="I21" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="169"/>
+      <c r="J21" s="164"/>
       <c r="K21" s="128" t="s">
         <v>205</v>
       </c>
@@ -18074,22 +18291,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O21" s="127"/>
       <c r="P21" s="67" t="s">
-        <v>741</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="163" t="s">
-        <v>742</v>
-      </c>
-      <c r="C22" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D22" s="166" t="s">
-        <v>743</v>
+      <c r="B22" s="158" t="s">
+        <v>704</v>
+      </c>
+      <c r="C22" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D22" s="161" t="s">
+        <v>705</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="96"/>
@@ -18098,7 +18315,7 @@
       <c r="I22" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J22" s="169"/>
+      <c r="J22" s="164"/>
       <c r="K22" s="128" t="s">
         <v>205</v>
       </c>
@@ -18107,22 +18324,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O22" s="127"/>
       <c r="P22" s="67" t="s">
-        <v>744</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="163" t="s">
-        <v>745</v>
-      </c>
-      <c r="C23" s="170">
+      <c r="B23" s="158" t="s">
+        <v>707</v>
+      </c>
+      <c r="C23" s="165">
         <v>2</v>
       </c>
-      <c r="D23" s="167" t="s">
-        <v>746</v>
+      <c r="D23" s="162" t="s">
+        <v>708</v>
       </c>
       <c r="E23" s="128" t="s">
         <v>200</v>
@@ -18131,7 +18348,7 @@
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
       <c r="I23" s="127"/>
-      <c r="J23" s="169"/>
+      <c r="J23" s="164"/>
       <c r="K23" s="128" t="s">
         <v>205</v>
       </c>
@@ -18140,20 +18357,20 @@
         <v>207</v>
       </c>
       <c r="N23" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O23" s="127"/>
       <c r="P23" s="67" t="s">
-        <v>747</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="162"/>
-      <c r="C24" s="170" t="s">
+      <c r="B24" s="157"/>
+      <c r="C24" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D24" s="162" t="s">
         <v>710</v>
-      </c>
-      <c r="D24" s="167" t="s">
-        <v>748</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
@@ -18162,7 +18379,7 @@
       <c r="I24" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J24" s="169"/>
+      <c r="J24" s="164"/>
       <c r="K24" s="128" t="s">
         <v>205</v>
       </c>
@@ -18171,20 +18388,20 @@
         <v>207</v>
       </c>
       <c r="N24" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O24" s="127"/>
       <c r="P24" s="67" t="s">
-        <v>749</v>
+        <v>711</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="162"/>
-      <c r="C25" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D25" s="166" t="s">
-        <v>750</v>
+      <c r="B25" s="157"/>
+      <c r="C25" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D25" s="161" t="s">
+        <v>712</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
@@ -18193,7 +18410,7 @@
       </c>
       <c r="H25" s="96"/>
       <c r="I25" s="127"/>
-      <c r="J25" s="169"/>
+      <c r="J25" s="164"/>
       <c r="K25" s="128" t="s">
         <v>205</v>
       </c>
@@ -18202,22 +18419,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="96" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="O25" s="127"/>
       <c r="P25" s="67" t="s">
-        <v>751</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="162" t="s">
-        <v>752</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="157" t="s">
+        <v>714</v>
+      </c>
+      <c r="C26" s="165">
         <v>1</v>
       </c>
-      <c r="D26" s="166" t="s">
-        <v>753</v>
+      <c r="D26" s="161" t="s">
+        <v>715</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
@@ -18226,7 +18443,7 @@
       <c r="I26" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J26" s="169"/>
+      <c r="J26" s="164"/>
       <c r="K26" s="128" t="s">
         <v>205</v>
       </c>
@@ -18235,22 +18452,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="96" t="s">
-        <v>754</v>
+        <v>716</v>
       </c>
       <c r="O26" s="127"/>
       <c r="P26" s="67" t="s">
-        <v>755</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="162" t="s">
-        <v>756</v>
-      </c>
-      <c r="C27" s="170" t="s">
-        <v>710</v>
-      </c>
-      <c r="D27" s="166" t="s">
-        <v>757</v>
+      <c r="B27" s="157" t="s">
+        <v>718</v>
+      </c>
+      <c r="C27" s="165" t="s">
+        <v>672</v>
+      </c>
+      <c r="D27" s="161" t="s">
+        <v>719</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
@@ -18259,7 +18476,7 @@
         <v>203</v>
       </c>
       <c r="I27" s="127"/>
-      <c r="J27" s="169"/>
+      <c r="J27" s="164"/>
       <c r="K27" s="128" t="s">
         <v>205</v>
       </c>
@@ -18270,16 +18487,16 @@
       <c r="N27" s="96"/>
       <c r="O27" s="127"/>
       <c r="P27" s="67" t="s">
-        <v>758</v>
+        <v>720</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="162" t="s">
-        <v>759</v>
-      </c>
-      <c r="C28" s="169"/>
-      <c r="D28" s="166" t="s">
-        <v>760</v>
+      <c r="B28" s="157" t="s">
+        <v>721</v>
+      </c>
+      <c r="C28" s="164"/>
+      <c r="D28" s="161" t="s">
+        <v>722</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="96"/>
@@ -18299,16 +18516,16 @@
       <c r="N28" s="96"/>
       <c r="O28" s="127"/>
       <c r="P28" s="67" t="s">
-        <v>761</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="162" t="s">
-        <v>762</v>
-      </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="160" t="s">
-        <v>763</v>
+      <c r="B29" s="157" t="s">
+        <v>724</v>
+      </c>
+      <c r="C29" s="164"/>
+      <c r="D29" s="155" t="s">
+        <v>725</v>
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="96"/>
@@ -18328,16 +18545,16 @@
       <c r="N29" s="96"/>
       <c r="O29" s="127"/>
       <c r="P29" s="67" t="s">
-        <v>764</v>
+        <v>726</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="162" t="s">
-        <v>765</v>
-      </c>
-      <c r="C30" s="169"/>
-      <c r="D30" s="166" t="s">
-        <v>766</v>
+      <c r="B30" s="157" t="s">
+        <v>727</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="161" t="s">
+        <v>728</v>
       </c>
       <c r="E30" s="128" t="s">
         <v>200</v>
@@ -18355,16 +18572,16 @@
       <c r="N30" s="96"/>
       <c r="O30" s="127"/>
       <c r="P30" s="67" t="s">
-        <v>767</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="162" t="s">
-        <v>768</v>
-      </c>
-      <c r="C31" s="169"/>
-      <c r="D31" s="167" t="s">
-        <v>769</v>
+      <c r="B31" s="157" t="s">
+        <v>730</v>
+      </c>
+      <c r="C31" s="164"/>
+      <c r="D31" s="162" t="s">
+        <v>731</v>
       </c>
       <c r="E31" s="128" t="s">
         <v>200</v>
@@ -18384,16 +18601,16 @@
       <c r="N31" s="96"/>
       <c r="O31" s="127"/>
       <c r="P31" s="67" t="s">
-        <v>770</v>
+        <v>732</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="162" t="s">
-        <v>771</v>
-      </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="167" t="s">
-        <v>772</v>
+      <c r="B32" s="157" t="s">
+        <v>733</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="162" t="s">
+        <v>734</v>
       </c>
       <c r="E32" s="128" t="s">
         <v>200</v>
@@ -18410,19 +18627,19 @@
       <c r="M32" s="96"/>
       <c r="N32" s="96"/>
       <c r="O32" s="127" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="P32" s="67" t="s">
-        <v>773</v>
+        <v>735</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="162" t="s">
-        <v>774</v>
-      </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="160" t="s">
-        <v>775</v>
+      <c r="B33" s="157" t="s">
+        <v>736</v>
+      </c>
+      <c r="C33" s="164"/>
+      <c r="D33" s="155" t="s">
+        <v>737</v>
       </c>
       <c r="E33" s="128"/>
       <c r="F33" s="96"/>
@@ -18442,16 +18659,16 @@
       <c r="N33" s="96"/>
       <c r="O33" s="127"/>
       <c r="P33" s="67" t="s">
-        <v>776</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="162" t="s">
-        <v>777</v>
-      </c>
-      <c r="C34" s="170"/>
-      <c r="D34" s="167" t="s">
-        <v>778</v>
+      <c r="B34" s="157" t="s">
+        <v>739</v>
+      </c>
+      <c r="C34" s="165"/>
+      <c r="D34" s="162" t="s">
+        <v>740</v>
       </c>
       <c r="E34" s="128"/>
       <c r="F34" s="96"/>
@@ -18460,7 +18677,7 @@
       <c r="I34" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J34" s="169"/>
+      <c r="J34" s="164"/>
       <c r="K34" s="128" t="s">
         <v>289</v>
       </c>
@@ -18471,7 +18688,7 @@
       <c r="N34" s="96"/>
       <c r="O34" s="137"/>
       <c r="P34" s="113" t="s">
-        <v>779</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18485,7 +18702,7 @@
       <c r="I35" s="110"/>
       <c r="J35" s="110"/>
       <c r="K35" s="103"/>
-      <c r="L35" s="164"/>
+      <c r="L35" s="159"/>
       <c r="M35" s="103"/>
       <c r="N35" s="103"/>
       <c r="O35" s="112"/>
@@ -18502,7 +18719,7 @@
       <c r="I36" s="110"/>
       <c r="J36" s="110"/>
       <c r="K36" s="103"/>
-      <c r="L36" s="164"/>
+      <c r="L36" s="159"/>
       <c r="M36" s="103"/>
       <c r="N36" s="103"/>
       <c r="O36" s="112"/>
@@ -18519,7 +18736,7 @@
       <c r="I37" s="110"/>
       <c r="J37" s="110"/>
       <c r="K37" s="103"/>
-      <c r="L37" s="164"/>
+      <c r="L37" s="159"/>
       <c r="M37" s="103"/>
       <c r="N37" s="103"/>
       <c r="O37" s="112"/>
@@ -18536,7 +18753,7 @@
       <c r="I38" s="110"/>
       <c r="J38" s="110"/>
       <c r="K38" s="103"/>
-      <c r="L38" s="164"/>
+      <c r="L38" s="159"/>
       <c r="M38" s="103"/>
       <c r="N38" s="103"/>
       <c r="O38" s="112"/>

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -2206,9 +2206,6 @@
     <t>Fade in, Fade out</t>
   </si>
   <si>
-    <t>Indica el periodo act()ivo de la invulnerabilidad</t>
-  </si>
-  <si>
     <t>F-004</t>
   </si>
   <si>
@@ -2738,6 +2735,9 @@
   </si>
   <si>
     <t>Derrota (INGLÉS) / "Gameee Oveer"</t>
+  </si>
+  <si>
+    <t>Indica el periodo activo de la invulnerabilidad</t>
   </si>
 </sst>
 </file>
@@ -5264,7 +5264,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -5285,7 +5285,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -5388,7 +5388,7 @@
         <v>477</v>
       </c>
       <c r="D5" s="177" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -5405,10 +5405,10 @@
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
+        <v>744</v>
+      </c>
+      <c r="P5" s="60" t="s">
         <v>745</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5419,7 +5419,7 @@
         <v>477</v>
       </c>
       <c r="D6" s="175" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E6" s="141" t="s">
         <v>200</v>
@@ -5436,10 +5436,10 @@
       <c r="M6" s="141"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P6" s="179" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5450,7 +5450,7 @@
         <v>477</v>
       </c>
       <c r="D7" s="176" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>200</v>
@@ -5467,10 +5467,10 @@
       <c r="M7" s="141"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P7" s="179" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13516,7 +13516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P122" sqref="P122"/>
     </sheetView>
   </sheetViews>
@@ -13664,7 +13664,7 @@
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="129" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13695,7 +13695,7 @@
       </c>
       <c r="O6" s="126"/>
       <c r="P6" s="126" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13728,7 +13728,7 @@
       </c>
       <c r="O7" s="97"/>
       <c r="P7" s="97" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="97" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="O9" s="97"/>
       <c r="P9" s="97" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="O10" s="97"/>
       <c r="P10" s="97" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13852,7 +13852,7 @@
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="97" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13885,7 +13885,7 @@
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="97" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="97" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13947,7 +13947,7 @@
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="97" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="97" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="97" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="97" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="O21" s="97"/>
       <c r="P21" s="97" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="97" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14230,7 +14230,7 @@
       </c>
       <c r="O23" s="97"/>
       <c r="P23" s="97" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14263,7 +14263,7 @@
       </c>
       <c r="O24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="O25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14358,7 +14358,7 @@
       </c>
       <c r="O27" s="97"/>
       <c r="P27" s="97" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14389,7 +14389,7 @@
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14422,7 +14422,7 @@
       </c>
       <c r="O29" s="97"/>
       <c r="P29" s="97" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="O30" s="97"/>
       <c r="P30" s="97" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14486,7 +14486,7 @@
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="97" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="97" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="O34" s="97"/>
       <c r="P34" s="97" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="O35" s="97"/>
       <c r="P35" s="97" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14641,7 +14641,7 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="O37" s="97"/>
       <c r="P37" s="97" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14705,7 +14705,7 @@
       </c>
       <c r="O38" s="97"/>
       <c r="P38" s="97" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="O39" s="97"/>
       <c r="P39" s="97" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="O40" s="97"/>
       <c r="P40" s="97" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14800,7 +14800,7 @@
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="97" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="O42" s="97"/>
       <c r="P42" s="97" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14862,7 +14862,7 @@
       </c>
       <c r="O43" s="97"/>
       <c r="P43" s="97" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14895,7 +14895,7 @@
       </c>
       <c r="O44" s="97"/>
       <c r="P44" s="97" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="O45" s="97"/>
       <c r="P45" s="97" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14957,7 +14957,7 @@
       </c>
       <c r="O46" s="97"/>
       <c r="P46" s="97" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="O47" s="97"/>
       <c r="P47" s="97" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="O48" s="97"/>
       <c r="P48" s="97" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="O49" s="97"/>
       <c r="P49" s="97" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15083,7 +15083,7 @@
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="97" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="97" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15147,7 +15147,7 @@
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15180,7 +15180,7 @@
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="97" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15211,7 +15211,7 @@
       </c>
       <c r="O54" s="97"/>
       <c r="P54" s="97" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15242,7 +15242,7 @@
       </c>
       <c r="O55" s="97"/>
       <c r="P55" s="97" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="O56" s="97"/>
       <c r="P56" s="97" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15306,7 +15306,7 @@
       </c>
       <c r="O57" s="97"/>
       <c r="P57" s="97" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15337,7 +15337,7 @@
       </c>
       <c r="O58" s="97"/>
       <c r="P58" s="97" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="O59" s="97"/>
       <c r="P59" s="97" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15401,7 +15401,7 @@
       </c>
       <c r="O60" s="97"/>
       <c r="P60" s="97" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15432,7 +15432,7 @@
       </c>
       <c r="O61" s="97"/>
       <c r="P61" s="97" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="O62" s="97"/>
       <c r="P62" s="97" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="O63" s="97"/>
       <c r="P63" s="97" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15529,7 +15529,7 @@
       </c>
       <c r="O64" s="97"/>
       <c r="P64" s="97" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="O65" s="97"/>
       <c r="P65" s="97" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15593,7 +15593,7 @@
       </c>
       <c r="O66" s="97"/>
       <c r="P66" s="97" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="O67" s="97"/>
       <c r="P67" s="97" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15655,7 +15655,7 @@
       </c>
       <c r="O68" s="97"/>
       <c r="P68" s="97" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15686,7 +15686,7 @@
       </c>
       <c r="O69" s="97"/>
       <c r="P69" s="97" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15719,7 +15719,7 @@
       </c>
       <c r="O70" s="97"/>
       <c r="P70" s="97" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="O71" s="97"/>
       <c r="P71" s="97" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15783,7 +15783,7 @@
       </c>
       <c r="O72" s="97"/>
       <c r="P72" s="97" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15814,7 +15814,7 @@
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15845,7 +15845,7 @@
       </c>
       <c r="O74" s="97"/>
       <c r="P74" s="97" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15876,7 +15876,7 @@
       </c>
       <c r="O75" s="97"/>
       <c r="P75" s="97" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15907,7 +15907,7 @@
       </c>
       <c r="O76" s="97"/>
       <c r="P76" s="97" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15940,7 +15940,7 @@
       </c>
       <c r="O77" s="97"/>
       <c r="P77" s="97" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="O78" s="97"/>
       <c r="P78" s="97" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16002,7 +16002,7 @@
       </c>
       <c r="O79" s="97"/>
       <c r="P79" s="97" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16033,7 +16033,7 @@
       </c>
       <c r="O80" s="97"/>
       <c r="P80" s="97" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="O81" s="97"/>
       <c r="P81" s="97" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16095,7 +16095,7 @@
       </c>
       <c r="O82" s="97"/>
       <c r="P82" s="97" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16159,7 +16159,7 @@
       </c>
       <c r="O84" s="97"/>
       <c r="P84" s="97" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16190,7 +16190,7 @@
       </c>
       <c r="O85" s="97"/>
       <c r="P85" s="97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16221,7 +16221,7 @@
       </c>
       <c r="O86" s="97"/>
       <c r="P86" s="97" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16254,7 +16254,7 @@
       </c>
       <c r="O87" s="97"/>
       <c r="P87" s="97" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16285,7 +16285,7 @@
       </c>
       <c r="O88" s="97"/>
       <c r="P88" s="97" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16318,7 +16318,7 @@
       </c>
       <c r="O89" s="97"/>
       <c r="P89" s="97" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="O90" s="97"/>
       <c r="P90" s="97" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="O91" s="97"/>
       <c r="P91" s="97" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="O92" s="97"/>
       <c r="P92" s="97" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16444,7 +16444,7 @@
       </c>
       <c r="O93" s="97"/>
       <c r="P93" s="97" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16475,7 +16475,7 @@
       </c>
       <c r="O94" s="97"/>
       <c r="P94" s="97" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="O95" s="97"/>
       <c r="P95" s="97" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16537,7 +16537,7 @@
       </c>
       <c r="O96" s="97"/>
       <c r="P96" s="97" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="O97" s="97"/>
       <c r="P97" s="97" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16601,7 +16601,7 @@
       </c>
       <c r="O98" s="97"/>
       <c r="P98" s="97" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16632,7 +16632,7 @@
       </c>
       <c r="O99" s="97"/>
       <c r="P99" s="97" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16663,7 +16663,7 @@
       </c>
       <c r="O100" s="97"/>
       <c r="P100" s="97" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16696,7 +16696,7 @@
       </c>
       <c r="O101" s="97"/>
       <c r="P101" s="97" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="O102" s="97"/>
       <c r="P102" s="97" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16758,7 +16758,7 @@
       </c>
       <c r="O103" s="97"/>
       <c r="P103" s="97" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16791,7 +16791,7 @@
       </c>
       <c r="O104" s="97"/>
       <c r="P104" s="97" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16822,7 +16822,7 @@
       </c>
       <c r="O105" s="97"/>
       <c r="P105" s="97" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16853,7 +16853,7 @@
       </c>
       <c r="O106" s="97"/>
       <c r="P106" s="97" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16884,7 +16884,7 @@
       </c>
       <c r="O107" s="97"/>
       <c r="P107" s="97" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="O108" s="97"/>
       <c r="P108" s="97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16948,7 +16948,7 @@
       </c>
       <c r="O109" s="97"/>
       <c r="P109" s="97" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="O110" s="97"/>
       <c r="P110" s="97" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17012,7 +17012,7 @@
       </c>
       <c r="O111" s="97"/>
       <c r="P111" s="97" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="O112" s="97"/>
       <c r="P112" s="97" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17074,7 +17074,7 @@
       </c>
       <c r="O113" s="97"/>
       <c r="P113" s="97" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17105,7 +17105,7 @@
       </c>
       <c r="O114" s="97"/>
       <c r="P114" s="97" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17138,7 +17138,7 @@
       </c>
       <c r="O115" s="97"/>
       <c r="P115" s="97" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="O116" s="97"/>
       <c r="P116" s="97" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17200,7 +17200,7 @@
       </c>
       <c r="O117" s="97"/>
       <c r="P117" s="97" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17231,7 +17231,7 @@
       </c>
       <c r="O118" s="97"/>
       <c r="P118" s="97" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="O119" s="97"/>
       <c r="P119" s="97" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17295,7 +17295,7 @@
       </c>
       <c r="O120" s="97"/>
       <c r="P120" s="97" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17328,7 +17328,7 @@
       </c>
       <c r="O121" s="97"/>
       <c r="P121" s="97" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="O122" s="97"/>
       <c r="P122" s="97" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17645,8 +17645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK43"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -18020,9 +18020,9 @@
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="157"/>
       <c r="C13" s="165">
-        <v>8</v>
-      </c>
-      <c r="D13" s="161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="162" t="s">
         <v>682</v>
       </c>
       <c r="E13" s="128" t="s">
@@ -18047,7 +18047,7 @@
         <v>683</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>684</v>
+        <v>861</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18058,7 +18058,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
@@ -18076,20 +18076,20 @@
       </c>
       <c r="M14" s="96"/>
       <c r="N14" s="96" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="O14" s="127"/>
       <c r="P14" s="67" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="157"/>
       <c r="C15" s="165" t="s">
+        <v>687</v>
+      </c>
+      <c r="D15" s="162" t="s">
         <v>688</v>
-      </c>
-      <c r="D15" s="162" t="s">
-        <v>689</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -18107,16 +18107,16 @@
       <c r="N15" s="96"/>
       <c r="O15" s="127"/>
       <c r="P15" s="67" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="157"/>
       <c r="C16" s="165" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D16" s="162" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -18136,7 +18136,7 @@
       <c r="N16" s="96"/>
       <c r="O16" s="127"/>
       <c r="P16" s="67" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18147,7 +18147,7 @@
         <v>672</v>
       </c>
       <c r="D17" s="162" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -18169,7 +18169,7 @@
       </c>
       <c r="O17" s="127"/>
       <c r="P17" s="67" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="155" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -18200,14 +18200,14 @@
       </c>
       <c r="O18" s="127"/>
       <c r="P18" s="67" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="158"/>
       <c r="C19" s="165"/>
       <c r="D19" s="155" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -18229,7 +18229,7 @@
       </c>
       <c r="O19" s="127"/>
       <c r="P19" s="67" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18240,7 +18240,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
@@ -18262,18 +18262,18 @@
       </c>
       <c r="O20" s="127"/>
       <c r="P20" s="67" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="158" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C21" s="165" t="s">
         <v>672</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -18295,18 +18295,18 @@
       </c>
       <c r="O21" s="127"/>
       <c r="P21" s="67" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="158" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C22" s="165" t="s">
         <v>672</v>
       </c>
       <c r="D22" s="161" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="96"/>
@@ -18328,18 +18328,18 @@
       </c>
       <c r="O22" s="127"/>
       <c r="P22" s="67" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="158" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C23" s="165">
         <v>2</v>
       </c>
       <c r="D23" s="162" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E23" s="128" t="s">
         <v>200</v>
@@ -18361,7 +18361,7 @@
       </c>
       <c r="O23" s="127"/>
       <c r="P23" s="67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18370,7 +18370,7 @@
         <v>672</v>
       </c>
       <c r="D24" s="162" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
@@ -18392,7 +18392,7 @@
       </c>
       <c r="O24" s="127"/>
       <c r="P24" s="67" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18401,7 +18401,7 @@
         <v>672</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
@@ -18423,18 +18423,18 @@
       </c>
       <c r="O25" s="127"/>
       <c r="P25" s="67" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="157" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C26" s="165">
         <v>1</v>
       </c>
       <c r="D26" s="161" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
@@ -18452,22 +18452,22 @@
         <v>207</v>
       </c>
       <c r="N26" s="96" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O26" s="127"/>
       <c r="P26" s="67" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="157" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C27" s="165" t="s">
         <v>672</v>
       </c>
       <c r="D27" s="161" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
@@ -18487,16 +18487,16 @@
       <c r="N27" s="96"/>
       <c r="O27" s="127"/>
       <c r="P27" s="67" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="157" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C28" s="164"/>
       <c r="D28" s="161" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="96"/>
@@ -18516,16 +18516,16 @@
       <c r="N28" s="96"/>
       <c r="O28" s="127"/>
       <c r="P28" s="67" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="157" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C29" s="164"/>
       <c r="D29" s="155" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="96"/>
@@ -18545,16 +18545,16 @@
       <c r="N29" s="96"/>
       <c r="O29" s="127"/>
       <c r="P29" s="67" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="157" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C30" s="164"/>
       <c r="D30" s="161" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E30" s="128" t="s">
         <v>200</v>
@@ -18572,16 +18572,16 @@
       <c r="N30" s="96"/>
       <c r="O30" s="127"/>
       <c r="P30" s="67" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="157" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="162" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E31" s="128" t="s">
         <v>200</v>
@@ -18601,16 +18601,16 @@
       <c r="N31" s="96"/>
       <c r="O31" s="127"/>
       <c r="P31" s="67" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="157" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C32" s="164"/>
       <c r="D32" s="162" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E32" s="128" t="s">
         <v>200</v>
@@ -18630,16 +18630,16 @@
         <v>683</v>
       </c>
       <c r="P32" s="67" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="157" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C33" s="164"/>
       <c r="D33" s="155" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E33" s="128"/>
       <c r="F33" s="96"/>
@@ -18659,16 +18659,16 @@
       <c r="N33" s="96"/>
       <c r="O33" s="127"/>
       <c r="P33" s="67" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="157" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C34" s="165"/>
       <c r="D34" s="162" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E34" s="128"/>
       <c r="F34" s="96"/>
@@ -18688,7 +18688,7 @@
       <c r="N34" s="96"/>
       <c r="O34" s="137"/>
       <c r="P34" s="113" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18883,8 +18883,9 @@
     <hyperlink ref="D32" r:id="rId11" location="'Metadatos M'!B6"/>
     <hyperlink ref="D33" r:id="rId12" location="'Metadatos H'!B9"/>
     <hyperlink ref="D34" r:id="rId13" location="'Metadatos D'!B6"/>
+    <hyperlink ref="D13" r:id="rId14" location="'Metadatos M'!B11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Proyectos GitHub\Wasted-Racing\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="859">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -2338,9 +2338,6 @@
     <t>M-004</t>
   </si>
   <si>
-    <t>Musica final de carrera</t>
-  </si>
-  <si>
     <t>1.18</t>
   </si>
   <si>
@@ -2368,9 +2365,6 @@
     <t>Sonido del personaje al pasar por linea de meta en cualquier vuelta que no sea la última</t>
   </si>
   <si>
-    <t>1.21</t>
-  </si>
-  <si>
     <t>D-014</t>
   </si>
   <si>
@@ -2399,9 +2393,6 @@
   </si>
   <si>
     <t>Musica de fondo del nivel 1. Ultima vuelta</t>
-  </si>
-  <si>
-    <t>M-010</t>
   </si>
   <si>
     <t>Voz de selección / "Mis pedos apestan a anarquia"</t>
@@ -4402,6 +4393,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4569,7 +4561,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -4612,6 +4604,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4955,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5164,32 +5157,32 @@
         <v>16</v>
       </c>
       <c r="C8" s="16">
-        <f>Niveles!E41</f>
-        <v>5</v>
+        <f>Niveles!E40</f>
+        <v>4</v>
       </c>
       <c r="D8" s="14">
-        <f>Niveles!F41</f>
+        <f>Niveles!F40</f>
         <v>0</v>
       </c>
       <c r="E8" s="14">
-        <f>Niveles!G41</f>
+        <f>Niveles!G40</f>
         <v>8</v>
       </c>
       <c r="F8" s="14">
-        <f>Niveles!H41</f>
+        <f>Niveles!H40</f>
         <v>6</v>
       </c>
       <c r="G8" s="14">
-        <f>Niveles!I41</f>
+        <f>Niveles!I40</f>
         <v>11</v>
       </c>
       <c r="H8" s="14">
-        <f>Niveles!J41</f>
+        <f>Niveles!J40</f>
         <v>0</v>
       </c>
       <c r="I8" s="17">
         <f>SUM(C8:H8)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -5218,7 +5211,7 @@
       </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:I11" si="0">SUM(C4:C10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
@@ -5242,7 +5235,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5264,7 +5257,7 @@
   <dimension ref="A1:AMK22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -5285,7 +5278,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -5363,7 +5356,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -5388,7 +5381,7 @@
         <v>477</v>
       </c>
       <c r="D5" s="177" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -5405,10 +5398,10 @@
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5419,7 +5412,7 @@
         <v>477</v>
       </c>
       <c r="D6" s="175" t="s">
-        <v>747</v>
+        <v>500</v>
       </c>
       <c r="E6" s="141" t="s">
         <v>200</v>
@@ -5436,10 +5429,10 @@
       <c r="M6" s="141"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141" t="s">
+        <v>742</v>
+      </c>
+      <c r="P6" s="179" t="s">
         <v>744</v>
-      </c>
-      <c r="P6" s="179" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5450,7 +5443,7 @@
         <v>477</v>
       </c>
       <c r="D7" s="176" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>200</v>
@@ -5467,10 +5460,10 @@
       <c r="M7" s="141"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="P7" s="179" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13264,7 +13257,7 @@
       </c>
       <c r="C11" s="98"/>
       <c r="D11" s="145" t="s">
-        <v>500</v>
+        <v>741</v>
       </c>
       <c r="E11" s="96" t="s">
         <v>200</v>
@@ -13664,7 +13657,7 @@
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="129" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13695,7 +13688,7 @@
       </c>
       <c r="O6" s="126"/>
       <c r="P6" s="126" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13728,7 +13721,7 @@
       </c>
       <c r="O7" s="97"/>
       <c r="P7" s="97" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13759,7 +13752,7 @@
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="97" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13790,7 +13783,7 @@
       </c>
       <c r="O9" s="97"/>
       <c r="P9" s="97" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,7 +13814,7 @@
       </c>
       <c r="O10" s="97"/>
       <c r="P10" s="97" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13852,7 +13845,7 @@
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="97" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13885,7 +13878,7 @@
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="97" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13916,7 +13909,7 @@
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="97" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13947,7 +13940,7 @@
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="97" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13978,7 +13971,7 @@
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14011,7 +14004,7 @@
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14042,7 +14035,7 @@
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="97" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14073,7 +14066,7 @@
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="97" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14104,7 +14097,7 @@
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14137,7 +14130,7 @@
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14168,7 +14161,7 @@
       </c>
       <c r="O21" s="97"/>
       <c r="P21" s="97" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14199,7 +14192,7 @@
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="97" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14230,7 +14223,7 @@
       </c>
       <c r="O23" s="97"/>
       <c r="P23" s="97" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14263,7 +14256,7 @@
       </c>
       <c r="O24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14294,7 +14287,7 @@
       </c>
       <c r="O25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14325,7 +14318,7 @@
       </c>
       <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14358,7 +14351,7 @@
       </c>
       <c r="O27" s="97"/>
       <c r="P27" s="97" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14389,7 +14382,7 @@
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14422,7 +14415,7 @@
       </c>
       <c r="O29" s="97"/>
       <c r="P29" s="97" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14453,7 +14446,7 @@
       </c>
       <c r="O30" s="97"/>
       <c r="P30" s="97" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14486,7 +14479,7 @@
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="97" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14517,7 +14510,7 @@
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14548,7 +14541,7 @@
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="97" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14579,7 +14572,7 @@
       </c>
       <c r="O34" s="97"/>
       <c r="P34" s="97" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14610,7 +14603,7 @@
       </c>
       <c r="O35" s="97"/>
       <c r="P35" s="97" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14641,7 +14634,7 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14674,7 +14667,7 @@
       </c>
       <c r="O37" s="97"/>
       <c r="P37" s="97" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14705,7 +14698,7 @@
       </c>
       <c r="O38" s="97"/>
       <c r="P38" s="97" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14736,7 +14729,7 @@
       </c>
       <c r="O39" s="97"/>
       <c r="P39" s="97" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14769,7 +14762,7 @@
       </c>
       <c r="O40" s="97"/>
       <c r="P40" s="97" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14800,7 +14793,7 @@
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="97" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14831,7 +14824,7 @@
       </c>
       <c r="O42" s="97"/>
       <c r="P42" s="97" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14862,7 +14855,7 @@
       </c>
       <c r="O43" s="97"/>
       <c r="P43" s="97" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14895,7 +14888,7 @@
       </c>
       <c r="O44" s="97"/>
       <c r="P44" s="97" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14926,7 +14919,7 @@
       </c>
       <c r="O45" s="97"/>
       <c r="P45" s="97" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14957,7 +14950,7 @@
       </c>
       <c r="O46" s="97"/>
       <c r="P46" s="97" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14990,7 +14983,7 @@
       </c>
       <c r="O47" s="97"/>
       <c r="P47" s="97" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15021,7 +15014,7 @@
       </c>
       <c r="O48" s="97"/>
       <c r="P48" s="97" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15052,7 +15045,7 @@
       </c>
       <c r="O49" s="97"/>
       <c r="P49" s="97" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15083,7 +15076,7 @@
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15116,7 +15109,7 @@
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="97" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15147,7 +15140,7 @@
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15180,7 +15173,7 @@
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="97" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15211,7 +15204,7 @@
       </c>
       <c r="O54" s="97"/>
       <c r="P54" s="97" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15242,7 +15235,7 @@
       </c>
       <c r="O55" s="97"/>
       <c r="P55" s="97" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15273,7 +15266,7 @@
       </c>
       <c r="O56" s="97"/>
       <c r="P56" s="97" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15306,7 +15299,7 @@
       </c>
       <c r="O57" s="97"/>
       <c r="P57" s="97" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15337,7 +15330,7 @@
       </c>
       <c r="O58" s="97"/>
       <c r="P58" s="97" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15368,7 +15361,7 @@
       </c>
       <c r="O59" s="97"/>
       <c r="P59" s="97" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15401,7 +15394,7 @@
       </c>
       <c r="O60" s="97"/>
       <c r="P60" s="97" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15432,7 +15425,7 @@
       </c>
       <c r="O61" s="97"/>
       <c r="P61" s="97" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15465,7 +15458,7 @@
       </c>
       <c r="O62" s="97"/>
       <c r="P62" s="97" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15496,7 +15489,7 @@
       </c>
       <c r="O63" s="97"/>
       <c r="P63" s="97" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15529,7 +15522,7 @@
       </c>
       <c r="O64" s="97"/>
       <c r="P64" s="97" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15560,7 +15553,7 @@
       </c>
       <c r="O65" s="97"/>
       <c r="P65" s="97" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15593,7 +15586,7 @@
       </c>
       <c r="O66" s="97"/>
       <c r="P66" s="97" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15624,7 +15617,7 @@
       </c>
       <c r="O67" s="97"/>
       <c r="P67" s="97" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15655,7 +15648,7 @@
       </c>
       <c r="O68" s="97"/>
       <c r="P68" s="97" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15686,7 +15679,7 @@
       </c>
       <c r="O69" s="97"/>
       <c r="P69" s="97" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15719,7 +15712,7 @@
       </c>
       <c r="O70" s="97"/>
       <c r="P70" s="97" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15750,7 +15743,7 @@
       </c>
       <c r="O71" s="97"/>
       <c r="P71" s="97" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15783,7 +15776,7 @@
       </c>
       <c r="O72" s="97"/>
       <c r="P72" s="97" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15814,7 +15807,7 @@
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="97" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15845,7 +15838,7 @@
       </c>
       <c r="O74" s="97"/>
       <c r="P74" s="97" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15876,7 +15869,7 @@
       </c>
       <c r="O75" s="97"/>
       <c r="P75" s="97" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15907,7 +15900,7 @@
       </c>
       <c r="O76" s="97"/>
       <c r="P76" s="97" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15940,7 +15933,7 @@
       </c>
       <c r="O77" s="97"/>
       <c r="P77" s="97" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15971,7 +15964,7 @@
       </c>
       <c r="O78" s="97"/>
       <c r="P78" s="97" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16002,7 +15995,7 @@
       </c>
       <c r="O79" s="97"/>
       <c r="P79" s="97" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16033,7 +16026,7 @@
       </c>
       <c r="O80" s="97"/>
       <c r="P80" s="97" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16064,7 +16057,7 @@
       </c>
       <c r="O81" s="97"/>
       <c r="P81" s="97" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16095,7 +16088,7 @@
       </c>
       <c r="O82" s="97"/>
       <c r="P82" s="97" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16128,7 +16121,7 @@
       </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16159,7 +16152,7 @@
       </c>
       <c r="O84" s="97"/>
       <c r="P84" s="97" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16190,7 +16183,7 @@
       </c>
       <c r="O85" s="97"/>
       <c r="P85" s="97" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16221,7 +16214,7 @@
       </c>
       <c r="O86" s="97"/>
       <c r="P86" s="97" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16254,7 +16247,7 @@
       </c>
       <c r="O87" s="97"/>
       <c r="P87" s="97" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16285,7 +16278,7 @@
       </c>
       <c r="O88" s="97"/>
       <c r="P88" s="97" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16318,7 +16311,7 @@
       </c>
       <c r="O89" s="97"/>
       <c r="P89" s="97" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16349,7 +16342,7 @@
       </c>
       <c r="O90" s="97"/>
       <c r="P90" s="97" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16380,7 +16373,7 @@
       </c>
       <c r="O91" s="97"/>
       <c r="P91" s="97" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16413,7 +16406,7 @@
       </c>
       <c r="O92" s="97"/>
       <c r="P92" s="97" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16444,7 +16437,7 @@
       </c>
       <c r="O93" s="97"/>
       <c r="P93" s="97" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16475,7 +16468,7 @@
       </c>
       <c r="O94" s="97"/>
       <c r="P94" s="97" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16506,7 +16499,7 @@
       </c>
       <c r="O95" s="97"/>
       <c r="P95" s="97" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16537,7 +16530,7 @@
       </c>
       <c r="O96" s="97"/>
       <c r="P96" s="97" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16568,7 +16561,7 @@
       </c>
       <c r="O97" s="97"/>
       <c r="P97" s="97" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16601,7 +16594,7 @@
       </c>
       <c r="O98" s="97"/>
       <c r="P98" s="97" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16632,7 +16625,7 @@
       </c>
       <c r="O99" s="97"/>
       <c r="P99" s="97" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16663,7 +16656,7 @@
       </c>
       <c r="O100" s="97"/>
       <c r="P100" s="97" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16696,7 +16689,7 @@
       </c>
       <c r="O101" s="97"/>
       <c r="P101" s="97" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16727,7 +16720,7 @@
       </c>
       <c r="O102" s="97"/>
       <c r="P102" s="97" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16758,7 +16751,7 @@
       </c>
       <c r="O103" s="97"/>
       <c r="P103" s="97" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16791,7 +16784,7 @@
       </c>
       <c r="O104" s="97"/>
       <c r="P104" s="97" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16822,7 +16815,7 @@
       </c>
       <c r="O105" s="97"/>
       <c r="P105" s="97" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16853,7 +16846,7 @@
       </c>
       <c r="O106" s="97"/>
       <c r="P106" s="97" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16884,7 +16877,7 @@
       </c>
       <c r="O107" s="97"/>
       <c r="P107" s="97" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16917,7 +16910,7 @@
       </c>
       <c r="O108" s="97"/>
       <c r="P108" s="97" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16948,7 +16941,7 @@
       </c>
       <c r="O109" s="97"/>
       <c r="P109" s="97" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16979,7 +16972,7 @@
       </c>
       <c r="O110" s="97"/>
       <c r="P110" s="97" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17012,7 +17005,7 @@
       </c>
       <c r="O111" s="97"/>
       <c r="P111" s="97" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17043,7 +17036,7 @@
       </c>
       <c r="O112" s="97"/>
       <c r="P112" s="97" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17074,7 +17067,7 @@
       </c>
       <c r="O113" s="97"/>
       <c r="P113" s="97" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17105,7 +17098,7 @@
       </c>
       <c r="O114" s="97"/>
       <c r="P114" s="97" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17138,7 +17131,7 @@
       </c>
       <c r="O115" s="97"/>
       <c r="P115" s="97" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17169,7 +17162,7 @@
       </c>
       <c r="O116" s="97"/>
       <c r="P116" s="97" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17200,7 +17193,7 @@
       </c>
       <c r="O117" s="97"/>
       <c r="P117" s="97" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17231,7 +17224,7 @@
       </c>
       <c r="O118" s="97"/>
       <c r="P118" s="97" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17264,7 +17257,7 @@
       </c>
       <c r="O119" s="97"/>
       <c r="P119" s="97" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17295,7 +17288,7 @@
       </c>
       <c r="O120" s="97"/>
       <c r="P120" s="97" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17328,7 +17321,7 @@
       </c>
       <c r="O121" s="97"/>
       <c r="P121" s="97" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17359,7 +17352,7 @@
       </c>
       <c r="O122" s="97"/>
       <c r="P122" s="97" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17643,10 +17636,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK43"/>
+  <dimension ref="A1:AMK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -18047,7 +18040,7 @@
         <v>683</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18519,7 +18512,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="157" t="s">
         <v>723</v>
       </c>
@@ -18548,12 +18541,12 @@
         <v>725</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="157" t="s">
         <v>726</v>
       </c>
       <c r="C30" s="164"/>
-      <c r="D30" s="161" t="s">
+      <c r="D30" s="162" t="s">
         <v>727</v>
       </c>
       <c r="E30" s="128" t="s">
@@ -18567,21 +18560,23 @@
       <c r="K30" s="128" t="s">
         <v>289</v>
       </c>
-      <c r="L30" s="96"/>
+      <c r="L30" s="96" t="s">
+        <v>485</v>
+      </c>
       <c r="M30" s="96"/>
       <c r="N30" s="96"/>
       <c r="O30" s="127"/>
       <c r="P30" s="67" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="157" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="162" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E31" s="128" t="s">
         <v>200</v>
@@ -18601,54 +18596,54 @@
       <c r="N31" s="96"/>
       <c r="O31" s="127"/>
       <c r="P31" s="67" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="157" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="157" t="s">
-        <v>732</v>
-      </c>
       <c r="C32" s="164"/>
-      <c r="D32" s="162" t="s">
-        <v>733</v>
-      </c>
-      <c r="E32" s="128" t="s">
-        <v>200</v>
-      </c>
+      <c r="D32" s="155" t="s">
+        <v>735</v>
+      </c>
+      <c r="E32" s="128"/>
       <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
+      <c r="G32" s="96" t="s">
+        <v>202</v>
+      </c>
       <c r="H32" s="96"/>
       <c r="I32" s="127"/>
       <c r="J32" s="110"/>
       <c r="K32" s="128" t="s">
         <v>289</v>
       </c>
-      <c r="L32" s="96"/>
+      <c r="L32" s="96" t="s">
+        <v>485</v>
+      </c>
       <c r="M32" s="96"/>
       <c r="N32" s="96"/>
-      <c r="O32" s="127" t="s">
-        <v>683</v>
-      </c>
+      <c r="O32" s="127"/>
       <c r="P32" s="67" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="157" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="157" t="s">
-        <v>735</v>
-      </c>
-      <c r="C33" s="164"/>
-      <c r="D33" s="155" t="s">
-        <v>736</v>
+      <c r="C33" s="165"/>
+      <c r="D33" s="162" t="s">
+        <v>737</v>
       </c>
       <c r="E33" s="128"/>
       <c r="F33" s="96"/>
-      <c r="G33" s="96" t="s">
-        <v>202</v>
-      </c>
+      <c r="G33" s="96"/>
       <c r="H33" s="96"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="110"/>
+      <c r="I33" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" s="164"/>
       <c r="K33" s="128" t="s">
         <v>289</v>
       </c>
@@ -18657,39 +18652,27 @@
       </c>
       <c r="M33" s="96"/>
       <c r="N33" s="96"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="67" t="s">
-        <v>737</v>
+      <c r="O33" s="137"/>
+      <c r="P33" s="113" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="157" t="s">
-        <v>738</v>
-      </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="162" t="s">
-        <v>739</v>
-      </c>
-      <c r="E34" s="128"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J34" s="164"/>
-      <c r="K34" s="128" t="s">
-        <v>289</v>
-      </c>
-      <c r="L34" s="96" t="s">
-        <v>485</v>
-      </c>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="137"/>
-      <c r="P34" s="113" t="s">
-        <v>740</v>
-      </c>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="112"/>
+      <c r="P34" s="113"/>
     </row>
     <row r="35" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="106"/>
@@ -18744,84 +18727,84 @@
     </row>
     <row r="38" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="103"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="103"/>
-      <c r="N38" s="103"/>
-      <c r="O38" s="112"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="114"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="139"/>
       <c r="P38" s="113"/>
     </row>
     <row r="39" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="106"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="102"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="139"/>
-      <c r="P39" s="113"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="121"/>
+      <c r="P39" s="122"/>
     </row>
     <row r="40" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="116"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="118"/>
-      <c r="E40" s="119"/>
-      <c r="F40" s="119"/>
-      <c r="G40" s="119"/>
-      <c r="H40" s="119"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="119"/>
-      <c r="K40" s="119"/>
-      <c r="L40" s="120"/>
-      <c r="M40" s="119"/>
-      <c r="N40" s="119"/>
-      <c r="O40" s="121"/>
-      <c r="P40" s="122"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="88">
+        <f>COUNTA(E5:E38)</f>
+        <v>4</v>
+      </c>
+      <c r="F40" s="88">
+        <f>COUNTA(F5:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="88">
+        <f>COUNTA(G5:G39)</f>
+        <v>8</v>
+      </c>
+      <c r="H40" s="88">
+        <f>COUNTA(H5:H39)</f>
+        <v>6</v>
+      </c>
+      <c r="I40" s="88">
+        <f>COUNTA(I5:I39)</f>
+        <v>11</v>
+      </c>
+      <c r="J40" s="88">
+        <v>0</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="78"/>
-      <c r="C41" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D41" s="87"/>
-      <c r="E41" s="88">
-        <f>COUNTA(E5:E39)</f>
-        <v>5</v>
-      </c>
-      <c r="F41" s="88">
-        <f>COUNTA(F5:F40)</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="88">
-        <f>COUNTA(G5:G40)</f>
-        <v>8</v>
-      </c>
-      <c r="H41" s="88">
-        <f>COUNTA(H5:H40)</f>
-        <v>6</v>
-      </c>
-      <c r="I41" s="88">
-        <f>COUNTA(I5:I40)</f>
-        <v>11</v>
-      </c>
-      <c r="J41" s="88">
-        <v>0</v>
-      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
       <c r="M41" s="71"/>
@@ -18831,42 +18814,25 @@
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="73"/>
-      <c r="C42" s="87"/>
+      <c r="C42" s="73"/>
       <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="K42" s="91">
+        <f>COUNTA(E5:I39)</f>
+        <v>29</v>
+      </c>
       <c r="L42" s="71"/>
       <c r="M42" s="71"/>
       <c r="N42" s="73"/>
       <c r="O42" s="73"/>
       <c r="P42" s="73"/>
-    </row>
-    <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="K43" s="91">
-        <f>COUNTA(E5:I40)</f>
-        <v>30</v>
-      </c>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18879,10 +18845,10 @@
     <hyperlink ref="D23" r:id="rId7" location="'Metadatos M'!B4"/>
     <hyperlink ref="D24" r:id="rId8" location="'Metadatos D'!B5"/>
     <hyperlink ref="D29" r:id="rId9" location="'Metadatos H'!B10"/>
-    <hyperlink ref="D31" r:id="rId10" location="'Metadatos M'!B5"/>
-    <hyperlink ref="D32" r:id="rId11" location="'Metadatos M'!B6"/>
-    <hyperlink ref="D33" r:id="rId12" location="'Metadatos H'!B9"/>
-    <hyperlink ref="D34" r:id="rId13" location="'Metadatos D'!B6"/>
+    <hyperlink ref="D30" r:id="rId10" location="'Metadatos M'!B5"/>
+    <hyperlink ref="D31" r:id="rId11" location="'Metadatos M'!B6"/>
+    <hyperlink ref="D32" r:id="rId12" location="'Metadatos H'!B9"/>
+    <hyperlink ref="D33" r:id="rId13" location="'Metadatos D'!B6"/>
     <hyperlink ref="D13" r:id="rId14" location="'Metadatos M'!B11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="857">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -2173,9 +2173,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>H-027</t>
-  </si>
-  <si>
     <t>Refuerzo de haber obtenido un item</t>
   </si>
   <si>
@@ -2288,9 +2285,6 @@
   </si>
   <si>
     <t>H-011</t>
-  </si>
-  <si>
-    <t>Pistoletazo de salida. Sucedida por H-007</t>
   </si>
   <si>
     <t>1.13</t>
@@ -4567,7 +4561,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -4948,7 +4942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -5157,32 +5151,32 @@
         <v>16</v>
       </c>
       <c r="C8" s="16">
-        <f>Niveles!E40</f>
+        <f>Niveles!E39</f>
         <v>4</v>
       </c>
       <c r="D8" s="14">
-        <f>Niveles!F40</f>
+        <f>Niveles!F39</f>
         <v>0</v>
       </c>
       <c r="E8" s="14">
-        <f>Niveles!G40</f>
-        <v>8</v>
+        <f>Niveles!G39</f>
+        <v>7</v>
       </c>
       <c r="F8" s="14">
-        <f>Niveles!H40</f>
+        <f>Niveles!H39</f>
         <v>6</v>
       </c>
       <c r="G8" s="14">
-        <f>Niveles!I40</f>
+        <f>Niveles!I39</f>
         <v>11</v>
       </c>
       <c r="H8" s="14">
-        <f>Niveles!J40</f>
+        <f>Niveles!J39</f>
         <v>0</v>
       </c>
       <c r="I8" s="17">
         <f>SUM(C8:H8)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -5219,7 +5213,7 @@
       </c>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="0"/>
@@ -5235,7 +5229,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5278,7 +5272,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -5356,7 +5350,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -5381,7 +5375,7 @@
         <v>477</v>
       </c>
       <c r="D5" s="177" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -5398,10 +5392,10 @@
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5429,10 +5423,10 @@
       <c r="M6" s="141"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141" t="s">
+        <v>740</v>
+      </c>
+      <c r="P6" s="179" t="s">
         <v>742</v>
-      </c>
-      <c r="P6" s="179" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5443,7 +5437,7 @@
         <v>477</v>
       </c>
       <c r="D7" s="176" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>200</v>
@@ -5460,10 +5454,10 @@
       <c r="M7" s="141"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P7" s="179" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -9497,8 +9491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -13257,7 +13251,7 @@
       </c>
       <c r="C11" s="98"/>
       <c r="D11" s="145" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E11" s="96" t="s">
         <v>200</v>
@@ -13657,7 +13651,7 @@
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="129" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13688,7 +13682,7 @@
       </c>
       <c r="O6" s="126"/>
       <c r="P6" s="126" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13721,7 +13715,7 @@
       </c>
       <c r="O7" s="97"/>
       <c r="P7" s="97" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13752,7 +13746,7 @@
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="97" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13783,7 +13777,7 @@
       </c>
       <c r="O9" s="97"/>
       <c r="P9" s="97" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13814,7 +13808,7 @@
       </c>
       <c r="O10" s="97"/>
       <c r="P10" s="97" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13845,7 +13839,7 @@
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="97" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13878,7 +13872,7 @@
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="97" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13909,7 +13903,7 @@
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="97" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13940,7 +13934,7 @@
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="97" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13971,7 +13965,7 @@
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14004,7 +13998,7 @@
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14035,7 +14029,7 @@
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="97" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14066,7 +14060,7 @@
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="97" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14097,7 +14091,7 @@
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="97" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14130,7 +14124,7 @@
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14161,7 +14155,7 @@
       </c>
       <c r="O21" s="97"/>
       <c r="P21" s="97" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14192,7 +14186,7 @@
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="97" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14223,7 +14217,7 @@
       </c>
       <c r="O23" s="97"/>
       <c r="P23" s="97" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14256,7 +14250,7 @@
       </c>
       <c r="O24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14287,7 +14281,7 @@
       </c>
       <c r="O25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14318,7 +14312,7 @@
       </c>
       <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14351,7 +14345,7 @@
       </c>
       <c r="O27" s="97"/>
       <c r="P27" s="97" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14382,7 +14376,7 @@
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14415,7 +14409,7 @@
       </c>
       <c r="O29" s="97"/>
       <c r="P29" s="97" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14446,7 +14440,7 @@
       </c>
       <c r="O30" s="97"/>
       <c r="P30" s="97" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14479,7 +14473,7 @@
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="97" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14510,7 +14504,7 @@
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14541,7 +14535,7 @@
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="97" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14572,7 +14566,7 @@
       </c>
       <c r="O34" s="97"/>
       <c r="P34" s="97" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14603,7 +14597,7 @@
       </c>
       <c r="O35" s="97"/>
       <c r="P35" s="97" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14634,7 +14628,7 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14667,7 +14661,7 @@
       </c>
       <c r="O37" s="97"/>
       <c r="P37" s="97" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14698,7 +14692,7 @@
       </c>
       <c r="O38" s="97"/>
       <c r="P38" s="97" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14729,7 +14723,7 @@
       </c>
       <c r="O39" s="97"/>
       <c r="P39" s="97" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14762,7 +14756,7 @@
       </c>
       <c r="O40" s="97"/>
       <c r="P40" s="97" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14793,7 +14787,7 @@
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="97" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14824,7 +14818,7 @@
       </c>
       <c r="O42" s="97"/>
       <c r="P42" s="97" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14855,7 +14849,7 @@
       </c>
       <c r="O43" s="97"/>
       <c r="P43" s="97" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14888,7 +14882,7 @@
       </c>
       <c r="O44" s="97"/>
       <c r="P44" s="97" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14919,7 +14913,7 @@
       </c>
       <c r="O45" s="97"/>
       <c r="P45" s="97" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14950,7 +14944,7 @@
       </c>
       <c r="O46" s="97"/>
       <c r="P46" s="97" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14983,7 +14977,7 @@
       </c>
       <c r="O47" s="97"/>
       <c r="P47" s="97" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15014,7 +15008,7 @@
       </c>
       <c r="O48" s="97"/>
       <c r="P48" s="97" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15045,7 +15039,7 @@
       </c>
       <c r="O49" s="97"/>
       <c r="P49" s="97" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15076,7 +15070,7 @@
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="97" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15109,7 +15103,7 @@
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="97" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15140,7 +15134,7 @@
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15173,7 +15167,7 @@
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="97" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15204,7 +15198,7 @@
       </c>
       <c r="O54" s="97"/>
       <c r="P54" s="97" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15235,7 +15229,7 @@
       </c>
       <c r="O55" s="97"/>
       <c r="P55" s="97" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15266,7 +15260,7 @@
       </c>
       <c r="O56" s="97"/>
       <c r="P56" s="97" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15299,7 +15293,7 @@
       </c>
       <c r="O57" s="97"/>
       <c r="P57" s="97" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15330,7 +15324,7 @@
       </c>
       <c r="O58" s="97"/>
       <c r="P58" s="97" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15361,7 +15355,7 @@
       </c>
       <c r="O59" s="97"/>
       <c r="P59" s="97" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15394,7 +15388,7 @@
       </c>
       <c r="O60" s="97"/>
       <c r="P60" s="97" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15425,7 +15419,7 @@
       </c>
       <c r="O61" s="97"/>
       <c r="P61" s="97" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15458,7 +15452,7 @@
       </c>
       <c r="O62" s="97"/>
       <c r="P62" s="97" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15489,7 +15483,7 @@
       </c>
       <c r="O63" s="97"/>
       <c r="P63" s="97" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15522,7 +15516,7 @@
       </c>
       <c r="O64" s="97"/>
       <c r="P64" s="97" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15553,7 +15547,7 @@
       </c>
       <c r="O65" s="97"/>
       <c r="P65" s="97" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15586,7 +15580,7 @@
       </c>
       <c r="O66" s="97"/>
       <c r="P66" s="97" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15617,7 +15611,7 @@
       </c>
       <c r="O67" s="97"/>
       <c r="P67" s="97" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15648,7 +15642,7 @@
       </c>
       <c r="O68" s="97"/>
       <c r="P68" s="97" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15679,7 +15673,7 @@
       </c>
       <c r="O69" s="97"/>
       <c r="P69" s="97" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15712,7 +15706,7 @@
       </c>
       <c r="O70" s="97"/>
       <c r="P70" s="97" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15743,7 +15737,7 @@
       </c>
       <c r="O71" s="97"/>
       <c r="P71" s="97" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15776,7 +15770,7 @@
       </c>
       <c r="O72" s="97"/>
       <c r="P72" s="97" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15807,7 +15801,7 @@
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="97" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15838,7 +15832,7 @@
       </c>
       <c r="O74" s="97"/>
       <c r="P74" s="97" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15869,7 +15863,7 @@
       </c>
       <c r="O75" s="97"/>
       <c r="P75" s="97" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15900,7 +15894,7 @@
       </c>
       <c r="O76" s="97"/>
       <c r="P76" s="97" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15933,7 +15927,7 @@
       </c>
       <c r="O77" s="97"/>
       <c r="P77" s="97" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15964,7 +15958,7 @@
       </c>
       <c r="O78" s="97"/>
       <c r="P78" s="97" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15995,7 +15989,7 @@
       </c>
       <c r="O79" s="97"/>
       <c r="P79" s="97" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16026,7 +16020,7 @@
       </c>
       <c r="O80" s="97"/>
       <c r="P80" s="97" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16057,7 +16051,7 @@
       </c>
       <c r="O81" s="97"/>
       <c r="P81" s="97" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16088,7 +16082,7 @@
       </c>
       <c r="O82" s="97"/>
       <c r="P82" s="97" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16121,7 +16115,7 @@
       </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16152,7 +16146,7 @@
       </c>
       <c r="O84" s="97"/>
       <c r="P84" s="97" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16183,7 +16177,7 @@
       </c>
       <c r="O85" s="97"/>
       <c r="P85" s="97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16214,7 +16208,7 @@
       </c>
       <c r="O86" s="97"/>
       <c r="P86" s="97" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16247,7 +16241,7 @@
       </c>
       <c r="O87" s="97"/>
       <c r="P87" s="97" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16278,7 +16272,7 @@
       </c>
       <c r="O88" s="97"/>
       <c r="P88" s="97" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16311,7 +16305,7 @@
       </c>
       <c r="O89" s="97"/>
       <c r="P89" s="97" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16342,7 +16336,7 @@
       </c>
       <c r="O90" s="97"/>
       <c r="P90" s="97" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16373,7 +16367,7 @@
       </c>
       <c r="O91" s="97"/>
       <c r="P91" s="97" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16406,7 +16400,7 @@
       </c>
       <c r="O92" s="97"/>
       <c r="P92" s="97" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16437,7 +16431,7 @@
       </c>
       <c r="O93" s="97"/>
       <c r="P93" s="97" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16468,7 +16462,7 @@
       </c>
       <c r="O94" s="97"/>
       <c r="P94" s="97" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16499,7 +16493,7 @@
       </c>
       <c r="O95" s="97"/>
       <c r="P95" s="97" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16530,7 +16524,7 @@
       </c>
       <c r="O96" s="97"/>
       <c r="P96" s="97" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16561,7 +16555,7 @@
       </c>
       <c r="O97" s="97"/>
       <c r="P97" s="97" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16594,7 +16588,7 @@
       </c>
       <c r="O98" s="97"/>
       <c r="P98" s="97" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16625,7 +16619,7 @@
       </c>
       <c r="O99" s="97"/>
       <c r="P99" s="97" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16656,7 +16650,7 @@
       </c>
       <c r="O100" s="97"/>
       <c r="P100" s="97" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16689,7 +16683,7 @@
       </c>
       <c r="O101" s="97"/>
       <c r="P101" s="97" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16720,7 +16714,7 @@
       </c>
       <c r="O102" s="97"/>
       <c r="P102" s="97" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16751,7 +16745,7 @@
       </c>
       <c r="O103" s="97"/>
       <c r="P103" s="97" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16784,7 +16778,7 @@
       </c>
       <c r="O104" s="97"/>
       <c r="P104" s="97" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16815,7 +16809,7 @@
       </c>
       <c r="O105" s="97"/>
       <c r="P105" s="97" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16846,7 +16840,7 @@
       </c>
       <c r="O106" s="97"/>
       <c r="P106" s="97" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16877,7 +16871,7 @@
       </c>
       <c r="O107" s="97"/>
       <c r="P107" s="97" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16910,7 +16904,7 @@
       </c>
       <c r="O108" s="97"/>
       <c r="P108" s="97" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16941,7 +16935,7 @@
       </c>
       <c r="O109" s="97"/>
       <c r="P109" s="97" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16972,7 +16966,7 @@
       </c>
       <c r="O110" s="97"/>
       <c r="P110" s="97" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17005,7 +16999,7 @@
       </c>
       <c r="O111" s="97"/>
       <c r="P111" s="97" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17036,7 +17030,7 @@
       </c>
       <c r="O112" s="97"/>
       <c r="P112" s="97" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17067,7 +17061,7 @@
       </c>
       <c r="O113" s="97"/>
       <c r="P113" s="97" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17098,7 +17092,7 @@
       </c>
       <c r="O114" s="97"/>
       <c r="P114" s="97" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17131,7 +17125,7 @@
       </c>
       <c r="O115" s="97"/>
       <c r="P115" s="97" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17162,7 +17156,7 @@
       </c>
       <c r="O116" s="97"/>
       <c r="P116" s="97" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17193,7 +17187,7 @@
       </c>
       <c r="O117" s="97"/>
       <c r="P117" s="97" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17224,7 +17218,7 @@
       </c>
       <c r="O118" s="97"/>
       <c r="P118" s="97" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17257,7 +17251,7 @@
       </c>
       <c r="O119" s="97"/>
       <c r="P119" s="97" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17288,7 +17282,7 @@
       </c>
       <c r="O120" s="97"/>
       <c r="P120" s="97" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17321,7 +17315,7 @@
       </c>
       <c r="O121" s="97"/>
       <c r="P121" s="97" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17352,7 +17346,7 @@
       </c>
       <c r="O122" s="97"/>
       <c r="P122" s="97" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17636,10 +17630,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK42"/>
+  <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -17888,7 +17882,7 @@
         <v>672</v>
       </c>
       <c r="D9" s="162" t="s">
-        <v>673</v>
+        <v>710</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="96"/>
@@ -17910,7 +17904,7 @@
       </c>
       <c r="O9" s="127"/>
       <c r="P9" s="67" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17921,7 +17915,7 @@
         <v>672</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="96"/>
@@ -17939,11 +17933,11 @@
       </c>
       <c r="M10" s="96"/>
       <c r="N10" s="96" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O10" s="127"/>
       <c r="P10" s="67" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17954,7 +17948,7 @@
         <v>672</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E11" s="128"/>
       <c r="F11" s="96"/>
@@ -17976,7 +17970,7 @@
       </c>
       <c r="O11" s="127"/>
       <c r="P11" s="67" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17987,7 +17981,7 @@
         <v>672</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E12" s="128"/>
       <c r="F12" s="96"/>
@@ -18007,7 +18001,7 @@
       <c r="N12" s="96"/>
       <c r="O12" s="127"/>
       <c r="P12" s="67" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -18016,7 +18010,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>200</v>
@@ -18037,10 +18031,10 @@
         <v>664</v>
       </c>
       <c r="O13" s="127" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18051,7 +18045,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
@@ -18069,20 +18063,20 @@
       </c>
       <c r="M14" s="96"/>
       <c r="N14" s="96" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O14" s="127"/>
       <c r="P14" s="67" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="157"/>
       <c r="C15" s="165" t="s">
+        <v>686</v>
+      </c>
+      <c r="D15" s="162" t="s">
         <v>687</v>
-      </c>
-      <c r="D15" s="162" t="s">
-        <v>688</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -18100,16 +18094,16 @@
       <c r="N15" s="96"/>
       <c r="O15" s="127"/>
       <c r="P15" s="67" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="157"/>
       <c r="C16" s="165" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D16" s="162" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -18129,7 +18123,7 @@
       <c r="N16" s="96"/>
       <c r="O16" s="127"/>
       <c r="P16" s="67" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18140,7 +18134,7 @@
         <v>672</v>
       </c>
       <c r="D17" s="162" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -18162,7 +18156,7 @@
       </c>
       <c r="O17" s="127"/>
       <c r="P17" s="67" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18171,7 +18165,7 @@
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="155" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -18193,14 +18187,14 @@
       </c>
       <c r="O18" s="127"/>
       <c r="P18" s="67" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="158"/>
       <c r="C19" s="165"/>
       <c r="D19" s="155" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -18222,7 +18216,7 @@
       </c>
       <c r="O19" s="127"/>
       <c r="P19" s="67" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18233,7 +18227,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
@@ -18255,18 +18249,18 @@
       </c>
       <c r="O20" s="127"/>
       <c r="P20" s="67" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="158" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C21" s="165" t="s">
         <v>672</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -18288,18 +18282,18 @@
       </c>
       <c r="O21" s="127"/>
       <c r="P21" s="67" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="158" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C22" s="165" t="s">
         <v>672</v>
       </c>
       <c r="D22" s="161" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="96"/>
@@ -18321,18 +18315,18 @@
       </c>
       <c r="O22" s="127"/>
       <c r="P22" s="67" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="158" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C23" s="165">
         <v>2</v>
       </c>
       <c r="D23" s="162" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E23" s="128" t="s">
         <v>200</v>
@@ -18354,16 +18348,16 @@
       </c>
       <c r="O23" s="127"/>
       <c r="P23" s="67" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="157"/>
       <c r="C24" s="165" t="s">
         <v>672</v>
       </c>
       <c r="D24" s="162" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
@@ -18385,24 +18379,26 @@
       </c>
       <c r="O24" s="127"/>
       <c r="P24" s="67" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="157"/>
-      <c r="C25" s="165" t="s">
-        <v>672</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="157" t="s">
+        <v>711</v>
+      </c>
+      <c r="C25" s="165">
+        <v>1</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
-      <c r="G25" s="96" t="s">
-        <v>202</v>
-      </c>
+      <c r="G25" s="96"/>
       <c r="H25" s="96"/>
-      <c r="I25" s="127"/>
+      <c r="I25" s="127" t="s">
+        <v>282</v>
+      </c>
       <c r="J25" s="164"/>
       <c r="K25" s="128" t="s">
         <v>205</v>
@@ -18412,30 +18408,30 @@
         <v>207</v>
       </c>
       <c r="N25" s="96" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
       <c r="O25" s="127"/>
       <c r="P25" s="67" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="157" t="s">
-        <v>713</v>
-      </c>
-      <c r="C26" s="165">
-        <v>1</v>
+        <v>715</v>
+      </c>
+      <c r="C26" s="165" t="s">
+        <v>672</v>
       </c>
       <c r="D26" s="161" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="127" t="s">
-        <v>282</v>
-      </c>
+      <c r="H26" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I26" s="127"/>
       <c r="J26" s="164"/>
       <c r="K26" s="128" t="s">
         <v>205</v>
@@ -18444,23 +18440,19 @@
       <c r="M26" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="N26" s="96" t="s">
-        <v>715</v>
-      </c>
+      <c r="N26" s="96"/>
       <c r="O26" s="127"/>
       <c r="P26" s="67" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="157" t="s">
-        <v>717</v>
-      </c>
-      <c r="C27" s="165" t="s">
-        <v>672</v>
-      </c>
+        <v>718</v>
+      </c>
+      <c r="C27" s="164"/>
       <c r="D27" s="161" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
@@ -18469,34 +18461,34 @@
         <v>203</v>
       </c>
       <c r="I27" s="127"/>
-      <c r="J27" s="164"/>
+      <c r="J27" s="110"/>
       <c r="K27" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96" t="s">
-        <v>207</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="L27" s="96" t="s">
+        <v>485</v>
+      </c>
+      <c r="M27" s="96"/>
       <c r="N27" s="96"/>
       <c r="O27" s="127"/>
       <c r="P27" s="67" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="157" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C28" s="164"/>
-      <c r="D28" s="161" t="s">
-        <v>721</v>
+      <c r="D28" s="155" t="s">
+        <v>722</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96" t="s">
-        <v>203</v>
-      </c>
+      <c r="G28" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="96"/>
       <c r="I28" s="127"/>
       <c r="J28" s="110"/>
       <c r="K28" s="128" t="s">
@@ -18509,22 +18501,22 @@
       <c r="N28" s="96"/>
       <c r="O28" s="127"/>
       <c r="P28" s="67" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="157" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C29" s="164"/>
-      <c r="D29" s="155" t="s">
-        <v>724</v>
-      </c>
-      <c r="E29" s="128"/>
+      <c r="D29" s="162" t="s">
+        <v>725</v>
+      </c>
+      <c r="E29" s="128" t="s">
+        <v>200</v>
+      </c>
       <c r="F29" s="96"/>
-      <c r="G29" s="96" t="s">
-        <v>202</v>
-      </c>
+      <c r="G29" s="96"/>
       <c r="H29" s="96"/>
       <c r="I29" s="127"/>
       <c r="J29" s="110"/>
@@ -18538,10 +18530,10 @@
       <c r="N29" s="96"/>
       <c r="O29" s="127"/>
       <c r="P29" s="67" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="157" t="s">
         <v>726</v>
       </c>
@@ -18567,22 +18559,22 @@
       <c r="N30" s="96"/>
       <c r="O30" s="127"/>
       <c r="P30" s="67" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="157" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C31" s="164"/>
-      <c r="D31" s="162" t="s">
-        <v>729</v>
-      </c>
-      <c r="E31" s="128" t="s">
-        <v>200</v>
-      </c>
+      <c r="D31" s="155" t="s">
+        <v>733</v>
+      </c>
+      <c r="E31" s="128"/>
       <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
+      <c r="G31" s="96" t="s">
+        <v>202</v>
+      </c>
       <c r="H31" s="96"/>
       <c r="I31" s="127"/>
       <c r="J31" s="110"/>
@@ -18596,25 +18588,25 @@
       <c r="N31" s="96"/>
       <c r="O31" s="127"/>
       <c r="P31" s="67" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="157" t="s">
-        <v>731</v>
-      </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="155" t="s">
+        <v>732</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="162" t="s">
         <v>735</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="96"/>
-      <c r="G32" s="96" t="s">
-        <v>202</v>
-      </c>
+      <c r="G32" s="96"/>
       <c r="H32" s="96"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="110"/>
+      <c r="I32" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" s="164"/>
       <c r="K32" s="128" t="s">
         <v>289</v>
       </c>
@@ -18623,39 +18615,27 @@
       </c>
       <c r="M32" s="96"/>
       <c r="N32" s="96"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="67" t="s">
+      <c r="O32" s="137"/>
+      <c r="P32" s="113" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="157" t="s">
-        <v>734</v>
-      </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="162" t="s">
-        <v>737</v>
-      </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J33" s="164"/>
-      <c r="K33" s="128" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" s="96" t="s">
-        <v>485</v>
-      </c>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="137"/>
-      <c r="P33" s="113" t="s">
-        <v>738</v>
-      </c>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="103"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="112"/>
+      <c r="P33" s="113"/>
     </row>
     <row r="34" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="106"/>
@@ -18710,84 +18690,84 @@
     </row>
     <row r="37" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="159"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="112"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="139"/>
       <c r="P37" s="113"/>
     </row>
     <row r="38" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="114"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="139"/>
-      <c r="P38" s="113"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="119"/>
+      <c r="G38" s="119"/>
+      <c r="H38" s="119"/>
+      <c r="I38" s="119"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="119"/>
+      <c r="N38" s="119"/>
+      <c r="O38" s="121"/>
+      <c r="P38" s="122"/>
     </row>
     <row r="39" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="116"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="119"/>
-      <c r="F39" s="119"/>
-      <c r="G39" s="119"/>
-      <c r="H39" s="119"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="120"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="121"/>
-      <c r="P39" s="122"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88">
+        <f>COUNTA(E5:E37)</f>
+        <v>4</v>
+      </c>
+      <c r="F39" s="88">
+        <f>COUNTA(F5:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="88">
+        <f>COUNTA(G5:G38)</f>
+        <v>7</v>
+      </c>
+      <c r="H39" s="88">
+        <f>COUNTA(H5:H38)</f>
+        <v>6</v>
+      </c>
+      <c r="I39" s="88">
+        <f>COUNTA(I5:I38)</f>
+        <v>11</v>
+      </c>
+      <c r="J39" s="88">
+        <v>0</v>
+      </c>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
     </row>
     <row r="40" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="78"/>
-      <c r="C40" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" s="87"/>
-      <c r="E40" s="88">
-        <f>COUNTA(E5:E38)</f>
-        <v>4</v>
-      </c>
-      <c r="F40" s="88">
-        <f>COUNTA(F5:F39)</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="88">
-        <f>COUNTA(G5:G39)</f>
-        <v>8</v>
-      </c>
-      <c r="H40" s="88">
-        <f>COUNTA(H5:H39)</f>
-        <v>6</v>
-      </c>
-      <c r="I40" s="88">
-        <f>COUNTA(I5:I39)</f>
-        <v>11</v>
-      </c>
-      <c r="J40" s="88">
-        <v>0</v>
-      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="71"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="71"/>
       <c r="K40" s="71"/>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
@@ -18797,42 +18777,25 @@
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="73"/>
-      <c r="C41" s="87"/>
+      <c r="C41" s="73"/>
       <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="K41" s="91">
+        <f>COUNTA(E5:I38)</f>
+        <v>28</v>
+      </c>
       <c r="L41" s="71"/>
       <c r="M41" s="71"/>
       <c r="N41" s="73"/>
       <c r="O41" s="73"/>
       <c r="P41" s="73"/>
-    </row>
-    <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="73"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="K42" s="91">
-        <f>COUNTA(E5:I39)</f>
-        <v>29</v>
-      </c>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18844,11 +18807,11 @@
     <hyperlink ref="D19" r:id="rId6" location="'Metadatos H'!B12"/>
     <hyperlink ref="D23" r:id="rId7" location="'Metadatos M'!B4"/>
     <hyperlink ref="D24" r:id="rId8" location="'Metadatos D'!B5"/>
-    <hyperlink ref="D29" r:id="rId9" location="'Metadatos H'!B10"/>
-    <hyperlink ref="D30" r:id="rId10" location="'Metadatos M'!B5"/>
-    <hyperlink ref="D31" r:id="rId11" location="'Metadatos M'!B6"/>
-    <hyperlink ref="D32" r:id="rId12" location="'Metadatos H'!B9"/>
-    <hyperlink ref="D33" r:id="rId13" location="'Metadatos D'!B6"/>
+    <hyperlink ref="D28" r:id="rId9" location="'Metadatos H'!B10"/>
+    <hyperlink ref="D29" r:id="rId10" location="'Metadatos M'!B5"/>
+    <hyperlink ref="D30" r:id="rId11" location="'Metadatos M'!B6"/>
+    <hyperlink ref="D31" r:id="rId12" location="'Metadatos H'!B9"/>
+    <hyperlink ref="D32" r:id="rId13" location="'Metadatos D'!B6"/>
     <hyperlink ref="D13" r:id="rId14" location="'Metadatos M'!B11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Proyectos GitHub\Wasted-Racing\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="856">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -2134,9 +2134,6 @@
     <t>D-001</t>
   </si>
   <si>
-    <t>D-002</t>
-  </si>
-  <si>
     <t>Sonidos generales de todos los niveles</t>
   </si>
   <si>
@@ -2149,9 +2146,6 @@
     <t>Cerca</t>
   </si>
   <si>
-    <t>Comienzo derrape. Sucedido por D-002</t>
-  </si>
-  <si>
     <t>D-004</t>
   </si>
   <si>
@@ -2161,15 +2155,9 @@
     <t>F-001</t>
   </si>
   <si>
-    <t>Caja de items al romperse. Sucedida por D-003</t>
-  </si>
-  <si>
     <t>D-005</t>
   </si>
   <si>
-    <t>Ruleta de selección aleatoria de item. Sucedida por D-004</t>
-  </si>
-  <si>
     <t>0.5</t>
   </si>
   <si>
@@ -2723,6 +2711,15 @@
   </si>
   <si>
     <t>Indica el periodo activo de la invulnerabilidad</t>
+  </si>
+  <si>
+    <t>Caja de items al romperse. Sucedida por D-005</t>
+  </si>
+  <si>
+    <t>Ruleta de selección aleatoria de item. Sucedida por H-011</t>
+  </si>
+  <si>
+    <t>Comienzo derrape. Sucedido por D-004</t>
   </si>
 </sst>
 </file>
@@ -4387,7 +4384,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4598,7 +4594,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5272,7 +5267,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -5350,7 +5345,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -5375,7 +5370,7 @@
         <v>477</v>
       </c>
       <c r="D5" s="177" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -5392,10 +5387,10 @@
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5423,10 +5418,10 @@
       <c r="M6" s="141"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="P6" s="179" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5437,7 +5432,7 @@
         <v>477</v>
       </c>
       <c r="D7" s="176" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>200</v>
@@ -5454,10 +5449,10 @@
       <c r="M7" s="141"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141" t="s">
+        <v>736</v>
+      </c>
+      <c r="P7" s="179" t="s">
         <v>740</v>
-      </c>
-      <c r="P7" s="179" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -13251,7 +13246,7 @@
       </c>
       <c r="C11" s="98"/>
       <c r="D11" s="145" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="E11" s="96" t="s">
         <v>200</v>
@@ -13503,8 +13498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P122" sqref="P122"/>
+    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L129" sqref="L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -13651,7 +13646,7 @@
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="129" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13682,7 +13677,7 @@
       </c>
       <c r="O6" s="126"/>
       <c r="P6" s="126" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13715,7 +13710,7 @@
       </c>
       <c r="O7" s="97"/>
       <c r="P7" s="97" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13746,7 +13741,7 @@
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="97" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13777,7 +13772,7 @@
       </c>
       <c r="O9" s="97"/>
       <c r="P9" s="97" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13808,7 +13803,7 @@
       </c>
       <c r="O10" s="97"/>
       <c r="P10" s="97" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13839,7 +13834,7 @@
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="97" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13872,7 +13867,7 @@
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="97" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13903,7 +13898,7 @@
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="97" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13934,7 +13929,7 @@
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="97" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13965,7 +13960,7 @@
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13998,7 +13993,7 @@
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14029,7 +14024,7 @@
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="97" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14060,7 +14055,7 @@
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="97" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14091,7 +14086,7 @@
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="97" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14124,7 +14119,7 @@
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14155,7 +14150,7 @@
       </c>
       <c r="O21" s="97"/>
       <c r="P21" s="97" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14186,7 +14181,7 @@
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="97" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14217,7 +14212,7 @@
       </c>
       <c r="O23" s="97"/>
       <c r="P23" s="97" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14250,7 +14245,7 @@
       </c>
       <c r="O24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14281,7 +14276,7 @@
       </c>
       <c r="O25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14312,7 +14307,7 @@
       </c>
       <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14345,7 +14340,7 @@
       </c>
       <c r="O27" s="97"/>
       <c r="P27" s="97" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14376,7 +14371,7 @@
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14409,7 +14404,7 @@
       </c>
       <c r="O29" s="97"/>
       <c r="P29" s="97" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14440,7 +14435,7 @@
       </c>
       <c r="O30" s="97"/>
       <c r="P30" s="97" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14473,7 +14468,7 @@
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="97" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14504,7 +14499,7 @@
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14535,7 +14530,7 @@
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="97" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14566,7 +14561,7 @@
       </c>
       <c r="O34" s="97"/>
       <c r="P34" s="97" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14597,7 +14592,7 @@
       </c>
       <c r="O35" s="97"/>
       <c r="P35" s="97" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14628,7 +14623,7 @@
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14661,7 +14656,7 @@
       </c>
       <c r="O37" s="97"/>
       <c r="P37" s="97" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14692,7 +14687,7 @@
       </c>
       <c r="O38" s="97"/>
       <c r="P38" s="97" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14723,7 +14718,7 @@
       </c>
       <c r="O39" s="97"/>
       <c r="P39" s="97" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14756,7 +14751,7 @@
       </c>
       <c r="O40" s="97"/>
       <c r="P40" s="97" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14787,7 +14782,7 @@
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="97" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14818,7 +14813,7 @@
       </c>
       <c r="O42" s="97"/>
       <c r="P42" s="97" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14849,7 +14844,7 @@
       </c>
       <c r="O43" s="97"/>
       <c r="P43" s="97" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14882,7 +14877,7 @@
       </c>
       <c r="O44" s="97"/>
       <c r="P44" s="97" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14913,7 +14908,7 @@
       </c>
       <c r="O45" s="97"/>
       <c r="P45" s="97" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14944,7 +14939,7 @@
       </c>
       <c r="O46" s="97"/>
       <c r="P46" s="97" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14977,7 +14972,7 @@
       </c>
       <c r="O47" s="97"/>
       <c r="P47" s="97" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15008,7 +15003,7 @@
       </c>
       <c r="O48" s="97"/>
       <c r="P48" s="97" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15039,7 +15034,7 @@
       </c>
       <c r="O49" s="97"/>
       <c r="P49" s="97" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15070,7 +15065,7 @@
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="97" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15103,7 +15098,7 @@
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="97" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15134,7 +15129,7 @@
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15167,7 +15162,7 @@
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="97" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15198,7 +15193,7 @@
       </c>
       <c r="O54" s="97"/>
       <c r="P54" s="97" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15229,7 +15224,7 @@
       </c>
       <c r="O55" s="97"/>
       <c r="P55" s="97" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15260,7 +15255,7 @@
       </c>
       <c r="O56" s="97"/>
       <c r="P56" s="97" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15293,7 +15288,7 @@
       </c>
       <c r="O57" s="97"/>
       <c r="P57" s="97" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15324,7 +15319,7 @@
       </c>
       <c r="O58" s="97"/>
       <c r="P58" s="97" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15355,7 +15350,7 @@
       </c>
       <c r="O59" s="97"/>
       <c r="P59" s="97" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15388,7 +15383,7 @@
       </c>
       <c r="O60" s="97"/>
       <c r="P60" s="97" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15419,7 +15414,7 @@
       </c>
       <c r="O61" s="97"/>
       <c r="P61" s="97" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15452,7 +15447,7 @@
       </c>
       <c r="O62" s="97"/>
       <c r="P62" s="97" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15483,7 +15478,7 @@
       </c>
       <c r="O63" s="97"/>
       <c r="P63" s="97" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15516,7 +15511,7 @@
       </c>
       <c r="O64" s="97"/>
       <c r="P64" s="97" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15547,7 +15542,7 @@
       </c>
       <c r="O65" s="97"/>
       <c r="P65" s="97" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15580,7 +15575,7 @@
       </c>
       <c r="O66" s="97"/>
       <c r="P66" s="97" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15611,7 +15606,7 @@
       </c>
       <c r="O67" s="97"/>
       <c r="P67" s="97" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15642,7 +15637,7 @@
       </c>
       <c r="O68" s="97"/>
       <c r="P68" s="97" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15673,7 +15668,7 @@
       </c>
       <c r="O69" s="97"/>
       <c r="P69" s="97" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15706,7 +15701,7 @@
       </c>
       <c r="O70" s="97"/>
       <c r="P70" s="97" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15737,7 +15732,7 @@
       </c>
       <c r="O71" s="97"/>
       <c r="P71" s="97" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15770,7 +15765,7 @@
       </c>
       <c r="O72" s="97"/>
       <c r="P72" s="97" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15801,7 +15796,7 @@
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="97" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15832,7 +15827,7 @@
       </c>
       <c r="O74" s="97"/>
       <c r="P74" s="97" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15863,7 +15858,7 @@
       </c>
       <c r="O75" s="97"/>
       <c r="P75" s="97" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15894,7 +15889,7 @@
       </c>
       <c r="O76" s="97"/>
       <c r="P76" s="97" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15927,7 +15922,7 @@
       </c>
       <c r="O77" s="97"/>
       <c r="P77" s="97" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15958,7 +15953,7 @@
       </c>
       <c r="O78" s="97"/>
       <c r="P78" s="97" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -15989,7 +15984,7 @@
       </c>
       <c r="O79" s="97"/>
       <c r="P79" s="97" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16020,7 +16015,7 @@
       </c>
       <c r="O80" s="97"/>
       <c r="P80" s="97" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16051,7 +16046,7 @@
       </c>
       <c r="O81" s="97"/>
       <c r="P81" s="97" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16082,7 +16077,7 @@
       </c>
       <c r="O82" s="97"/>
       <c r="P82" s="97" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16115,7 +16110,7 @@
       </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16146,7 +16141,7 @@
       </c>
       <c r="O84" s="97"/>
       <c r="P84" s="97" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -16177,7 +16172,7 @@
       </c>
       <c r="O85" s="97"/>
       <c r="P85" s="97" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16208,7 +16203,7 @@
       </c>
       <c r="O86" s="97"/>
       <c r="P86" s="97" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16241,7 +16236,7 @@
       </c>
       <c r="O87" s="97"/>
       <c r="P87" s="97" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16272,7 +16267,7 @@
       </c>
       <c r="O88" s="97"/>
       <c r="P88" s="97" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16305,7 +16300,7 @@
       </c>
       <c r="O89" s="97"/>
       <c r="P89" s="97" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16336,7 +16331,7 @@
       </c>
       <c r="O90" s="97"/>
       <c r="P90" s="97" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16367,7 +16362,7 @@
       </c>
       <c r="O91" s="97"/>
       <c r="P91" s="97" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16400,7 +16395,7 @@
       </c>
       <c r="O92" s="97"/>
       <c r="P92" s="97" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16431,7 +16426,7 @@
       </c>
       <c r="O93" s="97"/>
       <c r="P93" s="97" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16462,7 +16457,7 @@
       </c>
       <c r="O94" s="97"/>
       <c r="P94" s="97" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16493,7 +16488,7 @@
       </c>
       <c r="O95" s="97"/>
       <c r="P95" s="97" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16524,7 +16519,7 @@
       </c>
       <c r="O96" s="97"/>
       <c r="P96" s="97" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16555,7 +16550,7 @@
       </c>
       <c r="O97" s="97"/>
       <c r="P97" s="97" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16588,7 +16583,7 @@
       </c>
       <c r="O98" s="97"/>
       <c r="P98" s="97" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16619,7 +16614,7 @@
       </c>
       <c r="O99" s="97"/>
       <c r="P99" s="97" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16650,7 +16645,7 @@
       </c>
       <c r="O100" s="97"/>
       <c r="P100" s="97" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16683,7 +16678,7 @@
       </c>
       <c r="O101" s="97"/>
       <c r="P101" s="97" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16714,7 +16709,7 @@
       </c>
       <c r="O102" s="97"/>
       <c r="P102" s="97" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16745,7 +16740,7 @@
       </c>
       <c r="O103" s="97"/>
       <c r="P103" s="97" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16778,7 +16773,7 @@
       </c>
       <c r="O104" s="97"/>
       <c r="P104" s="97" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -16809,7 +16804,7 @@
       </c>
       <c r="O105" s="97"/>
       <c r="P105" s="97" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16840,7 +16835,7 @@
       </c>
       <c r="O106" s="97"/>
       <c r="P106" s="97" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16871,7 +16866,7 @@
       </c>
       <c r="O107" s="97"/>
       <c r="P107" s="97" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16904,7 +16899,7 @@
       </c>
       <c r="O108" s="97"/>
       <c r="P108" s="97" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16935,7 +16930,7 @@
       </c>
       <c r="O109" s="97"/>
       <c r="P109" s="97" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16966,7 +16961,7 @@
       </c>
       <c r="O110" s="97"/>
       <c r="P110" s="97" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -16999,7 +16994,7 @@
       </c>
       <c r="O111" s="97"/>
       <c r="P111" s="97" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17030,7 +17025,7 @@
       </c>
       <c r="O112" s="97"/>
       <c r="P112" s="97" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17061,7 +17056,7 @@
       </c>
       <c r="O113" s="97"/>
       <c r="P113" s="97" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17092,7 +17087,7 @@
       </c>
       <c r="O114" s="97"/>
       <c r="P114" s="97" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17125,7 +17120,7 @@
       </c>
       <c r="O115" s="97"/>
       <c r="P115" s="97" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17156,7 +17151,7 @@
       </c>
       <c r="O116" s="97"/>
       <c r="P116" s="97" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17187,7 +17182,7 @@
       </c>
       <c r="O117" s="97"/>
       <c r="P117" s="97" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17218,7 +17213,7 @@
       </c>
       <c r="O118" s="97"/>
       <c r="P118" s="97" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17251,7 +17246,7 @@
       </c>
       <c r="O119" s="97"/>
       <c r="P119" s="97" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17282,7 +17277,7 @@
       </c>
       <c r="O120" s="97"/>
       <c r="P120" s="97" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -17315,10 +17310,10 @@
       </c>
       <c r="O121" s="97"/>
       <c r="P121" s="97" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="122" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="132"/>
       <c r="C122" s="127"/>
       <c r="D122" s="155" t="s">
@@ -17346,15 +17341,15 @@
       </c>
       <c r="O122" s="97"/>
       <c r="P122" s="97" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="132" t="s">
         <v>658</v>
       </c>
       <c r="C123" s="99"/>
-      <c r="D123" s="104" t="s">
+      <c r="D123" s="155" t="s">
         <v>659</v>
       </c>
       <c r="E123" s="99"/>
@@ -17382,11 +17377,11 @@
         <v>538</v>
       </c>
     </row>
-    <row r="124" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="132"/>
       <c r="C124" s="99"/>
-      <c r="D124" s="104" t="s">
-        <v>660</v>
+      <c r="D124" s="155" t="s">
+        <v>659</v>
       </c>
       <c r="E124" s="99"/>
       <c r="F124" s="96"/>
@@ -17413,7 +17408,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="125" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="133"/>
       <c r="C125" s="148"/>
       <c r="D125" s="152"/>
@@ -17622,9 +17617,11 @@
     <hyperlink ref="D120" r:id="rId116" location="'Metadatos V'!B119"/>
     <hyperlink ref="D121" r:id="rId117" location="'Metadatos V'!B120"/>
     <hyperlink ref="D122" r:id="rId118" location="'Metadatos V'!B121"/>
+    <hyperlink ref="D123" r:id="rId119" location="'Metadatos D'!B7"/>
+    <hyperlink ref="D124" r:id="rId120" location="'Metadatos D'!B7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId119"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId121"/>
 </worksheet>
 </file>
 
@@ -17632,8 +17629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -17655,7 +17652,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -17755,10 +17752,10 @@
         <v>285</v>
       </c>
       <c r="C5" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D5" s="160" t="s">
         <v>662</v>
-      </c>
-      <c r="D5" s="160" t="s">
-        <v>663</v>
       </c>
       <c r="E5" s="149"/>
       <c r="F5" s="94"/>
@@ -17776,18 +17773,18 @@
         <v>207</v>
       </c>
       <c r="N5" s="94" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O5" s="146"/>
       <c r="P5" s="60" t="s">
-        <v>665</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="157"/>
       <c r="C6" s="164"/>
       <c r="D6" s="161" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E6" s="128"/>
       <c r="F6" s="96"/>
@@ -17805,11 +17802,11 @@
         <v>207</v>
       </c>
       <c r="N6" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O6" s="127"/>
       <c r="P6" s="67" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -17817,10 +17814,10 @@
         <v>483</v>
       </c>
       <c r="C7" s="165" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D7" s="161" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E7" s="128"/>
       <c r="F7" s="96"/>
@@ -17838,11 +17835,11 @@
         <v>207</v>
       </c>
       <c r="N7" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O7" s="127"/>
       <c r="P7" s="67" t="s">
-        <v>669</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -17850,8 +17847,8 @@
       <c r="C8" s="165">
         <v>2</v>
       </c>
-      <c r="D8" s="161" t="s">
-        <v>670</v>
+      <c r="D8" s="162" t="s">
+        <v>667</v>
       </c>
       <c r="E8" s="128"/>
       <c r="F8" s="96"/>
@@ -17869,20 +17866,20 @@
       </c>
       <c r="M8" s="96"/>
       <c r="N8" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O8" s="127"/>
       <c r="P8" s="67" t="s">
-        <v>671</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="157"/>
       <c r="C9" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D9" s="162" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="96"/>
@@ -17900,11 +17897,11 @@
       </c>
       <c r="M9" s="96"/>
       <c r="N9" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O9" s="127"/>
       <c r="P9" s="67" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17912,10 +17909,10 @@
         <v>487</v>
       </c>
       <c r="C10" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="96"/>
@@ -17933,11 +17930,11 @@
       </c>
       <c r="M10" s="96"/>
       <c r="N10" s="96" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="O10" s="127"/>
       <c r="P10" s="67" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17945,10 +17942,10 @@
         <v>490</v>
       </c>
       <c r="C11" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E11" s="128"/>
       <c r="F11" s="96"/>
@@ -17966,11 +17963,11 @@
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O11" s="127"/>
       <c r="P11" s="67" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -17978,10 +17975,10 @@
         <v>493</v>
       </c>
       <c r="C12" s="165" t="s">
-        <v>672</v>
-      </c>
-      <c r="D12" s="161" t="s">
-        <v>679</v>
+        <v>668</v>
+      </c>
+      <c r="D12" s="162" t="s">
+        <v>675</v>
       </c>
       <c r="E12" s="128"/>
       <c r="F12" s="96"/>
@@ -18001,7 +17998,7 @@
       <c r="N12" s="96"/>
       <c r="O12" s="127"/>
       <c r="P12" s="67" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -18010,7 +18007,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="162" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>200</v>
@@ -18028,13 +18025,13 @@
         <v>207</v>
       </c>
       <c r="N13" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O13" s="127" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18045,7 +18042,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
@@ -18063,20 +18060,20 @@
       </c>
       <c r="M14" s="96"/>
       <c r="N14" s="96" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="O14" s="127"/>
       <c r="P14" s="67" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="157"/>
       <c r="C15" s="165" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -18094,16 +18091,16 @@
       <c r="N15" s="96"/>
       <c r="O15" s="127"/>
       <c r="P15" s="67" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="157"/>
       <c r="C16" s="165" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D16" s="162" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -18123,7 +18120,7 @@
       <c r="N16" s="96"/>
       <c r="O16" s="127"/>
       <c r="P16" s="67" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18131,10 +18128,10 @@
         <v>499</v>
       </c>
       <c r="C17" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D17" s="162" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -18152,11 +18149,11 @@
       </c>
       <c r="M17" s="96"/>
       <c r="N17" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O17" s="127"/>
       <c r="P17" s="67" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18165,7 +18162,7 @@
       </c>
       <c r="C18" s="165"/>
       <c r="D18" s="155" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -18183,18 +18180,18 @@
         <v>207</v>
       </c>
       <c r="N18" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O18" s="127"/>
       <c r="P18" s="67" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="158"/>
       <c r="C19" s="165"/>
       <c r="D19" s="155" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -18212,11 +18209,11 @@
         <v>207</v>
       </c>
       <c r="N19" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O19" s="127"/>
       <c r="P19" s="67" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18227,7 +18224,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="161" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
@@ -18245,22 +18242,22 @@
         <v>207</v>
       </c>
       <c r="N20" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O20" s="127"/>
       <c r="P20" s="67" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="158" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="C21" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -18278,22 +18275,22 @@
         <v>207</v>
       </c>
       <c r="N21" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O21" s="127"/>
       <c r="P21" s="67" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="158" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C22" s="165" t="s">
-        <v>672</v>
-      </c>
-      <c r="D22" s="161" t="s">
-        <v>703</v>
+        <v>668</v>
+      </c>
+      <c r="D22" s="162" t="s">
+        <v>699</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="96"/>
@@ -18311,22 +18308,22 @@
         <v>207</v>
       </c>
       <c r="N22" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O22" s="127"/>
       <c r="P22" s="67" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="158" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C23" s="165">
         <v>2</v>
       </c>
       <c r="D23" s="162" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E23" s="128" t="s">
         <v>200</v>
@@ -18344,20 +18341,20 @@
         <v>207</v>
       </c>
       <c r="N23" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O23" s="127"/>
       <c r="P23" s="67" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="157"/>
       <c r="C24" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D24" s="162" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
@@ -18375,22 +18372,22 @@
         <v>207</v>
       </c>
       <c r="N24" s="96" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O24" s="127"/>
       <c r="P24" s="67" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="157" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C25" s="165">
         <v>1</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
@@ -18408,22 +18405,22 @@
         <v>207</v>
       </c>
       <c r="N25" s="96" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="O25" s="127"/>
       <c r="P25" s="67" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="157" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C26" s="165" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D26" s="161" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
@@ -18443,16 +18440,16 @@
       <c r="N26" s="96"/>
       <c r="O26" s="127"/>
       <c r="P26" s="67" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="157" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="C27" s="164"/>
       <c r="D27" s="161" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
@@ -18472,16 +18469,16 @@
       <c r="N27" s="96"/>
       <c r="O27" s="127"/>
       <c r="P27" s="67" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="157" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C28" s="164"/>
       <c r="D28" s="155" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="96"/>
@@ -18501,16 +18498,16 @@
       <c r="N28" s="96"/>
       <c r="O28" s="127"/>
       <c r="P28" s="67" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="157" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C29" s="164"/>
       <c r="D29" s="162" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E29" s="128" t="s">
         <v>200</v>
@@ -18530,16 +18527,16 @@
       <c r="N29" s="96"/>
       <c r="O29" s="127"/>
       <c r="P29" s="67" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="157" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C30" s="164"/>
       <c r="D30" s="162" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E30" s="128" t="s">
         <v>200</v>
@@ -18559,16 +18556,16 @@
       <c r="N30" s="96"/>
       <c r="O30" s="127"/>
       <c r="P30" s="67" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="157" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C31" s="164"/>
       <c r="D31" s="155" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="96"/>
@@ -18588,16 +18585,16 @@
       <c r="N31" s="96"/>
       <c r="O31" s="127"/>
       <c r="P31" s="67" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="157" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C32" s="165"/>
       <c r="D32" s="162" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="96"/>
@@ -18617,7 +18614,7 @@
       <c r="N32" s="96"/>
       <c r="O32" s="137"/>
       <c r="P32" s="113" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18813,8 +18810,11 @@
     <hyperlink ref="D31" r:id="rId12" location="'Metadatos H'!B9"/>
     <hyperlink ref="D32" r:id="rId13" location="'Metadatos D'!B6"/>
     <hyperlink ref="D13" r:id="rId14" location="'Metadatos M'!B11"/>
+    <hyperlink ref="D12" r:id="rId15" location="'Metadatos D'!B8"/>
+    <hyperlink ref="D22" r:id="rId16" location="'Metadatos D'!B9"/>
+    <hyperlink ref="D8" r:id="rId17" location="'Metadatos D'!B10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Docs/TDS/CueSheet.xlsx
+++ b/Docs/TDS/CueSheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo-PT\Desktop\Wasted-Racing-master\Wasted-Racing-master\Docs\TDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" tabRatio="500" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4995" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Niveles" sheetId="9" r:id="rId9"/>
     <sheet name="Circuito1" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="848">
   <si>
     <t>Cue-Sheets</t>
   </si>
@@ -1588,21 +1588,9 @@
     <t>&gt;60</t>
   </si>
   <si>
-    <t>M-001</t>
-  </si>
-  <si>
-    <t>Presentación</t>
-  </si>
-  <si>
     <t>propia</t>
   </si>
   <si>
-    <t>fade in</t>
-  </si>
-  <si>
-    <t>Música del logo del juego</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -2140,18 +2128,9 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>D-003</t>
-  </si>
-  <si>
     <t>Cerca</t>
   </si>
   <si>
-    <t>D-004</t>
-  </si>
-  <si>
-    <t>Derrape</t>
-  </si>
-  <si>
     <t>F-001</t>
   </si>
   <si>
@@ -2176,9 +2155,6 @@
     <t>F-003</t>
   </si>
   <si>
-    <t>Objeto que te da un aceleron</t>
-  </si>
-  <si>
     <t>D-007</t>
   </si>
   <si>
@@ -2233,21 +2209,9 @@
     <t>Sonido patines deslizandose por la carretera</t>
   </si>
   <si>
-    <t>D-008</t>
-  </si>
-  <si>
     <t>Sonido frenazo</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>D-009</t>
-  </si>
-  <si>
-    <t>Sonido de choque con otro personaje</t>
-  </si>
-  <si>
     <t>1.11</t>
   </si>
   <si>
@@ -2278,24 +2242,12 @@
     <t>1.13</t>
   </si>
   <si>
-    <t>D-011</t>
-  </si>
-  <si>
-    <t>Dinamica</t>
-  </si>
-  <si>
-    <t>Sonido de deslizarse sobre el terreno, Unicamente para el objeto proyectil</t>
-  </si>
-  <si>
     <t>1.14</t>
   </si>
   <si>
     <t>F-006</t>
   </si>
   <si>
-    <t>Sonido del personaje saltando</t>
-  </si>
-  <si>
     <t>1.15</t>
   </si>
   <si>
@@ -2719,18 +2671,42 @@
     <t>Ruleta de selección aleatoria de item. Sucedida por H-011</t>
   </si>
   <si>
-    <t>Comienzo derrape. Sucedido por D-004</t>
+    <t>H-044</t>
+  </si>
+  <si>
+    <t>F-008</t>
+  </si>
+  <si>
+    <t>Sonido de deslizarse sobre el terreno, Unicamente para los patines</t>
+  </si>
+  <si>
+    <t>D-015</t>
+  </si>
+  <si>
+    <t>Golpe patines contra el suelo</t>
+  </si>
+  <si>
+    <t>Sonido de patines al caer contra el suelo despues del salto</t>
+  </si>
+  <si>
+    <t>Derrape. Sucedido por F-009</t>
+  </si>
+  <si>
+    <t>F-009</t>
+  </si>
+  <si>
+    <t>Final derrape</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[h]:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2821,13 +2797,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2894,7 +2863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -3726,12 +3695,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4002,22 +4006,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4036,19 +4040,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4060,19 +4064,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4093,49 +4097,49 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4150,25 +4154,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyBorder="1" applyProtection="1"/>
@@ -4177,7 +4181,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4186,23 +4190,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4223,10 +4221,10 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
@@ -4244,12 +4242,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4352,7 +4370,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4384,6 +4402,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4422,6 +4441,11 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4437,6 +4461,11 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4452,6 +4481,11 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4467,6 +4501,11 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -4482,6 +4521,11 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -4497,6 +4541,11 @@
                 <a:round/>
               </a:ln>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4551,19 +4600,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>118</c:v>
@@ -4571,6 +4620,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-52E0-4FA8-ABD8-D2B5606DAAC2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4594,6 +4648,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4613,7 +4668,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5080,32 +5135,32 @@
         <v>14</v>
       </c>
       <c r="C6" s="16">
-        <f>'Menu principal'!E20</f>
-        <v>2</v>
+        <f>'Menu principal'!E19</f>
+        <v>1</v>
       </c>
       <c r="D6" s="14">
-        <f>'Menu principal'!F20</f>
+        <f>'Menu principal'!F19</f>
         <v>0</v>
       </c>
       <c r="E6" s="14">
-        <f>'Menu principal'!G20</f>
+        <f>'Menu principal'!G19</f>
         <v>5</v>
       </c>
       <c r="F6" s="14">
-        <f>'Menu principal'!H20</f>
+        <f>'Menu principal'!H19</f>
         <v>0</v>
       </c>
       <c r="G6" s="14">
-        <f>'Menu principal'!I20</f>
+        <f>'Menu principal'!I19</f>
         <v>0</v>
       </c>
       <c r="H6" s="14">
-        <f>'Menu principal'!J20</f>
+        <f>'Menu principal'!J19</f>
         <v>0</v>
       </c>
       <c r="I6" s="17">
         <f>SUM(C6:H6)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -5146,32 +5201,32 @@
         <v>16</v>
       </c>
       <c r="C8" s="16">
-        <f>Niveles!E39</f>
+        <f>Niveles!E38</f>
         <v>4</v>
       </c>
       <c r="D8" s="14">
-        <f>Niveles!F39</f>
+        <f>Niveles!F38</f>
         <v>0</v>
       </c>
       <c r="E8" s="14">
-        <f>Niveles!G39</f>
+        <f>Niveles!G38</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
+        <f>Niveles!H38</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="14">
+        <f>Niveles!I38</f>
         <v>7</v>
       </c>
-      <c r="F8" s="14">
-        <f>Niveles!H39</f>
-        <v>6</v>
-      </c>
-      <c r="G8" s="14">
-        <f>Niveles!I39</f>
-        <v>11</v>
-      </c>
       <c r="H8" s="14">
-        <f>Niveles!J39</f>
+        <f>Niveles!J38</f>
         <v>0</v>
       </c>
       <c r="I8" s="17">
         <f>SUM(C8:H8)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -5200,7 +5255,7 @@
       </c>
       <c r="C11" s="25">
         <f t="shared" ref="C11:I11" si="0">SUM(C4:C10)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
@@ -5208,15 +5263,15 @@
       </c>
       <c r="E11" s="25">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H11" s="25">
         <f t="shared" si="0"/>
@@ -5224,7 +5279,7 @@
       </c>
       <c r="I11" s="25">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5245,7 +5300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5267,7 +5322,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -5345,7 +5400,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -5366,11 +5421,11 @@
       <c r="B5" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="169" t="s">
+      <c r="C5" s="167" t="s">
         <v>477</v>
       </c>
-      <c r="D5" s="177" t="s">
-        <v>726</v>
+      <c r="D5" s="175" t="s">
+        <v>710</v>
       </c>
       <c r="E5" s="57" t="s">
         <v>200</v>
@@ -5387,21 +5442,21 @@
       <c r="M5" s="58"/>
       <c r="N5" s="58"/>
       <c r="O5" s="58" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="140" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C6" s="100" t="s">
         <v>477</v>
       </c>
-      <c r="D6" s="175" t="s">
-        <v>500</v>
+      <c r="D6" s="173" t="s">
+        <v>496</v>
       </c>
       <c r="E6" s="141" t="s">
         <v>200</v>
@@ -5411,28 +5466,28 @@
       <c r="H6" s="131"/>
       <c r="I6" s="131"/>
       <c r="J6" s="131"/>
-      <c r="K6" s="178" t="s">
+      <c r="K6" s="176" t="s">
         <v>289</v>
       </c>
       <c r="L6" s="141"/>
       <c r="M6" s="141"/>
       <c r="N6" s="141"/>
       <c r="O6" s="141" t="s">
-        <v>736</v>
-      </c>
-      <c r="P6" s="179" t="s">
-        <v>738</v>
+        <v>720</v>
+      </c>
+      <c r="P6" s="177" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="140" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C7" s="142" t="s">
         <v>477</v>
       </c>
-      <c r="D7" s="176" t="s">
-        <v>739</v>
+      <c r="D7" s="174" t="s">
+        <v>723</v>
       </c>
       <c r="E7" s="141" t="s">
         <v>200</v>
@@ -5442,17 +5497,17 @@
       <c r="H7" s="131"/>
       <c r="I7" s="131"/>
       <c r="J7" s="131"/>
-      <c r="K7" s="178" t="s">
+      <c r="K7" s="176" t="s">
         <v>289</v>
       </c>
       <c r="L7" s="141"/>
       <c r="M7" s="141"/>
       <c r="N7" s="141"/>
       <c r="O7" s="141" t="s">
-        <v>736</v>
-      </c>
-      <c r="P7" s="179" t="s">
-        <v>740</v>
+        <v>720</v>
+      </c>
+      <c r="P7" s="177" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5469,7 +5524,7 @@
       <c r="L8" s="111"/>
       <c r="M8" s="102"/>
       <c r="N8" s="102"/>
-      <c r="O8" s="180"/>
+      <c r="O8" s="178"/>
       <c r="P8" s="113"/>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5486,7 +5541,7 @@
       <c r="L9" s="111"/>
       <c r="M9" s="102"/>
       <c r="N9" s="102"/>
-      <c r="O9" s="181"/>
+      <c r="O9" s="179"/>
       <c r="P9" s="113"/>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5503,7 +5558,7 @@
       <c r="L10" s="111"/>
       <c r="M10" s="102"/>
       <c r="N10" s="102"/>
-      <c r="O10" s="181"/>
+      <c r="O10" s="179"/>
       <c r="P10" s="113"/>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5520,7 +5575,7 @@
       <c r="L11" s="111"/>
       <c r="M11" s="102"/>
       <c r="N11" s="102"/>
-      <c r="O11" s="181"/>
+      <c r="O11" s="179"/>
       <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5537,7 +5592,7 @@
       <c r="L12" s="111"/>
       <c r="M12" s="102"/>
       <c r="N12" s="102"/>
-      <c r="O12" s="181"/>
+      <c r="O12" s="179"/>
       <c r="P12" s="113"/>
     </row>
     <row r="13" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5554,7 +5609,7 @@
       <c r="L13" s="111"/>
       <c r="M13" s="102"/>
       <c r="N13" s="102"/>
-      <c r="O13" s="181"/>
+      <c r="O13" s="179"/>
       <c r="P13" s="113"/>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,7 +5626,7 @@
       <c r="L14" s="111"/>
       <c r="M14" s="102"/>
       <c r="N14" s="102"/>
-      <c r="O14" s="181"/>
+      <c r="O14" s="179"/>
       <c r="P14" s="113"/>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5588,7 +5643,7 @@
       <c r="L15" s="111"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="181"/>
+      <c r="O15" s="179"/>
       <c r="P15" s="113"/>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,7 +5660,7 @@
       <c r="L16" s="111"/>
       <c r="M16" s="102"/>
       <c r="N16" s="102"/>
-      <c r="O16" s="181"/>
+      <c r="O16" s="179"/>
       <c r="P16" s="113"/>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5622,7 +5677,7 @@
       <c r="L17" s="111"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
-      <c r="O17" s="181"/>
+      <c r="O17" s="179"/>
       <c r="P17" s="113"/>
     </row>
     <row r="18" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5639,7 +5694,7 @@
       <c r="L18" s="111"/>
       <c r="M18" s="102"/>
       <c r="N18" s="102"/>
-      <c r="O18" s="182"/>
+      <c r="O18" s="180"/>
       <c r="P18" s="113"/>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5656,7 +5711,7 @@
       <c r="L19" s="120"/>
       <c r="M19" s="119"/>
       <c r="N19" s="119"/>
-      <c r="O19" s="183"/>
+      <c r="O19" s="181"/>
       <c r="P19" s="122"/>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5767,82 +5822,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="186" t="s">
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="185" t="s">
+      <c r="G3" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="185" t="s">
+      <c r="H3" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="185" t="s">
+      <c r="I3" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="185" t="s">
+      <c r="M3" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="186" t="s">
+      <c r="N3" s="192" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="27" t="s">
         <v>31</v>
       </c>
@@ -5852,15 +5907,15 @@
       <c r="E4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="186"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="186"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -7928,79 +7983,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="190" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="191" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="185" t="s">
+      <c r="M3" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="185" t="s">
+      <c r="N3" s="191" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -8016,12 +8071,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -10444,82 +10499,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="190" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="187" t="s">
+      <c r="C3" s="193" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="188" t="s">
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="185" t="s">
+      <c r="G3" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="185" t="s">
+      <c r="H3" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="185" t="s">
+      <c r="I3" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="185" t="s">
+      <c r="M3" s="191" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="186" t="s">
+      <c r="N3" s="192" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="185"/>
-      <c r="B4" s="185"/>
+      <c r="A4" s="191"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="92" t="s">
         <v>31</v>
       </c>
@@ -10529,15 +10584,15 @@
       <c r="E4" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="188"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="186"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="191"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -11840,79 +11895,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="190" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="184"/>
-      <c r="N2" s="184"/>
+      <c r="A2" s="190"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="190"/>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="191" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="185" t="s">
+      <c r="C3" s="191" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="191" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185" t="s">
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191" t="s">
         <v>194</v>
       </c>
-      <c r="J3" s="185" t="s">
+      <c r="J3" s="191" t="s">
         <v>195</v>
       </c>
-      <c r="K3" s="185" t="s">
+      <c r="K3" s="191" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="185" t="s">
+      <c r="L3" s="191" t="s">
         <v>197</v>
       </c>
-      <c r="M3" s="185" t="s">
+      <c r="M3" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="N3" s="185" t="s">
+      <c r="N3" s="191" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="186"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
+      <c r="A4" s="192"/>
+      <c r="B4" s="191"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="27" t="s">
         <v>200</v>
       </c>
@@ -11928,12 +11983,12 @@
       <c r="H4" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
+      <c r="I4" s="191"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="191"/>
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="191"/>
     </row>
     <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="26">
@@ -12932,10 +12987,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK22"/>
+  <dimension ref="A1:AMK21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -13032,64 +13087,60 @@
       <c r="P3" s="46"/>
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="184" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="53"/>
-    </row>
-    <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="170"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="170"/>
+      <c r="O4" s="170"/>
+      <c r="P4" s="188"/>
+    </row>
+    <row r="5" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="156" t="s">
-        <v>285</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="160" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>200</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C5" s="161"/>
+      <c r="D5" s="153" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" s="149"/>
       <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
+      <c r="G5" s="58" t="s">
+        <v>202</v>
+      </c>
       <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="146"/>
       <c r="K5" s="57" t="s">
         <v>289</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M5" s="58"/>
       <c r="N5" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="O5" s="167" t="s">
-        <v>481</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="O5" s="165"/>
       <c r="P5" s="60" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="158" t="s">
         <v>483</v>
       </c>
-      <c r="C6" s="165"/>
+      <c r="C6" s="163"/>
       <c r="D6" s="155" t="s">
         <v>484</v>
       </c>
@@ -13098,93 +13149,93 @@
       <c r="G6" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="96"/>
       <c r="J6" s="127"/>
       <c r="K6" s="64" t="s">
         <v>289</v>
       </c>
       <c r="L6" s="65" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M6" s="65"/>
       <c r="N6" s="65" t="s">
-        <v>480</v>
-      </c>
-      <c r="O6" s="168"/>
+        <v>478</v>
+      </c>
+      <c r="O6" s="127"/>
       <c r="P6" s="67" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="158" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="145" t="s">
         <v>487</v>
       </c>
-      <c r="C7" s="165"/>
-      <c r="D7" s="155" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="65" t="s">
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="127"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="64" t="s">
         <v>289</v>
       </c>
       <c r="L7" s="65" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M7" s="65"/>
       <c r="N7" s="65" t="s">
-        <v>480</v>
-      </c>
-      <c r="O7" s="127"/>
+        <v>478</v>
+      </c>
+      <c r="O7" s="166"/>
       <c r="P7" s="67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="101" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="158" t="s">
-        <v>490</v>
       </c>
       <c r="C8" s="98"/>
       <c r="D8" s="145" t="s">
-        <v>491</v>
-      </c>
-      <c r="E8" s="99"/>
-      <c r="F8" s="100"/>
+        <v>490</v>
+      </c>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="64" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="100" t="s">
         <v>289</v>
       </c>
-      <c r="L8" s="65" t="s">
-        <v>485</v>
-      </c>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65" t="s">
-        <v>480</v>
-      </c>
-      <c r="O8" s="168"/>
-      <c r="P8" s="67" t="s">
-        <v>492</v>
+      <c r="L8" s="100" t="s">
+        <v>481</v>
+      </c>
+      <c r="M8" s="104"/>
+      <c r="N8" s="100" t="s">
+        <v>478</v>
+      </c>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="101" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C9" s="98"/>
       <c r="D9" s="145" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E9" s="104"/>
       <c r="F9" s="104"/>
@@ -13198,78 +13249,64 @@
         <v>289</v>
       </c>
       <c r="L9" s="100" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M9" s="104"/>
       <c r="N9" s="100" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O9" s="104"/>
       <c r="P9" s="105" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="158" t="s">
         <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="101" t="s">
-        <v>496</v>
       </c>
       <c r="C10" s="98"/>
       <c r="D10" s="145" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="96"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="L10" s="65" t="s">
+        <v>481</v>
+      </c>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65" t="s">
+        <v>478</v>
+      </c>
+      <c r="O10" s="100"/>
+      <c r="P10" s="67" t="s">
         <v>497</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="100" t="s">
-        <v>202</v>
-      </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="100" t="s">
-        <v>289</v>
-      </c>
-      <c r="L10" s="100" t="s">
-        <v>485</v>
-      </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="100" t="s">
-        <v>480</v>
-      </c>
-      <c r="O10" s="104"/>
-      <c r="P10" s="105" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="158" t="s">
-        <v>499</v>
-      </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="145" t="s">
-        <v>735</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="F11" s="96"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="L11" s="65" t="s">
-        <v>485</v>
-      </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65" t="s">
-        <v>480</v>
-      </c>
-      <c r="O11" s="100"/>
-      <c r="P11" s="67" t="s">
-        <v>501</v>
-      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="113"/>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="106"/>
@@ -13359,81 +13396,81 @@
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="106"/>
       <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="110"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
       <c r="K17" s="102"/>
       <c r="L17" s="111"/>
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
-      <c r="O17" s="112"/>
+      <c r="O17" s="115"/>
       <c r="P17" s="113"/>
     </row>
     <row r="18" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="113"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="122"/>
     </row>
     <row r="19" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88">
+        <f>COUNTA(E5:E17)</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="88">
+        <f>COUNTA(F5:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="88">
+        <f>COUNTA(G5:G17)</f>
+        <v>5</v>
+      </c>
+      <c r="H19" s="88">
+        <v>0</v>
+      </c>
+      <c r="I19" s="88">
+        <v>0</v>
+      </c>
+      <c r="J19" s="88">
+        <v>0</v>
+      </c>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="78"/>
-      <c r="C20" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88">
-        <f>COUNTA(E5:E18)</f>
-        <v>2</v>
-      </c>
-      <c r="F20" s="88">
-        <f>COUNTA(F5:F18)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="88">
-        <f>COUNTA(G5:G18)</f>
-        <v>5</v>
-      </c>
-      <c r="H20" s="88">
-        <v>0</v>
-      </c>
-      <c r="I20" s="88">
-        <v>0</v>
-      </c>
-      <c r="J20" s="88">
-        <v>0</v>
-      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
       <c r="K20" s="71"/>
       <c r="L20" s="71"/>
       <c r="M20" s="71"/>
@@ -13443,54 +13480,37 @@
     </row>
     <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="73"/>
-      <c r="C21" s="87"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="K21" s="123">
+        <f>COUNTA(E5:J18)</f>
+        <v>6</v>
+      </c>
       <c r="L21" s="71"/>
       <c r="M21" s="71"/>
       <c r="N21" s="73"/>
       <c r="O21" s="73"/>
       <c r="P21" s="73"/>
     </row>
-    <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="K22" s="123">
-        <f>COUNTA(E5:J19)</f>
-        <v>7</v>
-      </c>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" location="'Metadatos H'!B4"/>
-    <hyperlink ref="D7" r:id="rId2" location="'Metadatos H'!B5"/>
-    <hyperlink ref="D8" r:id="rId3" location="'Metadatos H'!B6"/>
-    <hyperlink ref="D9" r:id="rId4" location="'Metadatos H'!B7"/>
-    <hyperlink ref="D10" r:id="rId5" location="'Metadatos H'!B8"/>
-    <hyperlink ref="D11" r:id="rId6" location="'Metadatos M'!B10"/>
+    <hyperlink ref="D5" r:id="rId1" location="'Metadatos H'!B4"/>
+    <hyperlink ref="D6" r:id="rId2" location="'Metadatos H'!B5"/>
+    <hyperlink ref="D7" r:id="rId3" location="'Metadatos H'!B6"/>
+    <hyperlink ref="D8" r:id="rId4" location="'Metadatos H'!B7"/>
+    <hyperlink ref="D9" r:id="rId5" location="'Metadatos H'!B8"/>
+    <hyperlink ref="D10" r:id="rId6" location="'Metadatos M'!B10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -13521,7 +13541,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -13599,7 +13619,7 @@
     </row>
     <row r="4" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="49"/>
@@ -13609,10 +13629,10 @@
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="124"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="172"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="170"/>
       <c r="O4" s="48"/>
       <c r="P4" s="53"/>
     </row>
@@ -13622,7 +13642,7 @@
       </c>
       <c r="C5" s="146"/>
       <c r="D5" s="153" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E5" s="149"/>
       <c r="F5" s="94"/>
@@ -13632,28 +13652,28 @@
       <c r="J5" s="126" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="173" t="s">
-        <v>505</v>
-      </c>
-      <c r="L5" s="174" t="s">
-        <v>506</v>
+      <c r="K5" s="171" t="s">
+        <v>501</v>
+      </c>
+      <c r="L5" s="172" t="s">
+        <v>502</v>
       </c>
       <c r="M5" s="149" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N5" s="94" t="s">
         <v>220</v>
       </c>
       <c r="O5" s="95"/>
       <c r="P5" s="129" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="130"/>
       <c r="C6" s="147"/>
       <c r="D6" s="154" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E6" s="150"/>
       <c r="F6" s="131"/>
@@ -13664,29 +13684,29 @@
         <v>204</v>
       </c>
       <c r="K6" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L6" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M6" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N6" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O6" s="126"/>
       <c r="P6" s="126" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="132" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C7" s="127"/>
       <c r="D7" s="155" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E7" s="128"/>
       <c r="F7" s="96"/>
@@ -13697,27 +13717,27 @@
         <v>204</v>
       </c>
       <c r="K7" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L7" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M7" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N7" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O7" s="97"/>
       <c r="P7" s="97" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="132"/>
       <c r="C8" s="127"/>
       <c r="D8" s="155" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E8" s="128"/>
       <c r="F8" s="96"/>
@@ -13728,27 +13748,27 @@
         <v>204</v>
       </c>
       <c r="K8" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L8" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M8" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N8" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O8" s="97"/>
       <c r="P8" s="97" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="132"/>
       <c r="C9" s="127"/>
       <c r="D9" s="155" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="96"/>
@@ -13759,27 +13779,27 @@
         <v>204</v>
       </c>
       <c r="K9" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L9" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M9" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N9" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O9" s="97"/>
       <c r="P9" s="97" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="132"/>
       <c r="C10" s="127"/>
       <c r="D10" s="155" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="96"/>
@@ -13790,27 +13810,27 @@
         <v>204</v>
       </c>
       <c r="K10" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L10" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M10" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N10" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O10" s="97"/>
       <c r="P10" s="97" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="132"/>
       <c r="C11" s="127"/>
       <c r="D11" s="155" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E11" s="128"/>
       <c r="F11" s="96"/>
@@ -13821,29 +13841,29 @@
         <v>204</v>
       </c>
       <c r="K11" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L11" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M11" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N11" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O11" s="97"/>
       <c r="P11" s="97" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="132" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C12" s="127"/>
       <c r="D12" s="155" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E12" s="128"/>
       <c r="F12" s="96"/>
@@ -13854,27 +13874,27 @@
         <v>204</v>
       </c>
       <c r="K12" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L12" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M12" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N12" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O12" s="97"/>
       <c r="P12" s="97" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="132"/>
       <c r="C13" s="127"/>
       <c r="D13" s="155" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E13" s="128"/>
       <c r="F13" s="96"/>
@@ -13885,27 +13905,27 @@
         <v>204</v>
       </c>
       <c r="K13" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L13" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M13" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N13" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O13" s="97"/>
       <c r="P13" s="97" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="132"/>
       <c r="C14" s="127"/>
       <c r="D14" s="155" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
@@ -13916,27 +13936,27 @@
         <v>204</v>
       </c>
       <c r="K14" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L14" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M14" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N14" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O14" s="97"/>
       <c r="P14" s="97" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="132"/>
       <c r="C15" s="127"/>
       <c r="D15" s="155" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -13947,29 +13967,29 @@
         <v>204</v>
       </c>
       <c r="K15" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L15" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M15" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N15" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O15" s="97"/>
       <c r="P15" s="97" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="132" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C16" s="127"/>
       <c r="D16" s="155" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -13980,27 +14000,27 @@
         <v>204</v>
       </c>
       <c r="K16" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L16" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M16" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N16" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O16" s="97"/>
       <c r="P16" s="97" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="132"/>
       <c r="C17" s="127"/>
       <c r="D17" s="155" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -14011,27 +14031,27 @@
         <v>204</v>
       </c>
       <c r="K17" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L17" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M17" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N17" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O17" s="97"/>
       <c r="P17" s="97" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="132"/>
       <c r="C18" s="127"/>
       <c r="D18" s="155" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -14042,27 +14062,27 @@
         <v>204</v>
       </c>
       <c r="K18" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L18" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M18" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N18" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O18" s="97"/>
       <c r="P18" s="97" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="132"/>
       <c r="C19" s="127"/>
       <c r="D19" s="155" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -14073,29 +14093,29 @@
         <v>204</v>
       </c>
       <c r="K19" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L19" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M19" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N19" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O19" s="97"/>
       <c r="P19" s="97" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="132" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C20" s="127"/>
       <c r="D20" s="155" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
@@ -14106,27 +14126,27 @@
         <v>204</v>
       </c>
       <c r="K20" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L20" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M20" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N20" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O20" s="97"/>
       <c r="P20" s="97" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="132"/>
       <c r="C21" s="127"/>
       <c r="D21" s="155" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -14137,27 +14157,27 @@
         <v>204</v>
       </c>
       <c r="K21" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L21" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M21" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N21" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O21" s="97"/>
       <c r="P21" s="97" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="132"/>
       <c r="C22" s="127"/>
       <c r="D22" s="155" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="96"/>
@@ -14168,27 +14188,27 @@
         <v>204</v>
       </c>
       <c r="K22" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L22" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M22" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N22" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O22" s="97"/>
       <c r="P22" s="97" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="132"/>
       <c r="C23" s="127"/>
       <c r="D23" s="155" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E23" s="128"/>
       <c r="F23" s="96"/>
@@ -14199,29 +14219,29 @@
         <v>204</v>
       </c>
       <c r="K23" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L23" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M23" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N23" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O23" s="97"/>
       <c r="P23" s="97" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="132" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C24" s="127"/>
       <c r="D24" s="155" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
@@ -14232,27 +14252,27 @@
         <v>204</v>
       </c>
       <c r="K24" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L24" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M24" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N24" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="132"/>
       <c r="C25" s="127"/>
       <c r="D25" s="155" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
@@ -14263,27 +14283,27 @@
         <v>204</v>
       </c>
       <c r="K25" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L25" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M25" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N25" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="132"/>
       <c r="C26" s="127"/>
       <c r="D26" s="155" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
@@ -14294,29 +14314,29 @@
         <v>204</v>
       </c>
       <c r="K26" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L26" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M26" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N26" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O26" s="97"/>
       <c r="P26" s="97" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="132" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C27" s="127"/>
       <c r="D27" s="155" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
@@ -14327,27 +14347,27 @@
         <v>204</v>
       </c>
       <c r="K27" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L27" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M27" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N27" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O27" s="97"/>
       <c r="P27" s="97" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="132"/>
       <c r="C28" s="127"/>
       <c r="D28" s="155" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E28" s="128"/>
       <c r="F28" s="96"/>
@@ -14358,29 +14378,29 @@
         <v>204</v>
       </c>
       <c r="K28" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L28" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M28" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N28" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O28" s="97"/>
       <c r="P28" s="97" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="132" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C29" s="127"/>
       <c r="D29" s="155" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E29" s="128"/>
       <c r="F29" s="96"/>
@@ -14391,27 +14411,27 @@
         <v>204</v>
       </c>
       <c r="K29" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L29" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M29" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N29" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O29" s="97"/>
       <c r="P29" s="97" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="132"/>
       <c r="C30" s="127"/>
       <c r="D30" s="155" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E30" s="128"/>
       <c r="F30" s="96"/>
@@ -14422,29 +14442,29 @@
         <v>204</v>
       </c>
       <c r="K30" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L30" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M30" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N30" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O30" s="97"/>
       <c r="P30" s="97" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="132" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C31" s="127"/>
       <c r="D31" s="155" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="96"/>
@@ -14455,27 +14475,27 @@
         <v>204</v>
       </c>
       <c r="K31" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L31" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M31" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N31" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O31" s="97"/>
       <c r="P31" s="97" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="132"/>
       <c r="C32" s="127"/>
       <c r="D32" s="155" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E32" s="128"/>
       <c r="F32" s="96"/>
@@ -14486,27 +14506,27 @@
         <v>204</v>
       </c>
       <c r="K32" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L32" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M32" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N32" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O32" s="97"/>
       <c r="P32" s="97" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="132"/>
       <c r="C33" s="127"/>
       <c r="D33" s="155" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E33" s="128"/>
       <c r="F33" s="96"/>
@@ -14517,27 +14537,27 @@
         <v>204</v>
       </c>
       <c r="K33" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L33" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M33" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N33" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O33" s="97"/>
       <c r="P33" s="97" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="132"/>
       <c r="C34" s="127"/>
       <c r="D34" s="155" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E34" s="128"/>
       <c r="F34" s="96"/>
@@ -14548,27 +14568,27 @@
         <v>204</v>
       </c>
       <c r="K34" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L34" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M34" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N34" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O34" s="97"/>
       <c r="P34" s="97" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="132"/>
       <c r="C35" s="127"/>
       <c r="D35" s="155" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E35" s="128"/>
       <c r="F35" s="96"/>
@@ -14579,27 +14599,27 @@
         <v>204</v>
       </c>
       <c r="K35" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L35" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M35" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N35" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O35" s="97"/>
       <c r="P35" s="97" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="132"/>
       <c r="C36" s="127"/>
       <c r="D36" s="155" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E36" s="128"/>
       <c r="F36" s="96"/>
@@ -14610,29 +14630,29 @@
         <v>204</v>
       </c>
       <c r="K36" s="127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L36" s="99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="M36" s="128" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N36" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O36" s="97"/>
       <c r="P36" s="97" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="132" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C37" s="127"/>
       <c r="D37" s="155" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E37" s="128"/>
       <c r="F37" s="96"/>
@@ -14643,27 +14663,27 @@
         <v>204</v>
       </c>
       <c r="K37" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L37" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M37" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N37" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O37" s="97"/>
       <c r="P37" s="97" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="132"/>
       <c r="C38" s="127"/>
       <c r="D38" s="155" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E38" s="128"/>
       <c r="F38" s="96"/>
@@ -14674,27 +14694,27 @@
         <v>204</v>
       </c>
       <c r="K38" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L38" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M38" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N38" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O38" s="97"/>
       <c r="P38" s="97" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="132"/>
       <c r="C39" s="127"/>
       <c r="D39" s="155" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E39" s="128"/>
       <c r="F39" s="96"/>
@@ -14705,29 +14725,29 @@
         <v>204</v>
       </c>
       <c r="K39" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L39" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M39" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N39" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O39" s="97"/>
       <c r="P39" s="97" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="132" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C40" s="127"/>
       <c r="D40" s="155" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E40" s="128"/>
       <c r="F40" s="96"/>
@@ -14738,27 +14758,27 @@
         <v>204</v>
       </c>
       <c r="K40" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L40" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M40" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N40" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O40" s="97"/>
       <c r="P40" s="97" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="132"/>
       <c r="C41" s="127"/>
       <c r="D41" s="155" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E41" s="128"/>
       <c r="F41" s="96"/>
@@ -14769,27 +14789,27 @@
         <v>204</v>
       </c>
       <c r="K41" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L41" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M41" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N41" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O41" s="97"/>
       <c r="P41" s="97" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="132"/>
       <c r="C42" s="127"/>
       <c r="D42" s="155" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E42" s="128"/>
       <c r="F42" s="96"/>
@@ -14800,27 +14820,27 @@
         <v>204</v>
       </c>
       <c r="K42" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L42" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M42" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N42" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O42" s="97"/>
       <c r="P42" s="97" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
     </row>
     <row r="43" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="132"/>
       <c r="C43" s="127"/>
       <c r="D43" s="155" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E43" s="128"/>
       <c r="F43" s="96"/>
@@ -14831,29 +14851,29 @@
         <v>204</v>
       </c>
       <c r="K43" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L43" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M43" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N43" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O43" s="97"/>
       <c r="P43" s="97" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="132" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C44" s="127"/>
       <c r="D44" s="155" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E44" s="128"/>
       <c r="F44" s="96"/>
@@ -14864,27 +14884,27 @@
         <v>204</v>
       </c>
       <c r="K44" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L44" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M44" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N44" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O44" s="97"/>
       <c r="P44" s="97" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="132"/>
       <c r="C45" s="127"/>
       <c r="D45" s="155" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E45" s="128"/>
       <c r="F45" s="96"/>
@@ -14895,27 +14915,27 @@
         <v>204</v>
       </c>
       <c r="K45" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L45" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M45" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N45" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O45" s="97"/>
       <c r="P45" s="97" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="132"/>
       <c r="C46" s="127"/>
       <c r="D46" s="155" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E46" s="128"/>
       <c r="F46" s="96"/>
@@ -14926,29 +14946,29 @@
         <v>204</v>
       </c>
       <c r="K46" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L46" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M46" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N46" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O46" s="97"/>
       <c r="P46" s="97" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="132" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C47" s="127"/>
       <c r="D47" s="155" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E47" s="128"/>
       <c r="F47" s="96"/>
@@ -14959,27 +14979,27 @@
         <v>204</v>
       </c>
       <c r="K47" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L47" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M47" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N47" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O47" s="97"/>
       <c r="P47" s="97" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
     </row>
     <row r="48" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="132"/>
       <c r="C48" s="127"/>
       <c r="D48" s="155" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E48" s="128"/>
       <c r="F48" s="96"/>
@@ -14990,27 +15010,27 @@
         <v>204</v>
       </c>
       <c r="K48" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L48" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M48" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N48" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O48" s="97"/>
       <c r="P48" s="97" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="132"/>
       <c r="C49" s="127"/>
       <c r="D49" s="155" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="E49" s="128"/>
       <c r="F49" s="96"/>
@@ -15021,27 +15041,27 @@
         <v>204</v>
       </c>
       <c r="K49" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L49" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M49" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N49" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O49" s="97"/>
       <c r="P49" s="97" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="132"/>
       <c r="C50" s="127"/>
       <c r="D50" s="155" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E50" s="128"/>
       <c r="F50" s="96"/>
@@ -15052,29 +15072,29 @@
         <v>204</v>
       </c>
       <c r="K50" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L50" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M50" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N50" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O50" s="97"/>
       <c r="P50" s="97" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="132" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C51" s="127"/>
       <c r="D51" s="155" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E51" s="128"/>
       <c r="F51" s="96"/>
@@ -15085,27 +15105,27 @@
         <v>204</v>
       </c>
       <c r="K51" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L51" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M51" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N51" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O51" s="97"/>
       <c r="P51" s="97" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="132"/>
       <c r="C52" s="127"/>
       <c r="D52" s="155" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E52" s="128"/>
       <c r="F52" s="96"/>
@@ -15116,29 +15136,29 @@
         <v>204</v>
       </c>
       <c r="K52" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L52" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M52" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N52" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O52" s="97"/>
       <c r="P52" s="97" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
     </row>
     <row r="53" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="132" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C53" s="127"/>
       <c r="D53" s="155" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E53" s="128"/>
       <c r="F53" s="96"/>
@@ -15149,27 +15169,27 @@
         <v>204</v>
       </c>
       <c r="K53" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L53" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M53" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N53" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O53" s="97"/>
       <c r="P53" s="97" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
     </row>
     <row r="54" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="132"/>
       <c r="C54" s="127"/>
       <c r="D54" s="155" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E54" s="128"/>
       <c r="F54" s="96"/>
@@ -15180,27 +15200,27 @@
         <v>204</v>
       </c>
       <c r="K54" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L54" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M54" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N54" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O54" s="97"/>
       <c r="P54" s="97" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="132"/>
       <c r="C55" s="127"/>
       <c r="D55" s="155" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="E55" s="128"/>
       <c r="F55" s="96"/>
@@ -15211,27 +15231,27 @@
         <v>204</v>
       </c>
       <c r="K55" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L55" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M55" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N55" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O55" s="97"/>
       <c r="P55" s="97" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
     </row>
     <row r="56" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="132"/>
       <c r="C56" s="127"/>
       <c r="D56" s="155" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E56" s="128"/>
       <c r="F56" s="96"/>
@@ -15242,29 +15262,29 @@
         <v>204</v>
       </c>
       <c r="K56" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L56" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M56" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N56" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O56" s="97"/>
       <c r="P56" s="97" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
     </row>
     <row r="57" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="132" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C57" s="127"/>
       <c r="D57" s="155" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E57" s="128"/>
       <c r="F57" s="96"/>
@@ -15275,27 +15295,27 @@
         <v>204</v>
       </c>
       <c r="K57" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L57" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M57" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N57" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O57" s="97"/>
       <c r="P57" s="97" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
     </row>
     <row r="58" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="132"/>
       <c r="C58" s="127"/>
       <c r="D58" s="155" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E58" s="128"/>
       <c r="F58" s="96"/>
@@ -15306,27 +15326,27 @@
         <v>204</v>
       </c>
       <c r="K58" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L58" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M58" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N58" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O58" s="97"/>
       <c r="P58" s="97" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
     </row>
     <row r="59" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="132"/>
       <c r="C59" s="127"/>
       <c r="D59" s="155" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E59" s="128"/>
       <c r="F59" s="96"/>
@@ -15337,29 +15357,29 @@
         <v>204</v>
       </c>
       <c r="K59" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L59" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M59" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N59" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O59" s="97"/>
       <c r="P59" s="97" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
     </row>
     <row r="60" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="132" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C60" s="127"/>
       <c r="D60" s="155" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E60" s="128"/>
       <c r="F60" s="96"/>
@@ -15370,27 +15390,27 @@
         <v>204</v>
       </c>
       <c r="K60" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L60" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M60" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N60" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O60" s="97"/>
       <c r="P60" s="97" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="132"/>
       <c r="C61" s="127"/>
       <c r="D61" s="155" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E61" s="128"/>
       <c r="F61" s="96"/>
@@ -15401,29 +15421,29 @@
         <v>204</v>
       </c>
       <c r="K61" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L61" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M61" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N61" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O61" s="97"/>
       <c r="P61" s="97" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="62" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="132" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C62" s="127"/>
       <c r="D62" s="155" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E62" s="128"/>
       <c r="F62" s="96"/>
@@ -15434,27 +15454,27 @@
         <v>204</v>
       </c>
       <c r="K62" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L62" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M62" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N62" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O62" s="97"/>
       <c r="P62" s="97" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="63" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="132"/>
       <c r="C63" s="127"/>
       <c r="D63" s="155" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E63" s="128"/>
       <c r="F63" s="96"/>
@@ -15465,29 +15485,29 @@
         <v>204</v>
       </c>
       <c r="K63" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L63" s="96" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M63" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N63" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O63" s="97"/>
       <c r="P63" s="97" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="64" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="132" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C64" s="99"/>
       <c r="D64" s="145" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E64" s="128"/>
       <c r="F64" s="96"/>
@@ -15498,27 +15518,27 @@
         <v>204</v>
       </c>
       <c r="K64" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L64" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M64" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N64" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O64" s="97"/>
       <c r="P64" s="97" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="132"/>
       <c r="C65" s="99"/>
       <c r="D65" s="145" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E65" s="128"/>
       <c r="F65" s="96"/>
@@ -15529,29 +15549,29 @@
         <v>204</v>
       </c>
       <c r="K65" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L65" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M65" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N65" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O65" s="97"/>
       <c r="P65" s="97" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="66" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="132" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C66" s="99"/>
       <c r="D66" s="145" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E66" s="128"/>
       <c r="F66" s="96"/>
@@ -15562,27 +15582,27 @@
         <v>204</v>
       </c>
       <c r="K66" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L66" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M66" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N66" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O66" s="97"/>
       <c r="P66" s="97" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="132"/>
       <c r="C67" s="99"/>
       <c r="D67" s="145" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E67" s="128"/>
       <c r="F67" s="96"/>
@@ -15593,27 +15613,27 @@
         <v>204</v>
       </c>
       <c r="K67" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L67" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M67" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N67" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O67" s="97"/>
       <c r="P67" s="97" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="68" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="132"/>
       <c r="C68" s="99"/>
       <c r="D68" s="145" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E68" s="128"/>
       <c r="F68" s="96"/>
@@ -15624,27 +15644,27 @@
         <v>204</v>
       </c>
       <c r="K68" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L68" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M68" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N68" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O68" s="97"/>
       <c r="P68" s="97" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="69" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="132"/>
       <c r="C69" s="99"/>
       <c r="D69" s="145" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E69" s="128"/>
       <c r="F69" s="96"/>
@@ -15655,29 +15675,29 @@
         <v>204</v>
       </c>
       <c r="K69" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L69" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M69" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N69" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O69" s="97"/>
       <c r="P69" s="97" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="132" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C70" s="99"/>
       <c r="D70" s="145" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E70" s="128"/>
       <c r="F70" s="96"/>
@@ -15688,27 +15708,27 @@
         <v>204</v>
       </c>
       <c r="K70" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L70" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M70" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N70" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O70" s="97"/>
       <c r="P70" s="97" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="132"/>
       <c r="C71" s="99"/>
       <c r="D71" s="145" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E71" s="128"/>
       <c r="F71" s="96"/>
@@ -15719,29 +15739,29 @@
         <v>204</v>
       </c>
       <c r="K71" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L71" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M71" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N71" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O71" s="97"/>
       <c r="P71" s="97" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="132" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C72" s="99"/>
       <c r="D72" s="145" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E72" s="128"/>
       <c r="F72" s="96"/>
@@ -15752,27 +15772,27 @@
         <v>204</v>
       </c>
       <c r="K72" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L72" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M72" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N72" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O72" s="97"/>
       <c r="P72" s="97" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="132"/>
       <c r="C73" s="99"/>
       <c r="D73" s="145" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E73" s="128"/>
       <c r="F73" s="96"/>
@@ -15783,27 +15803,27 @@
         <v>204</v>
       </c>
       <c r="K73" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L73" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M73" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N73" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O73" s="97"/>
       <c r="P73" s="97" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="74" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="132"/>
       <c r="C74" s="99"/>
       <c r="D74" s="145" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E74" s="128"/>
       <c r="F74" s="96"/>
@@ -15814,27 +15834,27 @@
         <v>204</v>
       </c>
       <c r="K74" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L74" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M74" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N74" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O74" s="97"/>
       <c r="P74" s="97" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="75" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="132"/>
       <c r="C75" s="99"/>
       <c r="D75" s="145" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="E75" s="128"/>
       <c r="F75" s="96"/>
@@ -15845,27 +15865,27 @@
         <v>204</v>
       </c>
       <c r="K75" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L75" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M75" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N75" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O75" s="97"/>
       <c r="P75" s="97" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="132"/>
       <c r="C76" s="99"/>
       <c r="D76" s="145" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E76" s="128"/>
       <c r="F76" s="96"/>
@@ -15876,29 +15896,29 @@
         <v>204</v>
       </c>
       <c r="K76" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L76" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M76" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N76" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O76" s="97"/>
       <c r="P76" s="97" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="132" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C77" s="99"/>
       <c r="D77" s="145" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E77" s="128"/>
       <c r="F77" s="96"/>
@@ -15909,27 +15929,27 @@
         <v>204</v>
       </c>
       <c r="K77" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L77" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M77" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N77" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O77" s="97"/>
       <c r="P77" s="97" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="132"/>
       <c r="C78" s="99"/>
       <c r="D78" s="145" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E78" s="128"/>
       <c r="F78" s="96"/>
@@ -15940,27 +15960,27 @@
         <v>204</v>
       </c>
       <c r="K78" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L78" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M78" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N78" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O78" s="97"/>
       <c r="P78" s="97" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="132"/>
       <c r="C79" s="99"/>
       <c r="D79" s="145" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E79" s="128"/>
       <c r="F79" s="96"/>
@@ -15971,27 +15991,27 @@
         <v>204</v>
       </c>
       <c r="K79" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L79" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M79" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N79" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O79" s="97"/>
       <c r="P79" s="97" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="80" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="132"/>
       <c r="C80" s="99"/>
       <c r="D80" s="145" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E80" s="128"/>
       <c r="F80" s="96"/>
@@ -16002,27 +16022,27 @@
         <v>204</v>
       </c>
       <c r="K80" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L80" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M80" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N80" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O80" s="97"/>
       <c r="P80" s="97" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="132"/>
       <c r="C81" s="99"/>
       <c r="D81" s="145" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E81" s="128"/>
       <c r="F81" s="96"/>
@@ -16033,27 +16053,27 @@
         <v>204</v>
       </c>
       <c r="K81" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L81" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M81" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N81" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O81" s="97"/>
       <c r="P81" s="97" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="82" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="132"/>
       <c r="C82" s="99"/>
       <c r="D82" s="145" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E82" s="128"/>
       <c r="F82" s="96"/>
@@ -16064,29 +16084,29 @@
         <v>204</v>
       </c>
       <c r="K82" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L82" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M82" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N82" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O82" s="97"/>
       <c r="P82" s="97" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="132" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C83" s="99"/>
       <c r="D83" s="145" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E83" s="128"/>
       <c r="F83" s="96"/>
@@ -16097,27 +16117,27 @@
         <v>204</v>
       </c>
       <c r="K83" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L83" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M83" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N83" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O83" s="97"/>
       <c r="P83" s="97" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
     </row>
     <row r="84" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="132"/>
       <c r="C84" s="99"/>
       <c r="D84" s="145" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E84" s="128"/>
       <c r="F84" s="96"/>
@@ -16128,27 +16148,27 @@
         <v>204</v>
       </c>
       <c r="K84" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L84" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M84" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N84" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O84" s="97"/>
       <c r="P84" s="97" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="85" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="132"/>
       <c r="C85" s="99"/>
       <c r="D85" s="145" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E85" s="128"/>
       <c r="F85" s="96"/>
@@ -16159,27 +16179,27 @@
         <v>204</v>
       </c>
       <c r="K85" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L85" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M85" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N85" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O85" s="97"/>
       <c r="P85" s="97" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="132"/>
       <c r="C86" s="99"/>
       <c r="D86" s="145" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E86" s="128"/>
       <c r="F86" s="96"/>
@@ -16190,29 +16210,29 @@
         <v>204</v>
       </c>
       <c r="K86" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L86" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M86" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N86" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O86" s="97"/>
       <c r="P86" s="97" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="132" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C87" s="99"/>
       <c r="D87" s="145" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E87" s="128"/>
       <c r="F87" s="96"/>
@@ -16223,27 +16243,27 @@
         <v>204</v>
       </c>
       <c r="K87" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L87" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M87" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N87" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O87" s="97"/>
       <c r="P87" s="97" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="132"/>
       <c r="C88" s="99"/>
       <c r="D88" s="145" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E88" s="128"/>
       <c r="F88" s="96"/>
@@ -16254,29 +16274,29 @@
         <v>204</v>
       </c>
       <c r="K88" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L88" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M88" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N88" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O88" s="97"/>
       <c r="P88" s="97" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="132" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C89" s="99"/>
       <c r="D89" s="145" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E89" s="128"/>
       <c r="F89" s="96"/>
@@ -16287,27 +16307,27 @@
         <v>204</v>
       </c>
       <c r="K89" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L89" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M89" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N89" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O89" s="97"/>
       <c r="P89" s="97" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="132"/>
       <c r="C90" s="99"/>
       <c r="D90" s="145" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E90" s="128"/>
       <c r="F90" s="96"/>
@@ -16318,27 +16338,27 @@
         <v>204</v>
       </c>
       <c r="K90" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L90" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M90" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N90" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O90" s="97"/>
       <c r="P90" s="97" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="91" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="132"/>
       <c r="C91" s="99"/>
       <c r="D91" s="145" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E91" s="128"/>
       <c r="F91" s="96"/>
@@ -16349,29 +16369,29 @@
         <v>204</v>
       </c>
       <c r="K91" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L91" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M91" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N91" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O91" s="97"/>
       <c r="P91" s="97" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="132" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C92" s="99"/>
       <c r="D92" s="145" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E92" s="128"/>
       <c r="F92" s="96"/>
@@ -16382,27 +16402,27 @@
         <v>204</v>
       </c>
       <c r="K92" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L92" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M92" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N92" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O92" s="97"/>
       <c r="P92" s="97" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="93" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="132"/>
       <c r="C93" s="99"/>
       <c r="D93" s="145" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E93" s="128"/>
       <c r="F93" s="96"/>
@@ -16413,27 +16433,27 @@
         <v>204</v>
       </c>
       <c r="K93" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L93" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M93" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N93" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O93" s="97"/>
       <c r="P93" s="97" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
     </row>
     <row r="94" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="132"/>
       <c r="C94" s="99"/>
       <c r="D94" s="145" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E94" s="128"/>
       <c r="F94" s="96"/>
@@ -16444,27 +16464,27 @@
         <v>204</v>
       </c>
       <c r="K94" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L94" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M94" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N94" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O94" s="97"/>
       <c r="P94" s="97" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="95" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="132"/>
       <c r="C95" s="99"/>
       <c r="D95" s="145" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E95" s="128"/>
       <c r="F95" s="96"/>
@@ -16475,27 +16495,27 @@
         <v>204</v>
       </c>
       <c r="K95" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L95" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M95" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N95" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O95" s="97"/>
       <c r="P95" s="97" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="96" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="132"/>
       <c r="C96" s="99"/>
       <c r="D96" s="145" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E96" s="128"/>
       <c r="F96" s="96"/>
@@ -16506,27 +16526,27 @@
         <v>204</v>
       </c>
       <c r="K96" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L96" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M96" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N96" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O96" s="97"/>
       <c r="P96" s="97" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="97" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="132"/>
       <c r="C97" s="99"/>
       <c r="D97" s="145" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E97" s="128"/>
       <c r="F97" s="96"/>
@@ -16537,29 +16557,29 @@
         <v>204</v>
       </c>
       <c r="K97" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L97" s="96" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M97" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N97" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O97" s="97"/>
       <c r="P97" s="97" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="132" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C98" s="127"/>
       <c r="D98" s="155" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E98" s="128"/>
       <c r="F98" s="96"/>
@@ -16570,27 +16590,27 @@
         <v>204</v>
       </c>
       <c r="K98" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L98" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M98" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N98" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O98" s="97"/>
       <c r="P98" s="97" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="132"/>
       <c r="C99" s="127"/>
       <c r="D99" s="155" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E99" s="128"/>
       <c r="F99" s="96"/>
@@ -16601,27 +16621,27 @@
         <v>204</v>
       </c>
       <c r="K99" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L99" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M99" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N99" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O99" s="97"/>
       <c r="P99" s="97" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="132"/>
       <c r="C100" s="127"/>
       <c r="D100" s="155" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E100" s="128"/>
       <c r="F100" s="96"/>
@@ -16632,29 +16652,29 @@
         <v>204</v>
       </c>
       <c r="K100" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L100" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M100" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N100" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O100" s="97"/>
       <c r="P100" s="97" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
     </row>
     <row r="101" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="132" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C101" s="127"/>
       <c r="D101" s="155" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="E101" s="128"/>
       <c r="F101" s="96"/>
@@ -16665,27 +16685,27 @@
         <v>204</v>
       </c>
       <c r="K101" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L101" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M101" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N101" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O101" s="97"/>
       <c r="P101" s="97" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="102" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="132"/>
       <c r="C102" s="127"/>
       <c r="D102" s="155" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E102" s="128"/>
       <c r="F102" s="96"/>
@@ -16696,27 +16716,27 @@
         <v>204</v>
       </c>
       <c r="K102" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L102" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M102" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N102" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O102" s="97"/>
       <c r="P102" s="97" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
     </row>
     <row r="103" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="132"/>
       <c r="C103" s="127"/>
       <c r="D103" s="155" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E103" s="128"/>
       <c r="F103" s="96"/>
@@ -16727,29 +16747,29 @@
         <v>204</v>
       </c>
       <c r="K103" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L103" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M103" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N103" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O103" s="97"/>
       <c r="P103" s="97" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
     </row>
     <row r="104" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="132" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C104" s="127"/>
       <c r="D104" s="155" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E104" s="128"/>
       <c r="F104" s="96"/>
@@ -16760,27 +16780,27 @@
         <v>204</v>
       </c>
       <c r="K104" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L104" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M104" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N104" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O104" s="97"/>
       <c r="P104" s="97" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="105" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="132"/>
       <c r="C105" s="127"/>
       <c r="D105" s="155" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E105" s="128"/>
       <c r="F105" s="96"/>
@@ -16791,27 +16811,27 @@
         <v>204</v>
       </c>
       <c r="K105" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L105" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M105" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N105" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O105" s="97"/>
       <c r="P105" s="97" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
     </row>
     <row r="106" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="132"/>
       <c r="C106" s="127"/>
       <c r="D106" s="155" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E106" s="128"/>
       <c r="F106" s="96"/>
@@ -16822,27 +16842,27 @@
         <v>204</v>
       </c>
       <c r="K106" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L106" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M106" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N106" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O106" s="97"/>
       <c r="P106" s="97" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
     </row>
     <row r="107" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="132"/>
       <c r="C107" s="127"/>
       <c r="D107" s="155" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E107" s="128"/>
       <c r="F107" s="96"/>
@@ -16853,29 +16873,29 @@
         <v>204</v>
       </c>
       <c r="K107" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L107" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M107" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N107" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O107" s="97"/>
       <c r="P107" s="97" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
     </row>
     <row r="108" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="132" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C108" s="127"/>
       <c r="D108" s="155" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E108" s="128"/>
       <c r="F108" s="96"/>
@@ -16886,27 +16906,27 @@
         <v>204</v>
       </c>
       <c r="K108" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L108" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M108" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N108" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O108" s="97"/>
       <c r="P108" s="97" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="132"/>
       <c r="C109" s="127"/>
       <c r="D109" s="155" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E109" s="128"/>
       <c r="F109" s="96"/>
@@ -16917,27 +16937,27 @@
         <v>204</v>
       </c>
       <c r="K109" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L109" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M109" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N109" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O109" s="97"/>
       <c r="P109" s="97" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
     </row>
     <row r="110" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="132"/>
       <c r="C110" s="127"/>
       <c r="D110" s="155" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E110" s="128"/>
       <c r="F110" s="96"/>
@@ -16948,29 +16968,29 @@
         <v>204</v>
       </c>
       <c r="K110" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L110" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M110" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N110" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O110" s="97"/>
       <c r="P110" s="97" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="132" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C111" s="127"/>
       <c r="D111" s="155" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E111" s="128"/>
       <c r="F111" s="96"/>
@@ -16981,27 +17001,27 @@
         <v>204</v>
       </c>
       <c r="K111" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L111" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M111" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N111" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O111" s="97"/>
       <c r="P111" s="97" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="132"/>
       <c r="C112" s="127"/>
       <c r="D112" s="155" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E112" s="128"/>
       <c r="F112" s="96"/>
@@ -17012,27 +17032,27 @@
         <v>204</v>
       </c>
       <c r="K112" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L112" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M112" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N112" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O112" s="97"/>
       <c r="P112" s="97" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
     </row>
     <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="132"/>
       <c r="C113" s="127"/>
       <c r="D113" s="155" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E113" s="128"/>
       <c r="F113" s="96"/>
@@ -17043,27 +17063,27 @@
         <v>204</v>
       </c>
       <c r="K113" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L113" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M113" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N113" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O113" s="97"/>
       <c r="P113" s="97" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
     </row>
     <row r="114" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="132"/>
       <c r="C114" s="127"/>
       <c r="D114" s="155" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E114" s="128"/>
       <c r="F114" s="96"/>
@@ -17074,29 +17094,29 @@
         <v>204</v>
       </c>
       <c r="K114" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L114" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M114" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N114" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O114" s="97"/>
       <c r="P114" s="97" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
     </row>
     <row r="115" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="132" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C115" s="127"/>
       <c r="D115" s="155" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E115" s="128"/>
       <c r="F115" s="96"/>
@@ -17107,27 +17127,27 @@
         <v>204</v>
       </c>
       <c r="K115" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L115" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M115" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N115" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O115" s="97"/>
       <c r="P115" s="97" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
     </row>
     <row r="116" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="132"/>
       <c r="C116" s="127"/>
       <c r="D116" s="155" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E116" s="128"/>
       <c r="F116" s="96"/>
@@ -17138,27 +17158,27 @@
         <v>204</v>
       </c>
       <c r="K116" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L116" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M116" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N116" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O116" s="97"/>
       <c r="P116" s="97" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="117" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="132"/>
       <c r="C117" s="127"/>
       <c r="D117" s="155" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E117" s="128"/>
       <c r="F117" s="96"/>
@@ -17169,27 +17189,27 @@
         <v>204</v>
       </c>
       <c r="K117" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L117" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M117" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N117" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O117" s="97"/>
       <c r="P117" s="97" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="118" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="132"/>
       <c r="C118" s="127"/>
       <c r="D118" s="155" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="E118" s="128"/>
       <c r="F118" s="96"/>
@@ -17200,29 +17220,29 @@
         <v>204</v>
       </c>
       <c r="K118" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L118" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M118" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N118" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O118" s="97"/>
       <c r="P118" s="97" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
     </row>
     <row r="119" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="132" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C119" s="127"/>
       <c r="D119" s="155" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E119" s="128"/>
       <c r="F119" s="96"/>
@@ -17233,27 +17253,27 @@
         <v>204</v>
       </c>
       <c r="K119" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L119" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M119" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N119" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O119" s="97"/>
       <c r="P119" s="97" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
     </row>
     <row r="120" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="132"/>
       <c r="C120" s="127"/>
       <c r="D120" s="155" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="E120" s="128"/>
       <c r="F120" s="96"/>
@@ -17264,29 +17284,29 @@
         <v>204</v>
       </c>
       <c r="K120" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L120" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M120" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N120" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O120" s="97"/>
       <c r="P120" s="97" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
     </row>
     <row r="121" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="132" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C121" s="127"/>
       <c r="D121" s="155" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="E121" s="128"/>
       <c r="F121" s="96"/>
@@ -17297,27 +17317,27 @@
         <v>204</v>
       </c>
       <c r="K121" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L121" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M121" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N121" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O121" s="97"/>
       <c r="P121" s="97" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="122" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="132"/>
       <c r="C122" s="127"/>
       <c r="D122" s="155" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E122" s="128"/>
       <c r="F122" s="96"/>
@@ -17328,29 +17348,29 @@
         <v>204</v>
       </c>
       <c r="K122" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L122" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M122" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N122" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O122" s="97"/>
       <c r="P122" s="97" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="123" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="132" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C123" s="99"/>
       <c r="D123" s="155" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E123" s="99"/>
       <c r="F123" s="96"/>
@@ -17361,27 +17381,27 @@
       </c>
       <c r="J123" s="97"/>
       <c r="K123" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L123" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M123" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N123" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O123" s="97"/>
       <c r="P123" s="97" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="124" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="132"/>
       <c r="C124" s="99"/>
       <c r="D124" s="155" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E124" s="99"/>
       <c r="F124" s="96"/>
@@ -17392,20 +17412,20 @@
       </c>
       <c r="J124" s="97"/>
       <c r="K124" s="96" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L124" s="96" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="M124" s="96" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="N124" s="96" t="s">
         <v>220</v>
       </c>
       <c r="O124" s="97"/>
       <c r="P124" s="97" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="125" spans="2:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17627,10 +17647,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK41"/>
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="31.5" x14ac:dyDescent="0.25"/>
@@ -17652,7 +17672,7 @@
   <sheetData>
     <row r="1" spans="2:16" s="32" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="K1" s="33" t="s">
         <v>472</v>
@@ -17728,12 +17748,12 @@
       <c r="O3" s="45"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
         <v>476</v>
       </c>
       <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="D4" s="185"/>
       <c r="E4" s="50"/>
       <c r="F4" s="51"/>
       <c r="G4" s="51"/>
@@ -17747,24 +17767,22 @@
       <c r="O4" s="48"/>
       <c r="P4" s="53"/>
     </row>
-    <row r="5" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="156" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="163" t="s">
-        <v>661</v>
-      </c>
-      <c r="D5" s="160" t="s">
-        <v>662</v>
+      <c r="C5" s="161"/>
+      <c r="D5" s="189" t="s">
+        <v>840</v>
       </c>
       <c r="E5" s="149"/>
       <c r="F5" s="94"/>
       <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="146" t="s">
-        <v>282</v>
-      </c>
-      <c r="J5" s="166"/>
+      <c r="H5" s="94" t="s">
+        <v>203</v>
+      </c>
+      <c r="I5" s="146"/>
+      <c r="J5" s="164"/>
       <c r="K5" s="149" t="s">
         <v>205</v>
       </c>
@@ -17773,27 +17791,29 @@
         <v>207</v>
       </c>
       <c r="N5" s="94" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O5" s="146"/>
       <c r="P5" s="60" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="157"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="161" t="s">
-        <v>664</v>
+      <c r="C6" s="183" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" s="160" t="s">
+        <v>846</v>
       </c>
       <c r="E6" s="128"/>
       <c r="F6" s="96"/>
       <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J6" s="164"/>
+      <c r="H6" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="127"/>
+      <c r="J6" s="162"/>
       <c r="K6" s="128" t="s">
         <v>205</v>
       </c>
@@ -17802,22 +17822,22 @@
         <v>207</v>
       </c>
       <c r="N6" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O6" s="127"/>
       <c r="P6" s="67" t="s">
-        <v>665</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="158" t="s">
-        <v>483</v>
-      </c>
-      <c r="C7" s="165" t="s">
-        <v>661</v>
-      </c>
-      <c r="D7" s="161" t="s">
-        <v>666</v>
+        <v>479</v>
+      </c>
+      <c r="C7" s="163" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" s="182" t="s">
+        <v>659</v>
       </c>
       <c r="E7" s="128"/>
       <c r="F7" s="96"/>
@@ -17826,7 +17846,7 @@
         <v>203</v>
       </c>
       <c r="I7" s="127"/>
-      <c r="J7" s="164"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="128" t="s">
         <v>205</v>
       </c>
@@ -17835,20 +17855,20 @@
         <v>207</v>
       </c>
       <c r="N7" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O7" s="127"/>
       <c r="P7" s="67" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="157"/>
-      <c r="C8" s="165">
+      <c r="C8" s="163">
         <v>2</v>
       </c>
-      <c r="D8" s="162" t="s">
-        <v>667</v>
+      <c r="D8" s="160" t="s">
+        <v>660</v>
       </c>
       <c r="E8" s="128"/>
       <c r="F8" s="96"/>
@@ -17857,29 +17877,29 @@
       <c r="I8" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J8" s="164"/>
+      <c r="J8" s="162"/>
       <c r="K8" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L8" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M8" s="96"/>
       <c r="N8" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O8" s="127"/>
       <c r="P8" s="67" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="157"/>
-      <c r="C9" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>706</v>
+      <c r="C9" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D9" s="160" t="s">
+        <v>694</v>
       </c>
       <c r="E9" s="128"/>
       <c r="F9" s="96"/>
@@ -17888,31 +17908,31 @@
       </c>
       <c r="H9" s="96"/>
       <c r="I9" s="127"/>
-      <c r="J9" s="164"/>
+      <c r="J9" s="162"/>
       <c r="K9" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L9" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M9" s="96"/>
       <c r="N9" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O9" s="127"/>
       <c r="P9" s="67" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="158" t="s">
-        <v>487</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D10" s="161" t="s">
-        <v>670</v>
+        <v>483</v>
+      </c>
+      <c r="C10" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D10" s="160" t="s">
+        <v>663</v>
       </c>
       <c r="E10" s="128"/>
       <c r="F10" s="96"/>
@@ -17921,31 +17941,31 @@
         <v>203</v>
       </c>
       <c r="I10" s="127"/>
-      <c r="J10" s="164"/>
+      <c r="J10" s="162"/>
       <c r="K10" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L10" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M10" s="96"/>
       <c r="N10" s="96" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="O10" s="127"/>
       <c r="P10" s="67" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="158" t="s">
-        <v>490</v>
-      </c>
-      <c r="C11" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>673</v>
+        <v>486</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D11" s="160" t="s">
+        <v>666</v>
       </c>
       <c r="E11" s="128"/>
       <c r="F11" s="96"/>
@@ -17954,31 +17974,31 @@
         <v>203</v>
       </c>
       <c r="I11" s="127"/>
-      <c r="J11" s="164"/>
+      <c r="J11" s="162"/>
       <c r="K11" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L11" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M11" s="96"/>
       <c r="N11" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O11" s="127"/>
       <c r="P11" s="67" t="s">
-        <v>674</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="158" t="s">
-        <v>493</v>
-      </c>
-      <c r="C12" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D12" s="162" t="s">
-        <v>675</v>
+        <v>489</v>
+      </c>
+      <c r="C12" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D12" s="160" t="s">
+        <v>667</v>
       </c>
       <c r="E12" s="128"/>
       <c r="F12" s="96"/>
@@ -17987,27 +18007,27 @@
       <c r="I12" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="164"/>
+      <c r="J12" s="162"/>
       <c r="K12" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L12" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M12" s="96"/>
       <c r="N12" s="96"/>
       <c r="O12" s="127"/>
       <c r="P12" s="67" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="157"/>
-      <c r="C13" s="165">
+      <c r="C13" s="163">
         <v>5</v>
       </c>
-      <c r="D13" s="162" t="s">
-        <v>677</v>
+      <c r="D13" s="160" t="s">
+        <v>669</v>
       </c>
       <c r="E13" s="128" t="s">
         <v>200</v>
@@ -18016,7 +18036,7 @@
       <c r="G13" s="96"/>
       <c r="H13" s="96"/>
       <c r="I13" s="127"/>
-      <c r="J13" s="164"/>
+      <c r="J13" s="162"/>
       <c r="K13" s="128" t="s">
         <v>205</v>
       </c>
@@ -18025,55 +18045,55 @@
         <v>207</v>
       </c>
       <c r="N13" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O13" s="127" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="P13" s="67" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="158" t="s">
-        <v>496</v>
-      </c>
-      <c r="C14" s="165">
+        <v>492</v>
+      </c>
+      <c r="C14" s="163">
         <v>2</v>
       </c>
-      <c r="D14" s="161" t="s">
-        <v>679</v>
+      <c r="D14" s="160" t="s">
+        <v>839</v>
       </c>
       <c r="E14" s="128"/>
       <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96" t="s">
-        <v>203</v>
-      </c>
+      <c r="G14" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="96"/>
       <c r="I14" s="127"/>
-      <c r="J14" s="164"/>
+      <c r="J14" s="162"/>
       <c r="K14" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L14" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M14" s="96"/>
       <c r="N14" s="96" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="O14" s="127"/>
       <c r="P14" s="67" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="157"/>
-      <c r="C15" s="165" t="s">
-        <v>682</v>
-      </c>
-      <c r="D15" s="162" t="s">
-        <v>683</v>
+      <c r="C15" s="163" t="s">
+        <v>674</v>
+      </c>
+      <c r="D15" s="160" t="s">
+        <v>675</v>
       </c>
       <c r="E15" s="128"/>
       <c r="F15" s="96"/>
@@ -18082,7 +18102,7 @@
       </c>
       <c r="H15" s="96"/>
       <c r="I15" s="127"/>
-      <c r="J15" s="164"/>
+      <c r="J15" s="162"/>
       <c r="K15" s="128" t="s">
         <v>205</v>
       </c>
@@ -18091,16 +18111,16 @@
       <c r="N15" s="96"/>
       <c r="O15" s="127"/>
       <c r="P15" s="67" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="157"/>
-      <c r="C16" s="165" t="s">
-        <v>682</v>
-      </c>
-      <c r="D16" s="162" t="s">
-        <v>685</v>
+      <c r="C16" s="163" t="s">
+        <v>674</v>
+      </c>
+      <c r="D16" s="160" t="s">
+        <v>677</v>
       </c>
       <c r="E16" s="128"/>
       <c r="F16" s="96"/>
@@ -18109,29 +18129,29 @@
       <c r="I16" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J16" s="164"/>
+      <c r="J16" s="162"/>
       <c r="K16" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L16" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M16" s="96"/>
       <c r="N16" s="96"/>
       <c r="O16" s="127"/>
       <c r="P16" s="67" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="158" t="s">
-        <v>499</v>
-      </c>
-      <c r="C17" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D17" s="162" t="s">
-        <v>687</v>
+        <v>495</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D17" s="160" t="s">
+        <v>679</v>
       </c>
       <c r="E17" s="128"/>
       <c r="F17" s="96"/>
@@ -18140,29 +18160,29 @@
       </c>
       <c r="H17" s="96"/>
       <c r="I17" s="127"/>
-      <c r="J17" s="164"/>
+      <c r="J17" s="162"/>
       <c r="K17" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L17" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M17" s="96"/>
       <c r="N17" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O17" s="127"/>
       <c r="P17" s="67" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="158" t="s">
-        <v>531</v>
-      </c>
-      <c r="C18" s="165"/>
+        <v>527</v>
+      </c>
+      <c r="C18" s="163"/>
       <c r="D18" s="155" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E18" s="128"/>
       <c r="F18" s="96"/>
@@ -18171,7 +18191,7 @@
       </c>
       <c r="H18" s="96"/>
       <c r="I18" s="127"/>
-      <c r="J18" s="164"/>
+      <c r="J18" s="162"/>
       <c r="K18" s="128" t="s">
         <v>205</v>
       </c>
@@ -18180,18 +18200,18 @@
         <v>207</v>
       </c>
       <c r="N18" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O18" s="127"/>
       <c r="P18" s="67" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="158"/>
-      <c r="C19" s="165"/>
+      <c r="C19" s="163"/>
       <c r="D19" s="155" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="E19" s="128"/>
       <c r="F19" s="96"/>
@@ -18200,7 +18220,7 @@
       </c>
       <c r="H19" s="96"/>
       <c r="I19" s="127"/>
-      <c r="J19" s="164"/>
+      <c r="J19" s="162"/>
       <c r="K19" s="128" t="s">
         <v>205</v>
       </c>
@@ -18209,31 +18229,31 @@
         <v>207</v>
       </c>
       <c r="N19" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O19" s="127"/>
       <c r="P19" s="67" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="158" t="s">
-        <v>534</v>
-      </c>
-      <c r="C20" s="165">
+        <v>530</v>
+      </c>
+      <c r="C20" s="163">
         <v>1</v>
       </c>
-      <c r="D20" s="161" t="s">
-        <v>693</v>
+      <c r="D20" s="160" t="s">
+        <v>671</v>
       </c>
       <c r="E20" s="128"/>
       <c r="F20" s="96"/>
       <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J20" s="164"/>
+      <c r="H20" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="127"/>
+      <c r="J20" s="162"/>
       <c r="K20" s="128" t="s">
         <v>205</v>
       </c>
@@ -18241,23 +18261,21 @@
       <c r="M20" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="96" t="s">
-        <v>663</v>
-      </c>
+      <c r="N20" s="96"/>
       <c r="O20" s="127"/>
       <c r="P20" s="67" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="158" t="s">
-        <v>695</v>
-      </c>
-      <c r="C21" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D21" s="161" t="s">
-        <v>696</v>
+        <v>686</v>
+      </c>
+      <c r="C21" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D21" s="160" t="s">
+        <v>687</v>
       </c>
       <c r="E21" s="128"/>
       <c r="F21" s="96"/>
@@ -18266,7 +18284,7 @@
       <c r="I21" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="J21" s="164"/>
+      <c r="J21" s="162"/>
       <c r="K21" s="128" t="s">
         <v>205</v>
       </c>
@@ -18275,31 +18293,31 @@
         <v>207</v>
       </c>
       <c r="N21" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O21" s="127"/>
       <c r="P21" s="67" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="158" t="s">
-        <v>698</v>
-      </c>
-      <c r="C22" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D22" s="162" t="s">
-        <v>699</v>
-      </c>
-      <c r="E22" s="128"/>
+        <v>689</v>
+      </c>
+      <c r="C22" s="163">
+        <v>2</v>
+      </c>
+      <c r="D22" s="160" t="s">
+        <v>690</v>
+      </c>
+      <c r="E22" s="128" t="s">
+        <v>200</v>
+      </c>
       <c r="F22" s="96"/>
       <c r="G22" s="96"/>
       <c r="H22" s="96"/>
-      <c r="I22" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J22" s="164"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="162"/>
       <c r="K22" s="128" t="s">
         <v>205</v>
       </c>
@@ -18308,31 +18326,29 @@
         <v>207</v>
       </c>
       <c r="N22" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O22" s="127"/>
       <c r="P22" s="67" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="27.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="158" t="s">
-        <v>701</v>
-      </c>
-      <c r="C23" s="165">
-        <v>2</v>
-      </c>
-      <c r="D23" s="162" t="s">
-        <v>702</v>
-      </c>
-      <c r="E23" s="128" t="s">
-        <v>200</v>
-      </c>
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="157"/>
+      <c r="C23" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D23" s="160" t="s">
+        <v>692</v>
+      </c>
+      <c r="E23" s="128"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="164"/>
+      <c r="I23" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="162"/>
       <c r="K23" s="128" t="s">
         <v>205</v>
       </c>
@@ -18341,29 +18357,31 @@
         <v>207</v>
       </c>
       <c r="N23" s="96" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="O23" s="127"/>
       <c r="P23" s="67" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="157"/>
-      <c r="C24" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D24" s="162" t="s">
-        <v>704</v>
+        <v>693</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="157" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="163">
+        <v>1</v>
+      </c>
+      <c r="D24" s="160" t="s">
+        <v>699</v>
       </c>
       <c r="E24" s="128"/>
       <c r="F24" s="96"/>
       <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J24" s="164"/>
+      <c r="H24" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="127"/>
+      <c r="J24" s="162"/>
       <c r="K24" s="128" t="s">
         <v>205</v>
       </c>
@@ -18371,32 +18389,30 @@
       <c r="M24" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="N24" s="96" t="s">
-        <v>663</v>
-      </c>
+      <c r="N24" s="96"/>
       <c r="O24" s="127"/>
       <c r="P24" s="67" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="157" t="s">
-        <v>707</v>
-      </c>
-      <c r="C25" s="165">
-        <v>1</v>
-      </c>
-      <c r="D25" s="161" t="s">
-        <v>708</v>
+        <v>696</v>
+      </c>
+      <c r="C25" s="163" t="s">
+        <v>661</v>
+      </c>
+      <c r="D25" s="160" t="s">
+        <v>697</v>
       </c>
       <c r="E25" s="128"/>
       <c r="F25" s="96"/>
       <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J25" s="164"/>
+      <c r="H25" s="96" t="s">
+        <v>203</v>
+      </c>
+      <c r="I25" s="127"/>
+      <c r="J25" s="162"/>
       <c r="K25" s="128" t="s">
         <v>205</v>
       </c>
@@ -18404,87 +18420,83 @@
       <c r="M25" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="N25" s="96" t="s">
-        <v>709</v>
-      </c>
+      <c r="N25" s="96"/>
       <c r="O25" s="127"/>
       <c r="P25" s="67" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="157" t="s">
-        <v>711</v>
-      </c>
-      <c r="C26" s="165" t="s">
-        <v>668</v>
-      </c>
-      <c r="D26" s="161" t="s">
-        <v>712</v>
+        <v>698</v>
+      </c>
+      <c r="C26" s="162"/>
+      <c r="D26" s="160" t="s">
+        <v>842</v>
       </c>
       <c r="E26" s="128"/>
       <c r="F26" s="96"/>
       <c r="G26" s="96"/>
-      <c r="H26" s="96" t="s">
-        <v>203</v>
-      </c>
-      <c r="I26" s="127"/>
-      <c r="J26" s="164"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="J26" s="110"/>
       <c r="K26" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96" t="s">
-        <v>207</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="L26" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="M26" s="96"/>
       <c r="N26" s="96"/>
       <c r="O26" s="127"/>
       <c r="P26" s="67" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="157" t="s">
-        <v>714</v>
-      </c>
-      <c r="C27" s="164"/>
-      <c r="D27" s="161" t="s">
-        <v>715</v>
+        <v>701</v>
+      </c>
+      <c r="C27" s="162"/>
+      <c r="D27" s="155" t="s">
+        <v>702</v>
       </c>
       <c r="E27" s="128"/>
       <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96" t="s">
-        <v>203</v>
-      </c>
+      <c r="G27" s="96" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="96"/>
       <c r="I27" s="127"/>
       <c r="J27" s="110"/>
       <c r="K27" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L27" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M27" s="96"/>
       <c r="N27" s="96"/>
       <c r="O27" s="127"/>
       <c r="P27" s="67" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="157" t="s">
-        <v>717</v>
-      </c>
-      <c r="C28" s="164"/>
-      <c r="D28" s="155" t="s">
-        <v>718</v>
-      </c>
-      <c r="E28" s="128"/>
+        <v>704</v>
+      </c>
+      <c r="C28" s="162"/>
+      <c r="D28" s="160" t="s">
+        <v>705</v>
+      </c>
+      <c r="E28" s="128" t="s">
+        <v>200</v>
+      </c>
       <c r="F28" s="96"/>
-      <c r="G28" s="96" t="s">
-        <v>202</v>
-      </c>
+      <c r="G28" s="96"/>
       <c r="H28" s="96"/>
       <c r="I28" s="127"/>
       <c r="J28" s="110"/>
@@ -18492,22 +18504,22 @@
         <v>289</v>
       </c>
       <c r="L28" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M28" s="96"/>
       <c r="N28" s="96"/>
       <c r="O28" s="127"/>
       <c r="P28" s="67" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="157" t="s">
-        <v>720</v>
-      </c>
-      <c r="C29" s="164"/>
-      <c r="D29" s="162" t="s">
-        <v>721</v>
+        <v>706</v>
+      </c>
+      <c r="C29" s="162"/>
+      <c r="D29" s="160" t="s">
+        <v>707</v>
       </c>
       <c r="E29" s="128" t="s">
         <v>200</v>
@@ -18521,28 +18533,28 @@
         <v>289</v>
       </c>
       <c r="L29" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M29" s="96"/>
       <c r="N29" s="96"/>
       <c r="O29" s="127"/>
       <c r="P29" s="67" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="157" t="s">
-        <v>722</v>
-      </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="162" t="s">
-        <v>723</v>
-      </c>
-      <c r="E30" s="128" t="s">
-        <v>200</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="C30" s="162"/>
+      <c r="D30" s="155" t="s">
+        <v>713</v>
+      </c>
+      <c r="E30" s="128"/>
       <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
+      <c r="G30" s="96" t="s">
+        <v>202</v>
+      </c>
       <c r="H30" s="96"/>
       <c r="I30" s="127"/>
       <c r="J30" s="110"/>
@@ -18550,72 +18562,60 @@
         <v>289</v>
       </c>
       <c r="L30" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M30" s="96"/>
       <c r="N30" s="96"/>
       <c r="O30" s="127"/>
       <c r="P30" s="67" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="157" t="s">
-        <v>725</v>
-      </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="155" t="s">
-        <v>729</v>
+        <v>712</v>
+      </c>
+      <c r="C31" s="163"/>
+      <c r="D31" s="160" t="s">
+        <v>715</v>
       </c>
       <c r="E31" s="128"/>
       <c r="F31" s="96"/>
-      <c r="G31" s="96" t="s">
-        <v>202</v>
-      </c>
+      <c r="G31" s="96"/>
       <c r="H31" s="96"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="110"/>
+      <c r="I31" s="127" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" s="162"/>
       <c r="K31" s="128" t="s">
         <v>289</v>
       </c>
       <c r="L31" s="96" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M31" s="96"/>
       <c r="N31" s="96"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="67" t="s">
-        <v>730</v>
+      <c r="O31" s="137"/>
+      <c r="P31" s="113" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="157" t="s">
-        <v>728</v>
-      </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="162" t="s">
-        <v>731</v>
-      </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="127" t="s">
-        <v>282</v>
-      </c>
-      <c r="J32" s="164"/>
-      <c r="K32" s="128" t="s">
-        <v>289</v>
-      </c>
-      <c r="L32" s="96" t="s">
-        <v>485</v>
-      </c>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="137"/>
-      <c r="P32" s="113" t="s">
-        <v>732</v>
-      </c>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="113"/>
     </row>
     <row r="33" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="106"/>
@@ -18670,84 +18670,84 @@
     </row>
     <row r="36" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="106"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="159"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
-      <c r="O36" s="112"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="114"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="139"/>
       <c r="P36" s="113"/>
     </row>
     <row r="37" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="106"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="139"/>
-      <c r="P37" s="113"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="121"/>
+      <c r="P37" s="122"/>
     </row>
     <row r="38" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="116"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="119"/>
-      <c r="F38" s="119"/>
-      <c r="G38" s="119"/>
-      <c r="H38" s="119"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="119"/>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120"/>
-      <c r="M38" s="119"/>
-      <c r="N38" s="119"/>
-      <c r="O38" s="121"/>
-      <c r="P38" s="122"/>
+      <c r="B38" s="78"/>
+      <c r="C38" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D38" s="87"/>
+      <c r="E38" s="88">
+        <f>COUNTA(E5:E36)</f>
+        <v>4</v>
+      </c>
+      <c r="F38" s="88">
+        <f>COUNTA(F5:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="88">
+        <f>COUNTA(G5:G37)</f>
+        <v>8</v>
+      </c>
+      <c r="H38" s="88">
+        <f>COUNTA(H5:H37)</f>
+        <v>8</v>
+      </c>
+      <c r="I38" s="88">
+        <f>COUNTA(I5:I37)</f>
+        <v>7</v>
+      </c>
+      <c r="J38" s="88">
+        <v>0</v>
+      </c>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
     </row>
     <row r="39" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78"/>
-      <c r="C39" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="88">
-        <f>COUNTA(E5:E37)</f>
-        <v>4</v>
-      </c>
-      <c r="F39" s="88">
-        <f>COUNTA(F5:F38)</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="88">
-        <f>COUNTA(G5:G38)</f>
-        <v>7</v>
-      </c>
-      <c r="H39" s="88">
-        <f>COUNTA(H5:H38)</f>
-        <v>6</v>
-      </c>
-      <c r="I39" s="88">
-        <f>COUNTA(I5:I38)</f>
-        <v>11</v>
-      </c>
-      <c r="J39" s="88">
-        <v>0</v>
-      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
       <c r="K39" s="71"/>
       <c r="L39" s="71"/>
       <c r="M39" s="71"/>
@@ -18757,42 +18757,25 @@
     </row>
     <row r="40" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="73"/>
-      <c r="C40" s="87"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="K40" s="91">
+        <f>COUNTA(E5:I37)</f>
+        <v>27</v>
+      </c>
       <c r="L40" s="71"/>
       <c r="M40" s="71"/>
       <c r="N40" s="73"/>
       <c r="O40" s="73"/>
       <c r="P40" s="73"/>
-    </row>
-    <row r="41" spans="2:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="90" t="s">
-        <v>362</v>
-      </c>
-      <c r="K41" s="91">
-        <f>COUNTA(E5:I38)</f>
-        <v>28</v>
-      </c>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18802,19 +18785,29 @@
     <hyperlink ref="D17" r:id="rId4" location="'Metadatos H'!B13"/>
     <hyperlink ref="D18" r:id="rId5" location="'Metadatos H'!B11"/>
     <hyperlink ref="D19" r:id="rId6" location="'Metadatos H'!B12"/>
-    <hyperlink ref="D23" r:id="rId7" location="'Metadatos M'!B4"/>
-    <hyperlink ref="D24" r:id="rId8" location="'Metadatos D'!B5"/>
-    <hyperlink ref="D28" r:id="rId9" location="'Metadatos H'!B10"/>
-    <hyperlink ref="D29" r:id="rId10" location="'Metadatos M'!B5"/>
-    <hyperlink ref="D30" r:id="rId11" location="'Metadatos M'!B6"/>
-    <hyperlink ref="D31" r:id="rId12" location="'Metadatos H'!B9"/>
-    <hyperlink ref="D32" r:id="rId13" location="'Metadatos D'!B6"/>
+    <hyperlink ref="D22" r:id="rId7" location="'Metadatos M'!B4"/>
+    <hyperlink ref="D23" r:id="rId8" location="'Metadatos D'!B5"/>
+    <hyperlink ref="D27" r:id="rId9" location="'Metadatos H'!B10"/>
+    <hyperlink ref="D28" r:id="rId10" location="'Metadatos M'!B5"/>
+    <hyperlink ref="D29" r:id="rId11" location="'Metadatos M'!B6"/>
+    <hyperlink ref="D30" r:id="rId12" location="'Metadatos H'!B9"/>
+    <hyperlink ref="D31" r:id="rId13" location="'Metadatos D'!B6"/>
     <hyperlink ref="D13" r:id="rId14" location="'Metadatos M'!B11"/>
     <hyperlink ref="D12" r:id="rId15" location="'Metadatos D'!B8"/>
-    <hyperlink ref="D22" r:id="rId16" location="'Metadatos D'!B9"/>
+    <hyperlink ref="D21" r:id="rId16" location="'Metadatos D'!B9"/>
     <hyperlink ref="D8" r:id="rId17" location="'Metadatos D'!B10"/>
+    <hyperlink ref="D7" r:id="rId18" location="'Metadatos F'!B4"/>
+    <hyperlink ref="D10" r:id="rId19" location="'Metadatos F'!B5"/>
+    <hyperlink ref="D11" r:id="rId20" location="'Metadatos F'!B6"/>
+    <hyperlink ref="D24" r:id="rId21" location="'Metadatos F'!B10"/>
+    <hyperlink ref="D20" r:id="rId22" location="'Metadatos F'!B11"/>
+    <hyperlink ref="D25" r:id="rId23" location="'Metadatos F'!B12"/>
+    <hyperlink ref="D5" r:id="rId24" location="'Metadatos F'!B13"/>
+    <hyperlink ref="D6" r:id="rId25" location="'Metadatos F'!B14"/>
+    <hyperlink ref="D14" r:id="rId26" location="'Metadatos H'!B45"/>
+    <hyperlink ref="D26" r:id="rId27" location="'Metadatos D'!B11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId18"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId28"/>
 </worksheet>
 </file>